--- a/converted_files/834/834-all-fields.xlsx
+++ b/converted_files/834/834-all-fields.xlsx
@@ -59,7 +59,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:FE5"/>
+  <dimension ref="A1:IK5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -293,74 +293,74 @@
       </c>
       <c r="AT1" s="3" t="inlineStr">
         <is>
+          <t>SubscriberEntityRole</t>
+        </is>
+      </c>
+      <c r="AU1" s="3" t="inlineStr">
+        <is>
           <t>SubscriberIdentificationType</t>
         </is>
       </c>
-      <c r="AU1" s="3" t="inlineStr">
+      <c r="AV1" s="3" t="inlineStr">
         <is>
           <t>SubscriberIdentifier</t>
         </is>
       </c>
-      <c r="AV1" s="3" t="inlineStr">
+      <c r="AW1" s="3" t="inlineStr">
         <is>
           <t>SubscriberTaxId</t>
         </is>
       </c>
-      <c r="AW1" s="3" t="inlineStr">
+      <c r="AX1" s="3" t="inlineStr">
         <is>
           <t>SubscriberLastName</t>
         </is>
       </c>
-      <c r="AX1" s="3" t="inlineStr">
+      <c r="AY1" s="3" t="inlineStr">
         <is>
           <t>SubscriberFirstName</t>
         </is>
       </c>
-      <c r="AY1" s="3" t="inlineStr">
+      <c r="AZ1" s="3" t="inlineStr">
         <is>
           <t>SubscriberMiddleName</t>
         </is>
       </c>
-      <c r="AZ1" s="3" t="inlineStr">
+      <c r="BA1" s="3" t="inlineStr">
         <is>
           <t>SubscriberBirthDate</t>
         </is>
       </c>
-      <c r="BA1" s="3" t="inlineStr">
+      <c r="BB1" s="3" t="inlineStr">
         <is>
           <t>SubscriberGender</t>
         </is>
       </c>
-      <c r="BB1" s="3" t="inlineStr">
+      <c r="BC1" s="3" t="inlineStr">
         <is>
           <t>SubscriberAddressLine</t>
         </is>
       </c>
-      <c r="BC1" s="3" t="inlineStr">
+      <c r="BD1" s="3" t="inlineStr">
         <is>
           <t>SubscriberAddressLine2</t>
         </is>
       </c>
-      <c r="BD1" s="3" t="inlineStr">
+      <c r="BE1" s="3" t="inlineStr">
         <is>
           <t>SubscriberAddressCity</t>
         </is>
       </c>
-      <c r="BE1" s="3" t="inlineStr">
+      <c r="BF1" s="3" t="inlineStr">
         <is>
           <t>SubscriberAddressStateCode</t>
         </is>
       </c>
-      <c r="BF1" s="3" t="inlineStr">
+      <c r="BG1" s="3" t="inlineStr">
         <is>
           <t>SubscriberAddressZipCode</t>
         </is>
       </c>
-      <c r="BG1" s="3" t="inlineStr">
-        <is>
-          <t>SubscriberChangeReason</t>
-        </is>
-      </c>
       <c r="BH1" s="3" t="inlineStr">
         <is>
           <t>SubscriberContactContactNumber1Type</t>
@@ -473,409 +473,829 @@
       </c>
       <c r="CD1" s="3" t="inlineStr">
         <is>
+          <t>Employer1MiddleName</t>
+        </is>
+      </c>
+      <c r="CE1" s="3" t="inlineStr">
+        <is>
+          <t>Employer1AddressLine</t>
+        </is>
+      </c>
+      <c r="CF1" s="3" t="inlineStr">
+        <is>
+          <t>Employer1AddressLine2</t>
+        </is>
+      </c>
+      <c r="CG1" s="3" t="inlineStr">
+        <is>
+          <t>Employer1AddressCity</t>
+        </is>
+      </c>
+      <c r="CH1" s="3" t="inlineStr">
+        <is>
+          <t>Employer1AddressStateCode</t>
+        </is>
+      </c>
+      <c r="CI1" s="3" t="inlineStr">
+        <is>
+          <t>Employer1AddressZipCode</t>
+        </is>
+      </c>
+      <c r="CJ1" s="3" t="inlineStr">
+        <is>
           <t>Employer1ContactContactNumber1Type</t>
         </is>
       </c>
-      <c r="CE1" s="3" t="inlineStr">
+      <c r="CK1" s="3" t="inlineStr">
         <is>
           <t>Employer1ContactContactNumber1Number</t>
         </is>
       </c>
-      <c r="CF1" s="3" t="inlineStr">
+      <c r="CL1" s="3" t="inlineStr">
         <is>
           <t>Employer1ContactContactNumber2Type</t>
         </is>
       </c>
-      <c r="CG1" s="3" t="inlineStr">
+      <c r="CM1" s="3" t="inlineStr">
         <is>
           <t>Employer1ContactContactNumber2Number</t>
         </is>
       </c>
-      <c r="CH1" s="3" t="inlineStr">
+      <c r="CN1" s="3" t="inlineStr">
         <is>
           <t>Employer2Identifier</t>
         </is>
       </c>
-      <c r="CI1" s="3" t="inlineStr">
+      <c r="CO1" s="3" t="inlineStr">
         <is>
           <t>Employer2LastNameOrOrgName</t>
         </is>
       </c>
-      <c r="CJ1" s="3" t="inlineStr">
+      <c r="CP1" s="3" t="inlineStr">
         <is>
           <t>Employer2FirstName</t>
         </is>
       </c>
-      <c r="CK1" s="3" t="inlineStr">
+      <c r="CQ1" s="3" t="inlineStr">
+        <is>
+          <t>Employer2MiddleName</t>
+        </is>
+      </c>
+      <c r="CR1" s="3" t="inlineStr">
+        <is>
+          <t>Employer2AddressLine</t>
+        </is>
+      </c>
+      <c r="CS1" s="3" t="inlineStr">
+        <is>
+          <t>Employer2AddressLine2</t>
+        </is>
+      </c>
+      <c r="CT1" s="3" t="inlineStr">
+        <is>
+          <t>Employer2AddressCity</t>
+        </is>
+      </c>
+      <c r="CU1" s="3" t="inlineStr">
+        <is>
+          <t>Employer2AddressStateCode</t>
+        </is>
+      </c>
+      <c r="CV1" s="3" t="inlineStr">
+        <is>
+          <t>Employer2AddressZipCode</t>
+        </is>
+      </c>
+      <c r="CW1" s="3" t="inlineStr">
         <is>
           <t>Employer2ContactContactNumber1Type</t>
         </is>
       </c>
-      <c r="CL1" s="3" t="inlineStr">
+      <c r="CX1" s="3" t="inlineStr">
         <is>
           <t>Employer2ContactContactNumber1Number</t>
         </is>
       </c>
-      <c r="CM1" s="3" t="inlineStr">
+      <c r="CY1" s="3" t="inlineStr">
         <is>
           <t>Employer2ContactContactNumber2Type</t>
         </is>
       </c>
-      <c r="CN1" s="3" t="inlineStr">
+      <c r="CZ1" s="3" t="inlineStr">
         <is>
           <t>Employer2ContactContactNumber2Number</t>
         </is>
       </c>
-      <c r="CO1" s="3" t="inlineStr">
+      <c r="DA1" s="3" t="inlineStr">
         <is>
           <t>Employer3Identifier</t>
         </is>
       </c>
-      <c r="CP1" s="3" t="inlineStr">
+      <c r="DB1" s="3" t="inlineStr">
         <is>
           <t>Employer3LastNameOrOrgName</t>
         </is>
       </c>
-      <c r="CQ1" s="3" t="inlineStr">
+      <c r="DC1" s="3" t="inlineStr">
         <is>
           <t>Employer3FirstName</t>
         </is>
       </c>
-      <c r="CR1" s="3" t="inlineStr">
+      <c r="DD1" s="3" t="inlineStr">
+        <is>
+          <t>Employer3MiddleName</t>
+        </is>
+      </c>
+      <c r="DE1" s="3" t="inlineStr">
+        <is>
+          <t>Employer3AddressLine</t>
+        </is>
+      </c>
+      <c r="DF1" s="3" t="inlineStr">
+        <is>
+          <t>Employer3AddressLine2</t>
+        </is>
+      </c>
+      <c r="DG1" s="3" t="inlineStr">
+        <is>
+          <t>Employer3AddressCity</t>
+        </is>
+      </c>
+      <c r="DH1" s="3" t="inlineStr">
+        <is>
+          <t>Employer3AddressStateCode</t>
+        </is>
+      </c>
+      <c r="DI1" s="3" t="inlineStr">
+        <is>
+          <t>Employer3AddressZipCode</t>
+        </is>
+      </c>
+      <c r="DJ1" s="3" t="inlineStr">
         <is>
           <t>Employer3ContactContactNumber1Type</t>
         </is>
       </c>
-      <c r="CS1" s="3" t="inlineStr">
+      <c r="DK1" s="3" t="inlineStr">
         <is>
           <t>Employer3ContactContactNumber1Number</t>
         </is>
       </c>
-      <c r="CT1" s="3" t="inlineStr">
+      <c r="DL1" s="3" t="inlineStr">
         <is>
           <t>Employer3ContactContactNumber2Type</t>
         </is>
       </c>
-      <c r="CU1" s="3" t="inlineStr">
+      <c r="DM1" s="3" t="inlineStr">
         <is>
           <t>Employer3ContactContactNumber2Number</t>
         </is>
       </c>
-      <c r="CV1" s="3" t="inlineStr">
+      <c r="DN1" s="3" t="inlineStr">
+        <is>
+          <t>ResponsiblePerson1EntityRole</t>
+        </is>
+      </c>
+      <c r="DO1" s="3" t="inlineStr">
+        <is>
+          <t>ResponsiblePerson1Identifier</t>
+        </is>
+      </c>
+      <c r="DP1" s="3" t="inlineStr">
+        <is>
+          <t>ResponsiblePerson1LastNameOrOrgName</t>
+        </is>
+      </c>
+      <c r="DQ1" s="3" t="inlineStr">
+        <is>
+          <t>ResponsiblePerson1FirstName</t>
+        </is>
+      </c>
+      <c r="DR1" s="3" t="inlineStr">
+        <is>
+          <t>ResponsiblePerson1MiddleName</t>
+        </is>
+      </c>
+      <c r="DS1" s="3" t="inlineStr">
+        <is>
+          <t>ResponsiblePerson1AddressLine</t>
+        </is>
+      </c>
+      <c r="DT1" s="3" t="inlineStr">
+        <is>
+          <t>ResponsiblePerson1AddressLine2</t>
+        </is>
+      </c>
+      <c r="DU1" s="3" t="inlineStr">
+        <is>
+          <t>ResponsiblePerson1AddressCity</t>
+        </is>
+      </c>
+      <c r="DV1" s="3" t="inlineStr">
+        <is>
+          <t>ResponsiblePerson1AddressStateCode</t>
+        </is>
+      </c>
+      <c r="DW1" s="3" t="inlineStr">
+        <is>
+          <t>ResponsiblePerson1AddressZipCode</t>
+        </is>
+      </c>
+      <c r="DX1" s="3" t="inlineStr">
+        <is>
+          <t>ResponsiblePerson1ContactContactNumber1Type</t>
+        </is>
+      </c>
+      <c r="DY1" s="3" t="inlineStr">
+        <is>
+          <t>ResponsiblePerson1ContactContactNumber1Number</t>
+        </is>
+      </c>
+      <c r="DZ1" s="3" t="inlineStr">
+        <is>
+          <t>ResponsiblePerson1ContactContactNumber2Type</t>
+        </is>
+      </c>
+      <c r="EA1" s="3" t="inlineStr">
+        <is>
+          <t>ResponsiblePerson1ContactContactNumber2Number</t>
+        </is>
+      </c>
+      <c r="EB1" s="3" t="inlineStr">
+        <is>
+          <t>ResponsiblePerson2EntityRole</t>
+        </is>
+      </c>
+      <c r="EC1" s="3" t="inlineStr">
+        <is>
+          <t>ResponsiblePerson2Identifier</t>
+        </is>
+      </c>
+      <c r="ED1" s="3" t="inlineStr">
+        <is>
+          <t>ResponsiblePerson2LastNameOrOrgName</t>
+        </is>
+      </c>
+      <c r="EE1" s="3" t="inlineStr">
+        <is>
+          <t>ResponsiblePerson2FirstName</t>
+        </is>
+      </c>
+      <c r="EF1" s="3" t="inlineStr">
+        <is>
+          <t>ResponsiblePerson2MiddleName</t>
+        </is>
+      </c>
+      <c r="EG1" s="3" t="inlineStr">
+        <is>
+          <t>ResponsiblePerson2AddressLine</t>
+        </is>
+      </c>
+      <c r="EH1" s="3" t="inlineStr">
+        <is>
+          <t>ResponsiblePerson2AddressLine2</t>
+        </is>
+      </c>
+      <c r="EI1" s="3" t="inlineStr">
+        <is>
+          <t>ResponsiblePerson2AddressCity</t>
+        </is>
+      </c>
+      <c r="EJ1" s="3" t="inlineStr">
+        <is>
+          <t>ResponsiblePerson2AddressStateCode</t>
+        </is>
+      </c>
+      <c r="EK1" s="3" t="inlineStr">
+        <is>
+          <t>ResponsiblePerson2AddressZipCode</t>
+        </is>
+      </c>
+      <c r="EL1" s="3" t="inlineStr">
+        <is>
+          <t>ResponsiblePerson2ContactContactNumber1Type</t>
+        </is>
+      </c>
+      <c r="EM1" s="3" t="inlineStr">
+        <is>
+          <t>ResponsiblePerson2ContactContactNumber1Number</t>
+        </is>
+      </c>
+      <c r="EN1" s="3" t="inlineStr">
+        <is>
+          <t>ResponsiblePerson2ContactContactNumber2Type</t>
+        </is>
+      </c>
+      <c r="EO1" s="3" t="inlineStr">
+        <is>
+          <t>ResponsiblePerson2ContactContactNumber2Number</t>
+        </is>
+      </c>
+      <c r="EP1" s="3" t="inlineStr">
+        <is>
+          <t>ResponsiblePerson3EntityRole</t>
+        </is>
+      </c>
+      <c r="EQ1" s="3" t="inlineStr">
+        <is>
+          <t>ResponsiblePerson3Identifier</t>
+        </is>
+      </c>
+      <c r="ER1" s="3" t="inlineStr">
+        <is>
+          <t>ResponsiblePerson3LastNameOrOrgName</t>
+        </is>
+      </c>
+      <c r="ES1" s="3" t="inlineStr">
+        <is>
+          <t>ResponsiblePerson3FirstName</t>
+        </is>
+      </c>
+      <c r="ET1" s="3" t="inlineStr">
+        <is>
+          <t>ResponsiblePerson3MiddleName</t>
+        </is>
+      </c>
+      <c r="EU1" s="3" t="inlineStr">
+        <is>
+          <t>ResponsiblePerson3AddressLine</t>
+        </is>
+      </c>
+      <c r="EV1" s="3" t="inlineStr">
+        <is>
+          <t>ResponsiblePerson3AddressLine2</t>
+        </is>
+      </c>
+      <c r="EW1" s="3" t="inlineStr">
+        <is>
+          <t>ResponsiblePerson3AddressCity</t>
+        </is>
+      </c>
+      <c r="EX1" s="3" t="inlineStr">
+        <is>
+          <t>ResponsiblePerson3AddressStateCode</t>
+        </is>
+      </c>
+      <c r="EY1" s="3" t="inlineStr">
+        <is>
+          <t>ResponsiblePerson3AddressZipCode</t>
+        </is>
+      </c>
+      <c r="EZ1" s="3" t="inlineStr">
+        <is>
+          <t>ResponsiblePerson3ContactContactNumber1Type</t>
+        </is>
+      </c>
+      <c r="FA1" s="3" t="inlineStr">
+        <is>
+          <t>ResponsiblePerson3ContactContactNumber1Number</t>
+        </is>
+      </c>
+      <c r="FB1" s="3" t="inlineStr">
+        <is>
+          <t>ResponsiblePerson3ContactContactNumber2Type</t>
+        </is>
+      </c>
+      <c r="FC1" s="3" t="inlineStr">
+        <is>
+          <t>ResponsiblePerson3ContactContactNumber2Number</t>
+        </is>
+      </c>
+      <c r="FD1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageMaintenanceTypeCode</t>
         </is>
       </c>
-      <c r="CW1" s="3" t="inlineStr">
+      <c r="FE1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageInsuranceLineCode</t>
         </is>
       </c>
-      <c r="CX1" s="3" t="inlineStr">
+      <c r="FF1" s="3" t="inlineStr">
         <is>
           <t>HealthCoveragePlanDescription</t>
         </is>
       </c>
-      <c r="CY1" s="3" t="inlineStr">
+      <c r="FG1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageCoverageLevelCode</t>
         </is>
       </c>
-      <c r="CZ1" s="3" t="inlineStr">
+      <c r="FH1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageLateEnrollmentIndicator</t>
         </is>
       </c>
-      <c r="DA1" s="3" t="inlineStr">
+      <c r="FI1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageCoverageDate1QualifierCode</t>
         </is>
       </c>
-      <c r="DB1" s="3" t="inlineStr">
+      <c r="FJ1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageCoverageDate1Date</t>
         </is>
       </c>
-      <c r="DC1" s="3" t="inlineStr">
+      <c r="FK1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageCoverageDate2QualifierCode</t>
         </is>
       </c>
-      <c r="DD1" s="3" t="inlineStr">
+      <c r="FL1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageCoverageDate2Date</t>
         </is>
       </c>
-      <c r="DE1" s="3" t="inlineStr">
+      <c r="FM1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageCoverageDate3QualifierCode</t>
         </is>
       </c>
-      <c r="DF1" s="3" t="inlineStr">
+      <c r="FN1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageCoverageDate3Date</t>
         </is>
       </c>
-      <c r="DG1" s="3" t="inlineStr">
+      <c r="FO1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageCoverageDate4QualifierCode</t>
         </is>
       </c>
-      <c r="DH1" s="3" t="inlineStr">
+      <c r="FP1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageCoverageDate4Date</t>
         </is>
       </c>
-      <c r="DI1" s="3" t="inlineStr">
+      <c r="FQ1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageCoverageDate5QualifierCode</t>
         </is>
       </c>
-      <c r="DJ1" s="3" t="inlineStr">
+      <c r="FR1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageCoverageDate5Date</t>
         </is>
       </c>
-      <c r="DK1" s="3" t="inlineStr">
+      <c r="FS1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageContractAmount1QualifierCode</t>
         </is>
       </c>
-      <c r="DL1" s="3" t="inlineStr">
+      <c r="FT1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageContractAmount1Amount</t>
         </is>
       </c>
-      <c r="DM1" s="3" t="inlineStr">
+      <c r="FU1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageContractAmount2QualifierCode</t>
         </is>
       </c>
-      <c r="DN1" s="3" t="inlineStr">
+      <c r="FV1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageContractAmount2Amount</t>
         </is>
       </c>
-      <c r="DO1" s="3" t="inlineStr">
+      <c r="FW1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageContractAmount3QualifierCode</t>
         </is>
       </c>
-      <c r="DP1" s="3" t="inlineStr">
+      <c r="FX1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageContractAmount3Amount</t>
         </is>
       </c>
-      <c r="DQ1" s="3" t="inlineStr">
+      <c r="FY1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageGroupOrPolicyNumber1QualifierCode</t>
         </is>
       </c>
-      <c r="DR1" s="3" t="inlineStr">
+      <c r="FZ1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageGroupOrPolicyNumber1Identification</t>
         </is>
       </c>
-      <c r="DS1" s="3" t="inlineStr">
+      <c r="GA1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageGroupOrPolicyNumber2QualifierCode</t>
         </is>
       </c>
-      <c r="DT1" s="3" t="inlineStr">
+      <c r="GB1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageGroupOrPolicyNumber2Identification</t>
         </is>
       </c>
-      <c r="DU1" s="3" t="inlineStr">
+      <c r="GC1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageGroupOrPolicyNumber3QualifierCode</t>
         </is>
       </c>
-      <c r="DV1" s="3" t="inlineStr">
+      <c r="GD1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageGroupOrPolicyNumber3Identification</t>
         </is>
       </c>
-      <c r="DW1" s="3" t="inlineStr">
+      <c r="GE1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageGroupOrPolicyNumber4QualifierCode</t>
         </is>
       </c>
-      <c r="DX1" s="3" t="inlineStr">
+      <c r="GF1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageGroupOrPolicyNumber4Identification</t>
         </is>
       </c>
-      <c r="DY1" s="3" t="inlineStr">
+      <c r="GG1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageGroupOrPolicyNumber5QualifierCode</t>
         </is>
       </c>
-      <c r="DZ1" s="3" t="inlineStr">
+      <c r="GH1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageGroupOrPolicyNumber5Identification</t>
         </is>
       </c>
-      <c r="EA1" s="3" t="inlineStr">
+      <c r="GI1" s="3" t="inlineStr">
         <is>
           <t>HealthCoveragePriorCoverageMonthCount</t>
         </is>
       </c>
-      <c r="EB1" s="3" t="inlineStr">
+      <c r="GJ1" s="3" t="inlineStr">
+        <is>
+          <t>HealthCoverageProvider1EntityRole</t>
+        </is>
+      </c>
+      <c r="GK1" s="3" t="inlineStr">
+        <is>
+          <t>HealthCoverageProvider1EntityType</t>
+        </is>
+      </c>
+      <c r="GL1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider1Identifier</t>
         </is>
       </c>
-      <c r="EC1" s="3" t="inlineStr">
+      <c r="GM1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider1LastNameOrOrgName</t>
         </is>
       </c>
-      <c r="ED1" s="3" t="inlineStr">
+      <c r="GN1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider1FirstName</t>
         </is>
       </c>
-      <c r="EE1" s="3" t="inlineStr">
+      <c r="GO1" s="3" t="inlineStr">
+        <is>
+          <t>HealthCoverageProvider1MiddleName</t>
+        </is>
+      </c>
+      <c r="GP1" s="3" t="inlineStr">
+        <is>
+          <t>HealthCoverageProvider1AddressLine</t>
+        </is>
+      </c>
+      <c r="GQ1" s="3" t="inlineStr">
+        <is>
+          <t>HealthCoverageProvider1AddressLine2</t>
+        </is>
+      </c>
+      <c r="GR1" s="3" t="inlineStr">
+        <is>
+          <t>HealthCoverageProvider1AddressCity</t>
+        </is>
+      </c>
+      <c r="GS1" s="3" t="inlineStr">
+        <is>
+          <t>HealthCoverageProvider1AddressStateCode</t>
+        </is>
+      </c>
+      <c r="GT1" s="3" t="inlineStr">
+        <is>
+          <t>HealthCoverageProvider1AddressZipCode</t>
+        </is>
+      </c>
+      <c r="GU1" s="3" t="inlineStr">
+        <is>
+          <t>HealthCoverageProvider1ContactContactNumber1Type</t>
+        </is>
+      </c>
+      <c r="GV1" s="3" t="inlineStr">
+        <is>
+          <t>HealthCoverageProvider1ContactContactNumber1Number</t>
+        </is>
+      </c>
+      <c r="GW1" s="3" t="inlineStr">
+        <is>
+          <t>HealthCoverageProvider1ContactContactNumber2Type</t>
+        </is>
+      </c>
+      <c r="GX1" s="3" t="inlineStr">
+        <is>
+          <t>HealthCoverageProvider1ContactContactNumber2Number</t>
+        </is>
+      </c>
+      <c r="GY1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider1ChangeReasonActionCode</t>
         </is>
       </c>
-      <c r="EF1" s="3" t="inlineStr">
+      <c r="GZ1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider1ChangeReasonEffectiveDate</t>
         </is>
       </c>
-      <c r="EG1" s="3" t="inlineStr">
+      <c r="HA1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider1ChangeReasonReasonCode</t>
         </is>
       </c>
-      <c r="EH1" s="3" t="inlineStr">
-        <is>
-          <t>HealthCoverageProvider1ContactContactNumber1Type</t>
-        </is>
-      </c>
-      <c r="EI1" s="3" t="inlineStr">
-        <is>
-          <t>HealthCoverageProvider1ContactContactNumber1Number</t>
-        </is>
-      </c>
-      <c r="EJ1" s="3" t="inlineStr">
-        <is>
-          <t>HealthCoverageProvider1ContactContactNumber2Type</t>
-        </is>
-      </c>
-      <c r="EK1" s="3" t="inlineStr">
-        <is>
-          <t>HealthCoverageProvider1ContactContactNumber2Number</t>
-        </is>
-      </c>
-      <c r="EL1" s="3" t="inlineStr">
+      <c r="HB1" s="3" t="inlineStr">
+        <is>
+          <t>HealthCoverageProvider2EntityRole</t>
+        </is>
+      </c>
+      <c r="HC1" s="3" t="inlineStr">
+        <is>
+          <t>HealthCoverageProvider2EntityType</t>
+        </is>
+      </c>
+      <c r="HD1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider2Identifier</t>
         </is>
       </c>
-      <c r="EM1" s="3" t="inlineStr">
+      <c r="HE1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider2LastNameOrOrgName</t>
         </is>
       </c>
-      <c r="EN1" s="3" t="inlineStr">
+      <c r="HF1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider2FirstName</t>
         </is>
       </c>
-      <c r="EO1" s="3" t="inlineStr">
+      <c r="HG1" s="3" t="inlineStr">
+        <is>
+          <t>HealthCoverageProvider2MiddleName</t>
+        </is>
+      </c>
+      <c r="HH1" s="3" t="inlineStr">
+        <is>
+          <t>HealthCoverageProvider2AddressLine</t>
+        </is>
+      </c>
+      <c r="HI1" s="3" t="inlineStr">
+        <is>
+          <t>HealthCoverageProvider2AddressLine2</t>
+        </is>
+      </c>
+      <c r="HJ1" s="3" t="inlineStr">
+        <is>
+          <t>HealthCoverageProvider2AddressCity</t>
+        </is>
+      </c>
+      <c r="HK1" s="3" t="inlineStr">
+        <is>
+          <t>HealthCoverageProvider2AddressStateCode</t>
+        </is>
+      </c>
+      <c r="HL1" s="3" t="inlineStr">
+        <is>
+          <t>HealthCoverageProvider2AddressZipCode</t>
+        </is>
+      </c>
+      <c r="HM1" s="3" t="inlineStr">
+        <is>
+          <t>HealthCoverageProvider2ContactContactNumber1Type</t>
+        </is>
+      </c>
+      <c r="HN1" s="3" t="inlineStr">
+        <is>
+          <t>HealthCoverageProvider2ContactContactNumber1Number</t>
+        </is>
+      </c>
+      <c r="HO1" s="3" t="inlineStr">
+        <is>
+          <t>HealthCoverageProvider2ContactContactNumber2Type</t>
+        </is>
+      </c>
+      <c r="HP1" s="3" t="inlineStr">
+        <is>
+          <t>HealthCoverageProvider2ContactContactNumber2Number</t>
+        </is>
+      </c>
+      <c r="HQ1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider2ChangeReasonActionCode</t>
         </is>
       </c>
-      <c r="EP1" s="3" t="inlineStr">
+      <c r="HR1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider2ChangeReasonEffectiveDate</t>
         </is>
       </c>
-      <c r="EQ1" s="3" t="inlineStr">
+      <c r="HS1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider2ChangeReasonReasonCode</t>
         </is>
       </c>
-      <c r="ER1" s="3" t="inlineStr">
-        <is>
-          <t>HealthCoverageProvider2ContactContactNumber1Type</t>
-        </is>
-      </c>
-      <c r="ES1" s="3" t="inlineStr">
-        <is>
-          <t>HealthCoverageProvider2ContactContactNumber1Number</t>
-        </is>
-      </c>
-      <c r="ET1" s="3" t="inlineStr">
-        <is>
-          <t>HealthCoverageProvider2ContactContactNumber2Type</t>
-        </is>
-      </c>
-      <c r="EU1" s="3" t="inlineStr">
-        <is>
-          <t>HealthCoverageProvider2ContactContactNumber2Number</t>
-        </is>
-      </c>
-      <c r="EV1" s="3" t="inlineStr">
+      <c r="HT1" s="3" t="inlineStr">
+        <is>
+          <t>HealthCoverageProvider3EntityRole</t>
+        </is>
+      </c>
+      <c r="HU1" s="3" t="inlineStr">
+        <is>
+          <t>HealthCoverageProvider3EntityType</t>
+        </is>
+      </c>
+      <c r="HV1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider3Identifier</t>
         </is>
       </c>
-      <c r="EW1" s="3" t="inlineStr">
+      <c r="HW1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider3LastNameOrOrgName</t>
         </is>
       </c>
-      <c r="EX1" s="3" t="inlineStr">
+      <c r="HX1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider3FirstName</t>
         </is>
       </c>
-      <c r="EY1" s="3" t="inlineStr">
+      <c r="HY1" s="3" t="inlineStr">
+        <is>
+          <t>HealthCoverageProvider3MiddleName</t>
+        </is>
+      </c>
+      <c r="HZ1" s="3" t="inlineStr">
+        <is>
+          <t>HealthCoverageProvider3AddressLine</t>
+        </is>
+      </c>
+      <c r="IA1" s="3" t="inlineStr">
+        <is>
+          <t>HealthCoverageProvider3AddressLine2</t>
+        </is>
+      </c>
+      <c r="IB1" s="3" t="inlineStr">
+        <is>
+          <t>HealthCoverageProvider3AddressCity</t>
+        </is>
+      </c>
+      <c r="IC1" s="3" t="inlineStr">
+        <is>
+          <t>HealthCoverageProvider3AddressStateCode</t>
+        </is>
+      </c>
+      <c r="ID1" s="3" t="inlineStr">
+        <is>
+          <t>HealthCoverageProvider3AddressZipCode</t>
+        </is>
+      </c>
+      <c r="IE1" s="3" t="inlineStr">
+        <is>
+          <t>HealthCoverageProvider3ContactContactNumber1Type</t>
+        </is>
+      </c>
+      <c r="IF1" s="3" t="inlineStr">
+        <is>
+          <t>HealthCoverageProvider3ContactContactNumber1Number</t>
+        </is>
+      </c>
+      <c r="IG1" s="3" t="inlineStr">
+        <is>
+          <t>HealthCoverageProvider3ContactContactNumber2Type</t>
+        </is>
+      </c>
+      <c r="IH1" s="3" t="inlineStr">
+        <is>
+          <t>HealthCoverageProvider3ContactContactNumber2Number</t>
+        </is>
+      </c>
+      <c r="II1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider3ChangeReasonActionCode</t>
         </is>
       </c>
-      <c r="EZ1" s="3" t="inlineStr">
+      <c r="IJ1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider3ChangeReasonEffectiveDate</t>
         </is>
       </c>
-      <c r="FA1" s="3" t="inlineStr">
+      <c r="IK1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider3ChangeReasonReasonCode</t>
-        </is>
-      </c>
-      <c r="FB1" s="3" t="inlineStr">
-        <is>
-          <t>HealthCoverageProvider3ContactContactNumber1Type</t>
-        </is>
-      </c>
-      <c r="FC1" s="3" t="inlineStr">
-        <is>
-          <t>HealthCoverageProvider3ContactContactNumber1Number</t>
-        </is>
-      </c>
-      <c r="FD1" s="3" t="inlineStr">
-        <is>
-          <t>HealthCoverageProvider3ContactContactNumber2Type</t>
-        </is>
-      </c>
-      <c r="FE1" s="3" t="inlineStr">
-        <is>
-          <t>HealthCoverageProvider3ContactContactNumber2Number</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>682fd732c349b17c0afe883c</t>
+          <t>68406977fb1f98446d7b6b3d</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
@@ -1026,56 +1446,60 @@
       <c r="AS2"/>
       <c r="AT2" s="3" t="inlineStr">
         <is>
+          <t>SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="AU2" s="3" t="inlineStr">
+        <is>
           <t>SSN</t>
         </is>
       </c>
-      <c r="AU2" s="3" t="inlineStr">
+      <c r="AV2" s="3" t="inlineStr">
         <is>
           <t>202443307</t>
         </is>
       </c>
-      <c r="AV2"/>
-      <c r="AW2" s="3" t="inlineStr">
+      <c r="AW2"/>
+      <c r="AX2" s="3" t="inlineStr">
         <is>
           <t>SMITH</t>
         </is>
       </c>
-      <c r="AX2" s="3" t="inlineStr">
+      <c r="AY2" s="3" t="inlineStr">
         <is>
           <t>WILLIAM</t>
         </is>
       </c>
-      <c r="AY2"/>
-      <c r="AZ2" s="4" t="n">
+      <c r="AZ2"/>
+      <c r="BA2" s="4" t="n">
         <v>25733.0</v>
       </c>
-      <c r="BA2" s="3" t="inlineStr">
+      <c r="BB2" s="3" t="inlineStr">
         <is>
           <t>MALE</t>
         </is>
       </c>
-      <c r="BB2" s="3" t="inlineStr">
+      <c r="BC2" s="3" t="inlineStr">
         <is>
           <t>1715 SOUTHWIND AVENUE</t>
         </is>
       </c>
-      <c r="BC2"/>
-      <c r="BD2" s="3" t="inlineStr">
+      <c r="BD2"/>
+      <c r="BE2" s="3" t="inlineStr">
         <is>
           <t>ANYTOWN</t>
         </is>
       </c>
-      <c r="BE2" s="3" t="inlineStr">
+      <c r="BF2" s="3" t="inlineStr">
         <is>
           <t>PA</t>
         </is>
       </c>
-      <c r="BF2" s="3" t="inlineStr">
+      <c r="BG2" s="3" t="inlineStr">
         <is>
           <t>171110000</t>
         </is>
       </c>
-      <c r="BG2"/>
       <c r="BH2" s="3" t="inlineStr">
         <is>
           <t>HOME_PHONE</t>
@@ -1150,30 +1574,50 @@
       </c>
       <c r="CD2" s="3" t="inlineStr">
         <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="CE2" s="3" t="inlineStr">
+        <is>
+          <t>9715 EMPLOYER1 AVENUE</t>
+        </is>
+      </c>
+      <c r="CF2"/>
+      <c r="CG2" s="3" t="inlineStr">
+        <is>
+          <t>ANYTOWN</t>
+        </is>
+      </c>
+      <c r="CH2" s="3" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="CI2" s="3" t="inlineStr">
+        <is>
+          <t>971110000</t>
+        </is>
+      </c>
+      <c r="CJ2" s="3" t="inlineStr">
+        <is>
           <t>HOME_PHONE</t>
         </is>
       </c>
-      <c r="CE2" s="3" t="inlineStr">
+      <c r="CK2" s="3" t="inlineStr">
         <is>
           <t>9172343334</t>
         </is>
       </c>
-      <c r="CF2" s="3" t="inlineStr">
+      <c r="CL2" s="3" t="inlineStr">
         <is>
           <t>WORK_PHONE</t>
         </is>
       </c>
-      <c r="CG2" s="3" t="inlineStr">
+      <c r="CM2" s="3" t="inlineStr">
         <is>
           <t>9172341240</t>
         </is>
       </c>
-      <c r="CH2"/>
-      <c r="CI2"/>
-      <c r="CJ2"/>
-      <c r="CK2"/>
-      <c r="CL2"/>
-      <c r="CM2"/>
       <c r="CN2"/>
       <c r="CO2"/>
       <c r="CP2"/>
@@ -1182,39 +1626,13 @@
       <c r="CS2"/>
       <c r="CT2"/>
       <c r="CU2"/>
-      <c r="CV2" s="3" t="inlineStr">
-        <is>
-          <t>021</t>
-        </is>
-      </c>
-      <c r="CW2" s="3" t="inlineStr">
-        <is>
-          <t>HMO</t>
-        </is>
-      </c>
-      <c r="CX2" s="3" t="inlineStr">
-        <is>
-          <t>PlanDesc</t>
-        </is>
-      </c>
-      <c r="CY2" s="3" t="inlineStr">
-        <is>
-          <t>FAM</t>
-        </is>
-      </c>
-      <c r="CZ2" s="3" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="DA2" s="3" t="inlineStr">
-        <is>
-          <t>348</t>
-        </is>
-      </c>
-      <c r="DB2" s="4" t="n">
-        <v>35217.0</v>
-      </c>
+      <c r="CV2"/>
+      <c r="CW2"/>
+      <c r="CX2"/>
+      <c r="CY2"/>
+      <c r="CZ2"/>
+      <c r="DA2"/>
+      <c r="DB2"/>
       <c r="DC2"/>
       <c r="DD2"/>
       <c r="DE2"/>
@@ -1223,117 +1641,91 @@
       <c r="DH2"/>
       <c r="DI2"/>
       <c r="DJ2"/>
-      <c r="DK2" s="3" t="inlineStr">
-        <is>
-          <t>C1</t>
-        </is>
-      </c>
-      <c r="DL2" s="1" t="n">
-        <v>20.0</v>
-      </c>
+      <c r="DK2"/>
+      <c r="DL2"/>
       <c r="DM2"/>
-      <c r="DN2"/>
-      <c r="DO2"/>
-      <c r="DP2"/>
+      <c r="DN2" s="3" t="inlineStr">
+        <is>
+          <t>RESPONSIBLE_PARTY</t>
+        </is>
+      </c>
+      <c r="DO2" s="3" t="inlineStr">
+        <is>
+          <t>responsiblePersonID</t>
+        </is>
+      </c>
+      <c r="DP2" s="3" t="inlineStr">
+        <is>
+          <t>Responsible</t>
+        </is>
+      </c>
       <c r="DQ2" s="3" t="inlineStr">
         <is>
-          <t>1L</t>
+          <t>Person</t>
         </is>
       </c>
       <c r="DR2" s="3" t="inlineStr">
         <is>
-          <t>PolicyNumber</t>
-        </is>
-      </c>
-      <c r="DS2"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="DS2" s="3" t="inlineStr">
+        <is>
+          <t>9715 RESPONSIBLE AVENUE</t>
+        </is>
+      </c>
       <c r="DT2"/>
-      <c r="DU2"/>
-      <c r="DV2"/>
-      <c r="DW2"/>
-      <c r="DX2"/>
-      <c r="DY2"/>
-      <c r="DZ2"/>
+      <c r="DU2" s="3" t="inlineStr">
+        <is>
+          <t>ANYTOWN</t>
+        </is>
+      </c>
+      <c r="DV2" s="3" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="DW2" s="3" t="inlineStr">
+        <is>
+          <t>971110000</t>
+        </is>
+      </c>
+      <c r="DX2" s="3" t="inlineStr">
+        <is>
+          <t>HOME_PHONE</t>
+        </is>
+      </c>
+      <c r="DY2" s="3" t="inlineStr">
+        <is>
+          <t>9172343334</t>
+        </is>
+      </c>
+      <c r="DZ2" s="3" t="inlineStr">
+        <is>
+          <t>WORK_PHONE</t>
+        </is>
+      </c>
       <c r="EA2" s="3" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="EB2" s="3" t="inlineStr">
-        <is>
-          <t>prov1ID</t>
-        </is>
-      </c>
-      <c r="EC2" s="3" t="inlineStr">
-        <is>
-          <t>BROWN</t>
-        </is>
-      </c>
-      <c r="ED2" s="3" t="inlineStr">
-        <is>
-          <t>BERNARD</t>
-        </is>
-      </c>
-      <c r="EE2" s="3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="EF2" s="4" t="n">
-        <v>45413.0</v>
-      </c>
-      <c r="EG2" s="3" t="inlineStr">
-        <is>
-          <t>AI</t>
-        </is>
-      </c>
-      <c r="EH2" s="3" t="inlineStr">
-        <is>
-          <t>HOME_PHONE</t>
-        </is>
-      </c>
-      <c r="EI2" s="3" t="inlineStr">
-        <is>
-          <t>2172343334</t>
-        </is>
-      </c>
-      <c r="EJ2" s="3" t="inlineStr">
-        <is>
-          <t>WORK_PHONE</t>
-        </is>
-      </c>
-      <c r="EK2" s="3" t="inlineStr">
-        <is>
-          <t>2172341240</t>
-        </is>
-      </c>
-      <c r="EL2" s="3" t="inlineStr">
-        <is>
-          <t>943766</t>
-        </is>
-      </c>
-      <c r="EM2" s="3" t="inlineStr">
-        <is>
-          <t>BROWN</t>
-        </is>
-      </c>
-      <c r="EN2" s="3" t="inlineStr">
-        <is>
-          <t>BERNARD</t>
-        </is>
-      </c>
-      <c r="EO2" s="3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="EP2" s="4" t="n">
-        <v>45047.0</v>
-      </c>
-      <c r="EQ2" s="3" t="inlineStr">
-        <is>
-          <t>AI</t>
-        </is>
-      </c>
+          <t>9172341240</t>
+        </is>
+      </c>
+      <c r="EB2"/>
+      <c r="EC2"/>
+      <c r="ED2"/>
+      <c r="EE2"/>
+      <c r="EF2"/>
+      <c r="EG2"/>
+      <c r="EH2"/>
+      <c r="EI2"/>
+      <c r="EJ2"/>
+      <c r="EK2"/>
+      <c r="EL2"/>
+      <c r="EM2"/>
+      <c r="EN2"/>
+      <c r="EO2"/>
+      <c r="EP2"/>
+      <c r="EQ2"/>
       <c r="ER2"/>
       <c r="ES2"/>
       <c r="ET2"/>
@@ -1346,13 +1738,249 @@
       <c r="FA2"/>
       <c r="FB2"/>
       <c r="FC2"/>
-      <c r="FD2"/>
-      <c r="FE2"/>
+      <c r="FD2" s="3" t="inlineStr">
+        <is>
+          <t>021</t>
+        </is>
+      </c>
+      <c r="FE2" s="3" t="inlineStr">
+        <is>
+          <t>HMO</t>
+        </is>
+      </c>
+      <c r="FF2" s="3" t="inlineStr">
+        <is>
+          <t>PlanDesc</t>
+        </is>
+      </c>
+      <c r="FG2" s="3" t="inlineStr">
+        <is>
+          <t>FAM</t>
+        </is>
+      </c>
+      <c r="FH2" s="3" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="FI2" s="3" t="inlineStr">
+        <is>
+          <t>348</t>
+        </is>
+      </c>
+      <c r="FJ2" s="4" t="n">
+        <v>35217.0</v>
+      </c>
+      <c r="FK2"/>
+      <c r="FL2"/>
+      <c r="FM2"/>
+      <c r="FN2"/>
+      <c r="FO2"/>
+      <c r="FP2"/>
+      <c r="FQ2"/>
+      <c r="FR2"/>
+      <c r="FS2" s="3" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="FT2" s="1" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="FU2"/>
+      <c r="FV2"/>
+      <c r="FW2"/>
+      <c r="FX2"/>
+      <c r="FY2" s="3" t="inlineStr">
+        <is>
+          <t>1L</t>
+        </is>
+      </c>
+      <c r="FZ2" s="3" t="inlineStr">
+        <is>
+          <t>PolicyNumber</t>
+        </is>
+      </c>
+      <c r="GA2"/>
+      <c r="GB2"/>
+      <c r="GC2"/>
+      <c r="GD2"/>
+      <c r="GE2"/>
+      <c r="GF2"/>
+      <c r="GG2"/>
+      <c r="GH2"/>
+      <c r="GI2" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="GJ2" s="3" t="inlineStr">
+        <is>
+          <t>PRIMARY_CARE</t>
+        </is>
+      </c>
+      <c r="GK2" s="3" t="inlineStr">
+        <is>
+          <t>INDIVIDUAL</t>
+        </is>
+      </c>
+      <c r="GL2" s="3" t="inlineStr">
+        <is>
+          <t>prov1ID</t>
+        </is>
+      </c>
+      <c r="GM2" s="3" t="inlineStr">
+        <is>
+          <t>BROWN</t>
+        </is>
+      </c>
+      <c r="GN2" s="3" t="inlineStr">
+        <is>
+          <t>BERNARD</t>
+        </is>
+      </c>
+      <c r="GO2"/>
+      <c r="GP2" s="3" t="inlineStr">
+        <is>
+          <t>2715 SOUTHWIND AVENUE</t>
+        </is>
+      </c>
+      <c r="GQ2"/>
+      <c r="GR2" s="3" t="inlineStr">
+        <is>
+          <t>ANYTOWN</t>
+        </is>
+      </c>
+      <c r="GS2" s="3" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="GT2" s="3" t="inlineStr">
+        <is>
+          <t>271110000</t>
+        </is>
+      </c>
+      <c r="GU2" s="3" t="inlineStr">
+        <is>
+          <t>HOME_PHONE</t>
+        </is>
+      </c>
+      <c r="GV2" s="3" t="inlineStr">
+        <is>
+          <t>2172343334</t>
+        </is>
+      </c>
+      <c r="GW2" s="3" t="inlineStr">
+        <is>
+          <t>WORK_PHONE</t>
+        </is>
+      </c>
+      <c r="GX2" s="3" t="inlineStr">
+        <is>
+          <t>2172341240</t>
+        </is>
+      </c>
+      <c r="GY2" s="3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="GZ2" s="4" t="n">
+        <v>45413.0</v>
+      </c>
+      <c r="HA2" s="3" t="inlineStr">
+        <is>
+          <t>AI</t>
+        </is>
+      </c>
+      <c r="HB2" s="3" t="inlineStr">
+        <is>
+          <t>MANAGED_CARE</t>
+        </is>
+      </c>
+      <c r="HC2" s="3" t="inlineStr">
+        <is>
+          <t>INDIVIDUAL</t>
+        </is>
+      </c>
+      <c r="HD2" s="3" t="inlineStr">
+        <is>
+          <t>943766</t>
+        </is>
+      </c>
+      <c r="HE2" s="3" t="inlineStr">
+        <is>
+          <t>BROWN</t>
+        </is>
+      </c>
+      <c r="HF2" s="3" t="inlineStr">
+        <is>
+          <t>BERNARD</t>
+        </is>
+      </c>
+      <c r="HG2"/>
+      <c r="HH2" s="3" t="inlineStr">
+        <is>
+          <t>2715 SOUTHWIND AVENUE</t>
+        </is>
+      </c>
+      <c r="HI2"/>
+      <c r="HJ2" s="3" t="inlineStr">
+        <is>
+          <t>ANYTOWN</t>
+        </is>
+      </c>
+      <c r="HK2" s="3" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="HL2" s="3" t="inlineStr">
+        <is>
+          <t>271110000</t>
+        </is>
+      </c>
+      <c r="HM2"/>
+      <c r="HN2"/>
+      <c r="HO2"/>
+      <c r="HP2"/>
+      <c r="HQ2" s="3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="HR2" s="4" t="n">
+        <v>45047.0</v>
+      </c>
+      <c r="HS2" s="3" t="inlineStr">
+        <is>
+          <t>AI</t>
+        </is>
+      </c>
+      <c r="HT2"/>
+      <c r="HU2"/>
+      <c r="HV2"/>
+      <c r="HW2"/>
+      <c r="HX2"/>
+      <c r="HY2"/>
+      <c r="HZ2"/>
+      <c r="IA2"/>
+      <c r="IB2"/>
+      <c r="IC2"/>
+      <c r="ID2"/>
+      <c r="IE2"/>
+      <c r="IF2"/>
+      <c r="IG2"/>
+      <c r="IH2"/>
+      <c r="II2"/>
+      <c r="IJ2"/>
+      <c r="IK2"/>
     </row>
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>682fd732c349b17c0afe883c</t>
+          <t>68406977fb1f98446d7b6b3d</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
@@ -1503,56 +2131,60 @@
       <c r="AS3"/>
       <c r="AT3" s="3" t="inlineStr">
         <is>
+          <t>SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="AU3" s="3" t="inlineStr">
+        <is>
           <t>SSN</t>
         </is>
       </c>
-      <c r="AU3" s="3" t="inlineStr">
+      <c r="AV3" s="3" t="inlineStr">
         <is>
           <t>202443307</t>
         </is>
       </c>
-      <c r="AV3"/>
-      <c r="AW3" s="3" t="inlineStr">
+      <c r="AW3"/>
+      <c r="AX3" s="3" t="inlineStr">
         <is>
           <t>SMITH</t>
         </is>
       </c>
-      <c r="AX3" s="3" t="inlineStr">
+      <c r="AY3" s="3" t="inlineStr">
         <is>
           <t>WILLIAM</t>
         </is>
       </c>
-      <c r="AY3"/>
-      <c r="AZ3" s="4" t="n">
+      <c r="AZ3"/>
+      <c r="BA3" s="4" t="n">
         <v>25733.0</v>
       </c>
-      <c r="BA3" s="3" t="inlineStr">
+      <c r="BB3" s="3" t="inlineStr">
         <is>
           <t>MALE</t>
         </is>
       </c>
-      <c r="BB3" s="3" t="inlineStr">
+      <c r="BC3" s="3" t="inlineStr">
         <is>
           <t>1715 SOUTHWIND AVENUE</t>
         </is>
       </c>
-      <c r="BC3"/>
-      <c r="BD3" s="3" t="inlineStr">
+      <c r="BD3"/>
+      <c r="BE3" s="3" t="inlineStr">
         <is>
           <t>ANYTOWN</t>
         </is>
       </c>
-      <c r="BE3" s="3" t="inlineStr">
+      <c r="BF3" s="3" t="inlineStr">
         <is>
           <t>PA</t>
         </is>
       </c>
-      <c r="BF3" s="3" t="inlineStr">
+      <c r="BG3" s="3" t="inlineStr">
         <is>
           <t>171110000</t>
         </is>
       </c>
-      <c r="BG3"/>
       <c r="BH3" s="3" t="inlineStr">
         <is>
           <t>HOME_PHONE</t>
@@ -1627,30 +2259,50 @@
       </c>
       <c r="CD3" s="3" t="inlineStr">
         <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="CE3" s="3" t="inlineStr">
+        <is>
+          <t>9715 EMPLOYER1 AVENUE</t>
+        </is>
+      </c>
+      <c r="CF3"/>
+      <c r="CG3" s="3" t="inlineStr">
+        <is>
+          <t>ANYTOWN</t>
+        </is>
+      </c>
+      <c r="CH3" s="3" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="CI3" s="3" t="inlineStr">
+        <is>
+          <t>971110000</t>
+        </is>
+      </c>
+      <c r="CJ3" s="3" t="inlineStr">
+        <is>
           <t>HOME_PHONE</t>
         </is>
       </c>
-      <c r="CE3" s="3" t="inlineStr">
+      <c r="CK3" s="3" t="inlineStr">
         <is>
           <t>9172343334</t>
         </is>
       </c>
-      <c r="CF3" s="3" t="inlineStr">
+      <c r="CL3" s="3" t="inlineStr">
         <is>
           <t>WORK_PHONE</t>
         </is>
       </c>
-      <c r="CG3" s="3" t="inlineStr">
+      <c r="CM3" s="3" t="inlineStr">
         <is>
           <t>9172341240</t>
         </is>
       </c>
-      <c r="CH3"/>
-      <c r="CI3"/>
-      <c r="CJ3"/>
-      <c r="CK3"/>
-      <c r="CL3"/>
-      <c r="CM3"/>
       <c r="CN3"/>
       <c r="CO3"/>
       <c r="CP3"/>
@@ -1659,39 +2311,13 @@
       <c r="CS3"/>
       <c r="CT3"/>
       <c r="CU3"/>
-      <c r="CV3" s="3" t="inlineStr">
-        <is>
-          <t>021</t>
-        </is>
-      </c>
-      <c r="CW3" s="3" t="inlineStr">
-        <is>
-          <t>EPO</t>
-        </is>
-      </c>
-      <c r="CX3" s="3" t="inlineStr">
-        <is>
-          <t>PlanDesc2</t>
-        </is>
-      </c>
-      <c r="CY3" s="3" t="inlineStr">
-        <is>
-          <t>FAM</t>
-        </is>
-      </c>
-      <c r="CZ3" s="3" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="DA3" s="3" t="inlineStr">
-        <is>
-          <t>348</t>
-        </is>
-      </c>
-      <c r="DB3" s="4" t="n">
-        <v>45778.0</v>
-      </c>
+      <c r="CV3"/>
+      <c r="CW3"/>
+      <c r="CX3"/>
+      <c r="CY3"/>
+      <c r="CZ3"/>
+      <c r="DA3"/>
+      <c r="DB3"/>
       <c r="DC3"/>
       <c r="DD3"/>
       <c r="DE3"/>
@@ -1700,39 +2326,73 @@
       <c r="DH3"/>
       <c r="DI3"/>
       <c r="DJ3"/>
-      <c r="DK3" s="3" t="inlineStr">
-        <is>
-          <t>C1</t>
-        </is>
-      </c>
-      <c r="DL3" s="1" t="n">
-        <v>20.0</v>
-      </c>
+      <c r="DK3"/>
+      <c r="DL3"/>
       <c r="DM3"/>
-      <c r="DN3"/>
-      <c r="DO3"/>
-      <c r="DP3"/>
+      <c r="DN3" s="3" t="inlineStr">
+        <is>
+          <t>RESPONSIBLE_PARTY</t>
+        </is>
+      </c>
+      <c r="DO3" s="3" t="inlineStr">
+        <is>
+          <t>responsiblePersonID</t>
+        </is>
+      </c>
+      <c r="DP3" s="3" t="inlineStr">
+        <is>
+          <t>Responsible</t>
+        </is>
+      </c>
       <c r="DQ3" s="3" t="inlineStr">
         <is>
-          <t>1L</t>
+          <t>Person</t>
         </is>
       </c>
       <c r="DR3" s="3" t="inlineStr">
         <is>
-          <t>PolicyNumber2</t>
-        </is>
-      </c>
-      <c r="DS3"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="DS3" s="3" t="inlineStr">
+        <is>
+          <t>9715 RESPONSIBLE AVENUE</t>
+        </is>
+      </c>
       <c r="DT3"/>
-      <c r="DU3"/>
-      <c r="DV3"/>
-      <c r="DW3"/>
-      <c r="DX3"/>
-      <c r="DY3"/>
-      <c r="DZ3"/>
+      <c r="DU3" s="3" t="inlineStr">
+        <is>
+          <t>ANYTOWN</t>
+        </is>
+      </c>
+      <c r="DV3" s="3" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="DW3" s="3" t="inlineStr">
+        <is>
+          <t>971110000</t>
+        </is>
+      </c>
+      <c r="DX3" s="3" t="inlineStr">
+        <is>
+          <t>HOME_PHONE</t>
+        </is>
+      </c>
+      <c r="DY3" s="3" t="inlineStr">
+        <is>
+          <t>9172343334</t>
+        </is>
+      </c>
+      <c r="DZ3" s="3" t="inlineStr">
+        <is>
+          <t>WORK_PHONE</t>
+        </is>
+      </c>
       <c r="EA3" s="3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9172341240</t>
         </is>
       </c>
       <c r="EB3"/>
@@ -1763,13 +2423,141 @@
       <c r="FA3"/>
       <c r="FB3"/>
       <c r="FC3"/>
-      <c r="FD3"/>
-      <c r="FE3"/>
+      <c r="FD3" s="3" t="inlineStr">
+        <is>
+          <t>021</t>
+        </is>
+      </c>
+      <c r="FE3" s="3" t="inlineStr">
+        <is>
+          <t>EPO</t>
+        </is>
+      </c>
+      <c r="FF3" s="3" t="inlineStr">
+        <is>
+          <t>PlanDesc2</t>
+        </is>
+      </c>
+      <c r="FG3" s="3" t="inlineStr">
+        <is>
+          <t>FAM</t>
+        </is>
+      </c>
+      <c r="FH3" s="3" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="FI3" s="3" t="inlineStr">
+        <is>
+          <t>348</t>
+        </is>
+      </c>
+      <c r="FJ3" s="4" t="n">
+        <v>45778.0</v>
+      </c>
+      <c r="FK3"/>
+      <c r="FL3"/>
+      <c r="FM3"/>
+      <c r="FN3"/>
+      <c r="FO3"/>
+      <c r="FP3"/>
+      <c r="FQ3"/>
+      <c r="FR3"/>
+      <c r="FS3" s="3" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="FT3" s="1" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="FU3"/>
+      <c r="FV3"/>
+      <c r="FW3"/>
+      <c r="FX3"/>
+      <c r="FY3" s="3" t="inlineStr">
+        <is>
+          <t>1L</t>
+        </is>
+      </c>
+      <c r="FZ3" s="3" t="inlineStr">
+        <is>
+          <t>PolicyNumber2</t>
+        </is>
+      </c>
+      <c r="GA3"/>
+      <c r="GB3"/>
+      <c r="GC3"/>
+      <c r="GD3"/>
+      <c r="GE3"/>
+      <c r="GF3"/>
+      <c r="GG3"/>
+      <c r="GH3"/>
+      <c r="GI3" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="GJ3"/>
+      <c r="GK3"/>
+      <c r="GL3"/>
+      <c r="GM3"/>
+      <c r="GN3"/>
+      <c r="GO3"/>
+      <c r="GP3"/>
+      <c r="GQ3"/>
+      <c r="GR3"/>
+      <c r="GS3"/>
+      <c r="GT3"/>
+      <c r="GU3"/>
+      <c r="GV3"/>
+      <c r="GW3"/>
+      <c r="GX3"/>
+      <c r="GY3"/>
+      <c r="GZ3"/>
+      <c r="HA3"/>
+      <c r="HB3"/>
+      <c r="HC3"/>
+      <c r="HD3"/>
+      <c r="HE3"/>
+      <c r="HF3"/>
+      <c r="HG3"/>
+      <c r="HH3"/>
+      <c r="HI3"/>
+      <c r="HJ3"/>
+      <c r="HK3"/>
+      <c r="HL3"/>
+      <c r="HM3"/>
+      <c r="HN3"/>
+      <c r="HO3"/>
+      <c r="HP3"/>
+      <c r="HQ3"/>
+      <c r="HR3"/>
+      <c r="HS3"/>
+      <c r="HT3"/>
+      <c r="HU3"/>
+      <c r="HV3"/>
+      <c r="HW3"/>
+      <c r="HX3"/>
+      <c r="HY3"/>
+      <c r="HZ3"/>
+      <c r="IA3"/>
+      <c r="IB3"/>
+      <c r="IC3"/>
+      <c r="ID3"/>
+      <c r="IE3"/>
+      <c r="IF3"/>
+      <c r="IG3"/>
+      <c r="IH3"/>
+      <c r="II3"/>
+      <c r="IJ3"/>
+      <c r="IK3"/>
     </row>
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>682fd732c349b17c0afe883d</t>
+          <t>68406977fb1f98446d7b6b3e</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -1900,56 +2688,60 @@
       <c r="AS4"/>
       <c r="AT4" s="3" t="inlineStr">
         <is>
+          <t>SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="AU4" s="3" t="inlineStr">
+        <is>
           <t>SSN</t>
         </is>
       </c>
-      <c r="AU4" s="3" t="inlineStr">
+      <c r="AV4" s="3" t="inlineStr">
         <is>
           <t>202443309</t>
         </is>
       </c>
-      <c r="AV4"/>
-      <c r="AW4" s="3" t="inlineStr">
+      <c r="AW4"/>
+      <c r="AX4" s="3" t="inlineStr">
         <is>
           <t>SMITH</t>
         </is>
       </c>
-      <c r="AX4" s="3" t="inlineStr">
+      <c r="AY4" s="3" t="inlineStr">
         <is>
           <t>Jane</t>
         </is>
       </c>
-      <c r="AY4"/>
-      <c r="AZ4" s="4" t="n">
+      <c r="AZ4"/>
+      <c r="BA4" s="4" t="n">
         <v>25733.0</v>
       </c>
-      <c r="BA4" s="3" t="inlineStr">
+      <c r="BB4" s="3" t="inlineStr">
         <is>
           <t>MALE</t>
         </is>
       </c>
-      <c r="BB4" s="3" t="inlineStr">
+      <c r="BC4" s="3" t="inlineStr">
         <is>
           <t>1715 SOUTHWIND AVENUE</t>
         </is>
       </c>
-      <c r="BC4"/>
-      <c r="BD4" s="3" t="inlineStr">
+      <c r="BD4"/>
+      <c r="BE4" s="3" t="inlineStr">
         <is>
           <t>ANYTOWN</t>
         </is>
       </c>
-      <c r="BE4" s="3" t="inlineStr">
+      <c r="BF4" s="3" t="inlineStr">
         <is>
           <t>PA</t>
         </is>
       </c>
-      <c r="BF4" s="3" t="inlineStr">
+      <c r="BG4" s="3" t="inlineStr">
         <is>
           <t>171110000</t>
         </is>
       </c>
-      <c r="BG4"/>
       <c r="BH4" s="3" t="inlineStr">
         <is>
           <t>HOME_PHONE</t>
@@ -2006,27 +2798,13 @@
       <c r="CS4"/>
       <c r="CT4"/>
       <c r="CU4"/>
-      <c r="CV4" s="3" t="inlineStr">
-        <is>
-          <t>021</t>
-        </is>
-      </c>
-      <c r="CW4" s="3" t="inlineStr">
-        <is>
-          <t>HMO</t>
-        </is>
-      </c>
+      <c r="CV4"/>
+      <c r="CW4"/>
       <c r="CX4"/>
       <c r="CY4"/>
       <c r="CZ4"/>
-      <c r="DA4" s="3" t="inlineStr">
-        <is>
-          <t>348</t>
-        </is>
-      </c>
-      <c r="DB4" s="4" t="n">
-        <v>35217.0</v>
-      </c>
+      <c r="DA4"/>
+      <c r="DB4"/>
       <c r="DC4"/>
       <c r="DD4"/>
       <c r="DE4"/>
@@ -2052,34 +2830,12 @@
       <c r="DY4"/>
       <c r="DZ4"/>
       <c r="EA4"/>
-      <c r="EB4" s="3" t="inlineStr">
-        <is>
-          <t>143766</t>
-        </is>
-      </c>
-      <c r="EC4" s="3" t="inlineStr">
-        <is>
-          <t>BROWN</t>
-        </is>
-      </c>
-      <c r="ED4" s="3" t="inlineStr">
-        <is>
-          <t>BERNARD</t>
-        </is>
-      </c>
-      <c r="EE4" s="3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="EF4" s="4" t="n">
-        <v>45413.0</v>
-      </c>
-      <c r="EG4" s="3" t="inlineStr">
-        <is>
-          <t>AI</t>
-        </is>
-      </c>
+      <c r="EB4"/>
+      <c r="EC4"/>
+      <c r="ED4"/>
+      <c r="EE4"/>
+      <c r="EF4"/>
+      <c r="EG4"/>
       <c r="EH4"/>
       <c r="EI4"/>
       <c r="EJ4"/>
@@ -2102,13 +2858,141 @@
       <c r="FA4"/>
       <c r="FB4"/>
       <c r="FC4"/>
-      <c r="FD4"/>
-      <c r="FE4"/>
+      <c r="FD4" s="3" t="inlineStr">
+        <is>
+          <t>021</t>
+        </is>
+      </c>
+      <c r="FE4" s="3" t="inlineStr">
+        <is>
+          <t>HMO</t>
+        </is>
+      </c>
+      <c r="FF4"/>
+      <c r="FG4"/>
+      <c r="FH4"/>
+      <c r="FI4" s="3" t="inlineStr">
+        <is>
+          <t>348</t>
+        </is>
+      </c>
+      <c r="FJ4" s="4" t="n">
+        <v>35217.0</v>
+      </c>
+      <c r="FK4"/>
+      <c r="FL4"/>
+      <c r="FM4"/>
+      <c r="FN4"/>
+      <c r="FO4"/>
+      <c r="FP4"/>
+      <c r="FQ4"/>
+      <c r="FR4"/>
+      <c r="FS4"/>
+      <c r="FT4"/>
+      <c r="FU4"/>
+      <c r="FV4"/>
+      <c r="FW4"/>
+      <c r="FX4"/>
+      <c r="FY4"/>
+      <c r="FZ4"/>
+      <c r="GA4"/>
+      <c r="GB4"/>
+      <c r="GC4"/>
+      <c r="GD4"/>
+      <c r="GE4"/>
+      <c r="GF4"/>
+      <c r="GG4"/>
+      <c r="GH4"/>
+      <c r="GI4"/>
+      <c r="GJ4" s="3" t="inlineStr">
+        <is>
+          <t>PRIMARY_CARE</t>
+        </is>
+      </c>
+      <c r="GK4" s="3" t="inlineStr">
+        <is>
+          <t>INDIVIDUAL</t>
+        </is>
+      </c>
+      <c r="GL4" s="3" t="inlineStr">
+        <is>
+          <t>143766</t>
+        </is>
+      </c>
+      <c r="GM4" s="3" t="inlineStr">
+        <is>
+          <t>BROWN</t>
+        </is>
+      </c>
+      <c r="GN4" s="3" t="inlineStr">
+        <is>
+          <t>BERNARD</t>
+        </is>
+      </c>
+      <c r="GO4"/>
+      <c r="GP4"/>
+      <c r="GQ4"/>
+      <c r="GR4"/>
+      <c r="GS4"/>
+      <c r="GT4"/>
+      <c r="GU4"/>
+      <c r="GV4"/>
+      <c r="GW4"/>
+      <c r="GX4"/>
+      <c r="GY4" s="3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="GZ4" s="4" t="n">
+        <v>45413.0</v>
+      </c>
+      <c r="HA4" s="3" t="inlineStr">
+        <is>
+          <t>AI</t>
+        </is>
+      </c>
+      <c r="HB4"/>
+      <c r="HC4"/>
+      <c r="HD4"/>
+      <c r="HE4"/>
+      <c r="HF4"/>
+      <c r="HG4"/>
+      <c r="HH4"/>
+      <c r="HI4"/>
+      <c r="HJ4"/>
+      <c r="HK4"/>
+      <c r="HL4"/>
+      <c r="HM4"/>
+      <c r="HN4"/>
+      <c r="HO4"/>
+      <c r="HP4"/>
+      <c r="HQ4"/>
+      <c r="HR4"/>
+      <c r="HS4"/>
+      <c r="HT4"/>
+      <c r="HU4"/>
+      <c r="HV4"/>
+      <c r="HW4"/>
+      <c r="HX4"/>
+      <c r="HY4"/>
+      <c r="HZ4"/>
+      <c r="IA4"/>
+      <c r="IB4"/>
+      <c r="IC4"/>
+      <c r="ID4"/>
+      <c r="IE4"/>
+      <c r="IF4"/>
+      <c r="IG4"/>
+      <c r="IH4"/>
+      <c r="II4"/>
+      <c r="IJ4"/>
+      <c r="IK4"/>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>682fd732c349b17c0afe883e</t>
+          <t>68406977fb1f98446d7b6b3f</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
@@ -2259,56 +3143,60 @@
       <c r="AS5"/>
       <c r="AT5" s="3" t="inlineStr">
         <is>
+          <t>SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="AU5" s="3" t="inlineStr">
+        <is>
           <t>SSN</t>
         </is>
       </c>
-      <c r="AU5" s="3" t="inlineStr">
+      <c r="AV5" s="3" t="inlineStr">
         <is>
           <t>202443307</t>
         </is>
       </c>
-      <c r="AV5"/>
-      <c r="AW5" s="3" t="inlineStr">
+      <c r="AW5"/>
+      <c r="AX5" s="3" t="inlineStr">
         <is>
           <t>SMITH</t>
         </is>
       </c>
-      <c r="AX5" s="3" t="inlineStr">
+      <c r="AY5" s="3" t="inlineStr">
         <is>
           <t>WILLIAM</t>
         </is>
       </c>
-      <c r="AY5"/>
-      <c r="AZ5" s="4" t="n">
+      <c r="AZ5"/>
+      <c r="BA5" s="4" t="n">
         <v>25733.0</v>
       </c>
-      <c r="BA5" s="3" t="inlineStr">
+      <c r="BB5" s="3" t="inlineStr">
         <is>
           <t>MALE</t>
         </is>
       </c>
-      <c r="BB5" s="3" t="inlineStr">
+      <c r="BC5" s="3" t="inlineStr">
         <is>
           <t>1715 SOUTHWIND AVENUE</t>
         </is>
       </c>
-      <c r="BC5"/>
-      <c r="BD5" s="3" t="inlineStr">
+      <c r="BD5"/>
+      <c r="BE5" s="3" t="inlineStr">
         <is>
           <t>ANYTOWN</t>
         </is>
       </c>
-      <c r="BE5" s="3" t="inlineStr">
+      <c r="BF5" s="3" t="inlineStr">
         <is>
           <t>PA</t>
         </is>
       </c>
-      <c r="BF5" s="3" t="inlineStr">
+      <c r="BG5" s="3" t="inlineStr">
         <is>
           <t>171110000</t>
         </is>
       </c>
-      <c r="BG5"/>
       <c r="BH5" s="3" t="inlineStr">
         <is>
           <t>HOME_PHONE</t>
@@ -2433,6 +3321,90 @@
       <c r="FC5"/>
       <c r="FD5"/>
       <c r="FE5"/>
+      <c r="FF5"/>
+      <c r="FG5"/>
+      <c r="FH5"/>
+      <c r="FI5"/>
+      <c r="FJ5"/>
+      <c r="FK5"/>
+      <c r="FL5"/>
+      <c r="FM5"/>
+      <c r="FN5"/>
+      <c r="FO5"/>
+      <c r="FP5"/>
+      <c r="FQ5"/>
+      <c r="FR5"/>
+      <c r="FS5"/>
+      <c r="FT5"/>
+      <c r="FU5"/>
+      <c r="FV5"/>
+      <c r="FW5"/>
+      <c r="FX5"/>
+      <c r="FY5"/>
+      <c r="FZ5"/>
+      <c r="GA5"/>
+      <c r="GB5"/>
+      <c r="GC5"/>
+      <c r="GD5"/>
+      <c r="GE5"/>
+      <c r="GF5"/>
+      <c r="GG5"/>
+      <c r="GH5"/>
+      <c r="GI5"/>
+      <c r="GJ5"/>
+      <c r="GK5"/>
+      <c r="GL5"/>
+      <c r="GM5"/>
+      <c r="GN5"/>
+      <c r="GO5"/>
+      <c r="GP5"/>
+      <c r="GQ5"/>
+      <c r="GR5"/>
+      <c r="GS5"/>
+      <c r="GT5"/>
+      <c r="GU5"/>
+      <c r="GV5"/>
+      <c r="GW5"/>
+      <c r="GX5"/>
+      <c r="GY5"/>
+      <c r="GZ5"/>
+      <c r="HA5"/>
+      <c r="HB5"/>
+      <c r="HC5"/>
+      <c r="HD5"/>
+      <c r="HE5"/>
+      <c r="HF5"/>
+      <c r="HG5"/>
+      <c r="HH5"/>
+      <c r="HI5"/>
+      <c r="HJ5"/>
+      <c r="HK5"/>
+      <c r="HL5"/>
+      <c r="HM5"/>
+      <c r="HN5"/>
+      <c r="HO5"/>
+      <c r="HP5"/>
+      <c r="HQ5"/>
+      <c r="HR5"/>
+      <c r="HS5"/>
+      <c r="HT5"/>
+      <c r="HU5"/>
+      <c r="HV5"/>
+      <c r="HW5"/>
+      <c r="HX5"/>
+      <c r="HY5"/>
+      <c r="HZ5"/>
+      <c r="IA5"/>
+      <c r="IB5"/>
+      <c r="IC5"/>
+      <c r="ID5"/>
+      <c r="IE5"/>
+      <c r="IF5"/>
+      <c r="IG5"/>
+      <c r="IH5"/>
+      <c r="II5"/>
+      <c r="IJ5"/>
+      <c r="IK5"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/converted_files/834/834-all-fields.xlsx
+++ b/converted_files/834/834-all-fields.xlsx
@@ -59,7 +59,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:IK5"/>
+  <dimension ref="A1:LI5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -128,1165 +128,1545 @@
       </c>
       <c r="M1" s="3" t="inlineStr">
         <is>
+          <t>Tpa1Identifier</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="inlineStr">
+        <is>
+          <t>Tpa1Name</t>
+        </is>
+      </c>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Tpa1AccountNumber</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="inlineStr">
+        <is>
+          <t>Tpa1AccountNumber2</t>
+        </is>
+      </c>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Tpa2Identifier</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="inlineStr">
+        <is>
+          <t>Tpa2Name</t>
+        </is>
+      </c>
+      <c r="S1" s="3" t="inlineStr">
+        <is>
+          <t>Tpa2AccountNumber</t>
+        </is>
+      </c>
+      <c r="T1" s="3" t="inlineStr">
+        <is>
+          <t>Tpa2AccountNumber2</t>
+        </is>
+      </c>
+      <c r="U1" s="3" t="inlineStr">
+        <is>
           <t>MemberIndicator</t>
         </is>
       </c>
-      <c r="N1" s="3" t="inlineStr">
+      <c r="V1" s="3" t="inlineStr">
         <is>
           <t>RelationshipCode</t>
         </is>
       </c>
-      <c r="O1" s="3" t="inlineStr">
+      <c r="W1" s="3" t="inlineStr">
         <is>
           <t>MaintenanceTypeCode</t>
         </is>
       </c>
-      <c r="P1" s="3" t="inlineStr">
+      <c r="X1" s="3" t="inlineStr">
         <is>
           <t>MaintenanceReasonCode</t>
         </is>
       </c>
-      <c r="Q1" s="3" t="inlineStr">
+      <c r="Y1" s="3" t="inlineStr">
         <is>
           <t>BenefitStatusCode</t>
         </is>
       </c>
-      <c r="R1" s="3" t="inlineStr">
+      <c r="Z1" s="3" t="inlineStr">
         <is>
           <t>CobraEventCode</t>
         </is>
       </c>
-      <c r="S1" s="3" t="inlineStr">
+      <c r="AA1" s="3" t="inlineStr">
         <is>
           <t>EmploymentStatusCode</t>
         </is>
       </c>
-      <c r="T1" s="3" t="inlineStr">
+      <c r="AB1" s="3" t="inlineStr">
         <is>
           <t>StudentStatusCode</t>
         </is>
       </c>
-      <c r="U1" s="3" t="inlineStr">
+      <c r="AC1" s="3" t="inlineStr">
         <is>
           <t>HandicapIndicator</t>
         </is>
       </c>
-      <c r="V1" s="3" t="inlineStr">
+      <c r="AD1" s="3" t="inlineStr">
         <is>
           <t>ConfidentialityCode</t>
         </is>
       </c>
-      <c r="W1" s="3" t="inlineStr">
+      <c r="AE1" s="3" t="inlineStr">
         <is>
           <t>BirthSequenceNumber</t>
         </is>
       </c>
-      <c r="X1" s="3" t="inlineStr">
+      <c r="AF1" s="3" t="inlineStr">
         <is>
           <t>Identifier</t>
         </is>
       </c>
-      <c r="Y1" s="3" t="inlineStr">
+      <c r="AG1" s="3" t="inlineStr">
         <is>
           <t>GroupOrPolicyNumber</t>
         </is>
       </c>
-      <c r="Z1" s="3" t="inlineStr">
+      <c r="AH1" s="3" t="inlineStr">
         <is>
           <t>SupplementalIdentifier1QualifierCode</t>
         </is>
       </c>
-      <c r="AA1" s="3" t="inlineStr">
+      <c r="AI1" s="3" t="inlineStr">
         <is>
           <t>SupplementalIdentifier1Identification</t>
         </is>
       </c>
-      <c r="AB1" s="3" t="inlineStr">
+      <c r="AJ1" s="3" t="inlineStr">
         <is>
           <t>SupplementalIdentifier2QualifierCode</t>
         </is>
       </c>
-      <c r="AC1" s="3" t="inlineStr">
+      <c r="AK1" s="3" t="inlineStr">
         <is>
           <t>SupplementalIdentifier2Identification</t>
         </is>
       </c>
-      <c r="AD1" s="3" t="inlineStr">
+      <c r="AL1" s="3" t="inlineStr">
         <is>
           <t>SupplementalIdentifier3QualifierCode</t>
         </is>
       </c>
-      <c r="AE1" s="3" t="inlineStr">
+      <c r="AM1" s="3" t="inlineStr">
         <is>
           <t>SupplementalIdentifier3Identification</t>
         </is>
       </c>
-      <c r="AF1" s="3" t="inlineStr">
+      <c r="AN1" s="3" t="inlineStr">
         <is>
           <t>SupplementalIdentifier4QualifierCode</t>
         </is>
       </c>
-      <c r="AG1" s="3" t="inlineStr">
+      <c r="AO1" s="3" t="inlineStr">
         <is>
           <t>SupplementalIdentifier4Identification</t>
         </is>
       </c>
-      <c r="AH1" s="3" t="inlineStr">
+      <c r="AP1" s="3" t="inlineStr">
         <is>
           <t>SupplementalIdentifier5QualifierCode</t>
         </is>
       </c>
-      <c r="AI1" s="3" t="inlineStr">
+      <c r="AQ1" s="3" t="inlineStr">
         <is>
           <t>SupplementalIdentifier5Identification</t>
         </is>
       </c>
-      <c r="AJ1" s="3" t="inlineStr">
+      <c r="AR1" s="3" t="inlineStr">
         <is>
           <t>StatusInfoEffectiveDate1QualifierCode</t>
         </is>
       </c>
-      <c r="AK1" s="3" t="inlineStr">
+      <c r="AS1" s="3" t="inlineStr">
         <is>
           <t>StatusInfoEffectiveDate1Date</t>
         </is>
       </c>
-      <c r="AL1" s="3" t="inlineStr">
+      <c r="AT1" s="3" t="inlineStr">
         <is>
           <t>StatusInfoEffectiveDate2QualifierCode</t>
         </is>
       </c>
-      <c r="AM1" s="3" t="inlineStr">
+      <c r="AU1" s="3" t="inlineStr">
         <is>
           <t>StatusInfoEffectiveDate2Date</t>
         </is>
       </c>
-      <c r="AN1" s="3" t="inlineStr">
+      <c r="AV1" s="3" t="inlineStr">
         <is>
           <t>StatusInfoEffectiveDate3QualifierCode</t>
         </is>
       </c>
-      <c r="AO1" s="3" t="inlineStr">
+      <c r="AW1" s="3" t="inlineStr">
         <is>
           <t>StatusInfoEffectiveDate3Date</t>
         </is>
       </c>
-      <c r="AP1" s="3" t="inlineStr">
+      <c r="AX1" s="3" t="inlineStr">
         <is>
           <t>StatusInfoEffectiveDate4QualifierCode</t>
         </is>
       </c>
-      <c r="AQ1" s="3" t="inlineStr">
+      <c r="AY1" s="3" t="inlineStr">
         <is>
           <t>StatusInfoEffectiveDate4Date</t>
         </is>
       </c>
-      <c r="AR1" s="3" t="inlineStr">
+      <c r="AZ1" s="3" t="inlineStr">
         <is>
           <t>StatusInfoEffectiveDate5QualifierCode</t>
         </is>
       </c>
-      <c r="AS1" s="3" t="inlineStr">
+      <c r="BA1" s="3" t="inlineStr">
         <is>
           <t>StatusInfoEffectiveDate5Date</t>
         </is>
       </c>
-      <c r="AT1" s="3" t="inlineStr">
-        <is>
-          <t>SubscriberEntityRole</t>
-        </is>
-      </c>
-      <c r="AU1" s="3" t="inlineStr">
-        <is>
-          <t>SubscriberIdentificationType</t>
-        </is>
-      </c>
-      <c r="AV1" s="3" t="inlineStr">
-        <is>
-          <t>SubscriberIdentifier</t>
-        </is>
-      </c>
-      <c r="AW1" s="3" t="inlineStr">
-        <is>
-          <t>SubscriberTaxId</t>
-        </is>
-      </c>
-      <c r="AX1" s="3" t="inlineStr">
-        <is>
-          <t>SubscriberLastName</t>
-        </is>
-      </c>
-      <c r="AY1" s="3" t="inlineStr">
-        <is>
-          <t>SubscriberFirstName</t>
-        </is>
-      </c>
-      <c r="AZ1" s="3" t="inlineStr">
-        <is>
-          <t>SubscriberMiddleName</t>
-        </is>
-      </c>
-      <c r="BA1" s="3" t="inlineStr">
-        <is>
-          <t>SubscriberBirthDate</t>
-        </is>
-      </c>
       <c r="BB1" s="3" t="inlineStr">
         <is>
-          <t>SubscriberGender</t>
+          <t>MemberEntityRole</t>
         </is>
       </c>
       <c r="BC1" s="3" t="inlineStr">
         <is>
-          <t>SubscriberAddressLine</t>
+          <t>MemberIdentificationType</t>
         </is>
       </c>
       <c r="BD1" s="3" t="inlineStr">
         <is>
-          <t>SubscriberAddressLine2</t>
+          <t>MemberIdentifier</t>
         </is>
       </c>
       <c r="BE1" s="3" t="inlineStr">
         <is>
-          <t>SubscriberAddressCity</t>
+          <t>MemberTaxId</t>
         </is>
       </c>
       <c r="BF1" s="3" t="inlineStr">
         <is>
-          <t>SubscriberAddressStateCode</t>
+          <t>MemberLastNameOrOrgName</t>
         </is>
       </c>
       <c r="BG1" s="3" t="inlineStr">
         <is>
-          <t>SubscriberAddressZipCode</t>
+          <t>MemberFirstName</t>
         </is>
       </c>
       <c r="BH1" s="3" t="inlineStr">
         <is>
-          <t>SubscriberContactContactNumber1Type</t>
+          <t>MemberMiddleName</t>
         </is>
       </c>
       <c r="BI1" s="3" t="inlineStr">
         <is>
-          <t>SubscriberContactContactNumber1Number</t>
+          <t>MemberBirthDate</t>
         </is>
       </c>
       <c r="BJ1" s="3" t="inlineStr">
         <is>
-          <t>SubscriberContactContactNumber2Type</t>
+          <t>MemberGender</t>
         </is>
       </c>
       <c r="BK1" s="3" t="inlineStr">
         <is>
-          <t>SubscriberContactContactNumber2Number</t>
+          <t>MemberAddressLine</t>
         </is>
       </c>
       <c r="BL1" s="3" t="inlineStr">
         <is>
+          <t>MemberAddressLine2</t>
+        </is>
+      </c>
+      <c r="BM1" s="3" t="inlineStr">
+        <is>
+          <t>MemberAddressCity</t>
+        </is>
+      </c>
+      <c r="BN1" s="3" t="inlineStr">
+        <is>
+          <t>MemberAddressStateCode</t>
+        </is>
+      </c>
+      <c r="BO1" s="3" t="inlineStr">
+        <is>
+          <t>MemberAddressZipCode</t>
+        </is>
+      </c>
+      <c r="BP1" s="3" t="inlineStr">
+        <is>
+          <t>MemberContactContactNumber1Type</t>
+        </is>
+      </c>
+      <c r="BQ1" s="3" t="inlineStr">
+        <is>
+          <t>MemberContactContactNumber1Number</t>
+        </is>
+      </c>
+      <c r="BR1" s="3" t="inlineStr">
+        <is>
+          <t>MemberContactContactNumber2Type</t>
+        </is>
+      </c>
+      <c r="BS1" s="3" t="inlineStr">
+        <is>
+          <t>MemberContactContactNumber2Number</t>
+        </is>
+      </c>
+      <c r="BT1" s="3" t="inlineStr">
+        <is>
+          <t>MemberMaritalStatusCode</t>
+        </is>
+      </c>
+      <c r="BU1" s="3" t="inlineStr">
+        <is>
+          <t>MemberEthnicityCode</t>
+        </is>
+      </c>
+      <c r="BV1" s="3" t="inlineStr">
+        <is>
+          <t>MemberCitizenshipCode</t>
+        </is>
+      </c>
+      <c r="BW1" s="3" t="inlineStr">
+        <is>
+          <t>MemberEmploymentClassCode1</t>
+        </is>
+      </c>
+      <c r="BX1" s="3" t="inlineStr">
+        <is>
+          <t>MemberEmploymentClassCode2</t>
+        </is>
+      </c>
+      <c r="BY1" s="3" t="inlineStr">
+        <is>
+          <t>MemberEmploymentClassCode3</t>
+        </is>
+      </c>
+      <c r="BZ1" s="3" t="inlineStr">
+        <is>
+          <t>MemberEmploymentClassCode4</t>
+        </is>
+      </c>
+      <c r="CA1" s="3" t="inlineStr">
+        <is>
+          <t>MemberEmploymentClassCode5</t>
+        </is>
+      </c>
+      <c r="CB1" s="3" t="inlineStr">
+        <is>
+          <t>MemberWageFrequencyCode</t>
+        </is>
+      </c>
+      <c r="CC1" s="3" t="inlineStr">
+        <is>
+          <t>MemberWageAmount</t>
+        </is>
+      </c>
+      <c r="CD1" s="3" t="inlineStr">
+        <is>
+          <t>MemberWorkHoursCount</t>
+        </is>
+      </c>
+      <c r="CE1" s="3" t="inlineStr">
+        <is>
+          <t>MemberEmployerLocationIdentificationCode</t>
+        </is>
+      </c>
+      <c r="CF1" s="3" t="inlineStr">
+        <is>
+          <t>MemberSalaryGradeCode</t>
+        </is>
+      </c>
+      <c r="CG1" s="3" t="inlineStr">
+        <is>
+          <t>MemberHealthRelatedCode</t>
+        </is>
+      </c>
+      <c r="CH1" s="3" t="inlineStr">
+        <is>
+          <t>MemberHeight</t>
+        </is>
+      </c>
+      <c r="CI1" s="3" t="inlineStr">
+        <is>
+          <t>MemberWeight</t>
+        </is>
+      </c>
+      <c r="CJ1" s="3" t="inlineStr">
+        <is>
           <t>ContractAmount1QualifierCode</t>
         </is>
       </c>
-      <c r="BM1" s="3" t="inlineStr">
+      <c r="CK1" s="3" t="inlineStr">
         <is>
           <t>ContractAmount1Amount</t>
         </is>
       </c>
-      <c r="BN1" s="3" t="inlineStr">
+      <c r="CL1" s="3" t="inlineStr">
         <is>
           <t>ContractAmount2QualifierCode</t>
         </is>
       </c>
-      <c r="BO1" s="3" t="inlineStr">
+      <c r="CM1" s="3" t="inlineStr">
         <is>
           <t>ContractAmount2Amount</t>
         </is>
       </c>
-      <c r="BP1" s="3" t="inlineStr">
+      <c r="CN1" s="3" t="inlineStr">
         <is>
           <t>ContractAmount3QualifierCode</t>
         </is>
       </c>
-      <c r="BQ1" s="3" t="inlineStr">
+      <c r="CO1" s="3" t="inlineStr">
         <is>
           <t>ContractAmount3Amount</t>
         </is>
       </c>
-      <c r="BR1" s="3" t="inlineStr">
+      <c r="CP1" s="3" t="inlineStr">
         <is>
           <t>ContractAmount4QualifierCode</t>
         </is>
       </c>
-      <c r="BS1" s="3" t="inlineStr">
+      <c r="CQ1" s="3" t="inlineStr">
         <is>
           <t>ContractAmount4Amount</t>
         </is>
       </c>
-      <c r="BT1" s="3" t="inlineStr">
+      <c r="CR1" s="3" t="inlineStr">
         <is>
           <t>ContractAmount5QualifierCode</t>
         </is>
       </c>
-      <c r="BU1" s="3" t="inlineStr">
+      <c r="CS1" s="3" t="inlineStr">
         <is>
           <t>ContractAmount5Amount</t>
         </is>
       </c>
-      <c r="BV1" s="3" t="inlineStr">
+      <c r="CT1" s="3" t="inlineStr">
         <is>
           <t>MailingAddressLine</t>
         </is>
       </c>
-      <c r="BW1" s="3" t="inlineStr">
+      <c r="CU1" s="3" t="inlineStr">
         <is>
           <t>MailingAddressLine2</t>
         </is>
       </c>
-      <c r="BX1" s="3" t="inlineStr">
+      <c r="CV1" s="3" t="inlineStr">
         <is>
           <t>MailingAddressCity</t>
         </is>
       </c>
-      <c r="BY1" s="3" t="inlineStr">
+      <c r="CW1" s="3" t="inlineStr">
         <is>
           <t>MailingAddressStateCode</t>
         </is>
       </c>
-      <c r="BZ1" s="3" t="inlineStr">
+      <c r="CX1" s="3" t="inlineStr">
         <is>
           <t>MailingAddressZipCode</t>
         </is>
       </c>
-      <c r="CA1" s="3" t="inlineStr">
+      <c r="CY1" s="3" t="inlineStr">
         <is>
           <t>Employer1Identifier</t>
         </is>
       </c>
-      <c r="CB1" s="3" t="inlineStr">
+      <c r="CZ1" s="3" t="inlineStr">
         <is>
           <t>Employer1LastNameOrOrgName</t>
         </is>
       </c>
-      <c r="CC1" s="3" t="inlineStr">
+      <c r="DA1" s="3" t="inlineStr">
         <is>
           <t>Employer1FirstName</t>
         </is>
       </c>
-      <c r="CD1" s="3" t="inlineStr">
+      <c r="DB1" s="3" t="inlineStr">
         <is>
           <t>Employer1MiddleName</t>
         </is>
       </c>
-      <c r="CE1" s="3" t="inlineStr">
+      <c r="DC1" s="3" t="inlineStr">
         <is>
           <t>Employer1AddressLine</t>
         </is>
       </c>
-      <c r="CF1" s="3" t="inlineStr">
+      <c r="DD1" s="3" t="inlineStr">
         <is>
           <t>Employer1AddressLine2</t>
         </is>
       </c>
-      <c r="CG1" s="3" t="inlineStr">
+      <c r="DE1" s="3" t="inlineStr">
         <is>
           <t>Employer1AddressCity</t>
         </is>
       </c>
-      <c r="CH1" s="3" t="inlineStr">
+      <c r="DF1" s="3" t="inlineStr">
         <is>
           <t>Employer1AddressStateCode</t>
         </is>
       </c>
-      <c r="CI1" s="3" t="inlineStr">
+      <c r="DG1" s="3" t="inlineStr">
         <is>
           <t>Employer1AddressZipCode</t>
         </is>
       </c>
-      <c r="CJ1" s="3" t="inlineStr">
+      <c r="DH1" s="3" t="inlineStr">
         <is>
           <t>Employer1ContactContactNumber1Type</t>
         </is>
       </c>
-      <c r="CK1" s="3" t="inlineStr">
+      <c r="DI1" s="3" t="inlineStr">
         <is>
           <t>Employer1ContactContactNumber1Number</t>
         </is>
       </c>
-      <c r="CL1" s="3" t="inlineStr">
+      <c r="DJ1" s="3" t="inlineStr">
         <is>
           <t>Employer1ContactContactNumber2Type</t>
         </is>
       </c>
-      <c r="CM1" s="3" t="inlineStr">
+      <c r="DK1" s="3" t="inlineStr">
         <is>
           <t>Employer1ContactContactNumber2Number</t>
         </is>
       </c>
-      <c r="CN1" s="3" t="inlineStr">
+      <c r="DL1" s="3" t="inlineStr">
         <is>
           <t>Employer2Identifier</t>
         </is>
       </c>
-      <c r="CO1" s="3" t="inlineStr">
+      <c r="DM1" s="3" t="inlineStr">
         <is>
           <t>Employer2LastNameOrOrgName</t>
         </is>
       </c>
-      <c r="CP1" s="3" t="inlineStr">
+      <c r="DN1" s="3" t="inlineStr">
         <is>
           <t>Employer2FirstName</t>
         </is>
       </c>
-      <c r="CQ1" s="3" t="inlineStr">
+      <c r="DO1" s="3" t="inlineStr">
         <is>
           <t>Employer2MiddleName</t>
         </is>
       </c>
-      <c r="CR1" s="3" t="inlineStr">
+      <c r="DP1" s="3" t="inlineStr">
         <is>
           <t>Employer2AddressLine</t>
         </is>
       </c>
-      <c r="CS1" s="3" t="inlineStr">
+      <c r="DQ1" s="3" t="inlineStr">
         <is>
           <t>Employer2AddressLine2</t>
         </is>
       </c>
-      <c r="CT1" s="3" t="inlineStr">
+      <c r="DR1" s="3" t="inlineStr">
         <is>
           <t>Employer2AddressCity</t>
         </is>
       </c>
-      <c r="CU1" s="3" t="inlineStr">
+      <c r="DS1" s="3" t="inlineStr">
         <is>
           <t>Employer2AddressStateCode</t>
         </is>
       </c>
-      <c r="CV1" s="3" t="inlineStr">
+      <c r="DT1" s="3" t="inlineStr">
         <is>
           <t>Employer2AddressZipCode</t>
         </is>
       </c>
-      <c r="CW1" s="3" t="inlineStr">
+      <c r="DU1" s="3" t="inlineStr">
         <is>
           <t>Employer2ContactContactNumber1Type</t>
         </is>
       </c>
-      <c r="CX1" s="3" t="inlineStr">
+      <c r="DV1" s="3" t="inlineStr">
         <is>
           <t>Employer2ContactContactNumber1Number</t>
         </is>
       </c>
-      <c r="CY1" s="3" t="inlineStr">
+      <c r="DW1" s="3" t="inlineStr">
         <is>
           <t>Employer2ContactContactNumber2Type</t>
         </is>
       </c>
-      <c r="CZ1" s="3" t="inlineStr">
+      <c r="DX1" s="3" t="inlineStr">
         <is>
           <t>Employer2ContactContactNumber2Number</t>
         </is>
       </c>
-      <c r="DA1" s="3" t="inlineStr">
-        <is>
-          <t>Employer3Identifier</t>
-        </is>
-      </c>
-      <c r="DB1" s="3" t="inlineStr">
-        <is>
-          <t>Employer3LastNameOrOrgName</t>
-        </is>
-      </c>
-      <c r="DC1" s="3" t="inlineStr">
-        <is>
-          <t>Employer3FirstName</t>
-        </is>
-      </c>
-      <c r="DD1" s="3" t="inlineStr">
-        <is>
-          <t>Employer3MiddleName</t>
-        </is>
-      </c>
-      <c r="DE1" s="3" t="inlineStr">
-        <is>
-          <t>Employer3AddressLine</t>
-        </is>
-      </c>
-      <c r="DF1" s="3" t="inlineStr">
-        <is>
-          <t>Employer3AddressLine2</t>
-        </is>
-      </c>
-      <c r="DG1" s="3" t="inlineStr">
-        <is>
-          <t>Employer3AddressCity</t>
-        </is>
-      </c>
-      <c r="DH1" s="3" t="inlineStr">
-        <is>
-          <t>Employer3AddressStateCode</t>
-        </is>
-      </c>
-      <c r="DI1" s="3" t="inlineStr">
-        <is>
-          <t>Employer3AddressZipCode</t>
-        </is>
-      </c>
-      <c r="DJ1" s="3" t="inlineStr">
-        <is>
-          <t>Employer3ContactContactNumber1Type</t>
-        </is>
-      </c>
-      <c r="DK1" s="3" t="inlineStr">
-        <is>
-          <t>Employer3ContactContactNumber1Number</t>
-        </is>
-      </c>
-      <c r="DL1" s="3" t="inlineStr">
-        <is>
-          <t>Employer3ContactContactNumber2Type</t>
-        </is>
-      </c>
-      <c r="DM1" s="3" t="inlineStr">
-        <is>
-          <t>Employer3ContactContactNumber2Number</t>
-        </is>
-      </c>
-      <c r="DN1" s="3" t="inlineStr">
+      <c r="DY1" s="3" t="inlineStr">
+        <is>
+          <t>School1Identifier</t>
+        </is>
+      </c>
+      <c r="DZ1" s="3" t="inlineStr">
+        <is>
+          <t>School1LastNameOrOrgName</t>
+        </is>
+      </c>
+      <c r="EA1" s="3" t="inlineStr">
+        <is>
+          <t>School1AddressLine</t>
+        </is>
+      </c>
+      <c r="EB1" s="3" t="inlineStr">
+        <is>
+          <t>School1AddressLine2</t>
+        </is>
+      </c>
+      <c r="EC1" s="3" t="inlineStr">
+        <is>
+          <t>School1AddressCity</t>
+        </is>
+      </c>
+      <c r="ED1" s="3" t="inlineStr">
+        <is>
+          <t>School1AddressStateCode</t>
+        </is>
+      </c>
+      <c r="EE1" s="3" t="inlineStr">
+        <is>
+          <t>School1AddressZipCode</t>
+        </is>
+      </c>
+      <c r="EF1" s="3" t="inlineStr">
+        <is>
+          <t>School1ContactContactNumber1Type</t>
+        </is>
+      </c>
+      <c r="EG1" s="3" t="inlineStr">
+        <is>
+          <t>School1ContactContactNumber1Number</t>
+        </is>
+      </c>
+      <c r="EH1" s="3" t="inlineStr">
+        <is>
+          <t>School1ContactContactNumber2Type</t>
+        </is>
+      </c>
+      <c r="EI1" s="3" t="inlineStr">
+        <is>
+          <t>School1ContactContactNumber2Number</t>
+        </is>
+      </c>
+      <c r="EJ1" s="3" t="inlineStr">
+        <is>
+          <t>School2Identifier</t>
+        </is>
+      </c>
+      <c r="EK1" s="3" t="inlineStr">
+        <is>
+          <t>School2LastNameOrOrgName</t>
+        </is>
+      </c>
+      <c r="EL1" s="3" t="inlineStr">
+        <is>
+          <t>School2AddressLine</t>
+        </is>
+      </c>
+      <c r="EM1" s="3" t="inlineStr">
+        <is>
+          <t>School2AddressLine2</t>
+        </is>
+      </c>
+      <c r="EN1" s="3" t="inlineStr">
+        <is>
+          <t>School2AddressCity</t>
+        </is>
+      </c>
+      <c r="EO1" s="3" t="inlineStr">
+        <is>
+          <t>School2AddressStateCode</t>
+        </is>
+      </c>
+      <c r="EP1" s="3" t="inlineStr">
+        <is>
+          <t>School2AddressZipCode</t>
+        </is>
+      </c>
+      <c r="EQ1" s="3" t="inlineStr">
+        <is>
+          <t>School2ContactContactNumber1Type</t>
+        </is>
+      </c>
+      <c r="ER1" s="3" t="inlineStr">
+        <is>
+          <t>School2ContactContactNumber1Number</t>
+        </is>
+      </c>
+      <c r="ES1" s="3" t="inlineStr">
+        <is>
+          <t>School2ContactContactNumber2Type</t>
+        </is>
+      </c>
+      <c r="ET1" s="3" t="inlineStr">
+        <is>
+          <t>School2ContactContactNumber2Number</t>
+        </is>
+      </c>
+      <c r="EU1" s="3" t="inlineStr">
+        <is>
+          <t>CustodialParentIdentifier</t>
+        </is>
+      </c>
+      <c r="EV1" s="3" t="inlineStr">
+        <is>
+          <t>CustodialParentLastNameOrOrgName</t>
+        </is>
+      </c>
+      <c r="EW1" s="3" t="inlineStr">
+        <is>
+          <t>CustodialParentFirstName</t>
+        </is>
+      </c>
+      <c r="EX1" s="3" t="inlineStr">
+        <is>
+          <t>CustodialParentMiddleName</t>
+        </is>
+      </c>
+      <c r="EY1" s="3" t="inlineStr">
+        <is>
+          <t>CustodialParentAddressLine</t>
+        </is>
+      </c>
+      <c r="EZ1" s="3" t="inlineStr">
+        <is>
+          <t>CustodialParentAddressLine2</t>
+        </is>
+      </c>
+      <c r="FA1" s="3" t="inlineStr">
+        <is>
+          <t>CustodialParentAddressCity</t>
+        </is>
+      </c>
+      <c r="FB1" s="3" t="inlineStr">
+        <is>
+          <t>CustodialParentAddressStateCode</t>
+        </is>
+      </c>
+      <c r="FC1" s="3" t="inlineStr">
+        <is>
+          <t>CustodialParentAddressZipCode</t>
+        </is>
+      </c>
+      <c r="FD1" s="3" t="inlineStr">
+        <is>
+          <t>CustodialParentContactContactNumber1Type</t>
+        </is>
+      </c>
+      <c r="FE1" s="3" t="inlineStr">
+        <is>
+          <t>CustodialParentContactContactNumber1Number</t>
+        </is>
+      </c>
+      <c r="FF1" s="3" t="inlineStr">
+        <is>
+          <t>CustodialParentContactContactNumber2Type</t>
+        </is>
+      </c>
+      <c r="FG1" s="3" t="inlineStr">
+        <is>
+          <t>CustodialParentContactContactNumber2Number</t>
+        </is>
+      </c>
+      <c r="FH1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson1EntityRole</t>
         </is>
       </c>
-      <c r="DO1" s="3" t="inlineStr">
+      <c r="FI1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson1Identifier</t>
         </is>
       </c>
-      <c r="DP1" s="3" t="inlineStr">
+      <c r="FJ1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson1LastNameOrOrgName</t>
         </is>
       </c>
-      <c r="DQ1" s="3" t="inlineStr">
+      <c r="FK1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson1FirstName</t>
         </is>
       </c>
-      <c r="DR1" s="3" t="inlineStr">
+      <c r="FL1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson1MiddleName</t>
         </is>
       </c>
-      <c r="DS1" s="3" t="inlineStr">
+      <c r="FM1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson1AddressLine</t>
         </is>
       </c>
-      <c r="DT1" s="3" t="inlineStr">
+      <c r="FN1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson1AddressLine2</t>
         </is>
       </c>
-      <c r="DU1" s="3" t="inlineStr">
+      <c r="FO1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson1AddressCity</t>
         </is>
       </c>
-      <c r="DV1" s="3" t="inlineStr">
+      <c r="FP1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson1AddressStateCode</t>
         </is>
       </c>
-      <c r="DW1" s="3" t="inlineStr">
+      <c r="FQ1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson1AddressZipCode</t>
         </is>
       </c>
-      <c r="DX1" s="3" t="inlineStr">
+      <c r="FR1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson1ContactContactNumber1Type</t>
         </is>
       </c>
-      <c r="DY1" s="3" t="inlineStr">
+      <c r="FS1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson1ContactContactNumber1Number</t>
         </is>
       </c>
-      <c r="DZ1" s="3" t="inlineStr">
+      <c r="FT1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson1ContactContactNumber2Type</t>
         </is>
       </c>
-      <c r="EA1" s="3" t="inlineStr">
+      <c r="FU1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson1ContactContactNumber2Number</t>
         </is>
       </c>
-      <c r="EB1" s="3" t="inlineStr">
+      <c r="FV1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson2EntityRole</t>
         </is>
       </c>
-      <c r="EC1" s="3" t="inlineStr">
+      <c r="FW1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson2Identifier</t>
         </is>
       </c>
-      <c r="ED1" s="3" t="inlineStr">
+      <c r="FX1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson2LastNameOrOrgName</t>
         </is>
       </c>
-      <c r="EE1" s="3" t="inlineStr">
+      <c r="FY1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson2FirstName</t>
         </is>
       </c>
-      <c r="EF1" s="3" t="inlineStr">
+      <c r="FZ1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson2MiddleName</t>
         </is>
       </c>
-      <c r="EG1" s="3" t="inlineStr">
+      <c r="GA1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson2AddressLine</t>
         </is>
       </c>
-      <c r="EH1" s="3" t="inlineStr">
+      <c r="GB1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson2AddressLine2</t>
         </is>
       </c>
-      <c r="EI1" s="3" t="inlineStr">
+      <c r="GC1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson2AddressCity</t>
         </is>
       </c>
-      <c r="EJ1" s="3" t="inlineStr">
+      <c r="GD1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson2AddressStateCode</t>
         </is>
       </c>
-      <c r="EK1" s="3" t="inlineStr">
+      <c r="GE1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson2AddressZipCode</t>
         </is>
       </c>
-      <c r="EL1" s="3" t="inlineStr">
+      <c r="GF1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson2ContactContactNumber1Type</t>
         </is>
       </c>
-      <c r="EM1" s="3" t="inlineStr">
+      <c r="GG1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson2ContactContactNumber1Number</t>
         </is>
       </c>
-      <c r="EN1" s="3" t="inlineStr">
+      <c r="GH1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson2ContactContactNumber2Type</t>
         </is>
       </c>
-      <c r="EO1" s="3" t="inlineStr">
+      <c r="GI1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson2ContactContactNumber2Number</t>
         </is>
       </c>
-      <c r="EP1" s="3" t="inlineStr">
+      <c r="GJ1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson3EntityRole</t>
         </is>
       </c>
-      <c r="EQ1" s="3" t="inlineStr">
+      <c r="GK1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson3Identifier</t>
         </is>
       </c>
-      <c r="ER1" s="3" t="inlineStr">
+      <c r="GL1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson3LastNameOrOrgName</t>
         </is>
       </c>
-      <c r="ES1" s="3" t="inlineStr">
+      <c r="GM1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson3FirstName</t>
         </is>
       </c>
-      <c r="ET1" s="3" t="inlineStr">
+      <c r="GN1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson3MiddleName</t>
         </is>
       </c>
-      <c r="EU1" s="3" t="inlineStr">
+      <c r="GO1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson3AddressLine</t>
         </is>
       </c>
-      <c r="EV1" s="3" t="inlineStr">
+      <c r="GP1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson3AddressLine2</t>
         </is>
       </c>
-      <c r="EW1" s="3" t="inlineStr">
+      <c r="GQ1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson3AddressCity</t>
         </is>
       </c>
-      <c r="EX1" s="3" t="inlineStr">
+      <c r="GR1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson3AddressStateCode</t>
         </is>
       </c>
-      <c r="EY1" s="3" t="inlineStr">
+      <c r="GS1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson3AddressZipCode</t>
         </is>
       </c>
-      <c r="EZ1" s="3" t="inlineStr">
+      <c r="GT1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson3ContactContactNumber1Type</t>
         </is>
       </c>
-      <c r="FA1" s="3" t="inlineStr">
+      <c r="GU1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson3ContactContactNumber1Number</t>
         </is>
       </c>
-      <c r="FB1" s="3" t="inlineStr">
+      <c r="GV1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson3ContactContactNumber2Type</t>
         </is>
       </c>
-      <c r="FC1" s="3" t="inlineStr">
+      <c r="GW1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson3ContactContactNumber2Number</t>
         </is>
       </c>
-      <c r="FD1" s="3" t="inlineStr">
+      <c r="GX1" s="3" t="inlineStr">
+        <is>
+          <t>Disability1TypeCode</t>
+        </is>
+      </c>
+      <c r="GY1" s="3" t="inlineStr">
+        <is>
+          <t>Disability1DiagnosisCode</t>
+        </is>
+      </c>
+      <c r="GZ1" s="3" t="inlineStr">
+        <is>
+          <t>Disability1DateFrom</t>
+        </is>
+      </c>
+      <c r="HA1" s="3" t="inlineStr">
+        <is>
+          <t>Disability1DateTo</t>
+        </is>
+      </c>
+      <c r="HB1" s="3" t="inlineStr">
+        <is>
+          <t>Disability2TypeCode</t>
+        </is>
+      </c>
+      <c r="HC1" s="3" t="inlineStr">
+        <is>
+          <t>Disability2DiagnosisCode</t>
+        </is>
+      </c>
+      <c r="HD1" s="3" t="inlineStr">
+        <is>
+          <t>Disability2DateFrom</t>
+        </is>
+      </c>
+      <c r="HE1" s="3" t="inlineStr">
+        <is>
+          <t>Disability2DateTo</t>
+        </is>
+      </c>
+      <c r="HF1" s="3" t="inlineStr">
+        <is>
+          <t>Disability3TypeCode</t>
+        </is>
+      </c>
+      <c r="HG1" s="3" t="inlineStr">
+        <is>
+          <t>Disability3DiagnosisCode</t>
+        </is>
+      </c>
+      <c r="HH1" s="3" t="inlineStr">
+        <is>
+          <t>Disability3DateFrom</t>
+        </is>
+      </c>
+      <c r="HI1" s="3" t="inlineStr">
+        <is>
+          <t>Disability3DateTo</t>
+        </is>
+      </c>
+      <c r="HJ1" s="3" t="inlineStr">
+        <is>
+          <t>ReportingCategory1Name</t>
+        </is>
+      </c>
+      <c r="HK1" s="3" t="inlineStr">
+        <is>
+          <t>ReportingCategory1IdentifierQualifierCode</t>
+        </is>
+      </c>
+      <c r="HL1" s="3" t="inlineStr">
+        <is>
+          <t>ReportingCategory1IdentifierType</t>
+        </is>
+      </c>
+      <c r="HM1" s="3" t="inlineStr">
+        <is>
+          <t>ReportingCategory1Identifier</t>
+        </is>
+      </c>
+      <c r="HN1" s="3" t="inlineStr">
+        <is>
+          <t>ReportingCategory1Date</t>
+        </is>
+      </c>
+      <c r="HO1" s="3" t="inlineStr">
+        <is>
+          <t>ReportingCategory1DateTo</t>
+        </is>
+      </c>
+      <c r="HP1" s="3" t="inlineStr">
+        <is>
+          <t>ReportingCategory2Name</t>
+        </is>
+      </c>
+      <c r="HQ1" s="3" t="inlineStr">
+        <is>
+          <t>ReportingCategory2IdentifierQualifierCode</t>
+        </is>
+      </c>
+      <c r="HR1" s="3" t="inlineStr">
+        <is>
+          <t>ReportingCategory2IdentifierType</t>
+        </is>
+      </c>
+      <c r="HS1" s="3" t="inlineStr">
+        <is>
+          <t>ReportingCategory2Identifier</t>
+        </is>
+      </c>
+      <c r="HT1" s="3" t="inlineStr">
+        <is>
+          <t>ReportingCategory2Date</t>
+        </is>
+      </c>
+      <c r="HU1" s="3" t="inlineStr">
+        <is>
+          <t>ReportingCategory2DateTo</t>
+        </is>
+      </c>
+      <c r="HV1" s="3" t="inlineStr">
+        <is>
+          <t>ReportingCategory3Name</t>
+        </is>
+      </c>
+      <c r="HW1" s="3" t="inlineStr">
+        <is>
+          <t>ReportingCategory3IdentifierQualifierCode</t>
+        </is>
+      </c>
+      <c r="HX1" s="3" t="inlineStr">
+        <is>
+          <t>ReportingCategory3IdentifierType</t>
+        </is>
+      </c>
+      <c r="HY1" s="3" t="inlineStr">
+        <is>
+          <t>ReportingCategory3Identifier</t>
+        </is>
+      </c>
+      <c r="HZ1" s="3" t="inlineStr">
+        <is>
+          <t>ReportingCategory3Date</t>
+        </is>
+      </c>
+      <c r="IA1" s="3" t="inlineStr">
+        <is>
+          <t>ReportingCategory3DateTo</t>
+        </is>
+      </c>
+      <c r="IB1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageMaintenanceTypeCode</t>
         </is>
       </c>
-      <c r="FE1" s="3" t="inlineStr">
+      <c r="IC1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageInsuranceLineCode</t>
         </is>
       </c>
-      <c r="FF1" s="3" t="inlineStr">
+      <c r="ID1" s="3" t="inlineStr">
         <is>
           <t>HealthCoveragePlanDescription</t>
         </is>
       </c>
-      <c r="FG1" s="3" t="inlineStr">
+      <c r="IE1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageCoverageLevelCode</t>
         </is>
       </c>
-      <c r="FH1" s="3" t="inlineStr">
+      <c r="IF1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageLateEnrollmentIndicator</t>
         </is>
       </c>
-      <c r="FI1" s="3" t="inlineStr">
+      <c r="IG1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageCoverageDate1QualifierCode</t>
         </is>
       </c>
-      <c r="FJ1" s="3" t="inlineStr">
+      <c r="IH1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageCoverageDate1Date</t>
         </is>
       </c>
-      <c r="FK1" s="3" t="inlineStr">
+      <c r="II1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageCoverageDate2QualifierCode</t>
         </is>
       </c>
-      <c r="FL1" s="3" t="inlineStr">
+      <c r="IJ1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageCoverageDate2Date</t>
         </is>
       </c>
-      <c r="FM1" s="3" t="inlineStr">
+      <c r="IK1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageCoverageDate3QualifierCode</t>
         </is>
       </c>
-      <c r="FN1" s="3" t="inlineStr">
+      <c r="IL1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageCoverageDate3Date</t>
         </is>
       </c>
-      <c r="FO1" s="3" t="inlineStr">
+      <c r="IM1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageCoverageDate4QualifierCode</t>
         </is>
       </c>
-      <c r="FP1" s="3" t="inlineStr">
+      <c r="IN1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageCoverageDate4Date</t>
         </is>
       </c>
-      <c r="FQ1" s="3" t="inlineStr">
+      <c r="IO1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageCoverageDate5QualifierCode</t>
         </is>
       </c>
-      <c r="FR1" s="3" t="inlineStr">
+      <c r="IP1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageCoverageDate5Date</t>
         </is>
       </c>
-      <c r="FS1" s="3" t="inlineStr">
+      <c r="IQ1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageContractAmount1QualifierCode</t>
         </is>
       </c>
-      <c r="FT1" s="3" t="inlineStr">
+      <c r="IR1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageContractAmount1Amount</t>
         </is>
       </c>
-      <c r="FU1" s="3" t="inlineStr">
+      <c r="IS1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageContractAmount2QualifierCode</t>
         </is>
       </c>
-      <c r="FV1" s="3" t="inlineStr">
+      <c r="IT1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageContractAmount2Amount</t>
         </is>
       </c>
-      <c r="FW1" s="3" t="inlineStr">
+      <c r="IU1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageContractAmount3QualifierCode</t>
         </is>
       </c>
-      <c r="FX1" s="3" t="inlineStr">
+      <c r="IV1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageContractAmount3Amount</t>
         </is>
       </c>
-      <c r="FY1" s="3" t="inlineStr">
+      <c r="IW1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageGroupOrPolicyNumber1QualifierCode</t>
         </is>
       </c>
-      <c r="FZ1" s="3" t="inlineStr">
+      <c r="IX1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageGroupOrPolicyNumber1Identification</t>
         </is>
       </c>
-      <c r="GA1" s="3" t="inlineStr">
+      <c r="IY1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageGroupOrPolicyNumber2QualifierCode</t>
         </is>
       </c>
-      <c r="GB1" s="3" t="inlineStr">
+      <c r="IZ1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageGroupOrPolicyNumber2Identification</t>
         </is>
       </c>
-      <c r="GC1" s="3" t="inlineStr">
+      <c r="JA1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageGroupOrPolicyNumber3QualifierCode</t>
         </is>
       </c>
-      <c r="GD1" s="3" t="inlineStr">
+      <c r="JB1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageGroupOrPolicyNumber3Identification</t>
         </is>
       </c>
-      <c r="GE1" s="3" t="inlineStr">
+      <c r="JC1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageGroupOrPolicyNumber4QualifierCode</t>
         </is>
       </c>
-      <c r="GF1" s="3" t="inlineStr">
+      <c r="JD1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageGroupOrPolicyNumber4Identification</t>
         </is>
       </c>
-      <c r="GG1" s="3" t="inlineStr">
+      <c r="JE1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageGroupOrPolicyNumber5QualifierCode</t>
         </is>
       </c>
-      <c r="GH1" s="3" t="inlineStr">
+      <c r="JF1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageGroupOrPolicyNumber5Identification</t>
         </is>
       </c>
-      <c r="GI1" s="3" t="inlineStr">
+      <c r="JG1" s="3" t="inlineStr">
         <is>
           <t>HealthCoveragePriorCoverageMonthCount</t>
         </is>
       </c>
-      <c r="GJ1" s="3" t="inlineStr">
+      <c r="JH1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider1EntityRole</t>
         </is>
       </c>
-      <c r="GK1" s="3" t="inlineStr">
+      <c r="JI1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider1EntityType</t>
         </is>
       </c>
-      <c r="GL1" s="3" t="inlineStr">
+      <c r="JJ1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider1Identifier</t>
         </is>
       </c>
-      <c r="GM1" s="3" t="inlineStr">
+      <c r="JK1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider1LastNameOrOrgName</t>
         </is>
       </c>
-      <c r="GN1" s="3" t="inlineStr">
+      <c r="JL1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider1FirstName</t>
         </is>
       </c>
-      <c r="GO1" s="3" t="inlineStr">
+      <c r="JM1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider1MiddleName</t>
         </is>
       </c>
-      <c r="GP1" s="3" t="inlineStr">
+      <c r="JN1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider1AddressLine</t>
         </is>
       </c>
-      <c r="GQ1" s="3" t="inlineStr">
+      <c r="JO1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider1AddressLine2</t>
         </is>
       </c>
-      <c r="GR1" s="3" t="inlineStr">
+      <c r="JP1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider1AddressCity</t>
         </is>
       </c>
-      <c r="GS1" s="3" t="inlineStr">
+      <c r="JQ1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider1AddressStateCode</t>
         </is>
       </c>
-      <c r="GT1" s="3" t="inlineStr">
+      <c r="JR1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider1AddressZipCode</t>
         </is>
       </c>
-      <c r="GU1" s="3" t="inlineStr">
+      <c r="JS1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider1ContactContactNumber1Type</t>
         </is>
       </c>
-      <c r="GV1" s="3" t="inlineStr">
+      <c r="JT1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider1ContactContactNumber1Number</t>
         </is>
       </c>
-      <c r="GW1" s="3" t="inlineStr">
+      <c r="JU1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider1ContactContactNumber2Type</t>
         </is>
       </c>
-      <c r="GX1" s="3" t="inlineStr">
+      <c r="JV1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider1ContactContactNumber2Number</t>
         </is>
       </c>
-      <c r="GY1" s="3" t="inlineStr">
+      <c r="JW1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider1ChangeReasonActionCode</t>
         </is>
       </c>
-      <c r="GZ1" s="3" t="inlineStr">
+      <c r="JX1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider1ChangeReasonEffectiveDate</t>
         </is>
       </c>
-      <c r="HA1" s="3" t="inlineStr">
+      <c r="JY1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider1ChangeReasonReasonCode</t>
         </is>
       </c>
-      <c r="HB1" s="3" t="inlineStr">
+      <c r="JZ1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider2EntityRole</t>
         </is>
       </c>
-      <c r="HC1" s="3" t="inlineStr">
+      <c r="KA1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider2EntityType</t>
         </is>
       </c>
-      <c r="HD1" s="3" t="inlineStr">
+      <c r="KB1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider2Identifier</t>
         </is>
       </c>
-      <c r="HE1" s="3" t="inlineStr">
+      <c r="KC1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider2LastNameOrOrgName</t>
         </is>
       </c>
-      <c r="HF1" s="3" t="inlineStr">
+      <c r="KD1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider2FirstName</t>
         </is>
       </c>
-      <c r="HG1" s="3" t="inlineStr">
+      <c r="KE1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider2MiddleName</t>
         </is>
       </c>
-      <c r="HH1" s="3" t="inlineStr">
+      <c r="KF1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider2AddressLine</t>
         </is>
       </c>
-      <c r="HI1" s="3" t="inlineStr">
+      <c r="KG1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider2AddressLine2</t>
         </is>
       </c>
-      <c r="HJ1" s="3" t="inlineStr">
+      <c r="KH1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider2AddressCity</t>
         </is>
       </c>
-      <c r="HK1" s="3" t="inlineStr">
+      <c r="KI1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider2AddressStateCode</t>
         </is>
       </c>
-      <c r="HL1" s="3" t="inlineStr">
+      <c r="KJ1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider2AddressZipCode</t>
         </is>
       </c>
-      <c r="HM1" s="3" t="inlineStr">
+      <c r="KK1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider2ContactContactNumber1Type</t>
         </is>
       </c>
-      <c r="HN1" s="3" t="inlineStr">
+      <c r="KL1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider2ContactContactNumber1Number</t>
         </is>
       </c>
-      <c r="HO1" s="3" t="inlineStr">
+      <c r="KM1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider2ContactContactNumber2Type</t>
         </is>
       </c>
-      <c r="HP1" s="3" t="inlineStr">
+      <c r="KN1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider2ContactContactNumber2Number</t>
         </is>
       </c>
-      <c r="HQ1" s="3" t="inlineStr">
+      <c r="KO1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider2ChangeReasonActionCode</t>
         </is>
       </c>
-      <c r="HR1" s="3" t="inlineStr">
+      <c r="KP1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider2ChangeReasonEffectiveDate</t>
         </is>
       </c>
-      <c r="HS1" s="3" t="inlineStr">
+      <c r="KQ1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider2ChangeReasonReasonCode</t>
         </is>
       </c>
-      <c r="HT1" s="3" t="inlineStr">
+      <c r="KR1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider3EntityRole</t>
         </is>
       </c>
-      <c r="HU1" s="3" t="inlineStr">
+      <c r="KS1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider3EntityType</t>
         </is>
       </c>
-      <c r="HV1" s="3" t="inlineStr">
+      <c r="KT1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider3Identifier</t>
         </is>
       </c>
-      <c r="HW1" s="3" t="inlineStr">
+      <c r="KU1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider3LastNameOrOrgName</t>
         </is>
       </c>
-      <c r="HX1" s="3" t="inlineStr">
+      <c r="KV1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider3FirstName</t>
         </is>
       </c>
-      <c r="HY1" s="3" t="inlineStr">
+      <c r="KW1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider3MiddleName</t>
         </is>
       </c>
-      <c r="HZ1" s="3" t="inlineStr">
+      <c r="KX1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider3AddressLine</t>
         </is>
       </c>
-      <c r="IA1" s="3" t="inlineStr">
+      <c r="KY1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider3AddressLine2</t>
         </is>
       </c>
-      <c r="IB1" s="3" t="inlineStr">
+      <c r="KZ1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider3AddressCity</t>
         </is>
       </c>
-      <c r="IC1" s="3" t="inlineStr">
+      <c r="LA1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider3AddressStateCode</t>
         </is>
       </c>
-      <c r="ID1" s="3" t="inlineStr">
+      <c r="LB1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider3AddressZipCode</t>
         </is>
       </c>
-      <c r="IE1" s="3" t="inlineStr">
+      <c r="LC1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider3ContactContactNumber1Type</t>
         </is>
       </c>
-      <c r="IF1" s="3" t="inlineStr">
+      <c r="LD1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider3ContactContactNumber1Number</t>
         </is>
       </c>
-      <c r="IG1" s="3" t="inlineStr">
+      <c r="LE1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider3ContactContactNumber2Type</t>
         </is>
       </c>
-      <c r="IH1" s="3" t="inlineStr">
+      <c r="LF1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider3ContactContactNumber2Number</t>
         </is>
       </c>
-      <c r="II1" s="3" t="inlineStr">
+      <c r="LG1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider3ChangeReasonActionCode</t>
         </is>
       </c>
-      <c r="IJ1" s="3" t="inlineStr">
+      <c r="LH1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider3ChangeReasonEffectiveDate</t>
         </is>
       </c>
-      <c r="IK1" s="3" t="inlineStr">
+      <c r="LI1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider3ChangeReasonReasonCode</t>
         </is>
@@ -1295,7 +1675,7 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>68406977fb1f98446d7b6b3d</t>
+          <t>6846458a58f41c12bccd7bf6</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
@@ -1355,369 +1735,433 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
+          <t>tpaID</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>TPA</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>account1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>account2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>tpa2ID</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>TPA2</t>
+        </is>
+      </c>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2" s="3" t="inlineStr">
+        <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="V2" s="3" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="W2" s="3" t="inlineStr">
         <is>
           <t>021</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="X2" s="3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="Y2" s="3" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="R2" s="3" t="inlineStr">
+      <c r="Z2" s="3" t="inlineStr">
         <is>
           <t>CE</t>
         </is>
       </c>
-      <c r="S2" s="3" t="inlineStr">
+      <c r="AA2" s="3" t="inlineStr">
         <is>
           <t>FT</t>
         </is>
       </c>
-      <c r="T2" s="3" t="inlineStr">
+      <c r="AB2" s="3" t="inlineStr">
         <is>
           <t>ST</t>
         </is>
       </c>
-      <c r="U2" s="3" t="inlineStr">
+      <c r="AC2" s="3" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="V2"/>
-      <c r="W2"/>
-      <c r="X2" s="3" t="inlineStr">
-        <is>
-          <t>member1</t>
-        </is>
-      </c>
-      <c r="Y2" s="3" t="inlineStr">
-        <is>
-          <t>group1</t>
-        </is>
-      </c>
-      <c r="Z2" s="3" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="AA2" s="3" t="inlineStr">
-        <is>
-          <t>ClientNumber</t>
-        </is>
-      </c>
-      <c r="AB2"/>
-      <c r="AC2"/>
       <c r="AD2"/>
       <c r="AE2"/>
-      <c r="AF2"/>
-      <c r="AG2"/>
-      <c r="AH2"/>
-      <c r="AI2"/>
-      <c r="AJ2" s="3" t="inlineStr">
-        <is>
-          <t>356</t>
-        </is>
-      </c>
-      <c r="AK2" s="4" t="n">
-        <v>35076.0</v>
-      </c>
+      <c r="AF2" s="3" t="inlineStr">
+        <is>
+          <t>member1</t>
+        </is>
+      </c>
+      <c r="AG2" s="3" t="inlineStr">
+        <is>
+          <t>group1</t>
+        </is>
+      </c>
+      <c r="AH2" s="3" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="AI2" s="3" t="inlineStr">
+        <is>
+          <t>ClientNumber</t>
+        </is>
+      </c>
+      <c r="AJ2"/>
+      <c r="AK2"/>
       <c r="AL2"/>
       <c r="AM2"/>
       <c r="AN2"/>
       <c r="AO2"/>
       <c r="AP2"/>
       <c r="AQ2"/>
-      <c r="AR2"/>
-      <c r="AS2"/>
-      <c r="AT2" s="3" t="inlineStr">
-        <is>
-          <t>SUBSCRIBER</t>
-        </is>
-      </c>
-      <c r="AU2" s="3" t="inlineStr">
+      <c r="AR2" s="3" t="inlineStr">
+        <is>
+          <t>356</t>
+        </is>
+      </c>
+      <c r="AS2" s="4" t="n">
+        <v>35076.0</v>
+      </c>
+      <c r="AT2"/>
+      <c r="AU2"/>
+      <c r="AV2"/>
+      <c r="AW2"/>
+      <c r="AX2"/>
+      <c r="AY2"/>
+      <c r="AZ2"/>
+      <c r="BA2"/>
+      <c r="BB2" s="3" t="inlineStr">
+        <is>
+          <t>INSURED_SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="BC2" s="3" t="inlineStr">
         <is>
           <t>SSN</t>
         </is>
       </c>
-      <c r="AV2" s="3" t="inlineStr">
+      <c r="BD2" s="3" t="inlineStr">
         <is>
           <t>202443307</t>
         </is>
       </c>
-      <c r="AW2"/>
-      <c r="AX2" s="3" t="inlineStr">
+      <c r="BE2"/>
+      <c r="BF2" s="3" t="inlineStr">
         <is>
           <t>SMITH</t>
         </is>
       </c>
-      <c r="AY2" s="3" t="inlineStr">
+      <c r="BG2" s="3" t="inlineStr">
         <is>
           <t>WILLIAM</t>
         </is>
       </c>
-      <c r="AZ2"/>
-      <c r="BA2" s="4" t="n">
+      <c r="BH2"/>
+      <c r="BI2" s="4" t="n">
         <v>25733.0</v>
       </c>
-      <c r="BB2" s="3" t="inlineStr">
+      <c r="BJ2" s="3" t="inlineStr">
         <is>
           <t>MALE</t>
         </is>
       </c>
-      <c r="BC2" s="3" t="inlineStr">
+      <c r="BK2" s="3" t="inlineStr">
         <is>
           <t>1715 SOUTHWIND AVENUE</t>
         </is>
       </c>
-      <c r="BD2"/>
-      <c r="BE2" s="3" t="inlineStr">
+      <c r="BL2"/>
+      <c r="BM2" s="3" t="inlineStr">
         <is>
           <t>ANYTOWN</t>
         </is>
       </c>
-      <c r="BF2" s="3" t="inlineStr">
+      <c r="BN2" s="3" t="inlineStr">
         <is>
           <t>PA</t>
         </is>
       </c>
-      <c r="BG2" s="3" t="inlineStr">
+      <c r="BO2" s="3" t="inlineStr">
         <is>
           <t>171110000</t>
         </is>
       </c>
-      <c r="BH2" s="3" t="inlineStr">
+      <c r="BP2" s="3" t="inlineStr">
         <is>
           <t>HOME_PHONE</t>
         </is>
       </c>
-      <c r="BI2" s="3" t="inlineStr">
+      <c r="BQ2" s="3" t="inlineStr">
         <is>
           <t>7172343334</t>
         </is>
       </c>
-      <c r="BJ2" s="3" t="inlineStr">
+      <c r="BR2" s="3" t="inlineStr">
         <is>
           <t>WORK_PHONE</t>
         </is>
       </c>
-      <c r="BK2" s="3" t="inlineStr">
+      <c r="BS2" s="3" t="inlineStr">
         <is>
           <t>7172341240</t>
         </is>
       </c>
-      <c r="BL2" s="3" t="inlineStr">
+      <c r="BT2" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="BU2" s="3" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="BV2" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BW2" s="3" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="BX2" s="3" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="BY2" s="3" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="BZ2" s="3" t="inlineStr">
+        <is>
+          <t>09</t>
+        </is>
+      </c>
+      <c r="CA2" s="3" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="CB2" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CC2" s="1" t="n">
+        <v>425.25</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="CE2" s="3" t="inlineStr">
+        <is>
+          <t>LocCode</t>
+        </is>
+      </c>
+      <c r="CF2" s="3" t="inlineStr">
+        <is>
+          <t>SalaryGrade</t>
+        </is>
+      </c>
+      <c r="CG2" s="3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="CH2" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>210.0</v>
+      </c>
+      <c r="CJ2" s="3" t="inlineStr">
         <is>
           <t>D2</t>
         </is>
       </c>
-      <c r="BM2" s="1" t="n">
+      <c r="CK2" s="1" t="n">
         <v>100.0</v>
       </c>
-      <c r="BN2"/>
-      <c r="BO2"/>
-      <c r="BP2"/>
-      <c r="BQ2"/>
-      <c r="BR2"/>
-      <c r="BS2"/>
-      <c r="BT2"/>
-      <c r="BU2"/>
-      <c r="BV2" s="3" t="inlineStr">
-        <is>
-          <t>9715 SOUTHWIND AVENUE</t>
-        </is>
-      </c>
-      <c r="BW2"/>
-      <c r="BX2" s="3" t="inlineStr">
-        <is>
-          <t>ANYTOWN</t>
-        </is>
-      </c>
-      <c r="BY2" s="3" t="inlineStr">
-        <is>
-          <t>PA</t>
-        </is>
-      </c>
-      <c r="BZ2" s="3" t="inlineStr">
-        <is>
-          <t>971110000</t>
-        </is>
-      </c>
-      <c r="CA2" s="3" t="inlineStr">
-        <is>
-          <t>emp1ID</t>
-        </is>
-      </c>
-      <c r="CB2" s="3" t="inlineStr">
-        <is>
-          <t>EMPLOYER1</t>
-        </is>
-      </c>
-      <c r="CC2" s="3" t="inlineStr">
-        <is>
-          <t>First</t>
-        </is>
-      </c>
-      <c r="CD2" s="3" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="CE2" s="3" t="inlineStr">
-        <is>
-          <t>9715 EMPLOYER1 AVENUE</t>
-        </is>
-      </c>
-      <c r="CF2"/>
-      <c r="CG2" s="3" t="inlineStr">
-        <is>
-          <t>ANYTOWN</t>
-        </is>
-      </c>
-      <c r="CH2" s="3" t="inlineStr">
-        <is>
-          <t>PA</t>
-        </is>
-      </c>
-      <c r="CI2" s="3" t="inlineStr">
-        <is>
-          <t>971110000</t>
-        </is>
-      </c>
-      <c r="CJ2" s="3" t="inlineStr">
-        <is>
-          <t>HOME_PHONE</t>
-        </is>
-      </c>
-      <c r="CK2" s="3" t="inlineStr">
-        <is>
-          <t>9172343334</t>
-        </is>
-      </c>
-      <c r="CL2" s="3" t="inlineStr">
-        <is>
-          <t>WORK_PHONE</t>
-        </is>
-      </c>
-      <c r="CM2" s="3" t="inlineStr">
-        <is>
-          <t>9172341240</t>
-        </is>
-      </c>
+      <c r="CL2"/>
+      <c r="CM2"/>
       <c r="CN2"/>
       <c r="CO2"/>
       <c r="CP2"/>
       <c r="CQ2"/>
       <c r="CR2"/>
       <c r="CS2"/>
-      <c r="CT2"/>
+      <c r="CT2" s="3" t="inlineStr">
+        <is>
+          <t>9715 SOUTHWIND AVENUE</t>
+        </is>
+      </c>
       <c r="CU2"/>
-      <c r="CV2"/>
-      <c r="CW2"/>
-      <c r="CX2"/>
-      <c r="CY2"/>
-      <c r="CZ2"/>
-      <c r="DA2"/>
-      <c r="DB2"/>
-      <c r="DC2"/>
+      <c r="CV2" s="3" t="inlineStr">
+        <is>
+          <t>ANYTOWN</t>
+        </is>
+      </c>
+      <c r="CW2" s="3" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="CX2" s="3" t="inlineStr">
+        <is>
+          <t>971110000</t>
+        </is>
+      </c>
+      <c r="CY2" s="3" t="inlineStr">
+        <is>
+          <t>emp1ID</t>
+        </is>
+      </c>
+      <c r="CZ2" s="3" t="inlineStr">
+        <is>
+          <t>EMPLOYER1</t>
+        </is>
+      </c>
+      <c r="DA2" s="3" t="inlineStr">
+        <is>
+          <t>First</t>
+        </is>
+      </c>
+      <c r="DB2" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="DC2" s="3" t="inlineStr">
+        <is>
+          <t>9715 EMPLOYER1 AVENUE</t>
+        </is>
+      </c>
       <c r="DD2"/>
-      <c r="DE2"/>
-      <c r="DF2"/>
-      <c r="DG2"/>
-      <c r="DH2"/>
-      <c r="DI2"/>
-      <c r="DJ2"/>
-      <c r="DK2"/>
+      <c r="DE2" s="3" t="inlineStr">
+        <is>
+          <t>ANYTOWN</t>
+        </is>
+      </c>
+      <c r="DF2" s="3" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="DG2" s="3" t="inlineStr">
+        <is>
+          <t>971110000</t>
+        </is>
+      </c>
+      <c r="DH2" s="3" t="inlineStr">
+        <is>
+          <t>HOME_PHONE</t>
+        </is>
+      </c>
+      <c r="DI2" s="3" t="inlineStr">
+        <is>
+          <t>9172343334</t>
+        </is>
+      </c>
+      <c r="DJ2" s="3" t="inlineStr">
+        <is>
+          <t>WORK_PHONE</t>
+        </is>
+      </c>
+      <c r="DK2" s="3" t="inlineStr">
+        <is>
+          <t>9172341240</t>
+        </is>
+      </c>
       <c r="DL2"/>
       <c r="DM2"/>
-      <c r="DN2" s="3" t="inlineStr">
-        <is>
-          <t>RESPONSIBLE_PARTY</t>
-        </is>
-      </c>
-      <c r="DO2" s="3" t="inlineStr">
-        <is>
-          <t>responsiblePersonID</t>
-        </is>
-      </c>
-      <c r="DP2" s="3" t="inlineStr">
-        <is>
-          <t>Responsible</t>
-        </is>
-      </c>
-      <c r="DQ2" s="3" t="inlineStr">
-        <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="DR2" s="3" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="DS2" s="3" t="inlineStr">
-        <is>
-          <t>9715 RESPONSIBLE AVENUE</t>
-        </is>
-      </c>
+      <c r="DN2"/>
+      <c r="DO2"/>
+      <c r="DP2"/>
+      <c r="DQ2"/>
+      <c r="DR2"/>
+      <c r="DS2"/>
       <c r="DT2"/>
-      <c r="DU2" s="3" t="inlineStr">
+      <c r="DU2"/>
+      <c r="DV2"/>
+      <c r="DW2"/>
+      <c r="DX2"/>
+      <c r="DY2"/>
+      <c r="DZ2" s="3" t="inlineStr">
+        <is>
+          <t>School1</t>
+        </is>
+      </c>
+      <c r="EA2" s="3" t="inlineStr">
+        <is>
+          <t>9715 SCHOOL AVENUE</t>
+        </is>
+      </c>
+      <c r="EB2"/>
+      <c r="EC2" s="3" t="inlineStr">
         <is>
           <t>ANYTOWN</t>
         </is>
       </c>
-      <c r="DV2" s="3" t="inlineStr">
+      <c r="ED2" s="3" t="inlineStr">
         <is>
           <t>PA</t>
         </is>
       </c>
-      <c r="DW2" s="3" t="inlineStr">
+      <c r="EE2" s="3" t="inlineStr">
         <is>
           <t>971110000</t>
         </is>
       </c>
-      <c r="DX2" s="3" t="inlineStr">
+      <c r="EF2" s="3" t="inlineStr">
         <is>
           <t>HOME_PHONE</t>
         </is>
       </c>
-      <c r="DY2" s="3" t="inlineStr">
+      <c r="EG2" s="3" t="inlineStr">
         <is>
           <t>9172343334</t>
         </is>
       </c>
-      <c r="DZ2" s="3" t="inlineStr">
+      <c r="EH2" s="3" t="inlineStr">
         <is>
           <t>WORK_PHONE</t>
         </is>
       </c>
-      <c r="EA2" s="3" t="inlineStr">
+      <c r="EI2" s="3" t="inlineStr">
         <is>
           <t>9172341240</t>
         </is>
       </c>
-      <c r="EB2"/>
-      <c r="EC2"/>
-      <c r="ED2"/>
-      <c r="EE2"/>
-      <c r="EF2"/>
-      <c r="EG2"/>
-      <c r="EH2"/>
-      <c r="EI2"/>
       <c r="EJ2"/>
       <c r="EK2"/>
       <c r="EL2"/>
@@ -1729,78 +2173,138 @@
       <c r="ER2"/>
       <c r="ES2"/>
       <c r="ET2"/>
-      <c r="EU2"/>
-      <c r="EV2"/>
-      <c r="EW2"/>
-      <c r="EX2"/>
-      <c r="EY2"/>
+      <c r="EU2" s="3" t="inlineStr">
+        <is>
+          <t>custodialParentID</t>
+        </is>
+      </c>
+      <c r="EV2" s="3" t="inlineStr">
+        <is>
+          <t>Custodial</t>
+        </is>
+      </c>
+      <c r="EW2" s="3" t="inlineStr">
+        <is>
+          <t>Parent</t>
+        </is>
+      </c>
+      <c r="EX2" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="EY2" s="3" t="inlineStr">
+        <is>
+          <t>9715 CUSTODIAL AVENUE</t>
+        </is>
+      </c>
       <c r="EZ2"/>
-      <c r="FA2"/>
-      <c r="FB2"/>
-      <c r="FC2"/>
+      <c r="FA2" s="3" t="inlineStr">
+        <is>
+          <t>ANYTOWN</t>
+        </is>
+      </c>
+      <c r="FB2" s="3" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="FC2" s="3" t="inlineStr">
+        <is>
+          <t>971110000</t>
+        </is>
+      </c>
       <c r="FD2" s="3" t="inlineStr">
         <is>
-          <t>021</t>
+          <t>HOME_PHONE</t>
         </is>
       </c>
       <c r="FE2" s="3" t="inlineStr">
         <is>
-          <t>HMO</t>
+          <t>9172343334</t>
         </is>
       </c>
       <c r="FF2" s="3" t="inlineStr">
         <is>
-          <t>PlanDesc</t>
+          <t>WORK_PHONE</t>
         </is>
       </c>
       <c r="FG2" s="3" t="inlineStr">
         <is>
-          <t>FAM</t>
+          <t>9172341240</t>
         </is>
       </c>
       <c r="FH2" s="3" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>RESPONSIBLE_PARTY</t>
         </is>
       </c>
       <c r="FI2" s="3" t="inlineStr">
         <is>
-          <t>348</t>
-        </is>
-      </c>
-      <c r="FJ2" s="4" t="n">
-        <v>35217.0</v>
-      </c>
-      <c r="FK2"/>
-      <c r="FL2"/>
-      <c r="FM2"/>
+          <t>responsiblePersonID</t>
+        </is>
+      </c>
+      <c r="FJ2" s="3" t="inlineStr">
+        <is>
+          <t>Responsible</t>
+        </is>
+      </c>
+      <c r="FK2" s="3" t="inlineStr">
+        <is>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="FL2" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="FM2" s="3" t="inlineStr">
+        <is>
+          <t>9715 RESPONSIBLE AVENUE</t>
+        </is>
+      </c>
       <c r="FN2"/>
-      <c r="FO2"/>
-      <c r="FP2"/>
-      <c r="FQ2"/>
-      <c r="FR2"/>
+      <c r="FO2" s="3" t="inlineStr">
+        <is>
+          <t>ANYTOWN</t>
+        </is>
+      </c>
+      <c r="FP2" s="3" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="FQ2" s="3" t="inlineStr">
+        <is>
+          <t>971110000</t>
+        </is>
+      </c>
+      <c r="FR2" s="3" t="inlineStr">
+        <is>
+          <t>HOME_PHONE</t>
+        </is>
+      </c>
       <c r="FS2" s="3" t="inlineStr">
         <is>
-          <t>C1</t>
-        </is>
-      </c>
-      <c r="FT2" s="1" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="FU2"/>
+          <t>9172343334</t>
+        </is>
+      </c>
+      <c r="FT2" s="3" t="inlineStr">
+        <is>
+          <t>WORK_PHONE</t>
+        </is>
+      </c>
+      <c r="FU2" s="3" t="inlineStr">
+        <is>
+          <t>9172341240</t>
+        </is>
+      </c>
       <c r="FV2"/>
       <c r="FW2"/>
       <c r="FX2"/>
-      <c r="FY2" s="3" t="inlineStr">
-        <is>
-          <t>1L</t>
-        </is>
-      </c>
-      <c r="FZ2" s="3" t="inlineStr">
-        <is>
-          <t>PolicyNumber</t>
-        </is>
-      </c>
+      <c r="FY2"/>
+      <c r="FZ2"/>
       <c r="GA2"/>
       <c r="GB2"/>
       <c r="GC2"/>
@@ -1809,156 +2313,94 @@
       <c r="GF2"/>
       <c r="GG2"/>
       <c r="GH2"/>
-      <c r="GI2" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="GJ2" s="3" t="inlineStr">
-        <is>
-          <t>PRIMARY_CARE</t>
-        </is>
-      </c>
-      <c r="GK2" s="3" t="inlineStr">
-        <is>
-          <t>INDIVIDUAL</t>
-        </is>
-      </c>
-      <c r="GL2" s="3" t="inlineStr">
-        <is>
-          <t>prov1ID</t>
-        </is>
-      </c>
-      <c r="GM2" s="3" t="inlineStr">
-        <is>
-          <t>BROWN</t>
-        </is>
-      </c>
-      <c r="GN2" s="3" t="inlineStr">
-        <is>
-          <t>BERNARD</t>
-        </is>
-      </c>
+      <c r="GI2"/>
+      <c r="GJ2"/>
+      <c r="GK2"/>
+      <c r="GL2"/>
+      <c r="GM2"/>
+      <c r="GN2"/>
       <c r="GO2"/>
-      <c r="GP2" s="3" t="inlineStr">
-        <is>
-          <t>2715 SOUTHWIND AVENUE</t>
-        </is>
-      </c>
+      <c r="GP2"/>
       <c r="GQ2"/>
-      <c r="GR2" s="3" t="inlineStr">
-        <is>
-          <t>ANYTOWN</t>
-        </is>
-      </c>
-      <c r="GS2" s="3" t="inlineStr">
-        <is>
-          <t>PA</t>
-        </is>
-      </c>
-      <c r="GT2" s="3" t="inlineStr">
-        <is>
-          <t>271110000</t>
-        </is>
-      </c>
-      <c r="GU2" s="3" t="inlineStr">
-        <is>
-          <t>HOME_PHONE</t>
-        </is>
-      </c>
-      <c r="GV2" s="3" t="inlineStr">
-        <is>
-          <t>2172343334</t>
-        </is>
-      </c>
-      <c r="GW2" s="3" t="inlineStr">
-        <is>
-          <t>WORK_PHONE</t>
-        </is>
-      </c>
+      <c r="GR2"/>
+      <c r="GS2"/>
+      <c r="GT2"/>
+      <c r="GU2"/>
+      <c r="GV2"/>
+      <c r="GW2"/>
       <c r="GX2" s="3" t="inlineStr">
         <is>
-          <t>2172341240</t>
+          <t>2</t>
         </is>
       </c>
       <c r="GY2" s="3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>585</t>
         </is>
       </c>
       <c r="GZ2" s="4" t="n">
-        <v>45413.0</v>
-      </c>
-      <c r="HA2" s="3" t="inlineStr">
-        <is>
-          <t>AI</t>
-        </is>
-      </c>
-      <c r="HB2" s="3" t="inlineStr">
-        <is>
-          <t>MANAGED_CARE</t>
-        </is>
-      </c>
-      <c r="HC2" s="3" t="inlineStr">
-        <is>
-          <t>INDIVIDUAL</t>
-        </is>
-      </c>
-      <c r="HD2" s="3" t="inlineStr">
-        <is>
-          <t>943766</t>
-        </is>
-      </c>
-      <c r="HE2" s="3" t="inlineStr">
-        <is>
-          <t>BROWN</t>
-        </is>
-      </c>
-      <c r="HF2" s="3" t="inlineStr">
-        <is>
-          <t>BERNARD</t>
-        </is>
-      </c>
+        <v>45748.0</v>
+      </c>
+      <c r="HA2" s="4" t="n">
+        <v>45778.0</v>
+      </c>
+      <c r="HB2"/>
+      <c r="HC2"/>
+      <c r="HD2"/>
+      <c r="HE2"/>
+      <c r="HF2"/>
       <c r="HG2"/>
-      <c r="HH2" s="3" t="inlineStr">
-        <is>
-          <t>2715 SOUTHWIND AVENUE</t>
-        </is>
-      </c>
+      <c r="HH2"/>
       <c r="HI2"/>
       <c r="HJ2" s="3" t="inlineStr">
         <is>
-          <t>ANYTOWN</t>
+          <t>SOUTHEASTERN UNION</t>
         </is>
       </c>
       <c r="HK2" s="3" t="inlineStr">
         <is>
-          <t>PA</t>
+          <t>26</t>
         </is>
       </c>
       <c r="HL2" s="3" t="inlineStr">
         <is>
-          <t>271110000</t>
-        </is>
-      </c>
-      <c r="HM2"/>
-      <c r="HN2"/>
-      <c r="HO2"/>
-      <c r="HP2"/>
+          <t>UNION_NUMBER</t>
+        </is>
+      </c>
+      <c r="HM2" s="3" t="inlineStr">
+        <is>
+          <t>442</t>
+        </is>
+      </c>
+      <c r="HN2" s="4" t="n">
+        <v>45717.0</v>
+      </c>
+      <c r="HO2" s="4" t="n">
+        <v>45808.0</v>
+      </c>
+      <c r="HP2" s="3" t="inlineStr">
+        <is>
+          <t>PAYER2</t>
+        </is>
+      </c>
       <c r="HQ2" s="3" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="HR2" s="4" t="n">
-        <v>45047.0</v>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="HR2" s="3" t="inlineStr">
+        <is>
+          <t>UNION_NUMBER</t>
+        </is>
       </c>
       <c r="HS2" s="3" t="inlineStr">
         <is>
-          <t>AI</t>
-        </is>
-      </c>
-      <c r="HT2"/>
+          <t>442</t>
+        </is>
+      </c>
+      <c r="HT2" s="4" t="n">
+        <v>37987.0</v>
+      </c>
       <c r="HU2"/>
       <c r="HV2"/>
       <c r="HW2"/>
@@ -1966,21 +2408,249 @@
       <c r="HY2"/>
       <c r="HZ2"/>
       <c r="IA2"/>
-      <c r="IB2"/>
-      <c r="IC2"/>
-      <c r="ID2"/>
-      <c r="IE2"/>
-      <c r="IF2"/>
-      <c r="IG2"/>
-      <c r="IH2"/>
+      <c r="IB2" s="3" t="inlineStr">
+        <is>
+          <t>021</t>
+        </is>
+      </c>
+      <c r="IC2" s="3" t="inlineStr">
+        <is>
+          <t>HMO</t>
+        </is>
+      </c>
+      <c r="ID2" s="3" t="inlineStr">
+        <is>
+          <t>PlanDesc</t>
+        </is>
+      </c>
+      <c r="IE2" s="3" t="inlineStr">
+        <is>
+          <t>FAM</t>
+        </is>
+      </c>
+      <c r="IF2" s="3" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="IG2" s="3" t="inlineStr">
+        <is>
+          <t>348</t>
+        </is>
+      </c>
+      <c r="IH2" s="4" t="n">
+        <v>35217.0</v>
+      </c>
       <c r="II2"/>
       <c r="IJ2"/>
       <c r="IK2"/>
+      <c r="IL2"/>
+      <c r="IM2"/>
+      <c r="IN2"/>
+      <c r="IO2"/>
+      <c r="IP2"/>
+      <c r="IQ2" s="3" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="IR2" s="1" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="IS2"/>
+      <c r="IT2"/>
+      <c r="IU2"/>
+      <c r="IV2"/>
+      <c r="IW2" s="3" t="inlineStr">
+        <is>
+          <t>1L</t>
+        </is>
+      </c>
+      <c r="IX2" s="3" t="inlineStr">
+        <is>
+          <t>PolicyNumber</t>
+        </is>
+      </c>
+      <c r="IY2"/>
+      <c r="IZ2"/>
+      <c r="JA2"/>
+      <c r="JB2"/>
+      <c r="JC2"/>
+      <c r="JD2"/>
+      <c r="JE2"/>
+      <c r="JF2"/>
+      <c r="JG2" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="JH2" s="3" t="inlineStr">
+        <is>
+          <t>PRIMARY_CARE</t>
+        </is>
+      </c>
+      <c r="JI2" s="3" t="inlineStr">
+        <is>
+          <t>INDIVIDUAL</t>
+        </is>
+      </c>
+      <c r="JJ2" s="3" t="inlineStr">
+        <is>
+          <t>prov1ID</t>
+        </is>
+      </c>
+      <c r="JK2" s="3" t="inlineStr">
+        <is>
+          <t>BROWN</t>
+        </is>
+      </c>
+      <c r="JL2" s="3" t="inlineStr">
+        <is>
+          <t>BERNARD</t>
+        </is>
+      </c>
+      <c r="JM2"/>
+      <c r="JN2" s="3" t="inlineStr">
+        <is>
+          <t>2715 SOUTHWIND AVENUE</t>
+        </is>
+      </c>
+      <c r="JO2"/>
+      <c r="JP2" s="3" t="inlineStr">
+        <is>
+          <t>ANYTOWN</t>
+        </is>
+      </c>
+      <c r="JQ2" s="3" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="JR2" s="3" t="inlineStr">
+        <is>
+          <t>271110000</t>
+        </is>
+      </c>
+      <c r="JS2" s="3" t="inlineStr">
+        <is>
+          <t>HOME_PHONE</t>
+        </is>
+      </c>
+      <c r="JT2" s="3" t="inlineStr">
+        <is>
+          <t>2172343334</t>
+        </is>
+      </c>
+      <c r="JU2" s="3" t="inlineStr">
+        <is>
+          <t>WORK_PHONE</t>
+        </is>
+      </c>
+      <c r="JV2" s="3" t="inlineStr">
+        <is>
+          <t>2172341240</t>
+        </is>
+      </c>
+      <c r="JW2" s="3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="JX2" s="4" t="n">
+        <v>45413.0</v>
+      </c>
+      <c r="JY2" s="3" t="inlineStr">
+        <is>
+          <t>AI</t>
+        </is>
+      </c>
+      <c r="JZ2" s="3" t="inlineStr">
+        <is>
+          <t>MANAGED_CARE</t>
+        </is>
+      </c>
+      <c r="KA2" s="3" t="inlineStr">
+        <is>
+          <t>INDIVIDUAL</t>
+        </is>
+      </c>
+      <c r="KB2" s="3" t="inlineStr">
+        <is>
+          <t>943766</t>
+        </is>
+      </c>
+      <c r="KC2" s="3" t="inlineStr">
+        <is>
+          <t>BROWN</t>
+        </is>
+      </c>
+      <c r="KD2" s="3" t="inlineStr">
+        <is>
+          <t>BERNARD</t>
+        </is>
+      </c>
+      <c r="KE2"/>
+      <c r="KF2" s="3" t="inlineStr">
+        <is>
+          <t>2715 SOUTHWIND AVENUE</t>
+        </is>
+      </c>
+      <c r="KG2"/>
+      <c r="KH2" s="3" t="inlineStr">
+        <is>
+          <t>ANYTOWN</t>
+        </is>
+      </c>
+      <c r="KI2" s="3" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="KJ2" s="3" t="inlineStr">
+        <is>
+          <t>271110000</t>
+        </is>
+      </c>
+      <c r="KK2"/>
+      <c r="KL2"/>
+      <c r="KM2"/>
+      <c r="KN2"/>
+      <c r="KO2" s="3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="KP2" s="4" t="n">
+        <v>45047.0</v>
+      </c>
+      <c r="KQ2" s="3" t="inlineStr">
+        <is>
+          <t>AI</t>
+        </is>
+      </c>
+      <c r="KR2"/>
+      <c r="KS2"/>
+      <c r="KT2"/>
+      <c r="KU2"/>
+      <c r="KV2"/>
+      <c r="KW2"/>
+      <c r="KX2"/>
+      <c r="KY2"/>
+      <c r="KZ2"/>
+      <c r="LA2"/>
+      <c r="LB2"/>
+      <c r="LC2"/>
+      <c r="LD2"/>
+      <c r="LE2"/>
+      <c r="LF2"/>
+      <c r="LG2"/>
+      <c r="LH2"/>
+      <c r="LI2"/>
     </row>
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>68406977fb1f98446d7b6b3d</t>
+          <t>6846458a58f41c12bccd7bf6</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
@@ -2040,369 +2710,433 @@
       </c>
       <c r="M3" s="3" t="inlineStr">
         <is>
+          <t>tpaID</t>
+        </is>
+      </c>
+      <c r="N3" s="3" t="inlineStr">
+        <is>
+          <t>TPA</t>
+        </is>
+      </c>
+      <c r="O3" s="3" t="inlineStr">
+        <is>
+          <t>account1</t>
+        </is>
+      </c>
+      <c r="P3" s="3" t="inlineStr">
+        <is>
+          <t>account2</t>
+        </is>
+      </c>
+      <c r="Q3" s="3" t="inlineStr">
+        <is>
+          <t>tpa2ID</t>
+        </is>
+      </c>
+      <c r="R3" s="3" t="inlineStr">
+        <is>
+          <t>TPA2</t>
+        </is>
+      </c>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3" s="3" t="inlineStr">
+        <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="N3" s="3" t="inlineStr">
+      <c r="V3" s="3" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="O3" s="3" t="inlineStr">
+      <c r="W3" s="3" t="inlineStr">
         <is>
           <t>021</t>
         </is>
       </c>
-      <c r="P3" s="3" t="inlineStr">
+      <c r="X3" s="3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="Q3" s="3" t="inlineStr">
+      <c r="Y3" s="3" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="R3" s="3" t="inlineStr">
+      <c r="Z3" s="3" t="inlineStr">
         <is>
           <t>CE</t>
         </is>
       </c>
-      <c r="S3" s="3" t="inlineStr">
+      <c r="AA3" s="3" t="inlineStr">
         <is>
           <t>FT</t>
         </is>
       </c>
-      <c r="T3" s="3" t="inlineStr">
+      <c r="AB3" s="3" t="inlineStr">
         <is>
           <t>ST</t>
         </is>
       </c>
-      <c r="U3" s="3" t="inlineStr">
+      <c r="AC3" s="3" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="V3"/>
-      <c r="W3"/>
-      <c r="X3" s="3" t="inlineStr">
-        <is>
-          <t>member1</t>
-        </is>
-      </c>
-      <c r="Y3" s="3" t="inlineStr">
-        <is>
-          <t>group1</t>
-        </is>
-      </c>
-      <c r="Z3" s="3" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="AA3" s="3" t="inlineStr">
-        <is>
-          <t>ClientNumber</t>
-        </is>
-      </c>
-      <c r="AB3"/>
-      <c r="AC3"/>
       <c r="AD3"/>
       <c r="AE3"/>
-      <c r="AF3"/>
-      <c r="AG3"/>
-      <c r="AH3"/>
-      <c r="AI3"/>
-      <c r="AJ3" s="3" t="inlineStr">
-        <is>
-          <t>356</t>
-        </is>
-      </c>
-      <c r="AK3" s="4" t="n">
-        <v>35076.0</v>
-      </c>
+      <c r="AF3" s="3" t="inlineStr">
+        <is>
+          <t>member1</t>
+        </is>
+      </c>
+      <c r="AG3" s="3" t="inlineStr">
+        <is>
+          <t>group1</t>
+        </is>
+      </c>
+      <c r="AH3" s="3" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="AI3" s="3" t="inlineStr">
+        <is>
+          <t>ClientNumber</t>
+        </is>
+      </c>
+      <c r="AJ3"/>
+      <c r="AK3"/>
       <c r="AL3"/>
       <c r="AM3"/>
       <c r="AN3"/>
       <c r="AO3"/>
       <c r="AP3"/>
       <c r="AQ3"/>
-      <c r="AR3"/>
-      <c r="AS3"/>
-      <c r="AT3" s="3" t="inlineStr">
-        <is>
-          <t>SUBSCRIBER</t>
-        </is>
-      </c>
-      <c r="AU3" s="3" t="inlineStr">
+      <c r="AR3" s="3" t="inlineStr">
+        <is>
+          <t>356</t>
+        </is>
+      </c>
+      <c r="AS3" s="4" t="n">
+        <v>35076.0</v>
+      </c>
+      <c r="AT3"/>
+      <c r="AU3"/>
+      <c r="AV3"/>
+      <c r="AW3"/>
+      <c r="AX3"/>
+      <c r="AY3"/>
+      <c r="AZ3"/>
+      <c r="BA3"/>
+      <c r="BB3" s="3" t="inlineStr">
+        <is>
+          <t>INSURED_SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="BC3" s="3" t="inlineStr">
         <is>
           <t>SSN</t>
         </is>
       </c>
-      <c r="AV3" s="3" t="inlineStr">
+      <c r="BD3" s="3" t="inlineStr">
         <is>
           <t>202443307</t>
         </is>
       </c>
-      <c r="AW3"/>
-      <c r="AX3" s="3" t="inlineStr">
+      <c r="BE3"/>
+      <c r="BF3" s="3" t="inlineStr">
         <is>
           <t>SMITH</t>
         </is>
       </c>
-      <c r="AY3" s="3" t="inlineStr">
+      <c r="BG3" s="3" t="inlineStr">
         <is>
           <t>WILLIAM</t>
         </is>
       </c>
-      <c r="AZ3"/>
-      <c r="BA3" s="4" t="n">
+      <c r="BH3"/>
+      <c r="BI3" s="4" t="n">
         <v>25733.0</v>
       </c>
-      <c r="BB3" s="3" t="inlineStr">
+      <c r="BJ3" s="3" t="inlineStr">
         <is>
           <t>MALE</t>
         </is>
       </c>
-      <c r="BC3" s="3" t="inlineStr">
+      <c r="BK3" s="3" t="inlineStr">
         <is>
           <t>1715 SOUTHWIND AVENUE</t>
         </is>
       </c>
-      <c r="BD3"/>
-      <c r="BE3" s="3" t="inlineStr">
+      <c r="BL3"/>
+      <c r="BM3" s="3" t="inlineStr">
         <is>
           <t>ANYTOWN</t>
         </is>
       </c>
-      <c r="BF3" s="3" t="inlineStr">
+      <c r="BN3" s="3" t="inlineStr">
         <is>
           <t>PA</t>
         </is>
       </c>
-      <c r="BG3" s="3" t="inlineStr">
+      <c r="BO3" s="3" t="inlineStr">
         <is>
           <t>171110000</t>
         </is>
       </c>
-      <c r="BH3" s="3" t="inlineStr">
+      <c r="BP3" s="3" t="inlineStr">
         <is>
           <t>HOME_PHONE</t>
         </is>
       </c>
-      <c r="BI3" s="3" t="inlineStr">
+      <c r="BQ3" s="3" t="inlineStr">
         <is>
           <t>7172343334</t>
         </is>
       </c>
-      <c r="BJ3" s="3" t="inlineStr">
+      <c r="BR3" s="3" t="inlineStr">
         <is>
           <t>WORK_PHONE</t>
         </is>
       </c>
-      <c r="BK3" s="3" t="inlineStr">
+      <c r="BS3" s="3" t="inlineStr">
         <is>
           <t>7172341240</t>
         </is>
       </c>
-      <c r="BL3" s="3" t="inlineStr">
+      <c r="BT3" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="BU3" s="3" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="BV3" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BW3" s="3" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="BX3" s="3" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="BY3" s="3" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="BZ3" s="3" t="inlineStr">
+        <is>
+          <t>09</t>
+        </is>
+      </c>
+      <c r="CA3" s="3" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="CB3" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CC3" s="1" t="n">
+        <v>425.25</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="CE3" s="3" t="inlineStr">
+        <is>
+          <t>LocCode</t>
+        </is>
+      </c>
+      <c r="CF3" s="3" t="inlineStr">
+        <is>
+          <t>SalaryGrade</t>
+        </is>
+      </c>
+      <c r="CG3" s="3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="CH3" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>210.0</v>
+      </c>
+      <c r="CJ3" s="3" t="inlineStr">
         <is>
           <t>D2</t>
         </is>
       </c>
-      <c r="BM3" s="1" t="n">
+      <c r="CK3" s="1" t="n">
         <v>100.0</v>
       </c>
-      <c r="BN3"/>
-      <c r="BO3"/>
-      <c r="BP3"/>
-      <c r="BQ3"/>
-      <c r="BR3"/>
-      <c r="BS3"/>
-      <c r="BT3"/>
-      <c r="BU3"/>
-      <c r="BV3" s="3" t="inlineStr">
-        <is>
-          <t>9715 SOUTHWIND AVENUE</t>
-        </is>
-      </c>
-      <c r="BW3"/>
-      <c r="BX3" s="3" t="inlineStr">
-        <is>
-          <t>ANYTOWN</t>
-        </is>
-      </c>
-      <c r="BY3" s="3" t="inlineStr">
-        <is>
-          <t>PA</t>
-        </is>
-      </c>
-      <c r="BZ3" s="3" t="inlineStr">
-        <is>
-          <t>971110000</t>
-        </is>
-      </c>
-      <c r="CA3" s="3" t="inlineStr">
-        <is>
-          <t>emp1ID</t>
-        </is>
-      </c>
-      <c r="CB3" s="3" t="inlineStr">
-        <is>
-          <t>EMPLOYER1</t>
-        </is>
-      </c>
-      <c r="CC3" s="3" t="inlineStr">
-        <is>
-          <t>First</t>
-        </is>
-      </c>
-      <c r="CD3" s="3" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="CE3" s="3" t="inlineStr">
-        <is>
-          <t>9715 EMPLOYER1 AVENUE</t>
-        </is>
-      </c>
-      <c r="CF3"/>
-      <c r="CG3" s="3" t="inlineStr">
-        <is>
-          <t>ANYTOWN</t>
-        </is>
-      </c>
-      <c r="CH3" s="3" t="inlineStr">
-        <is>
-          <t>PA</t>
-        </is>
-      </c>
-      <c r="CI3" s="3" t="inlineStr">
-        <is>
-          <t>971110000</t>
-        </is>
-      </c>
-      <c r="CJ3" s="3" t="inlineStr">
-        <is>
-          <t>HOME_PHONE</t>
-        </is>
-      </c>
-      <c r="CK3" s="3" t="inlineStr">
-        <is>
-          <t>9172343334</t>
-        </is>
-      </c>
-      <c r="CL3" s="3" t="inlineStr">
-        <is>
-          <t>WORK_PHONE</t>
-        </is>
-      </c>
-      <c r="CM3" s="3" t="inlineStr">
-        <is>
-          <t>9172341240</t>
-        </is>
-      </c>
+      <c r="CL3"/>
+      <c r="CM3"/>
       <c r="CN3"/>
       <c r="CO3"/>
       <c r="CP3"/>
       <c r="CQ3"/>
       <c r="CR3"/>
       <c r="CS3"/>
-      <c r="CT3"/>
+      <c r="CT3" s="3" t="inlineStr">
+        <is>
+          <t>9715 SOUTHWIND AVENUE</t>
+        </is>
+      </c>
       <c r="CU3"/>
-      <c r="CV3"/>
-      <c r="CW3"/>
-      <c r="CX3"/>
-      <c r="CY3"/>
-      <c r="CZ3"/>
-      <c r="DA3"/>
-      <c r="DB3"/>
-      <c r="DC3"/>
+      <c r="CV3" s="3" t="inlineStr">
+        <is>
+          <t>ANYTOWN</t>
+        </is>
+      </c>
+      <c r="CW3" s="3" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="CX3" s="3" t="inlineStr">
+        <is>
+          <t>971110000</t>
+        </is>
+      </c>
+      <c r="CY3" s="3" t="inlineStr">
+        <is>
+          <t>emp1ID</t>
+        </is>
+      </c>
+      <c r="CZ3" s="3" t="inlineStr">
+        <is>
+          <t>EMPLOYER1</t>
+        </is>
+      </c>
+      <c r="DA3" s="3" t="inlineStr">
+        <is>
+          <t>First</t>
+        </is>
+      </c>
+      <c r="DB3" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="DC3" s="3" t="inlineStr">
+        <is>
+          <t>9715 EMPLOYER1 AVENUE</t>
+        </is>
+      </c>
       <c r="DD3"/>
-      <c r="DE3"/>
-      <c r="DF3"/>
-      <c r="DG3"/>
-      <c r="DH3"/>
-      <c r="DI3"/>
-      <c r="DJ3"/>
-      <c r="DK3"/>
+      <c r="DE3" s="3" t="inlineStr">
+        <is>
+          <t>ANYTOWN</t>
+        </is>
+      </c>
+      <c r="DF3" s="3" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="DG3" s="3" t="inlineStr">
+        <is>
+          <t>971110000</t>
+        </is>
+      </c>
+      <c r="DH3" s="3" t="inlineStr">
+        <is>
+          <t>HOME_PHONE</t>
+        </is>
+      </c>
+      <c r="DI3" s="3" t="inlineStr">
+        <is>
+          <t>9172343334</t>
+        </is>
+      </c>
+      <c r="DJ3" s="3" t="inlineStr">
+        <is>
+          <t>WORK_PHONE</t>
+        </is>
+      </c>
+      <c r="DK3" s="3" t="inlineStr">
+        <is>
+          <t>9172341240</t>
+        </is>
+      </c>
       <c r="DL3"/>
       <c r="DM3"/>
-      <c r="DN3" s="3" t="inlineStr">
-        <is>
-          <t>RESPONSIBLE_PARTY</t>
-        </is>
-      </c>
-      <c r="DO3" s="3" t="inlineStr">
-        <is>
-          <t>responsiblePersonID</t>
-        </is>
-      </c>
-      <c r="DP3" s="3" t="inlineStr">
-        <is>
-          <t>Responsible</t>
-        </is>
-      </c>
-      <c r="DQ3" s="3" t="inlineStr">
-        <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="DR3" s="3" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="DS3" s="3" t="inlineStr">
-        <is>
-          <t>9715 RESPONSIBLE AVENUE</t>
-        </is>
-      </c>
+      <c r="DN3"/>
+      <c r="DO3"/>
+      <c r="DP3"/>
+      <c r="DQ3"/>
+      <c r="DR3"/>
+      <c r="DS3"/>
       <c r="DT3"/>
-      <c r="DU3" s="3" t="inlineStr">
+      <c r="DU3"/>
+      <c r="DV3"/>
+      <c r="DW3"/>
+      <c r="DX3"/>
+      <c r="DY3"/>
+      <c r="DZ3" s="3" t="inlineStr">
+        <is>
+          <t>School1</t>
+        </is>
+      </c>
+      <c r="EA3" s="3" t="inlineStr">
+        <is>
+          <t>9715 SCHOOL AVENUE</t>
+        </is>
+      </c>
+      <c r="EB3"/>
+      <c r="EC3" s="3" t="inlineStr">
         <is>
           <t>ANYTOWN</t>
         </is>
       </c>
-      <c r="DV3" s="3" t="inlineStr">
+      <c r="ED3" s="3" t="inlineStr">
         <is>
           <t>PA</t>
         </is>
       </c>
-      <c r="DW3" s="3" t="inlineStr">
+      <c r="EE3" s="3" t="inlineStr">
         <is>
           <t>971110000</t>
         </is>
       </c>
-      <c r="DX3" s="3" t="inlineStr">
+      <c r="EF3" s="3" t="inlineStr">
         <is>
           <t>HOME_PHONE</t>
         </is>
       </c>
-      <c r="DY3" s="3" t="inlineStr">
+      <c r="EG3" s="3" t="inlineStr">
         <is>
           <t>9172343334</t>
         </is>
       </c>
-      <c r="DZ3" s="3" t="inlineStr">
+      <c r="EH3" s="3" t="inlineStr">
         <is>
           <t>WORK_PHONE</t>
         </is>
       </c>
-      <c r="EA3" s="3" t="inlineStr">
+      <c r="EI3" s="3" t="inlineStr">
         <is>
           <t>9172341240</t>
         </is>
       </c>
-      <c r="EB3"/>
-      <c r="EC3"/>
-      <c r="ED3"/>
-      <c r="EE3"/>
-      <c r="EF3"/>
-      <c r="EG3"/>
-      <c r="EH3"/>
-      <c r="EI3"/>
       <c r="EJ3"/>
       <c r="EK3"/>
       <c r="EL3"/>
@@ -2414,78 +3148,138 @@
       <c r="ER3"/>
       <c r="ES3"/>
       <c r="ET3"/>
-      <c r="EU3"/>
-      <c r="EV3"/>
-      <c r="EW3"/>
-      <c r="EX3"/>
-      <c r="EY3"/>
+      <c r="EU3" s="3" t="inlineStr">
+        <is>
+          <t>custodialParentID</t>
+        </is>
+      </c>
+      <c r="EV3" s="3" t="inlineStr">
+        <is>
+          <t>Custodial</t>
+        </is>
+      </c>
+      <c r="EW3" s="3" t="inlineStr">
+        <is>
+          <t>Parent</t>
+        </is>
+      </c>
+      <c r="EX3" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="EY3" s="3" t="inlineStr">
+        <is>
+          <t>9715 CUSTODIAL AVENUE</t>
+        </is>
+      </c>
       <c r="EZ3"/>
-      <c r="FA3"/>
-      <c r="FB3"/>
-      <c r="FC3"/>
+      <c r="FA3" s="3" t="inlineStr">
+        <is>
+          <t>ANYTOWN</t>
+        </is>
+      </c>
+      <c r="FB3" s="3" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="FC3" s="3" t="inlineStr">
+        <is>
+          <t>971110000</t>
+        </is>
+      </c>
       <c r="FD3" s="3" t="inlineStr">
         <is>
-          <t>021</t>
+          <t>HOME_PHONE</t>
         </is>
       </c>
       <c r="FE3" s="3" t="inlineStr">
         <is>
-          <t>EPO</t>
+          <t>9172343334</t>
         </is>
       </c>
       <c r="FF3" s="3" t="inlineStr">
         <is>
-          <t>PlanDesc2</t>
+          <t>WORK_PHONE</t>
         </is>
       </c>
       <c r="FG3" s="3" t="inlineStr">
         <is>
-          <t>FAM</t>
+          <t>9172341240</t>
         </is>
       </c>
       <c r="FH3" s="3" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>RESPONSIBLE_PARTY</t>
         </is>
       </c>
       <c r="FI3" s="3" t="inlineStr">
         <is>
-          <t>348</t>
-        </is>
-      </c>
-      <c r="FJ3" s="4" t="n">
-        <v>45778.0</v>
-      </c>
-      <c r="FK3"/>
-      <c r="FL3"/>
-      <c r="FM3"/>
+          <t>responsiblePersonID</t>
+        </is>
+      </c>
+      <c r="FJ3" s="3" t="inlineStr">
+        <is>
+          <t>Responsible</t>
+        </is>
+      </c>
+      <c r="FK3" s="3" t="inlineStr">
+        <is>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="FL3" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="FM3" s="3" t="inlineStr">
+        <is>
+          <t>9715 RESPONSIBLE AVENUE</t>
+        </is>
+      </c>
       <c r="FN3"/>
-      <c r="FO3"/>
-      <c r="FP3"/>
-      <c r="FQ3"/>
-      <c r="FR3"/>
+      <c r="FO3" s="3" t="inlineStr">
+        <is>
+          <t>ANYTOWN</t>
+        </is>
+      </c>
+      <c r="FP3" s="3" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="FQ3" s="3" t="inlineStr">
+        <is>
+          <t>971110000</t>
+        </is>
+      </c>
+      <c r="FR3" s="3" t="inlineStr">
+        <is>
+          <t>HOME_PHONE</t>
+        </is>
+      </c>
       <c r="FS3" s="3" t="inlineStr">
         <is>
-          <t>C1</t>
-        </is>
-      </c>
-      <c r="FT3" s="1" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="FU3"/>
+          <t>9172343334</t>
+        </is>
+      </c>
+      <c r="FT3" s="3" t="inlineStr">
+        <is>
+          <t>WORK_PHONE</t>
+        </is>
+      </c>
+      <c r="FU3" s="3" t="inlineStr">
+        <is>
+          <t>9172341240</t>
+        </is>
+      </c>
       <c r="FV3"/>
       <c r="FW3"/>
       <c r="FX3"/>
-      <c r="FY3" s="3" t="inlineStr">
-        <is>
-          <t>1L</t>
-        </is>
-      </c>
-      <c r="FZ3" s="3" t="inlineStr">
-        <is>
-          <t>PolicyNumber2</t>
-        </is>
-      </c>
+      <c r="FY3"/>
+      <c r="FZ3"/>
       <c r="GA3"/>
       <c r="GB3"/>
       <c r="GC3"/>
@@ -2494,11 +3288,7 @@
       <c r="GF3"/>
       <c r="GG3"/>
       <c r="GH3"/>
-      <c r="GI3" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="GI3"/>
       <c r="GJ3"/>
       <c r="GK3"/>
       <c r="GL3"/>
@@ -2513,10 +3303,22 @@
       <c r="GU3"/>
       <c r="GV3"/>
       <c r="GW3"/>
-      <c r="GX3"/>
-      <c r="GY3"/>
-      <c r="GZ3"/>
-      <c r="HA3"/>
+      <c r="GX3" s="3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="GY3" s="3" t="inlineStr">
+        <is>
+          <t>585</t>
+        </is>
+      </c>
+      <c r="GZ3" s="4" t="n">
+        <v>45748.0</v>
+      </c>
+      <c r="HA3" s="4" t="n">
+        <v>45778.0</v>
+      </c>
       <c r="HB3"/>
       <c r="HC3"/>
       <c r="HD3"/>
@@ -2525,17 +3327,55 @@
       <c r="HG3"/>
       <c r="HH3"/>
       <c r="HI3"/>
-      <c r="HJ3"/>
-      <c r="HK3"/>
-      <c r="HL3"/>
-      <c r="HM3"/>
-      <c r="HN3"/>
-      <c r="HO3"/>
-      <c r="HP3"/>
-      <c r="HQ3"/>
-      <c r="HR3"/>
-      <c r="HS3"/>
-      <c r="HT3"/>
+      <c r="HJ3" s="3" t="inlineStr">
+        <is>
+          <t>SOUTHEASTERN UNION</t>
+        </is>
+      </c>
+      <c r="HK3" s="3" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="HL3" s="3" t="inlineStr">
+        <is>
+          <t>UNION_NUMBER</t>
+        </is>
+      </c>
+      <c r="HM3" s="3" t="inlineStr">
+        <is>
+          <t>442</t>
+        </is>
+      </c>
+      <c r="HN3" s="4" t="n">
+        <v>45717.0</v>
+      </c>
+      <c r="HO3" s="4" t="n">
+        <v>45808.0</v>
+      </c>
+      <c r="HP3" s="3" t="inlineStr">
+        <is>
+          <t>PAYER2</t>
+        </is>
+      </c>
+      <c r="HQ3" s="3" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="HR3" s="3" t="inlineStr">
+        <is>
+          <t>UNION_NUMBER</t>
+        </is>
+      </c>
+      <c r="HS3" s="3" t="inlineStr">
+        <is>
+          <t>442</t>
+        </is>
+      </c>
+      <c r="HT3" s="4" t="n">
+        <v>37987.0</v>
+      </c>
       <c r="HU3"/>
       <c r="HV3"/>
       <c r="HW3"/>
@@ -2543,21 +3383,141 @@
       <c r="HY3"/>
       <c r="HZ3"/>
       <c r="IA3"/>
-      <c r="IB3"/>
-      <c r="IC3"/>
-      <c r="ID3"/>
-      <c r="IE3"/>
-      <c r="IF3"/>
-      <c r="IG3"/>
-      <c r="IH3"/>
+      <c r="IB3" s="3" t="inlineStr">
+        <is>
+          <t>021</t>
+        </is>
+      </c>
+      <c r="IC3" s="3" t="inlineStr">
+        <is>
+          <t>EPO</t>
+        </is>
+      </c>
+      <c r="ID3" s="3" t="inlineStr">
+        <is>
+          <t>PlanDesc2</t>
+        </is>
+      </c>
+      <c r="IE3" s="3" t="inlineStr">
+        <is>
+          <t>FAM</t>
+        </is>
+      </c>
+      <c r="IF3" s="3" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="IG3" s="3" t="inlineStr">
+        <is>
+          <t>348</t>
+        </is>
+      </c>
+      <c r="IH3" s="4" t="n">
+        <v>45778.0</v>
+      </c>
       <c r="II3"/>
       <c r="IJ3"/>
       <c r="IK3"/>
+      <c r="IL3"/>
+      <c r="IM3"/>
+      <c r="IN3"/>
+      <c r="IO3"/>
+      <c r="IP3"/>
+      <c r="IQ3" s="3" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="IR3" s="1" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="IS3"/>
+      <c r="IT3"/>
+      <c r="IU3"/>
+      <c r="IV3"/>
+      <c r="IW3" s="3" t="inlineStr">
+        <is>
+          <t>1L</t>
+        </is>
+      </c>
+      <c r="IX3" s="3" t="inlineStr">
+        <is>
+          <t>PolicyNumber2</t>
+        </is>
+      </c>
+      <c r="IY3"/>
+      <c r="IZ3"/>
+      <c r="JA3"/>
+      <c r="JB3"/>
+      <c r="JC3"/>
+      <c r="JD3"/>
+      <c r="JE3"/>
+      <c r="JF3"/>
+      <c r="JG3" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="JH3"/>
+      <c r="JI3"/>
+      <c r="JJ3"/>
+      <c r="JK3"/>
+      <c r="JL3"/>
+      <c r="JM3"/>
+      <c r="JN3"/>
+      <c r="JO3"/>
+      <c r="JP3"/>
+      <c r="JQ3"/>
+      <c r="JR3"/>
+      <c r="JS3"/>
+      <c r="JT3"/>
+      <c r="JU3"/>
+      <c r="JV3"/>
+      <c r="JW3"/>
+      <c r="JX3"/>
+      <c r="JY3"/>
+      <c r="JZ3"/>
+      <c r="KA3"/>
+      <c r="KB3"/>
+      <c r="KC3"/>
+      <c r="KD3"/>
+      <c r="KE3"/>
+      <c r="KF3"/>
+      <c r="KG3"/>
+      <c r="KH3"/>
+      <c r="KI3"/>
+      <c r="KJ3"/>
+      <c r="KK3"/>
+      <c r="KL3"/>
+      <c r="KM3"/>
+      <c r="KN3"/>
+      <c r="KO3"/>
+      <c r="KP3"/>
+      <c r="KQ3"/>
+      <c r="KR3"/>
+      <c r="KS3"/>
+      <c r="KT3"/>
+      <c r="KU3"/>
+      <c r="KV3"/>
+      <c r="KW3"/>
+      <c r="KX3"/>
+      <c r="KY3"/>
+      <c r="KZ3"/>
+      <c r="LA3"/>
+      <c r="LB3"/>
+      <c r="LC3"/>
+      <c r="LD3"/>
+      <c r="LE3"/>
+      <c r="LF3"/>
+      <c r="LG3"/>
+      <c r="LH3"/>
+      <c r="LI3"/>
     </row>
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>68406977fb1f98446d7b6b3e</t>
+          <t>6846458a58f41c12bccd7bf7</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -2617,159 +3577,183 @@
       </c>
       <c r="M4" s="3" t="inlineStr">
         <is>
+          <t>tpaID</t>
+        </is>
+      </c>
+      <c r="N4" s="3" t="inlineStr">
+        <is>
+          <t>TPA</t>
+        </is>
+      </c>
+      <c r="O4" s="3" t="inlineStr">
+        <is>
+          <t>account1</t>
+        </is>
+      </c>
+      <c r="P4" s="3" t="inlineStr">
+        <is>
+          <t>account2</t>
+        </is>
+      </c>
+      <c r="Q4" s="3" t="inlineStr">
+        <is>
+          <t>tpa2ID</t>
+        </is>
+      </c>
+      <c r="R4" s="3" t="inlineStr">
+        <is>
+          <t>TPA2</t>
+        </is>
+      </c>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4" s="3" t="inlineStr">
+        <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="N4" s="3" t="inlineStr">
+      <c r="V4" s="3" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="O4" s="3" t="inlineStr">
+      <c r="W4" s="3" t="inlineStr">
         <is>
           <t>021</t>
         </is>
       </c>
-      <c r="P4" s="3" t="inlineStr">
+      <c r="X4" s="3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="Q4" s="3" t="inlineStr">
+      <c r="Y4" s="3" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="R4"/>
-      <c r="S4" s="3" t="inlineStr">
+      <c r="Z4"/>
+      <c r="AA4" s="3" t="inlineStr">
         <is>
           <t>FT</t>
         </is>
       </c>
-      <c r="T4"/>
-      <c r="U4"/>
-      <c r="V4"/>
-      <c r="W4"/>
-      <c r="X4" s="3" t="inlineStr">
-        <is>
-          <t>member2</t>
-        </is>
-      </c>
-      <c r="Y4" s="3" t="inlineStr">
-        <is>
-          <t>group2</t>
-        </is>
-      </c>
-      <c r="Z4"/>
-      <c r="AA4"/>
       <c r="AB4"/>
       <c r="AC4"/>
       <c r="AD4"/>
       <c r="AE4"/>
-      <c r="AF4"/>
-      <c r="AG4"/>
+      <c r="AF4" s="3" t="inlineStr">
+        <is>
+          <t>member2</t>
+        </is>
+      </c>
+      <c r="AG4" s="3" t="inlineStr">
+        <is>
+          <t>group2</t>
+        </is>
+      </c>
       <c r="AH4"/>
       <c r="AI4"/>
-      <c r="AJ4" s="3" t="inlineStr">
-        <is>
-          <t>356</t>
-        </is>
-      </c>
-      <c r="AK4" s="4" t="n">
-        <v>35076.0</v>
-      </c>
+      <c r="AJ4"/>
+      <c r="AK4"/>
       <c r="AL4"/>
       <c r="AM4"/>
       <c r="AN4"/>
       <c r="AO4"/>
       <c r="AP4"/>
       <c r="AQ4"/>
-      <c r="AR4"/>
-      <c r="AS4"/>
-      <c r="AT4" s="3" t="inlineStr">
-        <is>
-          <t>SUBSCRIBER</t>
-        </is>
-      </c>
-      <c r="AU4" s="3" t="inlineStr">
+      <c r="AR4" s="3" t="inlineStr">
+        <is>
+          <t>356</t>
+        </is>
+      </c>
+      <c r="AS4" s="4" t="n">
+        <v>35076.0</v>
+      </c>
+      <c r="AT4"/>
+      <c r="AU4"/>
+      <c r="AV4"/>
+      <c r="AW4"/>
+      <c r="AX4"/>
+      <c r="AY4"/>
+      <c r="AZ4"/>
+      <c r="BA4"/>
+      <c r="BB4" s="3" t="inlineStr">
+        <is>
+          <t>INSURED_SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="BC4" s="3" t="inlineStr">
         <is>
           <t>SSN</t>
         </is>
       </c>
-      <c r="AV4" s="3" t="inlineStr">
+      <c r="BD4" s="3" t="inlineStr">
         <is>
           <t>202443309</t>
         </is>
       </c>
-      <c r="AW4"/>
-      <c r="AX4" s="3" t="inlineStr">
+      <c r="BE4"/>
+      <c r="BF4" s="3" t="inlineStr">
         <is>
           <t>SMITH</t>
         </is>
       </c>
-      <c r="AY4" s="3" t="inlineStr">
+      <c r="BG4" s="3" t="inlineStr">
         <is>
           <t>Jane</t>
         </is>
       </c>
-      <c r="AZ4"/>
-      <c r="BA4" s="4" t="n">
+      <c r="BH4"/>
+      <c r="BI4" s="4" t="n">
         <v>25733.0</v>
       </c>
-      <c r="BB4" s="3" t="inlineStr">
+      <c r="BJ4" s="3" t="inlineStr">
         <is>
           <t>MALE</t>
         </is>
       </c>
-      <c r="BC4" s="3" t="inlineStr">
+      <c r="BK4" s="3" t="inlineStr">
         <is>
           <t>1715 SOUTHWIND AVENUE</t>
         </is>
       </c>
-      <c r="BD4"/>
-      <c r="BE4" s="3" t="inlineStr">
+      <c r="BL4"/>
+      <c r="BM4" s="3" t="inlineStr">
         <is>
           <t>ANYTOWN</t>
         </is>
       </c>
-      <c r="BF4" s="3" t="inlineStr">
+      <c r="BN4" s="3" t="inlineStr">
         <is>
           <t>PA</t>
         </is>
       </c>
-      <c r="BG4" s="3" t="inlineStr">
+      <c r="BO4" s="3" t="inlineStr">
         <is>
           <t>171110000</t>
         </is>
       </c>
-      <c r="BH4" s="3" t="inlineStr">
+      <c r="BP4" s="3" t="inlineStr">
         <is>
           <t>HOME_PHONE</t>
         </is>
       </c>
-      <c r="BI4" s="3" t="inlineStr">
+      <c r="BQ4" s="3" t="inlineStr">
         <is>
           <t>7172343334</t>
         </is>
       </c>
-      <c r="BJ4" s="3" t="inlineStr">
+      <c r="BR4" s="3" t="inlineStr">
         <is>
           <t>WORK_PHONE</t>
         </is>
       </c>
-      <c r="BK4" s="3" t="inlineStr">
+      <c r="BS4" s="3" t="inlineStr">
         <is>
           <t>7172341240</t>
         </is>
       </c>
-      <c r="BL4"/>
-      <c r="BM4"/>
-      <c r="BN4"/>
-      <c r="BO4"/>
-      <c r="BP4"/>
-      <c r="BQ4"/>
-      <c r="BR4"/>
-      <c r="BS4"/>
       <c r="BT4"/>
       <c r="BU4"/>
       <c r="BV4"/>
@@ -2858,27 +3842,13 @@
       <c r="FA4"/>
       <c r="FB4"/>
       <c r="FC4"/>
-      <c r="FD4" s="3" t="inlineStr">
-        <is>
-          <t>021</t>
-        </is>
-      </c>
-      <c r="FE4" s="3" t="inlineStr">
-        <is>
-          <t>HMO</t>
-        </is>
-      </c>
+      <c r="FD4"/>
+      <c r="FE4"/>
       <c r="FF4"/>
       <c r="FG4"/>
       <c r="FH4"/>
-      <c r="FI4" s="3" t="inlineStr">
-        <is>
-          <t>348</t>
-        </is>
-      </c>
-      <c r="FJ4" s="4" t="n">
-        <v>35217.0</v>
-      </c>
+      <c r="FI4"/>
+      <c r="FJ4"/>
       <c r="FK4"/>
       <c r="FL4"/>
       <c r="FM4"/>
@@ -2904,31 +3874,11 @@
       <c r="GG4"/>
       <c r="GH4"/>
       <c r="GI4"/>
-      <c r="GJ4" s="3" t="inlineStr">
-        <is>
-          <t>PRIMARY_CARE</t>
-        </is>
-      </c>
-      <c r="GK4" s="3" t="inlineStr">
-        <is>
-          <t>INDIVIDUAL</t>
-        </is>
-      </c>
-      <c r="GL4" s="3" t="inlineStr">
-        <is>
-          <t>143766</t>
-        </is>
-      </c>
-      <c r="GM4" s="3" t="inlineStr">
-        <is>
-          <t>BROWN</t>
-        </is>
-      </c>
-      <c r="GN4" s="3" t="inlineStr">
-        <is>
-          <t>BERNARD</t>
-        </is>
-      </c>
+      <c r="GJ4"/>
+      <c r="GK4"/>
+      <c r="GL4"/>
+      <c r="GM4"/>
+      <c r="GN4"/>
       <c r="GO4"/>
       <c r="GP4"/>
       <c r="GQ4"/>
@@ -2939,19 +3889,9 @@
       <c r="GV4"/>
       <c r="GW4"/>
       <c r="GX4"/>
-      <c r="GY4" s="3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="GZ4" s="4" t="n">
-        <v>45413.0</v>
-      </c>
-      <c r="HA4" s="3" t="inlineStr">
-        <is>
-          <t>AI</t>
-        </is>
-      </c>
+      <c r="GY4"/>
+      <c r="GZ4"/>
+      <c r="HA4"/>
       <c r="HB4"/>
       <c r="HC4"/>
       <c r="HD4"/>
@@ -2978,21 +3918,141 @@
       <c r="HY4"/>
       <c r="HZ4"/>
       <c r="IA4"/>
-      <c r="IB4"/>
-      <c r="IC4"/>
+      <c r="IB4" s="3" t="inlineStr">
+        <is>
+          <t>021</t>
+        </is>
+      </c>
+      <c r="IC4" s="3" t="inlineStr">
+        <is>
+          <t>HMO</t>
+        </is>
+      </c>
       <c r="ID4"/>
       <c r="IE4"/>
       <c r="IF4"/>
-      <c r="IG4"/>
-      <c r="IH4"/>
+      <c r="IG4" s="3" t="inlineStr">
+        <is>
+          <t>348</t>
+        </is>
+      </c>
+      <c r="IH4" s="4" t="n">
+        <v>35217.0</v>
+      </c>
       <c r="II4"/>
       <c r="IJ4"/>
       <c r="IK4"/>
+      <c r="IL4"/>
+      <c r="IM4"/>
+      <c r="IN4"/>
+      <c r="IO4"/>
+      <c r="IP4"/>
+      <c r="IQ4"/>
+      <c r="IR4"/>
+      <c r="IS4"/>
+      <c r="IT4"/>
+      <c r="IU4"/>
+      <c r="IV4"/>
+      <c r="IW4"/>
+      <c r="IX4"/>
+      <c r="IY4"/>
+      <c r="IZ4"/>
+      <c r="JA4"/>
+      <c r="JB4"/>
+      <c r="JC4"/>
+      <c r="JD4"/>
+      <c r="JE4"/>
+      <c r="JF4"/>
+      <c r="JG4"/>
+      <c r="JH4" s="3" t="inlineStr">
+        <is>
+          <t>PRIMARY_CARE</t>
+        </is>
+      </c>
+      <c r="JI4" s="3" t="inlineStr">
+        <is>
+          <t>INDIVIDUAL</t>
+        </is>
+      </c>
+      <c r="JJ4" s="3" t="inlineStr">
+        <is>
+          <t>143766</t>
+        </is>
+      </c>
+      <c r="JK4" s="3" t="inlineStr">
+        <is>
+          <t>BROWN</t>
+        </is>
+      </c>
+      <c r="JL4" s="3" t="inlineStr">
+        <is>
+          <t>BERNARD</t>
+        </is>
+      </c>
+      <c r="JM4"/>
+      <c r="JN4"/>
+      <c r="JO4"/>
+      <c r="JP4"/>
+      <c r="JQ4"/>
+      <c r="JR4"/>
+      <c r="JS4"/>
+      <c r="JT4"/>
+      <c r="JU4"/>
+      <c r="JV4"/>
+      <c r="JW4" s="3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="JX4" s="4" t="n">
+        <v>45413.0</v>
+      </c>
+      <c r="JY4" s="3" t="inlineStr">
+        <is>
+          <t>AI</t>
+        </is>
+      </c>
+      <c r="JZ4"/>
+      <c r="KA4"/>
+      <c r="KB4"/>
+      <c r="KC4"/>
+      <c r="KD4"/>
+      <c r="KE4"/>
+      <c r="KF4"/>
+      <c r="KG4"/>
+      <c r="KH4"/>
+      <c r="KI4"/>
+      <c r="KJ4"/>
+      <c r="KK4"/>
+      <c r="KL4"/>
+      <c r="KM4"/>
+      <c r="KN4"/>
+      <c r="KO4"/>
+      <c r="KP4"/>
+      <c r="KQ4"/>
+      <c r="KR4"/>
+      <c r="KS4"/>
+      <c r="KT4"/>
+      <c r="KU4"/>
+      <c r="KV4"/>
+      <c r="KW4"/>
+      <c r="KX4"/>
+      <c r="KY4"/>
+      <c r="KZ4"/>
+      <c r="LA4"/>
+      <c r="LB4"/>
+      <c r="LC4"/>
+      <c r="LD4"/>
+      <c r="LE4"/>
+      <c r="LF4"/>
+      <c r="LG4"/>
+      <c r="LH4"/>
+      <c r="LI4"/>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>68406977fb1f98446d7b6b3f</t>
+          <t>6846458a58f41c12bccd7bf8</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
@@ -3050,187 +4110,181 @@
           <t>Insurer2</t>
         </is>
       </c>
-      <c r="M5" s="3" t="inlineStr">
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5" s="3" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="N5" s="3" t="inlineStr">
+      <c r="V5" s="3" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="O5" s="3" t="inlineStr">
+      <c r="W5" s="3" t="inlineStr">
         <is>
           <t>021</t>
         </is>
       </c>
-      <c r="P5" s="3" t="inlineStr">
+      <c r="X5" s="3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="Q5" s="3" t="inlineStr">
+      <c r="Y5" s="3" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="R5" s="3" t="inlineStr">
+      <c r="Z5" s="3" t="inlineStr">
         <is>
           <t>CE</t>
         </is>
       </c>
-      <c r="S5" s="3" t="inlineStr">
+      <c r="AA5" s="3" t="inlineStr">
         <is>
           <t>FT</t>
         </is>
       </c>
-      <c r="T5" s="3" t="inlineStr">
+      <c r="AB5" s="3" t="inlineStr">
         <is>
           <t>ST</t>
         </is>
       </c>
-      <c r="U5" s="3" t="inlineStr">
+      <c r="AC5" s="3" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="V5"/>
-      <c r="W5"/>
-      <c r="X5" s="3" t="inlineStr">
-        <is>
-          <t>member3</t>
-        </is>
-      </c>
-      <c r="Y5" s="3" t="inlineStr">
-        <is>
-          <t>group3</t>
-        </is>
-      </c>
-      <c r="Z5" s="3" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="AA5" s="3" t="inlineStr">
-        <is>
-          <t>ClientNumber3</t>
-        </is>
-      </c>
-      <c r="AB5"/>
-      <c r="AC5"/>
       <c r="AD5"/>
       <c r="AE5"/>
-      <c r="AF5"/>
-      <c r="AG5"/>
-      <c r="AH5"/>
-      <c r="AI5"/>
-      <c r="AJ5" s="3" t="inlineStr">
-        <is>
-          <t>356</t>
-        </is>
-      </c>
-      <c r="AK5" s="4" t="n">
-        <v>35076.0</v>
-      </c>
+      <c r="AF5" s="3" t="inlineStr">
+        <is>
+          <t>member3</t>
+        </is>
+      </c>
+      <c r="AG5" s="3" t="inlineStr">
+        <is>
+          <t>group3</t>
+        </is>
+      </c>
+      <c r="AH5" s="3" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="AI5" s="3" t="inlineStr">
+        <is>
+          <t>ClientNumber3</t>
+        </is>
+      </c>
+      <c r="AJ5"/>
+      <c r="AK5"/>
       <c r="AL5"/>
       <c r="AM5"/>
       <c r="AN5"/>
       <c r="AO5"/>
       <c r="AP5"/>
       <c r="AQ5"/>
-      <c r="AR5"/>
-      <c r="AS5"/>
-      <c r="AT5" s="3" t="inlineStr">
-        <is>
-          <t>SUBSCRIBER</t>
-        </is>
-      </c>
-      <c r="AU5" s="3" t="inlineStr">
+      <c r="AR5" s="3" t="inlineStr">
+        <is>
+          <t>356</t>
+        </is>
+      </c>
+      <c r="AS5" s="4" t="n">
+        <v>35076.0</v>
+      </c>
+      <c r="AT5"/>
+      <c r="AU5"/>
+      <c r="AV5"/>
+      <c r="AW5"/>
+      <c r="AX5"/>
+      <c r="AY5"/>
+      <c r="AZ5"/>
+      <c r="BA5"/>
+      <c r="BB5" s="3" t="inlineStr">
+        <is>
+          <t>INSURED_SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="BC5" s="3" t="inlineStr">
         <is>
           <t>SSN</t>
         </is>
       </c>
-      <c r="AV5" s="3" t="inlineStr">
+      <c r="BD5" s="3" t="inlineStr">
         <is>
           <t>202443307</t>
         </is>
       </c>
-      <c r="AW5"/>
-      <c r="AX5" s="3" t="inlineStr">
+      <c r="BE5"/>
+      <c r="BF5" s="3" t="inlineStr">
         <is>
           <t>SMITH</t>
         </is>
       </c>
-      <c r="AY5" s="3" t="inlineStr">
+      <c r="BG5" s="3" t="inlineStr">
         <is>
           <t>WILLIAM</t>
         </is>
       </c>
-      <c r="AZ5"/>
-      <c r="BA5" s="4" t="n">
+      <c r="BH5"/>
+      <c r="BI5" s="4" t="n">
         <v>25733.0</v>
       </c>
-      <c r="BB5" s="3" t="inlineStr">
+      <c r="BJ5" s="3" t="inlineStr">
         <is>
           <t>MALE</t>
         </is>
       </c>
-      <c r="BC5" s="3" t="inlineStr">
+      <c r="BK5" s="3" t="inlineStr">
         <is>
           <t>1715 SOUTHWIND AVENUE</t>
         </is>
       </c>
-      <c r="BD5"/>
-      <c r="BE5" s="3" t="inlineStr">
+      <c r="BL5"/>
+      <c r="BM5" s="3" t="inlineStr">
         <is>
           <t>ANYTOWN</t>
         </is>
       </c>
-      <c r="BF5" s="3" t="inlineStr">
+      <c r="BN5" s="3" t="inlineStr">
         <is>
           <t>PA</t>
         </is>
       </c>
-      <c r="BG5" s="3" t="inlineStr">
+      <c r="BO5" s="3" t="inlineStr">
         <is>
           <t>171110000</t>
         </is>
       </c>
-      <c r="BH5" s="3" t="inlineStr">
+      <c r="BP5" s="3" t="inlineStr">
         <is>
           <t>HOME_PHONE</t>
         </is>
       </c>
-      <c r="BI5" s="3" t="inlineStr">
+      <c r="BQ5" s="3" t="inlineStr">
         <is>
           <t>7172343334</t>
         </is>
       </c>
-      <c r="BJ5" s="3" t="inlineStr">
+      <c r="BR5" s="3" t="inlineStr">
         <is>
           <t>WORK_PHONE</t>
         </is>
       </c>
-      <c r="BK5" s="3" t="inlineStr">
+      <c r="BS5" s="3" t="inlineStr">
         <is>
           <t>7172341240</t>
         </is>
       </c>
-      <c r="BL5" s="3" t="inlineStr">
-        <is>
-          <t>D2</t>
-        </is>
-      </c>
-      <c r="BM5" s="1" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="BN5"/>
-      <c r="BO5"/>
-      <c r="BP5"/>
-      <c r="BQ5"/>
-      <c r="BR5"/>
-      <c r="BS5"/>
       <c r="BT5"/>
       <c r="BU5"/>
       <c r="BV5"/>
@@ -3247,8 +4301,14 @@
       <c r="CG5"/>
       <c r="CH5"/>
       <c r="CI5"/>
-      <c r="CJ5"/>
-      <c r="CK5"/>
+      <c r="CJ5" s="3" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
+      <c r="CK5" s="1" t="n">
+        <v>100.0</v>
+      </c>
       <c r="CL5"/>
       <c r="CM5"/>
       <c r="CN5"/>
@@ -3405,6 +4465,82 @@
       <c r="II5"/>
       <c r="IJ5"/>
       <c r="IK5"/>
+      <c r="IL5"/>
+      <c r="IM5"/>
+      <c r="IN5"/>
+      <c r="IO5"/>
+      <c r="IP5"/>
+      <c r="IQ5"/>
+      <c r="IR5"/>
+      <c r="IS5"/>
+      <c r="IT5"/>
+      <c r="IU5"/>
+      <c r="IV5"/>
+      <c r="IW5"/>
+      <c r="IX5"/>
+      <c r="IY5"/>
+      <c r="IZ5"/>
+      <c r="JA5"/>
+      <c r="JB5"/>
+      <c r="JC5"/>
+      <c r="JD5"/>
+      <c r="JE5"/>
+      <c r="JF5"/>
+      <c r="JG5"/>
+      <c r="JH5"/>
+      <c r="JI5"/>
+      <c r="JJ5"/>
+      <c r="JK5"/>
+      <c r="JL5"/>
+      <c r="JM5"/>
+      <c r="JN5"/>
+      <c r="JO5"/>
+      <c r="JP5"/>
+      <c r="JQ5"/>
+      <c r="JR5"/>
+      <c r="JS5"/>
+      <c r="JT5"/>
+      <c r="JU5"/>
+      <c r="JV5"/>
+      <c r="JW5"/>
+      <c r="JX5"/>
+      <c r="JY5"/>
+      <c r="JZ5"/>
+      <c r="KA5"/>
+      <c r="KB5"/>
+      <c r="KC5"/>
+      <c r="KD5"/>
+      <c r="KE5"/>
+      <c r="KF5"/>
+      <c r="KG5"/>
+      <c r="KH5"/>
+      <c r="KI5"/>
+      <c r="KJ5"/>
+      <c r="KK5"/>
+      <c r="KL5"/>
+      <c r="KM5"/>
+      <c r="KN5"/>
+      <c r="KO5"/>
+      <c r="KP5"/>
+      <c r="KQ5"/>
+      <c r="KR5"/>
+      <c r="KS5"/>
+      <c r="KT5"/>
+      <c r="KU5"/>
+      <c r="KV5"/>
+      <c r="KW5"/>
+      <c r="KX5"/>
+      <c r="KY5"/>
+      <c r="KZ5"/>
+      <c r="LA5"/>
+      <c r="LB5"/>
+      <c r="LC5"/>
+      <c r="LD5"/>
+      <c r="LE5"/>
+      <c r="LF5"/>
+      <c r="LG5"/>
+      <c r="LH5"/>
+      <c r="LI5"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/converted_files/834/834-all-fields.xlsx
+++ b/converted_files/834/834-all-fields.xlsx
@@ -59,7 +59,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:LI5"/>
+  <dimension ref="A1:OZ5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -103,1579 +103,2054 @@
       </c>
       <c r="H1" s="3" t="inlineStr">
         <is>
+          <t>FileEffectiveDate1QualifierCode</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>FileEffectiveDate1Date</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>FileEffectiveDate2QualifierCode</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>FileEffectiveDate2Date</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="inlineStr">
+        <is>
+          <t>FileEffectiveDate3QualifierCode</t>
+        </is>
+      </c>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>FileEffectiveDate3Date</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="inlineStr">
+        <is>
           <t>MasterPolicyNumber</t>
         </is>
       </c>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="O1" s="3" t="inlineStr">
         <is>
           <t>SponsorIdentifier</t>
         </is>
       </c>
-      <c r="J1" s="3" t="inlineStr">
+      <c r="P1" s="3" t="inlineStr">
         <is>
           <t>SponsorName</t>
         </is>
       </c>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="Q1" s="3" t="inlineStr">
         <is>
           <t>InsurerIdentifier</t>
         </is>
       </c>
-      <c r="L1" s="3" t="inlineStr">
+      <c r="R1" s="3" t="inlineStr">
         <is>
           <t>InsurerName</t>
         </is>
       </c>
-      <c r="M1" s="3" t="inlineStr">
+      <c r="S1" s="3" t="inlineStr">
         <is>
           <t>Tpa1Identifier</t>
         </is>
       </c>
-      <c r="N1" s="3" t="inlineStr">
+      <c r="T1" s="3" t="inlineStr">
         <is>
           <t>Tpa1Name</t>
         </is>
       </c>
-      <c r="O1" s="3" t="inlineStr">
+      <c r="U1" s="3" t="inlineStr">
         <is>
           <t>Tpa1AccountNumber</t>
         </is>
       </c>
-      <c r="P1" s="3" t="inlineStr">
+      <c r="V1" s="3" t="inlineStr">
         <is>
           <t>Tpa1AccountNumber2</t>
         </is>
       </c>
-      <c r="Q1" s="3" t="inlineStr">
+      <c r="W1" s="3" t="inlineStr">
         <is>
           <t>Tpa2Identifier</t>
         </is>
       </c>
-      <c r="R1" s="3" t="inlineStr">
+      <c r="X1" s="3" t="inlineStr">
         <is>
           <t>Tpa2Name</t>
         </is>
       </c>
-      <c r="S1" s="3" t="inlineStr">
+      <c r="Y1" s="3" t="inlineStr">
         <is>
           <t>Tpa2AccountNumber</t>
         </is>
       </c>
-      <c r="T1" s="3" t="inlineStr">
+      <c r="Z1" s="3" t="inlineStr">
         <is>
           <t>Tpa2AccountNumber2</t>
         </is>
       </c>
-      <c r="U1" s="3" t="inlineStr">
+      <c r="AA1" s="3" t="inlineStr">
         <is>
           <t>MemberIndicator</t>
         </is>
       </c>
-      <c r="V1" s="3" t="inlineStr">
+      <c r="AB1" s="3" t="inlineStr">
         <is>
           <t>RelationshipCode</t>
         </is>
       </c>
-      <c r="W1" s="3" t="inlineStr">
+      <c r="AC1" s="3" t="inlineStr">
         <is>
           <t>MaintenanceTypeCode</t>
         </is>
       </c>
-      <c r="X1" s="3" t="inlineStr">
+      <c r="AD1" s="3" t="inlineStr">
         <is>
           <t>MaintenanceReasonCode</t>
         </is>
       </c>
-      <c r="Y1" s="3" t="inlineStr">
+      <c r="AE1" s="3" t="inlineStr">
         <is>
           <t>BenefitStatusCode</t>
         </is>
       </c>
-      <c r="Z1" s="3" t="inlineStr">
+      <c r="AF1" s="3" t="inlineStr">
         <is>
           <t>CobraEventCode</t>
         </is>
       </c>
-      <c r="AA1" s="3" t="inlineStr">
+      <c r="AG1" s="3" t="inlineStr">
         <is>
           <t>EmploymentStatusCode</t>
         </is>
       </c>
-      <c r="AB1" s="3" t="inlineStr">
+      <c r="AH1" s="3" t="inlineStr">
         <is>
           <t>StudentStatusCode</t>
         </is>
       </c>
-      <c r="AC1" s="3" t="inlineStr">
+      <c r="AI1" s="3" t="inlineStr">
         <is>
           <t>HandicapIndicator</t>
         </is>
       </c>
-      <c r="AD1" s="3" t="inlineStr">
+      <c r="AJ1" s="3" t="inlineStr">
         <is>
           <t>ConfidentialityCode</t>
         </is>
       </c>
-      <c r="AE1" s="3" t="inlineStr">
+      <c r="AK1" s="3" t="inlineStr">
         <is>
           <t>BirthSequenceNumber</t>
         </is>
       </c>
-      <c r="AF1" s="3" t="inlineStr">
+      <c r="AL1" s="3" t="inlineStr">
         <is>
           <t>Identifier</t>
         </is>
       </c>
-      <c r="AG1" s="3" t="inlineStr">
+      <c r="AM1" s="3" t="inlineStr">
         <is>
           <t>GroupOrPolicyNumber</t>
         </is>
       </c>
-      <c r="AH1" s="3" t="inlineStr">
+      <c r="AN1" s="3" t="inlineStr">
         <is>
           <t>SupplementalIdentifier1QualifierCode</t>
         </is>
       </c>
-      <c r="AI1" s="3" t="inlineStr">
+      <c r="AO1" s="3" t="inlineStr">
         <is>
           <t>SupplementalIdentifier1Identification</t>
         </is>
       </c>
-      <c r="AJ1" s="3" t="inlineStr">
+      <c r="AP1" s="3" t="inlineStr">
         <is>
           <t>SupplementalIdentifier2QualifierCode</t>
         </is>
       </c>
-      <c r="AK1" s="3" t="inlineStr">
+      <c r="AQ1" s="3" t="inlineStr">
         <is>
           <t>SupplementalIdentifier2Identification</t>
         </is>
       </c>
-      <c r="AL1" s="3" t="inlineStr">
+      <c r="AR1" s="3" t="inlineStr">
         <is>
           <t>SupplementalIdentifier3QualifierCode</t>
         </is>
       </c>
-      <c r="AM1" s="3" t="inlineStr">
+      <c r="AS1" s="3" t="inlineStr">
         <is>
           <t>SupplementalIdentifier3Identification</t>
         </is>
       </c>
-      <c r="AN1" s="3" t="inlineStr">
+      <c r="AT1" s="3" t="inlineStr">
         <is>
           <t>SupplementalIdentifier4QualifierCode</t>
         </is>
       </c>
-      <c r="AO1" s="3" t="inlineStr">
+      <c r="AU1" s="3" t="inlineStr">
         <is>
           <t>SupplementalIdentifier4Identification</t>
         </is>
       </c>
-      <c r="AP1" s="3" t="inlineStr">
+      <c r="AV1" s="3" t="inlineStr">
         <is>
           <t>SupplementalIdentifier5QualifierCode</t>
         </is>
       </c>
-      <c r="AQ1" s="3" t="inlineStr">
+      <c r="AW1" s="3" t="inlineStr">
         <is>
           <t>SupplementalIdentifier5Identification</t>
         </is>
       </c>
-      <c r="AR1" s="3" t="inlineStr">
+      <c r="AX1" s="3" t="inlineStr">
         <is>
           <t>StatusInfoEffectiveDate1QualifierCode</t>
         </is>
       </c>
-      <c r="AS1" s="3" t="inlineStr">
+      <c r="AY1" s="3" t="inlineStr">
         <is>
           <t>StatusInfoEffectiveDate1Date</t>
         </is>
       </c>
-      <c r="AT1" s="3" t="inlineStr">
+      <c r="AZ1" s="3" t="inlineStr">
         <is>
           <t>StatusInfoEffectiveDate2QualifierCode</t>
         </is>
       </c>
-      <c r="AU1" s="3" t="inlineStr">
+      <c r="BA1" s="3" t="inlineStr">
         <is>
           <t>StatusInfoEffectiveDate2Date</t>
         </is>
       </c>
-      <c r="AV1" s="3" t="inlineStr">
+      <c r="BB1" s="3" t="inlineStr">
         <is>
           <t>StatusInfoEffectiveDate3QualifierCode</t>
         </is>
       </c>
-      <c r="AW1" s="3" t="inlineStr">
+      <c r="BC1" s="3" t="inlineStr">
         <is>
           <t>StatusInfoEffectiveDate3Date</t>
         </is>
       </c>
-      <c r="AX1" s="3" t="inlineStr">
+      <c r="BD1" s="3" t="inlineStr">
         <is>
           <t>StatusInfoEffectiveDate4QualifierCode</t>
         </is>
       </c>
-      <c r="AY1" s="3" t="inlineStr">
+      <c r="BE1" s="3" t="inlineStr">
         <is>
           <t>StatusInfoEffectiveDate4Date</t>
         </is>
       </c>
-      <c r="AZ1" s="3" t="inlineStr">
+      <c r="BF1" s="3" t="inlineStr">
         <is>
           <t>StatusInfoEffectiveDate5QualifierCode</t>
         </is>
       </c>
-      <c r="BA1" s="3" t="inlineStr">
+      <c r="BG1" s="3" t="inlineStr">
         <is>
           <t>StatusInfoEffectiveDate5Date</t>
         </is>
       </c>
-      <c r="BB1" s="3" t="inlineStr">
+      <c r="BH1" s="3" t="inlineStr">
         <is>
           <t>MemberEntityRole</t>
         </is>
       </c>
-      <c r="BC1" s="3" t="inlineStr">
+      <c r="BI1" s="3" t="inlineStr">
         <is>
           <t>MemberIdentificationType</t>
         </is>
       </c>
-      <c r="BD1" s="3" t="inlineStr">
+      <c r="BJ1" s="3" t="inlineStr">
         <is>
           <t>MemberIdentifier</t>
         </is>
       </c>
-      <c r="BE1" s="3" t="inlineStr">
+      <c r="BK1" s="3" t="inlineStr">
         <is>
           <t>MemberTaxId</t>
         </is>
       </c>
-      <c r="BF1" s="3" t="inlineStr">
-        <is>
-          <t>MemberLastNameOrOrgName</t>
-        </is>
-      </c>
-      <c r="BG1" s="3" t="inlineStr">
+      <c r="BL1" s="3" t="inlineStr">
+        <is>
+          <t>MemberLastName</t>
+        </is>
+      </c>
+      <c r="BM1" s="3" t="inlineStr">
         <is>
           <t>MemberFirstName</t>
         </is>
       </c>
-      <c r="BH1" s="3" t="inlineStr">
+      <c r="BN1" s="3" t="inlineStr">
         <is>
           <t>MemberMiddleName</t>
         </is>
       </c>
-      <c r="BI1" s="3" t="inlineStr">
+      <c r="BO1" s="3" t="inlineStr">
         <is>
           <t>MemberBirthDate</t>
         </is>
       </c>
-      <c r="BJ1" s="3" t="inlineStr">
+      <c r="BP1" s="3" t="inlineStr">
         <is>
           <t>MemberGender</t>
         </is>
       </c>
-      <c r="BK1" s="3" t="inlineStr">
+      <c r="BQ1" s="3" t="inlineStr">
         <is>
           <t>MemberAddressLine</t>
         </is>
       </c>
-      <c r="BL1" s="3" t="inlineStr">
+      <c r="BR1" s="3" t="inlineStr">
         <is>
           <t>MemberAddressLine2</t>
         </is>
       </c>
-      <c r="BM1" s="3" t="inlineStr">
+      <c r="BS1" s="3" t="inlineStr">
         <is>
           <t>MemberAddressCity</t>
         </is>
       </c>
-      <c r="BN1" s="3" t="inlineStr">
+      <c r="BT1" s="3" t="inlineStr">
         <is>
           <t>MemberAddressStateCode</t>
         </is>
       </c>
-      <c r="BO1" s="3" t="inlineStr">
+      <c r="BU1" s="3" t="inlineStr">
         <is>
           <t>MemberAddressZipCode</t>
         </is>
       </c>
-      <c r="BP1" s="3" t="inlineStr">
+      <c r="BV1" s="3" t="inlineStr">
         <is>
           <t>MemberContactContactNumber1Type</t>
         </is>
       </c>
-      <c r="BQ1" s="3" t="inlineStr">
+      <c r="BW1" s="3" t="inlineStr">
         <is>
           <t>MemberContactContactNumber1Number</t>
         </is>
       </c>
-      <c r="BR1" s="3" t="inlineStr">
+      <c r="BX1" s="3" t="inlineStr">
         <is>
           <t>MemberContactContactNumber2Type</t>
         </is>
       </c>
-      <c r="BS1" s="3" t="inlineStr">
+      <c r="BY1" s="3" t="inlineStr">
         <is>
           <t>MemberContactContactNumber2Number</t>
         </is>
       </c>
-      <c r="BT1" s="3" t="inlineStr">
+      <c r="BZ1" s="3" t="inlineStr">
         <is>
           <t>MemberMaritalStatusCode</t>
         </is>
       </c>
-      <c r="BU1" s="3" t="inlineStr">
+      <c r="CA1" s="3" t="inlineStr">
         <is>
           <t>MemberEthnicityCode</t>
         </is>
       </c>
-      <c r="BV1" s="3" t="inlineStr">
+      <c r="CB1" s="3" t="inlineStr">
         <is>
           <t>MemberCitizenshipCode</t>
         </is>
       </c>
-      <c r="BW1" s="3" t="inlineStr">
+      <c r="CC1" s="3" t="inlineStr">
         <is>
           <t>MemberEmploymentClassCode1</t>
         </is>
       </c>
-      <c r="BX1" s="3" t="inlineStr">
+      <c r="CD1" s="3" t="inlineStr">
         <is>
           <t>MemberEmploymentClassCode2</t>
         </is>
       </c>
-      <c r="BY1" s="3" t="inlineStr">
+      <c r="CE1" s="3" t="inlineStr">
         <is>
           <t>MemberEmploymentClassCode3</t>
         </is>
       </c>
-      <c r="BZ1" s="3" t="inlineStr">
+      <c r="CF1" s="3" t="inlineStr">
         <is>
           <t>MemberEmploymentClassCode4</t>
         </is>
       </c>
-      <c r="CA1" s="3" t="inlineStr">
+      <c r="CG1" s="3" t="inlineStr">
         <is>
           <t>MemberEmploymentClassCode5</t>
         </is>
       </c>
-      <c r="CB1" s="3" t="inlineStr">
+      <c r="CH1" s="3" t="inlineStr">
         <is>
           <t>MemberWageFrequencyCode</t>
         </is>
       </c>
-      <c r="CC1" s="3" t="inlineStr">
+      <c r="CI1" s="3" t="inlineStr">
         <is>
           <t>MemberWageAmount</t>
         </is>
       </c>
-      <c r="CD1" s="3" t="inlineStr">
+      <c r="CJ1" s="3" t="inlineStr">
         <is>
           <t>MemberWorkHoursCount</t>
         </is>
       </c>
-      <c r="CE1" s="3" t="inlineStr">
+      <c r="CK1" s="3" t="inlineStr">
         <is>
           <t>MemberEmployerLocationIdentificationCode</t>
         </is>
       </c>
-      <c r="CF1" s="3" t="inlineStr">
+      <c r="CL1" s="3" t="inlineStr">
         <is>
           <t>MemberSalaryGradeCode</t>
         </is>
       </c>
-      <c r="CG1" s="3" t="inlineStr">
+      <c r="CM1" s="3" t="inlineStr">
         <is>
           <t>MemberHealthRelatedCode</t>
         </is>
       </c>
-      <c r="CH1" s="3" t="inlineStr">
+      <c r="CN1" s="3" t="inlineStr">
         <is>
           <t>MemberHeight</t>
         </is>
       </c>
-      <c r="CI1" s="3" t="inlineStr">
+      <c r="CO1" s="3" t="inlineStr">
         <is>
           <t>MemberWeight</t>
         </is>
       </c>
-      <c r="CJ1" s="3" t="inlineStr">
+      <c r="CP1" s="3" t="inlineStr">
+        <is>
+          <t>IncorrectMemberIdentifier</t>
+        </is>
+      </c>
+      <c r="CQ1" s="3" t="inlineStr">
+        <is>
+          <t>IncorrectMemberLastName</t>
+        </is>
+      </c>
+      <c r="CR1" s="3" t="inlineStr">
+        <is>
+          <t>IncorrectMemberFirstName</t>
+        </is>
+      </c>
+      <c r="CS1" s="3" t="inlineStr">
+        <is>
+          <t>IncorrectMemberMiddleName</t>
+        </is>
+      </c>
+      <c r="CT1" s="3" t="inlineStr">
+        <is>
+          <t>IncorrectMemberBirthDate</t>
+        </is>
+      </c>
+      <c r="CU1" s="3" t="inlineStr">
+        <is>
+          <t>IncorrectMemberGender</t>
+        </is>
+      </c>
+      <c r="CV1" s="3" t="inlineStr">
+        <is>
+          <t>IncorrectMemberMaritalStatusCode</t>
+        </is>
+      </c>
+      <c r="CW1" s="3" t="inlineStr">
+        <is>
+          <t>IncorrectMemberEthnicityCode</t>
+        </is>
+      </c>
+      <c r="CX1" s="3" t="inlineStr">
+        <is>
+          <t>IncorrectMemberCitizenshipCode</t>
+        </is>
+      </c>
+      <c r="CY1" s="3" t="inlineStr">
         <is>
           <t>ContractAmount1QualifierCode</t>
         </is>
       </c>
-      <c r="CK1" s="3" t="inlineStr">
+      <c r="CZ1" s="3" t="inlineStr">
         <is>
           <t>ContractAmount1Amount</t>
         </is>
       </c>
-      <c r="CL1" s="3" t="inlineStr">
+      <c r="DA1" s="3" t="inlineStr">
         <is>
           <t>ContractAmount2QualifierCode</t>
         </is>
       </c>
-      <c r="CM1" s="3" t="inlineStr">
+      <c r="DB1" s="3" t="inlineStr">
         <is>
           <t>ContractAmount2Amount</t>
         </is>
       </c>
-      <c r="CN1" s="3" t="inlineStr">
+      <c r="DC1" s="3" t="inlineStr">
         <is>
           <t>ContractAmount3QualifierCode</t>
         </is>
       </c>
-      <c r="CO1" s="3" t="inlineStr">
+      <c r="DD1" s="3" t="inlineStr">
         <is>
           <t>ContractAmount3Amount</t>
         </is>
       </c>
-      <c r="CP1" s="3" t="inlineStr">
+      <c r="DE1" s="3" t="inlineStr">
         <is>
           <t>ContractAmount4QualifierCode</t>
         </is>
       </c>
-      <c r="CQ1" s="3" t="inlineStr">
+      <c r="DF1" s="3" t="inlineStr">
         <is>
           <t>ContractAmount4Amount</t>
         </is>
       </c>
-      <c r="CR1" s="3" t="inlineStr">
+      <c r="DG1" s="3" t="inlineStr">
         <is>
           <t>ContractAmount5QualifierCode</t>
         </is>
       </c>
-      <c r="CS1" s="3" t="inlineStr">
+      <c r="DH1" s="3" t="inlineStr">
         <is>
           <t>ContractAmount5Amount</t>
         </is>
       </c>
-      <c r="CT1" s="3" t="inlineStr">
+      <c r="DI1" s="3" t="inlineStr">
         <is>
           <t>MailingAddressLine</t>
         </is>
       </c>
-      <c r="CU1" s="3" t="inlineStr">
+      <c r="DJ1" s="3" t="inlineStr">
         <is>
           <t>MailingAddressLine2</t>
         </is>
       </c>
-      <c r="CV1" s="3" t="inlineStr">
+      <c r="DK1" s="3" t="inlineStr">
         <is>
           <t>MailingAddressCity</t>
         </is>
       </c>
-      <c r="CW1" s="3" t="inlineStr">
+      <c r="DL1" s="3" t="inlineStr">
         <is>
           <t>MailingAddressStateCode</t>
         </is>
       </c>
-      <c r="CX1" s="3" t="inlineStr">
+      <c r="DM1" s="3" t="inlineStr">
         <is>
           <t>MailingAddressZipCode</t>
         </is>
       </c>
-      <c r="CY1" s="3" t="inlineStr">
+      <c r="DN1" s="3" t="inlineStr">
         <is>
           <t>Employer1Identifier</t>
         </is>
       </c>
-      <c r="CZ1" s="3" t="inlineStr">
+      <c r="DO1" s="3" t="inlineStr">
         <is>
           <t>Employer1LastNameOrOrgName</t>
         </is>
       </c>
-      <c r="DA1" s="3" t="inlineStr">
+      <c r="DP1" s="3" t="inlineStr">
         <is>
           <t>Employer1FirstName</t>
         </is>
       </c>
-      <c r="DB1" s="3" t="inlineStr">
+      <c r="DQ1" s="3" t="inlineStr">
         <is>
           <t>Employer1MiddleName</t>
         </is>
       </c>
-      <c r="DC1" s="3" t="inlineStr">
+      <c r="DR1" s="3" t="inlineStr">
         <is>
           <t>Employer1AddressLine</t>
         </is>
       </c>
-      <c r="DD1" s="3" t="inlineStr">
+      <c r="DS1" s="3" t="inlineStr">
         <is>
           <t>Employer1AddressLine2</t>
         </is>
       </c>
-      <c r="DE1" s="3" t="inlineStr">
+      <c r="DT1" s="3" t="inlineStr">
         <is>
           <t>Employer1AddressCity</t>
         </is>
       </c>
-      <c r="DF1" s="3" t="inlineStr">
+      <c r="DU1" s="3" t="inlineStr">
         <is>
           <t>Employer1AddressStateCode</t>
         </is>
       </c>
-      <c r="DG1" s="3" t="inlineStr">
+      <c r="DV1" s="3" t="inlineStr">
         <is>
           <t>Employer1AddressZipCode</t>
         </is>
       </c>
-      <c r="DH1" s="3" t="inlineStr">
+      <c r="DW1" s="3" t="inlineStr">
         <is>
           <t>Employer1ContactContactNumber1Type</t>
         </is>
       </c>
-      <c r="DI1" s="3" t="inlineStr">
+      <c r="DX1" s="3" t="inlineStr">
         <is>
           <t>Employer1ContactContactNumber1Number</t>
         </is>
       </c>
-      <c r="DJ1" s="3" t="inlineStr">
+      <c r="DY1" s="3" t="inlineStr">
         <is>
           <t>Employer1ContactContactNumber2Type</t>
         </is>
       </c>
-      <c r="DK1" s="3" t="inlineStr">
+      <c r="DZ1" s="3" t="inlineStr">
         <is>
           <t>Employer1ContactContactNumber2Number</t>
         </is>
       </c>
-      <c r="DL1" s="3" t="inlineStr">
+      <c r="EA1" s="3" t="inlineStr">
         <is>
           <t>Employer2Identifier</t>
         </is>
       </c>
-      <c r="DM1" s="3" t="inlineStr">
+      <c r="EB1" s="3" t="inlineStr">
         <is>
           <t>Employer2LastNameOrOrgName</t>
         </is>
       </c>
-      <c r="DN1" s="3" t="inlineStr">
+      <c r="EC1" s="3" t="inlineStr">
         <is>
           <t>Employer2FirstName</t>
         </is>
       </c>
-      <c r="DO1" s="3" t="inlineStr">
+      <c r="ED1" s="3" t="inlineStr">
         <is>
           <t>Employer2MiddleName</t>
         </is>
       </c>
-      <c r="DP1" s="3" t="inlineStr">
+      <c r="EE1" s="3" t="inlineStr">
         <is>
           <t>Employer2AddressLine</t>
         </is>
       </c>
-      <c r="DQ1" s="3" t="inlineStr">
+      <c r="EF1" s="3" t="inlineStr">
         <is>
           <t>Employer2AddressLine2</t>
         </is>
       </c>
-      <c r="DR1" s="3" t="inlineStr">
+      <c r="EG1" s="3" t="inlineStr">
         <is>
           <t>Employer2AddressCity</t>
         </is>
       </c>
-      <c r="DS1" s="3" t="inlineStr">
+      <c r="EH1" s="3" t="inlineStr">
         <is>
           <t>Employer2AddressStateCode</t>
         </is>
       </c>
-      <c r="DT1" s="3" t="inlineStr">
+      <c r="EI1" s="3" t="inlineStr">
         <is>
           <t>Employer2AddressZipCode</t>
         </is>
       </c>
-      <c r="DU1" s="3" t="inlineStr">
+      <c r="EJ1" s="3" t="inlineStr">
         <is>
           <t>Employer2ContactContactNumber1Type</t>
         </is>
       </c>
-      <c r="DV1" s="3" t="inlineStr">
+      <c r="EK1" s="3" t="inlineStr">
         <is>
           <t>Employer2ContactContactNumber1Number</t>
         </is>
       </c>
-      <c r="DW1" s="3" t="inlineStr">
+      <c r="EL1" s="3" t="inlineStr">
         <is>
           <t>Employer2ContactContactNumber2Type</t>
         </is>
       </c>
-      <c r="DX1" s="3" t="inlineStr">
+      <c r="EM1" s="3" t="inlineStr">
         <is>
           <t>Employer2ContactContactNumber2Number</t>
         </is>
       </c>
-      <c r="DY1" s="3" t="inlineStr">
+      <c r="EN1" s="3" t="inlineStr">
         <is>
           <t>School1Identifier</t>
         </is>
       </c>
-      <c r="DZ1" s="3" t="inlineStr">
-        <is>
-          <t>School1LastNameOrOrgName</t>
-        </is>
-      </c>
-      <c r="EA1" s="3" t="inlineStr">
+      <c r="EO1" s="3" t="inlineStr">
+        <is>
+          <t>School1Name</t>
+        </is>
+      </c>
+      <c r="EP1" s="3" t="inlineStr">
         <is>
           <t>School1AddressLine</t>
         </is>
       </c>
-      <c r="EB1" s="3" t="inlineStr">
+      <c r="EQ1" s="3" t="inlineStr">
         <is>
           <t>School1AddressLine2</t>
         </is>
       </c>
-      <c r="EC1" s="3" t="inlineStr">
+      <c r="ER1" s="3" t="inlineStr">
         <is>
           <t>School1AddressCity</t>
         </is>
       </c>
-      <c r="ED1" s="3" t="inlineStr">
+      <c r="ES1" s="3" t="inlineStr">
         <is>
           <t>School1AddressStateCode</t>
         </is>
       </c>
-      <c r="EE1" s="3" t="inlineStr">
+      <c r="ET1" s="3" t="inlineStr">
         <is>
           <t>School1AddressZipCode</t>
         </is>
       </c>
-      <c r="EF1" s="3" t="inlineStr">
+      <c r="EU1" s="3" t="inlineStr">
         <is>
           <t>School1ContactContactNumber1Type</t>
         </is>
       </c>
-      <c r="EG1" s="3" t="inlineStr">
+      <c r="EV1" s="3" t="inlineStr">
         <is>
           <t>School1ContactContactNumber1Number</t>
         </is>
       </c>
-      <c r="EH1" s="3" t="inlineStr">
+      <c r="EW1" s="3" t="inlineStr">
         <is>
           <t>School1ContactContactNumber2Type</t>
         </is>
       </c>
-      <c r="EI1" s="3" t="inlineStr">
+      <c r="EX1" s="3" t="inlineStr">
         <is>
           <t>School1ContactContactNumber2Number</t>
         </is>
       </c>
-      <c r="EJ1" s="3" t="inlineStr">
+      <c r="EY1" s="3" t="inlineStr">
         <is>
           <t>School2Identifier</t>
         </is>
       </c>
-      <c r="EK1" s="3" t="inlineStr">
-        <is>
-          <t>School2LastNameOrOrgName</t>
-        </is>
-      </c>
-      <c r="EL1" s="3" t="inlineStr">
+      <c r="EZ1" s="3" t="inlineStr">
+        <is>
+          <t>School2Name</t>
+        </is>
+      </c>
+      <c r="FA1" s="3" t="inlineStr">
         <is>
           <t>School2AddressLine</t>
         </is>
       </c>
-      <c r="EM1" s="3" t="inlineStr">
+      <c r="FB1" s="3" t="inlineStr">
         <is>
           <t>School2AddressLine2</t>
         </is>
       </c>
-      <c r="EN1" s="3" t="inlineStr">
+      <c r="FC1" s="3" t="inlineStr">
         <is>
           <t>School2AddressCity</t>
         </is>
       </c>
-      <c r="EO1" s="3" t="inlineStr">
+      <c r="FD1" s="3" t="inlineStr">
         <is>
           <t>School2AddressStateCode</t>
         </is>
       </c>
-      <c r="EP1" s="3" t="inlineStr">
+      <c r="FE1" s="3" t="inlineStr">
         <is>
           <t>School2AddressZipCode</t>
         </is>
       </c>
-      <c r="EQ1" s="3" t="inlineStr">
+      <c r="FF1" s="3" t="inlineStr">
         <is>
           <t>School2ContactContactNumber1Type</t>
         </is>
       </c>
-      <c r="ER1" s="3" t="inlineStr">
+      <c r="FG1" s="3" t="inlineStr">
         <is>
           <t>School2ContactContactNumber1Number</t>
         </is>
       </c>
-      <c r="ES1" s="3" t="inlineStr">
+      <c r="FH1" s="3" t="inlineStr">
         <is>
           <t>School2ContactContactNumber2Type</t>
         </is>
       </c>
-      <c r="ET1" s="3" t="inlineStr">
+      <c r="FI1" s="3" t="inlineStr">
         <is>
           <t>School2ContactContactNumber2Number</t>
         </is>
       </c>
-      <c r="EU1" s="3" t="inlineStr">
+      <c r="FJ1" s="3" t="inlineStr">
         <is>
           <t>CustodialParentIdentifier</t>
         </is>
       </c>
-      <c r="EV1" s="3" t="inlineStr">
-        <is>
-          <t>CustodialParentLastNameOrOrgName</t>
-        </is>
-      </c>
-      <c r="EW1" s="3" t="inlineStr">
+      <c r="FK1" s="3" t="inlineStr">
+        <is>
+          <t>CustodialParentLastName</t>
+        </is>
+      </c>
+      <c r="FL1" s="3" t="inlineStr">
         <is>
           <t>CustodialParentFirstName</t>
         </is>
       </c>
-      <c r="EX1" s="3" t="inlineStr">
+      <c r="FM1" s="3" t="inlineStr">
         <is>
           <t>CustodialParentMiddleName</t>
         </is>
       </c>
-      <c r="EY1" s="3" t="inlineStr">
+      <c r="FN1" s="3" t="inlineStr">
         <is>
           <t>CustodialParentAddressLine</t>
         </is>
       </c>
-      <c r="EZ1" s="3" t="inlineStr">
+      <c r="FO1" s="3" t="inlineStr">
         <is>
           <t>CustodialParentAddressLine2</t>
         </is>
       </c>
-      <c r="FA1" s="3" t="inlineStr">
+      <c r="FP1" s="3" t="inlineStr">
         <is>
           <t>CustodialParentAddressCity</t>
         </is>
       </c>
-      <c r="FB1" s="3" t="inlineStr">
+      <c r="FQ1" s="3" t="inlineStr">
         <is>
           <t>CustodialParentAddressStateCode</t>
         </is>
       </c>
-      <c r="FC1" s="3" t="inlineStr">
+      <c r="FR1" s="3" t="inlineStr">
         <is>
           <t>CustodialParentAddressZipCode</t>
         </is>
       </c>
-      <c r="FD1" s="3" t="inlineStr">
+      <c r="FS1" s="3" t="inlineStr">
         <is>
           <t>CustodialParentContactContactNumber1Type</t>
         </is>
       </c>
-      <c r="FE1" s="3" t="inlineStr">
+      <c r="FT1" s="3" t="inlineStr">
         <is>
           <t>CustodialParentContactContactNumber1Number</t>
         </is>
       </c>
-      <c r="FF1" s="3" t="inlineStr">
+      <c r="FU1" s="3" t="inlineStr">
         <is>
           <t>CustodialParentContactContactNumber2Type</t>
         </is>
       </c>
-      <c r="FG1" s="3" t="inlineStr">
+      <c r="FV1" s="3" t="inlineStr">
         <is>
           <t>CustodialParentContactContactNumber2Number</t>
         </is>
       </c>
-      <c r="FH1" s="3" t="inlineStr">
+      <c r="FW1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson1EntityRole</t>
         </is>
       </c>
-      <c r="FI1" s="3" t="inlineStr">
+      <c r="FX1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson1Identifier</t>
         </is>
       </c>
-      <c r="FJ1" s="3" t="inlineStr">
-        <is>
-          <t>ResponsiblePerson1LastNameOrOrgName</t>
-        </is>
-      </c>
-      <c r="FK1" s="3" t="inlineStr">
+      <c r="FY1" s="3" t="inlineStr">
+        <is>
+          <t>ResponsiblePerson1LastName</t>
+        </is>
+      </c>
+      <c r="FZ1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson1FirstName</t>
         </is>
       </c>
-      <c r="FL1" s="3" t="inlineStr">
+      <c r="GA1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson1MiddleName</t>
         </is>
       </c>
-      <c r="FM1" s="3" t="inlineStr">
+      <c r="GB1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson1AddressLine</t>
         </is>
       </c>
-      <c r="FN1" s="3" t="inlineStr">
+      <c r="GC1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson1AddressLine2</t>
         </is>
       </c>
-      <c r="FO1" s="3" t="inlineStr">
+      <c r="GD1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson1AddressCity</t>
         </is>
       </c>
-      <c r="FP1" s="3" t="inlineStr">
+      <c r="GE1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson1AddressStateCode</t>
         </is>
       </c>
-      <c r="FQ1" s="3" t="inlineStr">
+      <c r="GF1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson1AddressZipCode</t>
         </is>
       </c>
-      <c r="FR1" s="3" t="inlineStr">
+      <c r="GG1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson1ContactContactNumber1Type</t>
         </is>
       </c>
-      <c r="FS1" s="3" t="inlineStr">
+      <c r="GH1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson1ContactContactNumber1Number</t>
         </is>
       </c>
-      <c r="FT1" s="3" t="inlineStr">
+      <c r="GI1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson1ContactContactNumber2Type</t>
         </is>
       </c>
-      <c r="FU1" s="3" t="inlineStr">
+      <c r="GJ1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson1ContactContactNumber2Number</t>
         </is>
       </c>
-      <c r="FV1" s="3" t="inlineStr">
+      <c r="GK1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson2EntityRole</t>
         </is>
       </c>
-      <c r="FW1" s="3" t="inlineStr">
+      <c r="GL1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson2Identifier</t>
         </is>
       </c>
-      <c r="FX1" s="3" t="inlineStr">
-        <is>
-          <t>ResponsiblePerson2LastNameOrOrgName</t>
-        </is>
-      </c>
-      <c r="FY1" s="3" t="inlineStr">
+      <c r="GM1" s="3" t="inlineStr">
+        <is>
+          <t>ResponsiblePerson2LastName</t>
+        </is>
+      </c>
+      <c r="GN1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson2FirstName</t>
         </is>
       </c>
-      <c r="FZ1" s="3" t="inlineStr">
+      <c r="GO1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson2MiddleName</t>
         </is>
       </c>
-      <c r="GA1" s="3" t="inlineStr">
+      <c r="GP1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson2AddressLine</t>
         </is>
       </c>
-      <c r="GB1" s="3" t="inlineStr">
+      <c r="GQ1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson2AddressLine2</t>
         </is>
       </c>
-      <c r="GC1" s="3" t="inlineStr">
+      <c r="GR1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson2AddressCity</t>
         </is>
       </c>
-      <c r="GD1" s="3" t="inlineStr">
+      <c r="GS1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson2AddressStateCode</t>
         </is>
       </c>
-      <c r="GE1" s="3" t="inlineStr">
+      <c r="GT1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson2AddressZipCode</t>
         </is>
       </c>
-      <c r="GF1" s="3" t="inlineStr">
+      <c r="GU1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson2ContactContactNumber1Type</t>
         </is>
       </c>
-      <c r="GG1" s="3" t="inlineStr">
+      <c r="GV1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson2ContactContactNumber1Number</t>
         </is>
       </c>
-      <c r="GH1" s="3" t="inlineStr">
+      <c r="GW1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson2ContactContactNumber2Type</t>
         </is>
       </c>
-      <c r="GI1" s="3" t="inlineStr">
+      <c r="GX1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson2ContactContactNumber2Number</t>
         </is>
       </c>
-      <c r="GJ1" s="3" t="inlineStr">
+      <c r="GY1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson3EntityRole</t>
         </is>
       </c>
-      <c r="GK1" s="3" t="inlineStr">
+      <c r="GZ1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson3Identifier</t>
         </is>
       </c>
-      <c r="GL1" s="3" t="inlineStr">
-        <is>
-          <t>ResponsiblePerson3LastNameOrOrgName</t>
-        </is>
-      </c>
-      <c r="GM1" s="3" t="inlineStr">
+      <c r="HA1" s="3" t="inlineStr">
+        <is>
+          <t>ResponsiblePerson3LastName</t>
+        </is>
+      </c>
+      <c r="HB1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson3FirstName</t>
         </is>
       </c>
-      <c r="GN1" s="3" t="inlineStr">
+      <c r="HC1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson3MiddleName</t>
         </is>
       </c>
-      <c r="GO1" s="3" t="inlineStr">
+      <c r="HD1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson3AddressLine</t>
         </is>
       </c>
-      <c r="GP1" s="3" t="inlineStr">
+      <c r="HE1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson3AddressLine2</t>
         </is>
       </c>
-      <c r="GQ1" s="3" t="inlineStr">
+      <c r="HF1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson3AddressCity</t>
         </is>
       </c>
-      <c r="GR1" s="3" t="inlineStr">
+      <c r="HG1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson3AddressStateCode</t>
         </is>
       </c>
-      <c r="GS1" s="3" t="inlineStr">
+      <c r="HH1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson3AddressZipCode</t>
         </is>
       </c>
-      <c r="GT1" s="3" t="inlineStr">
+      <c r="HI1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson3ContactContactNumber1Type</t>
         </is>
       </c>
-      <c r="GU1" s="3" t="inlineStr">
+      <c r="HJ1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson3ContactContactNumber1Number</t>
         </is>
       </c>
-      <c r="GV1" s="3" t="inlineStr">
+      <c r="HK1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson3ContactContactNumber2Type</t>
         </is>
       </c>
-      <c r="GW1" s="3" t="inlineStr">
+      <c r="HL1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson3ContactContactNumber2Number</t>
         </is>
       </c>
-      <c r="GX1" s="3" t="inlineStr">
+      <c r="HM1" s="3" t="inlineStr">
+        <is>
+          <t>DropOffLocationLastNameOrOrgName</t>
+        </is>
+      </c>
+      <c r="HN1" s="3" t="inlineStr">
+        <is>
+          <t>DropOffLocationFirstName</t>
+        </is>
+      </c>
+      <c r="HO1" s="3" t="inlineStr">
+        <is>
+          <t>DropOffLocationMiddleName</t>
+        </is>
+      </c>
+      <c r="HP1" s="3" t="inlineStr">
+        <is>
+          <t>DropOffLocationAddressLine</t>
+        </is>
+      </c>
+      <c r="HQ1" s="3" t="inlineStr">
+        <is>
+          <t>DropOffLocationAddressLine2</t>
+        </is>
+      </c>
+      <c r="HR1" s="3" t="inlineStr">
+        <is>
+          <t>DropOffLocationAddressCity</t>
+        </is>
+      </c>
+      <c r="HS1" s="3" t="inlineStr">
+        <is>
+          <t>DropOffLocationAddressStateCode</t>
+        </is>
+      </c>
+      <c r="HT1" s="3" t="inlineStr">
+        <is>
+          <t>DropOffLocationAddressZipCode</t>
+        </is>
+      </c>
+      <c r="HU1" s="3" t="inlineStr">
         <is>
           <t>Disability1TypeCode</t>
         </is>
       </c>
-      <c r="GY1" s="3" t="inlineStr">
+      <c r="HV1" s="3" t="inlineStr">
         <is>
           <t>Disability1DiagnosisCode</t>
         </is>
       </c>
-      <c r="GZ1" s="3" t="inlineStr">
+      <c r="HW1" s="3" t="inlineStr">
         <is>
           <t>Disability1DateFrom</t>
         </is>
       </c>
-      <c r="HA1" s="3" t="inlineStr">
+      <c r="HX1" s="3" t="inlineStr">
         <is>
           <t>Disability1DateTo</t>
         </is>
       </c>
-      <c r="HB1" s="3" t="inlineStr">
+      <c r="HY1" s="3" t="inlineStr">
         <is>
           <t>Disability2TypeCode</t>
         </is>
       </c>
-      <c r="HC1" s="3" t="inlineStr">
+      <c r="HZ1" s="3" t="inlineStr">
         <is>
           <t>Disability2DiagnosisCode</t>
         </is>
       </c>
-      <c r="HD1" s="3" t="inlineStr">
+      <c r="IA1" s="3" t="inlineStr">
         <is>
           <t>Disability2DateFrom</t>
         </is>
       </c>
-      <c r="HE1" s="3" t="inlineStr">
+      <c r="IB1" s="3" t="inlineStr">
         <is>
           <t>Disability2DateTo</t>
         </is>
       </c>
-      <c r="HF1" s="3" t="inlineStr">
+      <c r="IC1" s="3" t="inlineStr">
         <is>
           <t>Disability3TypeCode</t>
         </is>
       </c>
-      <c r="HG1" s="3" t="inlineStr">
+      <c r="ID1" s="3" t="inlineStr">
         <is>
           <t>Disability3DiagnosisCode</t>
         </is>
       </c>
-      <c r="HH1" s="3" t="inlineStr">
+      <c r="IE1" s="3" t="inlineStr">
         <is>
           <t>Disability3DateFrom</t>
         </is>
       </c>
-      <c r="HI1" s="3" t="inlineStr">
+      <c r="IF1" s="3" t="inlineStr">
         <is>
           <t>Disability3DateTo</t>
         </is>
       </c>
-      <c r="HJ1" s="3" t="inlineStr">
+      <c r="IG1" s="3" t="inlineStr">
         <is>
           <t>ReportingCategory1Name</t>
         </is>
       </c>
-      <c r="HK1" s="3" t="inlineStr">
+      <c r="IH1" s="3" t="inlineStr">
         <is>
           <t>ReportingCategory1IdentifierQualifierCode</t>
         </is>
       </c>
-      <c r="HL1" s="3" t="inlineStr">
+      <c r="II1" s="3" t="inlineStr">
         <is>
           <t>ReportingCategory1IdentifierType</t>
         </is>
       </c>
-      <c r="HM1" s="3" t="inlineStr">
+      <c r="IJ1" s="3" t="inlineStr">
         <is>
           <t>ReportingCategory1Identifier</t>
         </is>
       </c>
-      <c r="HN1" s="3" t="inlineStr">
+      <c r="IK1" s="3" t="inlineStr">
         <is>
           <t>ReportingCategory1Date</t>
         </is>
       </c>
-      <c r="HO1" s="3" t="inlineStr">
+      <c r="IL1" s="3" t="inlineStr">
         <is>
           <t>ReportingCategory1DateTo</t>
         </is>
       </c>
-      <c r="HP1" s="3" t="inlineStr">
+      <c r="IM1" s="3" t="inlineStr">
         <is>
           <t>ReportingCategory2Name</t>
         </is>
       </c>
-      <c r="HQ1" s="3" t="inlineStr">
+      <c r="IN1" s="3" t="inlineStr">
         <is>
           <t>ReportingCategory2IdentifierQualifierCode</t>
         </is>
       </c>
-      <c r="HR1" s="3" t="inlineStr">
+      <c r="IO1" s="3" t="inlineStr">
         <is>
           <t>ReportingCategory2IdentifierType</t>
         </is>
       </c>
-      <c r="HS1" s="3" t="inlineStr">
+      <c r="IP1" s="3" t="inlineStr">
         <is>
           <t>ReportingCategory2Identifier</t>
         </is>
       </c>
-      <c r="HT1" s="3" t="inlineStr">
+      <c r="IQ1" s="3" t="inlineStr">
         <is>
           <t>ReportingCategory2Date</t>
         </is>
       </c>
-      <c r="HU1" s="3" t="inlineStr">
+      <c r="IR1" s="3" t="inlineStr">
         <is>
           <t>ReportingCategory2DateTo</t>
         </is>
       </c>
-      <c r="HV1" s="3" t="inlineStr">
+      <c r="IS1" s="3" t="inlineStr">
         <is>
           <t>ReportingCategory3Name</t>
         </is>
       </c>
-      <c r="HW1" s="3" t="inlineStr">
+      <c r="IT1" s="3" t="inlineStr">
         <is>
           <t>ReportingCategory3IdentifierQualifierCode</t>
         </is>
       </c>
-      <c r="HX1" s="3" t="inlineStr">
+      <c r="IU1" s="3" t="inlineStr">
         <is>
           <t>ReportingCategory3IdentifierType</t>
         </is>
       </c>
-      <c r="HY1" s="3" t="inlineStr">
+      <c r="IV1" s="3" t="inlineStr">
         <is>
           <t>ReportingCategory3Identifier</t>
         </is>
       </c>
-      <c r="HZ1" s="3" t="inlineStr">
+      <c r="IW1" s="3" t="inlineStr">
         <is>
           <t>ReportingCategory3Date</t>
         </is>
       </c>
-      <c r="IA1" s="3" t="inlineStr">
+      <c r="IX1" s="3" t="inlineStr">
         <is>
           <t>ReportingCategory3DateTo</t>
         </is>
       </c>
-      <c r="IB1" s="3" t="inlineStr">
+      <c r="IY1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageMaintenanceTypeCode</t>
         </is>
       </c>
-      <c r="IC1" s="3" t="inlineStr">
+      <c r="IZ1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageInsuranceLineCode</t>
         </is>
       </c>
-      <c r="ID1" s="3" t="inlineStr">
+      <c r="JA1" s="3" t="inlineStr">
         <is>
           <t>HealthCoveragePlanDescription</t>
         </is>
       </c>
-      <c r="IE1" s="3" t="inlineStr">
+      <c r="JB1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageCoverageLevelCode</t>
         </is>
       </c>
-      <c r="IF1" s="3" t="inlineStr">
+      <c r="JC1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageLateEnrollmentIndicator</t>
         </is>
       </c>
-      <c r="IG1" s="3" t="inlineStr">
+      <c r="JD1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageCoverageDate1QualifierCode</t>
         </is>
       </c>
-      <c r="IH1" s="3" t="inlineStr">
+      <c r="JE1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageCoverageDate1Date</t>
         </is>
       </c>
-      <c r="II1" s="3" t="inlineStr">
+      <c r="JF1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageCoverageDate2QualifierCode</t>
         </is>
       </c>
-      <c r="IJ1" s="3" t="inlineStr">
+      <c r="JG1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageCoverageDate2Date</t>
         </is>
       </c>
-      <c r="IK1" s="3" t="inlineStr">
+      <c r="JH1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageCoverageDate3QualifierCode</t>
         </is>
       </c>
-      <c r="IL1" s="3" t="inlineStr">
+      <c r="JI1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageCoverageDate3Date</t>
         </is>
       </c>
-      <c r="IM1" s="3" t="inlineStr">
+      <c r="JJ1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageCoverageDate4QualifierCode</t>
         </is>
       </c>
-      <c r="IN1" s="3" t="inlineStr">
+      <c r="JK1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageCoverageDate4Date</t>
         </is>
       </c>
-      <c r="IO1" s="3" t="inlineStr">
+      <c r="JL1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageCoverageDate5QualifierCode</t>
         </is>
       </c>
-      <c r="IP1" s="3" t="inlineStr">
+      <c r="JM1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageCoverageDate5Date</t>
         </is>
       </c>
-      <c r="IQ1" s="3" t="inlineStr">
+      <c r="JN1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageContractAmount1QualifierCode</t>
         </is>
       </c>
-      <c r="IR1" s="3" t="inlineStr">
+      <c r="JO1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageContractAmount1Amount</t>
         </is>
       </c>
-      <c r="IS1" s="3" t="inlineStr">
+      <c r="JP1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageContractAmount2QualifierCode</t>
         </is>
       </c>
-      <c r="IT1" s="3" t="inlineStr">
+      <c r="JQ1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageContractAmount2Amount</t>
         </is>
       </c>
-      <c r="IU1" s="3" t="inlineStr">
+      <c r="JR1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageContractAmount3QualifierCode</t>
         </is>
       </c>
-      <c r="IV1" s="3" t="inlineStr">
+      <c r="JS1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageContractAmount3Amount</t>
         </is>
       </c>
-      <c r="IW1" s="3" t="inlineStr">
+      <c r="JT1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageGroupOrPolicyNumber1QualifierCode</t>
         </is>
       </c>
-      <c r="IX1" s="3" t="inlineStr">
+      <c r="JU1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageGroupOrPolicyNumber1Identification</t>
         </is>
       </c>
-      <c r="IY1" s="3" t="inlineStr">
+      <c r="JV1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageGroupOrPolicyNumber2QualifierCode</t>
         </is>
       </c>
-      <c r="IZ1" s="3" t="inlineStr">
+      <c r="JW1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageGroupOrPolicyNumber2Identification</t>
         </is>
       </c>
-      <c r="JA1" s="3" t="inlineStr">
+      <c r="JX1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageGroupOrPolicyNumber3QualifierCode</t>
         </is>
       </c>
-      <c r="JB1" s="3" t="inlineStr">
+      <c r="JY1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageGroupOrPolicyNumber3Identification</t>
         </is>
       </c>
-      <c r="JC1" s="3" t="inlineStr">
+      <c r="JZ1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageGroupOrPolicyNumber4QualifierCode</t>
         </is>
       </c>
-      <c r="JD1" s="3" t="inlineStr">
+      <c r="KA1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageGroupOrPolicyNumber4Identification</t>
         </is>
       </c>
-      <c r="JE1" s="3" t="inlineStr">
+      <c r="KB1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageGroupOrPolicyNumber5QualifierCode</t>
         </is>
       </c>
-      <c r="JF1" s="3" t="inlineStr">
+      <c r="KC1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageGroupOrPolicyNumber5Identification</t>
         </is>
       </c>
-      <c r="JG1" s="3" t="inlineStr">
+      <c r="KD1" s="3" t="inlineStr">
         <is>
           <t>HealthCoveragePriorCoverageMonthCount</t>
         </is>
       </c>
-      <c r="JH1" s="3" t="inlineStr">
+      <c r="KE1" s="3" t="inlineStr">
+        <is>
+          <t>HealthCoverageIdCardPlanDesc</t>
+        </is>
+      </c>
+      <c r="KF1" s="3" t="inlineStr">
+        <is>
+          <t>HealthCoverageIdCardTypeCode</t>
+        </is>
+      </c>
+      <c r="KG1" s="3" t="inlineStr">
+        <is>
+          <t>HealthCoverageIdCardCount</t>
+        </is>
+      </c>
+      <c r="KH1" s="3" t="inlineStr">
+        <is>
+          <t>HealthCoverageIdCardActionCode</t>
+        </is>
+      </c>
+      <c r="KI1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider1EntityRole</t>
         </is>
       </c>
-      <c r="JI1" s="3" t="inlineStr">
+      <c r="KJ1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider1EntityType</t>
         </is>
       </c>
-      <c r="JJ1" s="3" t="inlineStr">
+      <c r="KK1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider1Identifier</t>
         </is>
       </c>
-      <c r="JK1" s="3" t="inlineStr">
+      <c r="KL1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider1LastNameOrOrgName</t>
         </is>
       </c>
-      <c r="JL1" s="3" t="inlineStr">
+      <c r="KM1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider1FirstName</t>
         </is>
       </c>
-      <c r="JM1" s="3" t="inlineStr">
+      <c r="KN1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider1MiddleName</t>
         </is>
       </c>
-      <c r="JN1" s="3" t="inlineStr">
+      <c r="KO1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider1AddressLine</t>
         </is>
       </c>
-      <c r="JO1" s="3" t="inlineStr">
+      <c r="KP1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider1AddressLine2</t>
         </is>
       </c>
-      <c r="JP1" s="3" t="inlineStr">
+      <c r="KQ1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider1AddressCity</t>
         </is>
       </c>
-      <c r="JQ1" s="3" t="inlineStr">
+      <c r="KR1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider1AddressStateCode</t>
         </is>
       </c>
-      <c r="JR1" s="3" t="inlineStr">
+      <c r="KS1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider1AddressZipCode</t>
         </is>
       </c>
-      <c r="JS1" s="3" t="inlineStr">
+      <c r="KT1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider1ContactContactNumber1Type</t>
         </is>
       </c>
-      <c r="JT1" s="3" t="inlineStr">
+      <c r="KU1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider1ContactContactNumber1Number</t>
         </is>
       </c>
-      <c r="JU1" s="3" t="inlineStr">
+      <c r="KV1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider1ContactContactNumber2Type</t>
         </is>
       </c>
-      <c r="JV1" s="3" t="inlineStr">
+      <c r="KW1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider1ContactContactNumber2Number</t>
         </is>
       </c>
-      <c r="JW1" s="3" t="inlineStr">
+      <c r="KX1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider1ChangeReasonActionCode</t>
         </is>
       </c>
-      <c r="JX1" s="3" t="inlineStr">
+      <c r="KY1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider1ChangeReasonEffectiveDate</t>
         </is>
       </c>
-      <c r="JY1" s="3" t="inlineStr">
+      <c r="KZ1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider1ChangeReasonReasonCode</t>
         </is>
       </c>
-      <c r="JZ1" s="3" t="inlineStr">
+      <c r="LA1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider2EntityRole</t>
         </is>
       </c>
-      <c r="KA1" s="3" t="inlineStr">
+      <c r="LB1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider2EntityType</t>
         </is>
       </c>
-      <c r="KB1" s="3" t="inlineStr">
+      <c r="LC1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider2Identifier</t>
         </is>
       </c>
-      <c r="KC1" s="3" t="inlineStr">
+      <c r="LD1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider2LastNameOrOrgName</t>
         </is>
       </c>
-      <c r="KD1" s="3" t="inlineStr">
+      <c r="LE1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider2FirstName</t>
         </is>
       </c>
-      <c r="KE1" s="3" t="inlineStr">
+      <c r="LF1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider2MiddleName</t>
         </is>
       </c>
-      <c r="KF1" s="3" t="inlineStr">
+      <c r="LG1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider2AddressLine</t>
         </is>
       </c>
-      <c r="KG1" s="3" t="inlineStr">
+      <c r="LH1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider2AddressLine2</t>
         </is>
       </c>
-      <c r="KH1" s="3" t="inlineStr">
+      <c r="LI1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider2AddressCity</t>
         </is>
       </c>
-      <c r="KI1" s="3" t="inlineStr">
+      <c r="LJ1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider2AddressStateCode</t>
         </is>
       </c>
-      <c r="KJ1" s="3" t="inlineStr">
+      <c r="LK1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider2AddressZipCode</t>
         </is>
       </c>
-      <c r="KK1" s="3" t="inlineStr">
+      <c r="LL1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider2ContactContactNumber1Type</t>
         </is>
       </c>
-      <c r="KL1" s="3" t="inlineStr">
+      <c r="LM1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider2ContactContactNumber1Number</t>
         </is>
       </c>
-      <c r="KM1" s="3" t="inlineStr">
+      <c r="LN1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider2ContactContactNumber2Type</t>
         </is>
       </c>
-      <c r="KN1" s="3" t="inlineStr">
+      <c r="LO1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider2ContactContactNumber2Number</t>
         </is>
       </c>
-      <c r="KO1" s="3" t="inlineStr">
+      <c r="LP1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider2ChangeReasonActionCode</t>
         </is>
       </c>
-      <c r="KP1" s="3" t="inlineStr">
+      <c r="LQ1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider2ChangeReasonEffectiveDate</t>
         </is>
       </c>
-      <c r="KQ1" s="3" t="inlineStr">
+      <c r="LR1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider2ChangeReasonReasonCode</t>
         </is>
       </c>
-      <c r="KR1" s="3" t="inlineStr">
+      <c r="LS1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider3EntityRole</t>
         </is>
       </c>
-      <c r="KS1" s="3" t="inlineStr">
+      <c r="LT1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider3EntityType</t>
         </is>
       </c>
-      <c r="KT1" s="3" t="inlineStr">
+      <c r="LU1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider3Identifier</t>
         </is>
       </c>
-      <c r="KU1" s="3" t="inlineStr">
+      <c r="LV1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider3LastNameOrOrgName</t>
         </is>
       </c>
-      <c r="KV1" s="3" t="inlineStr">
+      <c r="LW1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider3FirstName</t>
         </is>
       </c>
-      <c r="KW1" s="3" t="inlineStr">
+      <c r="LX1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider3MiddleName</t>
         </is>
       </c>
-      <c r="KX1" s="3" t="inlineStr">
+      <c r="LY1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider3AddressLine</t>
         </is>
       </c>
-      <c r="KY1" s="3" t="inlineStr">
+      <c r="LZ1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider3AddressLine2</t>
         </is>
       </c>
-      <c r="KZ1" s="3" t="inlineStr">
+      <c r="MA1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider3AddressCity</t>
         </is>
       </c>
-      <c r="LA1" s="3" t="inlineStr">
+      <c r="MB1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider3AddressStateCode</t>
         </is>
       </c>
-      <c r="LB1" s="3" t="inlineStr">
+      <c r="MC1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider3AddressZipCode</t>
         </is>
       </c>
-      <c r="LC1" s="3" t="inlineStr">
+      <c r="MD1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider3ContactContactNumber1Type</t>
         </is>
       </c>
-      <c r="LD1" s="3" t="inlineStr">
+      <c r="ME1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider3ContactContactNumber1Number</t>
         </is>
       </c>
-      <c r="LE1" s="3" t="inlineStr">
+      <c r="MF1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider3ContactContactNumber2Type</t>
         </is>
       </c>
-      <c r="LF1" s="3" t="inlineStr">
+      <c r="MG1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider3ContactContactNumber2Number</t>
         </is>
       </c>
-      <c r="LG1" s="3" t="inlineStr">
+      <c r="MH1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider3ChangeReasonActionCode</t>
         </is>
       </c>
-      <c r="LH1" s="3" t="inlineStr">
+      <c r="MI1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider3ChangeReasonEffectiveDate</t>
         </is>
       </c>
-      <c r="LI1" s="3" t="inlineStr">
+      <c r="MJ1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider3ChangeReasonReasonCode</t>
+        </is>
+      </c>
+      <c r="MK1" s="3" t="inlineStr">
+        <is>
+          <t>HealthCoverageCob1PayerResponsibilitySequenceCode</t>
+        </is>
+      </c>
+      <c r="ML1" s="3" t="inlineStr">
+        <is>
+          <t>HealthCoverageCob1PayerResponsibilitySequence</t>
+        </is>
+      </c>
+      <c r="MM1" s="3" t="inlineStr">
+        <is>
+          <t>HealthCoverageCob1GroupOrPolicyNumber</t>
+        </is>
+      </c>
+      <c r="MN1" s="3" t="inlineStr">
+        <is>
+          <t>HealthCoverageCob1CoordinationOfBenefitsCode</t>
+        </is>
+      </c>
+      <c r="MO1" s="3" t="inlineStr">
+        <is>
+          <t>HealthCoverageCob1AdditionalIdentifier1QualifierCode</t>
+        </is>
+      </c>
+      <c r="MP1" s="3" t="inlineStr">
+        <is>
+          <t>HealthCoverageCob1AdditionalIdentifier1Identification</t>
+        </is>
+      </c>
+      <c r="MQ1" s="3" t="inlineStr">
+        <is>
+          <t>HealthCoverageCob1AdditionalIdentifier2QualifierCode</t>
+        </is>
+      </c>
+      <c r="MR1" s="3" t="inlineStr">
+        <is>
+          <t>HealthCoverageCob1AdditionalIdentifier2Identification</t>
+        </is>
+      </c>
+      <c r="MS1" s="3" t="inlineStr">
+        <is>
+          <t>HealthCoverageCob1DateFrom</t>
+        </is>
+      </c>
+      <c r="MT1" s="3" t="inlineStr">
+        <is>
+          <t>HealthCoverageCob1DateTo</t>
+        </is>
+      </c>
+      <c r="MU1" s="3" t="inlineStr">
+        <is>
+          <t>HealthCoverageCob1Insurer1EntityRole</t>
+        </is>
+      </c>
+      <c r="MV1" s="3" t="inlineStr">
+        <is>
+          <t>HealthCoverageCob1Insurer1Identifier</t>
+        </is>
+      </c>
+      <c r="MW1" s="3" t="inlineStr">
+        <is>
+          <t>HealthCoverageCob1Insurer1Name</t>
+        </is>
+      </c>
+      <c r="MX1" s="3" t="inlineStr">
+        <is>
+          <t>HealthCoverageCob1Insurer1AddressLine</t>
+        </is>
+      </c>
+      <c r="MY1" s="3" t="inlineStr">
+        <is>
+          <t>HealthCoverageCob1Insurer1AddressLine2</t>
+        </is>
+      </c>
+      <c r="MZ1" s="3" t="inlineStr">
+        <is>
+          <t>HealthCoverageCob1Insurer1AddressCity</t>
+        </is>
+      </c>
+      <c r="NA1" s="3" t="inlineStr">
+        <is>
+          <t>HealthCoverageCob1Insurer1AddressStateCode</t>
+        </is>
+      </c>
+      <c r="NB1" s="3" t="inlineStr">
+        <is>
+          <t>HealthCoverageCob1Insurer1AddressZipCode</t>
+        </is>
+      </c>
+      <c r="NC1" s="3" t="inlineStr">
+        <is>
+          <t>HealthCoverageCob1Insurer1ContactContactNumber1Type</t>
+        </is>
+      </c>
+      <c r="ND1" s="3" t="inlineStr">
+        <is>
+          <t>HealthCoverageCob1Insurer1ContactContactNumber1Number</t>
+        </is>
+      </c>
+      <c r="NE1" s="3" t="inlineStr">
+        <is>
+          <t>HealthCoverageCob1Insurer1ContactContactNumber2Type</t>
+        </is>
+      </c>
+      <c r="NF1" s="3" t="inlineStr">
+        <is>
+          <t>HealthCoverageCob1Insurer1ContactContactNumber2Number</t>
+        </is>
+      </c>
+      <c r="NG1" s="3" t="inlineStr">
+        <is>
+          <t>HealthCoverageCob1Insurer2EntityRole</t>
+        </is>
+      </c>
+      <c r="NH1" s="3" t="inlineStr">
+        <is>
+          <t>HealthCoverageCob1Insurer2Identifier</t>
+        </is>
+      </c>
+      <c r="NI1" s="3" t="inlineStr">
+        <is>
+          <t>HealthCoverageCob1Insurer2Name</t>
+        </is>
+      </c>
+      <c r="NJ1" s="3" t="inlineStr">
+        <is>
+          <t>HealthCoverageCob1Insurer2AddressLine</t>
+        </is>
+      </c>
+      <c r="NK1" s="3" t="inlineStr">
+        <is>
+          <t>HealthCoverageCob1Insurer2AddressLine2</t>
+        </is>
+      </c>
+      <c r="NL1" s="3" t="inlineStr">
+        <is>
+          <t>HealthCoverageCob1Insurer2AddressCity</t>
+        </is>
+      </c>
+      <c r="NM1" s="3" t="inlineStr">
+        <is>
+          <t>HealthCoverageCob1Insurer2AddressStateCode</t>
+        </is>
+      </c>
+      <c r="NN1" s="3" t="inlineStr">
+        <is>
+          <t>HealthCoverageCob1Insurer2AddressZipCode</t>
+        </is>
+      </c>
+      <c r="NO1" s="3" t="inlineStr">
+        <is>
+          <t>HealthCoverageCob1Insurer2ContactContactNumber1Type</t>
+        </is>
+      </c>
+      <c r="NP1" s="3" t="inlineStr">
+        <is>
+          <t>HealthCoverageCob1Insurer2ContactContactNumber1Number</t>
+        </is>
+      </c>
+      <c r="NQ1" s="3" t="inlineStr">
+        <is>
+          <t>HealthCoverageCob1Insurer2ContactContactNumber2Type</t>
+        </is>
+      </c>
+      <c r="NR1" s="3" t="inlineStr">
+        <is>
+          <t>HealthCoverageCob1Insurer2ContactContactNumber2Number</t>
+        </is>
+      </c>
+      <c r="NS1" s="3" t="inlineStr">
+        <is>
+          <t>HealthCoverageCob2PayerResponsibilitySequenceCode</t>
+        </is>
+      </c>
+      <c r="NT1" s="3" t="inlineStr">
+        <is>
+          <t>HealthCoverageCob2PayerResponsibilitySequence</t>
+        </is>
+      </c>
+      <c r="NU1" s="3" t="inlineStr">
+        <is>
+          <t>HealthCoverageCob2GroupOrPolicyNumber</t>
+        </is>
+      </c>
+      <c r="NV1" s="3" t="inlineStr">
+        <is>
+          <t>HealthCoverageCob2CoordinationOfBenefitsCode</t>
+        </is>
+      </c>
+      <c r="NW1" s="3" t="inlineStr">
+        <is>
+          <t>HealthCoverageCob2AdditionalIdentifier1QualifierCode</t>
+        </is>
+      </c>
+      <c r="NX1" s="3" t="inlineStr">
+        <is>
+          <t>HealthCoverageCob2AdditionalIdentifier1Identification</t>
+        </is>
+      </c>
+      <c r="NY1" s="3" t="inlineStr">
+        <is>
+          <t>HealthCoverageCob2AdditionalIdentifier2QualifierCode</t>
+        </is>
+      </c>
+      <c r="NZ1" s="3" t="inlineStr">
+        <is>
+          <t>HealthCoverageCob2AdditionalIdentifier2Identification</t>
+        </is>
+      </c>
+      <c r="OA1" s="3" t="inlineStr">
+        <is>
+          <t>HealthCoverageCob2DateFrom</t>
+        </is>
+      </c>
+      <c r="OB1" s="3" t="inlineStr">
+        <is>
+          <t>HealthCoverageCob2DateTo</t>
+        </is>
+      </c>
+      <c r="OC1" s="3" t="inlineStr">
+        <is>
+          <t>HealthCoverageCob2Insurer1EntityRole</t>
+        </is>
+      </c>
+      <c r="OD1" s="3" t="inlineStr">
+        <is>
+          <t>HealthCoverageCob2Insurer1Identifier</t>
+        </is>
+      </c>
+      <c r="OE1" s="3" t="inlineStr">
+        <is>
+          <t>HealthCoverageCob2Insurer1Name</t>
+        </is>
+      </c>
+      <c r="OF1" s="3" t="inlineStr">
+        <is>
+          <t>HealthCoverageCob2Insurer1AddressLine</t>
+        </is>
+      </c>
+      <c r="OG1" s="3" t="inlineStr">
+        <is>
+          <t>HealthCoverageCob2Insurer1AddressLine2</t>
+        </is>
+      </c>
+      <c r="OH1" s="3" t="inlineStr">
+        <is>
+          <t>HealthCoverageCob2Insurer1AddressCity</t>
+        </is>
+      </c>
+      <c r="OI1" s="3" t="inlineStr">
+        <is>
+          <t>HealthCoverageCob2Insurer1AddressStateCode</t>
+        </is>
+      </c>
+      <c r="OJ1" s="3" t="inlineStr">
+        <is>
+          <t>HealthCoverageCob2Insurer1AddressZipCode</t>
+        </is>
+      </c>
+      <c r="OK1" s="3" t="inlineStr">
+        <is>
+          <t>HealthCoverageCob2Insurer1ContactContactNumber1Type</t>
+        </is>
+      </c>
+      <c r="OL1" s="3" t="inlineStr">
+        <is>
+          <t>HealthCoverageCob2Insurer1ContactContactNumber1Number</t>
+        </is>
+      </c>
+      <c r="OM1" s="3" t="inlineStr">
+        <is>
+          <t>HealthCoverageCob2Insurer1ContactContactNumber2Type</t>
+        </is>
+      </c>
+      <c r="ON1" s="3" t="inlineStr">
+        <is>
+          <t>HealthCoverageCob2Insurer1ContactContactNumber2Number</t>
+        </is>
+      </c>
+      <c r="OO1" s="3" t="inlineStr">
+        <is>
+          <t>HealthCoverageCob2Insurer2EntityRole</t>
+        </is>
+      </c>
+      <c r="OP1" s="3" t="inlineStr">
+        <is>
+          <t>HealthCoverageCob2Insurer2Identifier</t>
+        </is>
+      </c>
+      <c r="OQ1" s="3" t="inlineStr">
+        <is>
+          <t>HealthCoverageCob2Insurer2Name</t>
+        </is>
+      </c>
+      <c r="OR1" s="3" t="inlineStr">
+        <is>
+          <t>HealthCoverageCob2Insurer2AddressLine</t>
+        </is>
+      </c>
+      <c r="OS1" s="3" t="inlineStr">
+        <is>
+          <t>HealthCoverageCob2Insurer2AddressLine2</t>
+        </is>
+      </c>
+      <c r="OT1" s="3" t="inlineStr">
+        <is>
+          <t>HealthCoverageCob2Insurer2AddressCity</t>
+        </is>
+      </c>
+      <c r="OU1" s="3" t="inlineStr">
+        <is>
+          <t>HealthCoverageCob2Insurer2AddressStateCode</t>
+        </is>
+      </c>
+      <c r="OV1" s="3" t="inlineStr">
+        <is>
+          <t>HealthCoverageCob2Insurer2AddressZipCode</t>
+        </is>
+      </c>
+      <c r="OW1" s="3" t="inlineStr">
+        <is>
+          <t>HealthCoverageCob2Insurer2ContactContactNumber1Type</t>
+        </is>
+      </c>
+      <c r="OX1" s="3" t="inlineStr">
+        <is>
+          <t>HealthCoverageCob2Insurer2ContactContactNumber1Number</t>
+        </is>
+      </c>
+      <c r="OY1" s="3" t="inlineStr">
+        <is>
+          <t>HealthCoverageCob2Insurer2ContactContactNumber2Type</t>
+        </is>
+      </c>
+      <c r="OZ1" s="3" t="inlineStr">
+        <is>
+          <t>HealthCoverageCob2Insurer2ContactContactNumber2Number</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>6846458a58f41c12bccd7bf6</t>
+          <t>684723f4cd41c01c2437b822</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
@@ -1710,611 +2185,653 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
+          <t>007</t>
+        </is>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>45659.0</v>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>382</t>
+        </is>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>45659.0</v>
+      </c>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
           <t>MasterPolicyNumber</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>999888777</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>Sponsor</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>654456654</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>Insurer</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>tpaID</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="T2" s="3" t="inlineStr">
         <is>
           <t>TPA</t>
         </is>
       </c>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="U2" s="3" t="inlineStr">
         <is>
           <t>account1</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="V2" s="3" t="inlineStr">
         <is>
           <t>account2</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="W2" s="3" t="inlineStr">
         <is>
           <t>tpa2ID</t>
         </is>
       </c>
-      <c r="R2" s="3" t="inlineStr">
+      <c r="X2" s="3" t="inlineStr">
         <is>
           <t>TPA2</t>
         </is>
       </c>
-      <c r="S2"/>
-      <c r="T2"/>
-      <c r="U2" s="3" t="inlineStr">
+      <c r="Y2"/>
+      <c r="Z2"/>
+      <c r="AA2" s="3" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="V2" s="3" t="inlineStr">
+      <c r="AB2" s="3" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="W2" s="3" t="inlineStr">
+      <c r="AC2" s="3" t="inlineStr">
         <is>
           <t>021</t>
         </is>
       </c>
-      <c r="X2" s="3" t="inlineStr">
+      <c r="AD2" s="3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="Y2" s="3" t="inlineStr">
+      <c r="AE2" s="3" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="Z2" s="3" t="inlineStr">
+      <c r="AF2" s="3" t="inlineStr">
         <is>
           <t>CE</t>
         </is>
       </c>
-      <c r="AA2" s="3" t="inlineStr">
+      <c r="AG2" s="3" t="inlineStr">
         <is>
           <t>FT</t>
         </is>
       </c>
-      <c r="AB2" s="3" t="inlineStr">
+      <c r="AH2" s="3" t="inlineStr">
         <is>
           <t>ST</t>
         </is>
       </c>
-      <c r="AC2" s="3" t="inlineStr">
+      <c r="AI2" s="3" t="inlineStr">
         <is>
           <t>Y</t>
-        </is>
-      </c>
-      <c r="AD2"/>
-      <c r="AE2"/>
-      <c r="AF2" s="3" t="inlineStr">
-        <is>
-          <t>member1</t>
-        </is>
-      </c>
-      <c r="AG2" s="3" t="inlineStr">
-        <is>
-          <t>group1</t>
-        </is>
-      </c>
-      <c r="AH2" s="3" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="AI2" s="3" t="inlineStr">
-        <is>
-          <t>ClientNumber</t>
         </is>
       </c>
       <c r="AJ2"/>
       <c r="AK2"/>
-      <c r="AL2"/>
-      <c r="AM2"/>
-      <c r="AN2"/>
-      <c r="AO2"/>
+      <c r="AL2" s="3" t="inlineStr">
+        <is>
+          <t>member1</t>
+        </is>
+      </c>
+      <c r="AM2" s="3" t="inlineStr">
+        <is>
+          <t>group1</t>
+        </is>
+      </c>
+      <c r="AN2" s="3" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="AO2" s="3" t="inlineStr">
+        <is>
+          <t>ClientNumber</t>
+        </is>
+      </c>
       <c r="AP2"/>
       <c r="AQ2"/>
-      <c r="AR2" s="3" t="inlineStr">
-        <is>
-          <t>356</t>
-        </is>
-      </c>
-      <c r="AS2" s="4" t="n">
-        <v>35076.0</v>
-      </c>
+      <c r="AR2"/>
+      <c r="AS2"/>
       <c r="AT2"/>
       <c r="AU2"/>
       <c r="AV2"/>
       <c r="AW2"/>
-      <c r="AX2"/>
-      <c r="AY2"/>
+      <c r="AX2" s="3" t="inlineStr">
+        <is>
+          <t>356</t>
+        </is>
+      </c>
+      <c r="AY2" s="4" t="n">
+        <v>35076.0</v>
+      </c>
       <c r="AZ2"/>
       <c r="BA2"/>
-      <c r="BB2" s="3" t="inlineStr">
+      <c r="BB2"/>
+      <c r="BC2"/>
+      <c r="BD2"/>
+      <c r="BE2"/>
+      <c r="BF2"/>
+      <c r="BG2"/>
+      <c r="BH2" s="3" t="inlineStr">
         <is>
           <t>INSURED_SUBSCRIBER</t>
         </is>
       </c>
-      <c r="BC2" s="3" t="inlineStr">
+      <c r="BI2" s="3" t="inlineStr">
         <is>
           <t>SSN</t>
         </is>
       </c>
-      <c r="BD2" s="3" t="inlineStr">
+      <c r="BJ2" s="3" t="inlineStr">
         <is>
           <t>202443307</t>
         </is>
       </c>
-      <c r="BE2"/>
-      <c r="BF2" s="3" t="inlineStr">
+      <c r="BK2"/>
+      <c r="BL2" s="3" t="inlineStr">
         <is>
           <t>SMITH</t>
         </is>
       </c>
-      <c r="BG2" s="3" t="inlineStr">
+      <c r="BM2" s="3" t="inlineStr">
         <is>
           <t>WILLIAM</t>
         </is>
       </c>
-      <c r="BH2"/>
-      <c r="BI2" s="4" t="n">
+      <c r="BN2"/>
+      <c r="BO2" s="4" t="n">
         <v>25733.0</v>
       </c>
-      <c r="BJ2" s="3" t="inlineStr">
+      <c r="BP2" s="3" t="inlineStr">
         <is>
           <t>MALE</t>
         </is>
       </c>
-      <c r="BK2" s="3" t="inlineStr">
+      <c r="BQ2" s="3" t="inlineStr">
         <is>
           <t>1715 SOUTHWIND AVENUE</t>
         </is>
       </c>
-      <c r="BL2"/>
-      <c r="BM2" s="3" t="inlineStr">
+      <c r="BR2"/>
+      <c r="BS2" s="3" t="inlineStr">
         <is>
           <t>ANYTOWN</t>
         </is>
       </c>
-      <c r="BN2" s="3" t="inlineStr">
+      <c r="BT2" s="3" t="inlineStr">
         <is>
           <t>PA</t>
         </is>
       </c>
-      <c r="BO2" s="3" t="inlineStr">
+      <c r="BU2" s="3" t="inlineStr">
         <is>
           <t>171110000</t>
         </is>
       </c>
-      <c r="BP2" s="3" t="inlineStr">
+      <c r="BV2" s="3" t="inlineStr">
         <is>
           <t>HOME_PHONE</t>
         </is>
       </c>
-      <c r="BQ2" s="3" t="inlineStr">
+      <c r="BW2" s="3" t="inlineStr">
         <is>
           <t>7172343334</t>
         </is>
       </c>
-      <c r="BR2" s="3" t="inlineStr">
+      <c r="BX2" s="3" t="inlineStr">
         <is>
           <t>WORK_PHONE</t>
         </is>
       </c>
-      <c r="BS2" s="3" t="inlineStr">
+      <c r="BY2" s="3" t="inlineStr">
         <is>
           <t>7172341240</t>
         </is>
       </c>
-      <c r="BT2" s="3" t="inlineStr">
+      <c r="BZ2" s="3" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="BU2" s="3" t="inlineStr">
+      <c r="CA2" s="3" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="BV2" s="3" t="inlineStr">
+      <c r="CB2" s="3" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="BW2" s="3" t="inlineStr">
+      <c r="CC2" s="3" t="inlineStr">
         <is>
           <t>04</t>
         </is>
       </c>
-      <c r="BX2" s="3" t="inlineStr">
+      <c r="CD2" s="3" t="inlineStr">
         <is>
           <t>06</t>
         </is>
       </c>
-      <c r="BY2" s="3" t="inlineStr">
+      <c r="CE2" s="3" t="inlineStr">
         <is>
           <t>07</t>
         </is>
       </c>
-      <c r="BZ2" s="3" t="inlineStr">
+      <c r="CF2" s="3" t="inlineStr">
         <is>
           <t>09</t>
         </is>
       </c>
-      <c r="CA2" s="3" t="inlineStr">
+      <c r="CG2" s="3" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="CB2" s="3" t="inlineStr">
+      <c r="CH2" s="3" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="CC2" s="1" t="n">
+      <c r="CI2" s="1" t="n">
         <v>425.25</v>
       </c>
-      <c r="CD2" t="n">
+      <c r="CJ2" t="n">
         <v>40.0</v>
       </c>
-      <c r="CE2" s="3" t="inlineStr">
+      <c r="CK2" s="3" t="inlineStr">
         <is>
           <t>LocCode</t>
         </is>
       </c>
-      <c r="CF2" s="3" t="inlineStr">
+      <c r="CL2" s="3" t="inlineStr">
         <is>
           <t>SalaryGrade</t>
         </is>
       </c>
-      <c r="CG2" s="3" t="inlineStr">
+      <c r="CM2" s="3" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="CH2" t="n">
+      <c r="CN2" t="n">
         <v>74.0</v>
       </c>
-      <c r="CI2" t="n">
+      <c r="CO2" t="n">
         <v>210.0</v>
       </c>
-      <c r="CJ2" s="3" t="inlineStr">
+      <c r="CP2" s="3" t="inlineStr">
+        <is>
+          <t>202443309</t>
+        </is>
+      </c>
+      <c r="CQ2" s="3" t="inlineStr">
+        <is>
+          <t>DOE</t>
+        </is>
+      </c>
+      <c r="CR2" s="3" t="inlineStr">
+        <is>
+          <t>JOE</t>
+        </is>
+      </c>
+      <c r="CS2"/>
+      <c r="CT2" s="4" t="n">
+        <v>25733.0</v>
+      </c>
+      <c r="CU2" s="3" t="inlineStr">
+        <is>
+          <t>MALE</t>
+        </is>
+      </c>
+      <c r="CV2" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="CW2" s="3" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="CX2" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CY2" s="3" t="inlineStr">
         <is>
           <t>D2</t>
         </is>
       </c>
-      <c r="CK2" s="1" t="n">
+      <c r="CZ2" s="1" t="n">
         <v>100.0</v>
       </c>
-      <c r="CL2"/>
-      <c r="CM2"/>
-      <c r="CN2"/>
-      <c r="CO2"/>
-      <c r="CP2"/>
-      <c r="CQ2"/>
-      <c r="CR2"/>
-      <c r="CS2"/>
-      <c r="CT2" s="3" t="inlineStr">
+      <c r="DA2"/>
+      <c r="DB2"/>
+      <c r="DC2"/>
+      <c r="DD2"/>
+      <c r="DE2"/>
+      <c r="DF2"/>
+      <c r="DG2"/>
+      <c r="DH2"/>
+      <c r="DI2" s="3" t="inlineStr">
         <is>
           <t>9715 SOUTHWIND AVENUE</t>
         </is>
       </c>
-      <c r="CU2"/>
-      <c r="CV2" s="3" t="inlineStr">
+      <c r="DJ2"/>
+      <c r="DK2" s="3" t="inlineStr">
         <is>
           <t>ANYTOWN</t>
         </is>
       </c>
-      <c r="CW2" s="3" t="inlineStr">
+      <c r="DL2" s="3" t="inlineStr">
         <is>
           <t>PA</t>
         </is>
       </c>
-      <c r="CX2" s="3" t="inlineStr">
+      <c r="DM2" s="3" t="inlineStr">
         <is>
           <t>971110000</t>
         </is>
       </c>
-      <c r="CY2" s="3" t="inlineStr">
+      <c r="DN2" s="3" t="inlineStr">
         <is>
           <t>emp1ID</t>
         </is>
       </c>
-      <c r="CZ2" s="3" t="inlineStr">
+      <c r="DO2" s="3" t="inlineStr">
         <is>
           <t>EMPLOYER1</t>
         </is>
       </c>
-      <c r="DA2" s="3" t="inlineStr">
+      <c r="DP2" s="3" t="inlineStr">
         <is>
           <t>First</t>
         </is>
       </c>
-      <c r="DB2" s="3" t="inlineStr">
+      <c r="DQ2" s="3" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="DC2" s="3" t="inlineStr">
+      <c r="DR2" s="3" t="inlineStr">
         <is>
           <t>9715 EMPLOYER1 AVENUE</t>
         </is>
       </c>
-      <c r="DD2"/>
-      <c r="DE2" s="3" t="inlineStr">
+      <c r="DS2"/>
+      <c r="DT2" s="3" t="inlineStr">
         <is>
           <t>ANYTOWN</t>
         </is>
       </c>
-      <c r="DF2" s="3" t="inlineStr">
+      <c r="DU2" s="3" t="inlineStr">
         <is>
           <t>PA</t>
         </is>
       </c>
-      <c r="DG2" s="3" t="inlineStr">
+      <c r="DV2" s="3" t="inlineStr">
         <is>
           <t>971110000</t>
         </is>
       </c>
-      <c r="DH2" s="3" t="inlineStr">
+      <c r="DW2" s="3" t="inlineStr">
         <is>
           <t>HOME_PHONE</t>
         </is>
       </c>
-      <c r="DI2" s="3" t="inlineStr">
+      <c r="DX2" s="3" t="inlineStr">
         <is>
           <t>9172343334</t>
         </is>
       </c>
-      <c r="DJ2" s="3" t="inlineStr">
+      <c r="DY2" s="3" t="inlineStr">
         <is>
           <t>WORK_PHONE</t>
         </is>
       </c>
-      <c r="DK2" s="3" t="inlineStr">
+      <c r="DZ2" s="3" t="inlineStr">
         <is>
           <t>9172341240</t>
         </is>
       </c>
-      <c r="DL2"/>
-      <c r="DM2"/>
-      <c r="DN2"/>
-      <c r="DO2"/>
-      <c r="DP2"/>
-      <c r="DQ2"/>
-      <c r="DR2"/>
-      <c r="DS2"/>
-      <c r="DT2"/>
-      <c r="DU2"/>
-      <c r="DV2"/>
-      <c r="DW2"/>
-      <c r="DX2"/>
-      <c r="DY2"/>
-      <c r="DZ2" s="3" t="inlineStr">
-        <is>
-          <t>School1</t>
-        </is>
-      </c>
-      <c r="EA2" s="3" t="inlineStr">
-        <is>
-          <t>9715 SCHOOL AVENUE</t>
-        </is>
-      </c>
+      <c r="EA2"/>
       <c r="EB2"/>
-      <c r="EC2" s="3" t="inlineStr">
-        <is>
-          <t>ANYTOWN</t>
-        </is>
-      </c>
-      <c r="ED2" s="3" t="inlineStr">
-        <is>
-          <t>PA</t>
-        </is>
-      </c>
-      <c r="EE2" s="3" t="inlineStr">
-        <is>
-          <t>971110000</t>
-        </is>
-      </c>
-      <c r="EF2" s="3" t="inlineStr">
-        <is>
-          <t>HOME_PHONE</t>
-        </is>
-      </c>
-      <c r="EG2" s="3" t="inlineStr">
-        <is>
-          <t>9172343334</t>
-        </is>
-      </c>
-      <c r="EH2" s="3" t="inlineStr">
-        <is>
-          <t>WORK_PHONE</t>
-        </is>
-      </c>
-      <c r="EI2" s="3" t="inlineStr">
-        <is>
-          <t>9172341240</t>
-        </is>
-      </c>
+      <c r="EC2"/>
+      <c r="ED2"/>
+      <c r="EE2"/>
+      <c r="EF2"/>
+      <c r="EG2"/>
+      <c r="EH2"/>
+      <c r="EI2"/>
       <c r="EJ2"/>
       <c r="EK2"/>
       <c r="EL2"/>
       <c r="EM2"/>
       <c r="EN2"/>
-      <c r="EO2"/>
-      <c r="EP2"/>
+      <c r="EO2" s="3" t="inlineStr">
+        <is>
+          <t>School1</t>
+        </is>
+      </c>
+      <c r="EP2" s="3" t="inlineStr">
+        <is>
+          <t>9715 SCHOOL AVENUE</t>
+        </is>
+      </c>
       <c r="EQ2"/>
-      <c r="ER2"/>
-      <c r="ES2"/>
-      <c r="ET2"/>
+      <c r="ER2" s="3" t="inlineStr">
+        <is>
+          <t>ANYTOWN</t>
+        </is>
+      </c>
+      <c r="ES2" s="3" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="ET2" s="3" t="inlineStr">
+        <is>
+          <t>971110000</t>
+        </is>
+      </c>
       <c r="EU2" s="3" t="inlineStr">
         <is>
+          <t>HOME_PHONE</t>
+        </is>
+      </c>
+      <c r="EV2" s="3" t="inlineStr">
+        <is>
+          <t>9172343334</t>
+        </is>
+      </c>
+      <c r="EW2" s="3" t="inlineStr">
+        <is>
+          <t>WORK_PHONE</t>
+        </is>
+      </c>
+      <c r="EX2" s="3" t="inlineStr">
+        <is>
+          <t>9172341240</t>
+        </is>
+      </c>
+      <c r="EY2"/>
+      <c r="EZ2"/>
+      <c r="FA2"/>
+      <c r="FB2"/>
+      <c r="FC2"/>
+      <c r="FD2"/>
+      <c r="FE2"/>
+      <c r="FF2"/>
+      <c r="FG2"/>
+      <c r="FH2"/>
+      <c r="FI2"/>
+      <c r="FJ2" s="3" t="inlineStr">
+        <is>
           <t>custodialParentID</t>
         </is>
       </c>
-      <c r="EV2" s="3" t="inlineStr">
+      <c r="FK2" s="3" t="inlineStr">
         <is>
           <t>Custodial</t>
         </is>
       </c>
-      <c r="EW2" s="3" t="inlineStr">
+      <c r="FL2" s="3" t="inlineStr">
         <is>
           <t>Parent</t>
         </is>
       </c>
-      <c r="EX2" s="3" t="inlineStr">
+      <c r="FM2" s="3" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="EY2" s="3" t="inlineStr">
+      <c r="FN2" s="3" t="inlineStr">
         <is>
           <t>9715 CUSTODIAL AVENUE</t>
         </is>
       </c>
-      <c r="EZ2"/>
-      <c r="FA2" s="3" t="inlineStr">
+      <c r="FO2"/>
+      <c r="FP2" s="3" t="inlineStr">
         <is>
           <t>ANYTOWN</t>
         </is>
       </c>
-      <c r="FB2" s="3" t="inlineStr">
+      <c r="FQ2" s="3" t="inlineStr">
         <is>
           <t>PA</t>
         </is>
       </c>
-      <c r="FC2" s="3" t="inlineStr">
+      <c r="FR2" s="3" t="inlineStr">
         <is>
           <t>971110000</t>
         </is>
       </c>
-      <c r="FD2" s="3" t="inlineStr">
+      <c r="FS2" s="3" t="inlineStr">
         <is>
           <t>HOME_PHONE</t>
         </is>
       </c>
-      <c r="FE2" s="3" t="inlineStr">
+      <c r="FT2" s="3" t="inlineStr">
         <is>
           <t>9172343334</t>
         </is>
       </c>
-      <c r="FF2" s="3" t="inlineStr">
+      <c r="FU2" s="3" t="inlineStr">
         <is>
           <t>WORK_PHONE</t>
         </is>
       </c>
-      <c r="FG2" s="3" t="inlineStr">
+      <c r="FV2" s="3" t="inlineStr">
         <is>
           <t>9172341240</t>
         </is>
       </c>
-      <c r="FH2" s="3" t="inlineStr">
+      <c r="FW2" s="3" t="inlineStr">
         <is>
           <t>RESPONSIBLE_PARTY</t>
         </is>
       </c>
-      <c r="FI2" s="3" t="inlineStr">
+      <c r="FX2" s="3" t="inlineStr">
         <is>
           <t>responsiblePersonID</t>
         </is>
       </c>
-      <c r="FJ2" s="3" t="inlineStr">
+      <c r="FY2" s="3" t="inlineStr">
         <is>
           <t>Responsible</t>
         </is>
       </c>
-      <c r="FK2" s="3" t="inlineStr">
+      <c r="FZ2" s="3" t="inlineStr">
         <is>
           <t>Person</t>
         </is>
       </c>
-      <c r="FL2" s="3" t="inlineStr">
+      <c r="GA2" s="3" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="FM2" s="3" t="inlineStr">
+      <c r="GB2" s="3" t="inlineStr">
         <is>
           <t>9715 RESPONSIBLE AVENUE</t>
         </is>
       </c>
-      <c r="FN2"/>
-      <c r="FO2" s="3" t="inlineStr">
+      <c r="GC2"/>
+      <c r="GD2" s="3" t="inlineStr">
         <is>
           <t>ANYTOWN</t>
         </is>
       </c>
-      <c r="FP2" s="3" t="inlineStr">
+      <c r="GE2" s="3" t="inlineStr">
         <is>
           <t>PA</t>
         </is>
       </c>
-      <c r="FQ2" s="3" t="inlineStr">
+      <c r="GF2" s="3" t="inlineStr">
         <is>
           <t>971110000</t>
         </is>
       </c>
-      <c r="FR2" s="3" t="inlineStr">
+      <c r="GG2" s="3" t="inlineStr">
         <is>
           <t>HOME_PHONE</t>
         </is>
       </c>
-      <c r="FS2" s="3" t="inlineStr">
+      <c r="GH2" s="3" t="inlineStr">
         <is>
           <t>9172343334</t>
         </is>
       </c>
-      <c r="FT2" s="3" t="inlineStr">
+      <c r="GI2" s="3" t="inlineStr">
         <is>
           <t>WORK_PHONE</t>
         </is>
       </c>
-      <c r="FU2" s="3" t="inlineStr">
+      <c r="GJ2" s="3" t="inlineStr">
         <is>
           <t>9172341240</t>
         </is>
       </c>
-      <c r="FV2"/>
-      <c r="FW2"/>
-      <c r="FX2"/>
-      <c r="FY2"/>
-      <c r="FZ2"/>
-      <c r="GA2"/>
-      <c r="GB2"/>
-      <c r="GC2"/>
-      <c r="GD2"/>
-      <c r="GE2"/>
-      <c r="GF2"/>
-      <c r="GG2"/>
-      <c r="GH2"/>
-      <c r="GI2"/>
-      <c r="GJ2"/>
       <c r="GK2"/>
       <c r="GL2"/>
       <c r="GM2"/>
@@ -2328,22 +2845,10 @@
       <c r="GU2"/>
       <c r="GV2"/>
       <c r="GW2"/>
-      <c r="GX2" s="3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="GY2" s="3" t="inlineStr">
-        <is>
-          <t>585</t>
-        </is>
-      </c>
-      <c r="GZ2" s="4" t="n">
-        <v>45748.0</v>
-      </c>
-      <c r="HA2" s="4" t="n">
-        <v>45778.0</v>
-      </c>
+      <c r="GX2"/>
+      <c r="GY2"/>
+      <c r="GZ2"/>
+      <c r="HA2"/>
       <c r="HB2"/>
       <c r="HC2"/>
       <c r="HD2"/>
@@ -2352,305 +2857,526 @@
       <c r="HG2"/>
       <c r="HH2"/>
       <c r="HI2"/>
-      <c r="HJ2" s="3" t="inlineStr">
-        <is>
-          <t>SOUTHEASTERN UNION</t>
-        </is>
-      </c>
-      <c r="HK2" s="3" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="HL2" s="3" t="inlineStr">
-        <is>
-          <t>UNION_NUMBER</t>
-        </is>
-      </c>
+      <c r="HJ2"/>
+      <c r="HK2"/>
+      <c r="HL2"/>
       <c r="HM2" s="3" t="inlineStr">
         <is>
-          <t>442</t>
-        </is>
-      </c>
-      <c r="HN2" s="4" t="n">
-        <v>45717.0</v>
-      </c>
-      <c r="HO2" s="4" t="n">
-        <v>45808.0</v>
-      </c>
+          <t>DropOff</t>
+        </is>
+      </c>
+      <c r="HN2"/>
+      <c r="HO2"/>
       <c r="HP2" s="3" t="inlineStr">
         <is>
-          <t>PAYER2</t>
-        </is>
-      </c>
-      <c r="HQ2" s="3" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
+          <t>9715 DROPOFF AVENUE</t>
+        </is>
+      </c>
+      <c r="HQ2"/>
       <c r="HR2" s="3" t="inlineStr">
         <is>
-          <t>UNION_NUMBER</t>
+          <t>ANYTOWN</t>
         </is>
       </c>
       <c r="HS2" s="3" t="inlineStr">
         <is>
-          <t>442</t>
-        </is>
-      </c>
-      <c r="HT2" s="4" t="n">
-        <v>37987.0</v>
-      </c>
-      <c r="HU2"/>
-      <c r="HV2"/>
-      <c r="HW2"/>
-      <c r="HX2"/>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="HT2" s="3" t="inlineStr">
+        <is>
+          <t>971110000</t>
+        </is>
+      </c>
+      <c r="HU2" s="3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="HV2" s="3" t="inlineStr">
+        <is>
+          <t>585</t>
+        </is>
+      </c>
+      <c r="HW2" s="4" t="n">
+        <v>45748.0</v>
+      </c>
+      <c r="HX2" s="4" t="n">
+        <v>45778.0</v>
+      </c>
       <c r="HY2"/>
       <c r="HZ2"/>
       <c r="IA2"/>
-      <c r="IB2" s="3" t="inlineStr">
-        <is>
-          <t>021</t>
-        </is>
-      </c>
-      <c r="IC2" s="3" t="inlineStr">
-        <is>
-          <t>HMO</t>
-        </is>
-      </c>
-      <c r="ID2" s="3" t="inlineStr">
-        <is>
-          <t>PlanDesc</t>
-        </is>
-      </c>
-      <c r="IE2" s="3" t="inlineStr">
-        <is>
-          <t>FAM</t>
-        </is>
-      </c>
-      <c r="IF2" s="3" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
+      <c r="IB2"/>
+      <c r="IC2"/>
+      <c r="ID2"/>
+      <c r="IE2"/>
+      <c r="IF2"/>
       <c r="IG2" s="3" t="inlineStr">
         <is>
-          <t>348</t>
-        </is>
-      </c>
-      <c r="IH2" s="4" t="n">
-        <v>35217.0</v>
-      </c>
-      <c r="II2"/>
-      <c r="IJ2"/>
-      <c r="IK2"/>
-      <c r="IL2"/>
-      <c r="IM2"/>
-      <c r="IN2"/>
-      <c r="IO2"/>
-      <c r="IP2"/>
-      <c r="IQ2" s="3" t="inlineStr">
-        <is>
-          <t>C1</t>
-        </is>
-      </c>
-      <c r="IR2" s="1" t="n">
-        <v>20.0</v>
-      </c>
+          <t>SOUTHEASTERN UNION</t>
+        </is>
+      </c>
+      <c r="IH2" s="3" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="II2" s="3" t="inlineStr">
+        <is>
+          <t>UNION_NUMBER</t>
+        </is>
+      </c>
+      <c r="IJ2" s="3" t="inlineStr">
+        <is>
+          <t>442</t>
+        </is>
+      </c>
+      <c r="IK2" s="4" t="n">
+        <v>45717.0</v>
+      </c>
+      <c r="IL2" s="4" t="n">
+        <v>45808.0</v>
+      </c>
+      <c r="IM2" s="3" t="inlineStr">
+        <is>
+          <t>PAYER2</t>
+        </is>
+      </c>
+      <c r="IN2" s="3" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="IO2" s="3" t="inlineStr">
+        <is>
+          <t>UNION_NUMBER</t>
+        </is>
+      </c>
+      <c r="IP2" s="3" t="inlineStr">
+        <is>
+          <t>442</t>
+        </is>
+      </c>
+      <c r="IQ2" s="4" t="n">
+        <v>37987.0</v>
+      </c>
+      <c r="IR2"/>
       <c r="IS2"/>
       <c r="IT2"/>
       <c r="IU2"/>
       <c r="IV2"/>
-      <c r="IW2" s="3" t="inlineStr">
-        <is>
-          <t>1L</t>
-        </is>
-      </c>
-      <c r="IX2" s="3" t="inlineStr">
-        <is>
-          <t>PolicyNumber</t>
-        </is>
-      </c>
-      <c r="IY2"/>
-      <c r="IZ2"/>
-      <c r="JA2"/>
-      <c r="JB2"/>
-      <c r="JC2"/>
-      <c r="JD2"/>
-      <c r="JE2"/>
+      <c r="IW2"/>
+      <c r="IX2"/>
+      <c r="IY2" s="3" t="inlineStr">
+        <is>
+          <t>021</t>
+        </is>
+      </c>
+      <c r="IZ2" s="3" t="inlineStr">
+        <is>
+          <t>HMO</t>
+        </is>
+      </c>
+      <c r="JA2" s="3" t="inlineStr">
+        <is>
+          <t>PlanDesc</t>
+        </is>
+      </c>
+      <c r="JB2" s="3" t="inlineStr">
+        <is>
+          <t>FAM</t>
+        </is>
+      </c>
+      <c r="JC2" s="3" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="JD2" s="3" t="inlineStr">
+        <is>
+          <t>348</t>
+        </is>
+      </c>
+      <c r="JE2" s="4" t="n">
+        <v>35217.0</v>
+      </c>
       <c r="JF2"/>
-      <c r="JG2" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="JH2" s="3" t="inlineStr">
-        <is>
-          <t>PRIMARY_CARE</t>
-        </is>
-      </c>
-      <c r="JI2" s="3" t="inlineStr">
-        <is>
-          <t>INDIVIDUAL</t>
-        </is>
-      </c>
-      <c r="JJ2" s="3" t="inlineStr">
-        <is>
-          <t>prov1ID</t>
-        </is>
-      </c>
-      <c r="JK2" s="3" t="inlineStr">
-        <is>
-          <t>BROWN</t>
-        </is>
-      </c>
-      <c r="JL2" s="3" t="inlineStr">
-        <is>
-          <t>BERNARD</t>
-        </is>
-      </c>
+      <c r="JG2"/>
+      <c r="JH2"/>
+      <c r="JI2"/>
+      <c r="JJ2"/>
+      <c r="JK2"/>
+      <c r="JL2"/>
       <c r="JM2"/>
       <c r="JN2" s="3" t="inlineStr">
         <is>
-          <t>2715 SOUTHWIND AVENUE</t>
-        </is>
-      </c>
-      <c r="JO2"/>
-      <c r="JP2" s="3" t="inlineStr">
-        <is>
-          <t>ANYTOWN</t>
-        </is>
-      </c>
-      <c r="JQ2" s="3" t="inlineStr">
-        <is>
-          <t>PA</t>
-        </is>
-      </c>
-      <c r="JR2" s="3" t="inlineStr">
-        <is>
-          <t>271110000</t>
-        </is>
-      </c>
-      <c r="JS2" s="3" t="inlineStr">
-        <is>
-          <t>HOME_PHONE</t>
-        </is>
-      </c>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="JO2" s="1" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="JP2"/>
+      <c r="JQ2"/>
+      <c r="JR2"/>
+      <c r="JS2"/>
       <c r="JT2" s="3" t="inlineStr">
         <is>
-          <t>2172343334</t>
+          <t>1L</t>
         </is>
       </c>
       <c r="JU2" s="3" t="inlineStr">
         <is>
-          <t>WORK_PHONE</t>
-        </is>
-      </c>
-      <c r="JV2" s="3" t="inlineStr">
-        <is>
-          <t>2172341240</t>
-        </is>
-      </c>
-      <c r="JW2" s="3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="JX2" s="4" t="n">
-        <v>45413.0</v>
-      </c>
-      <c r="JY2" s="3" t="inlineStr">
-        <is>
-          <t>AI</t>
-        </is>
-      </c>
-      <c r="JZ2" s="3" t="inlineStr">
-        <is>
-          <t>MANAGED_CARE</t>
-        </is>
-      </c>
-      <c r="KA2" s="3" t="inlineStr">
+          <t>PolicyNumber</t>
+        </is>
+      </c>
+      <c r="JV2"/>
+      <c r="JW2"/>
+      <c r="JX2"/>
+      <c r="JY2"/>
+      <c r="JZ2"/>
+      <c r="KA2"/>
+      <c r="KB2"/>
+      <c r="KC2"/>
+      <c r="KD2" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="KE2" s="3" t="inlineStr">
+        <is>
+          <t>PlanDesc</t>
+        </is>
+      </c>
+      <c r="KF2" s="3" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="KG2" s="2" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="KH2" s="3" t="inlineStr">
+        <is>
+          <t>RX</t>
+        </is>
+      </c>
+      <c r="KI2" s="3" t="inlineStr">
+        <is>
+          <t>PRIMARY_CARE</t>
+        </is>
+      </c>
+      <c r="KJ2" s="3" t="inlineStr">
         <is>
           <t>INDIVIDUAL</t>
         </is>
       </c>
-      <c r="KB2" s="3" t="inlineStr">
-        <is>
-          <t>943766</t>
-        </is>
-      </c>
-      <c r="KC2" s="3" t="inlineStr">
+      <c r="KK2" s="3" t="inlineStr">
+        <is>
+          <t>prov1ID</t>
+        </is>
+      </c>
+      <c r="KL2" s="3" t="inlineStr">
         <is>
           <t>BROWN</t>
         </is>
       </c>
-      <c r="KD2" s="3" t="inlineStr">
+      <c r="KM2" s="3" t="inlineStr">
         <is>
           <t>BERNARD</t>
         </is>
       </c>
-      <c r="KE2"/>
-      <c r="KF2" s="3" t="inlineStr">
-        <is>
-          <t>2715 SOUTHWIND AVENUE</t>
-        </is>
-      </c>
-      <c r="KG2"/>
-      <c r="KH2" s="3" t="inlineStr">
-        <is>
-          <t>ANYTOWN</t>
-        </is>
-      </c>
-      <c r="KI2" s="3" t="inlineStr">
-        <is>
-          <t>PA</t>
-        </is>
-      </c>
-      <c r="KJ2" s="3" t="inlineStr">
-        <is>
-          <t>271110000</t>
-        </is>
-      </c>
-      <c r="KK2"/>
-      <c r="KL2"/>
-      <c r="KM2"/>
       <c r="KN2"/>
       <c r="KO2" s="3" t="inlineStr">
         <is>
+          <t>2715 SOUTHWIND AVENUE</t>
+        </is>
+      </c>
+      <c r="KP2"/>
+      <c r="KQ2" s="3" t="inlineStr">
+        <is>
+          <t>ANYTOWN</t>
+        </is>
+      </c>
+      <c r="KR2" s="3" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="KS2" s="3" t="inlineStr">
+        <is>
+          <t>271110000</t>
+        </is>
+      </c>
+      <c r="KT2" s="3" t="inlineStr">
+        <is>
+          <t>HOME_PHONE</t>
+        </is>
+      </c>
+      <c r="KU2" s="3" t="inlineStr">
+        <is>
+          <t>2172343334</t>
+        </is>
+      </c>
+      <c r="KV2" s="3" t="inlineStr">
+        <is>
+          <t>WORK_PHONE</t>
+        </is>
+      </c>
+      <c r="KW2" s="3" t="inlineStr">
+        <is>
+          <t>2172341240</t>
+        </is>
+      </c>
+      <c r="KX2" s="3" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="KP2" s="4" t="n">
+      <c r="KY2" s="4" t="n">
+        <v>45413.0</v>
+      </c>
+      <c r="KZ2" s="3" t="inlineStr">
+        <is>
+          <t>AI</t>
+        </is>
+      </c>
+      <c r="LA2" s="3" t="inlineStr">
+        <is>
+          <t>MANAGED_CARE</t>
+        </is>
+      </c>
+      <c r="LB2" s="3" t="inlineStr">
+        <is>
+          <t>INDIVIDUAL</t>
+        </is>
+      </c>
+      <c r="LC2" s="3" t="inlineStr">
+        <is>
+          <t>943766</t>
+        </is>
+      </c>
+      <c r="LD2" s="3" t="inlineStr">
+        <is>
+          <t>BROWN</t>
+        </is>
+      </c>
+      <c r="LE2" s="3" t="inlineStr">
+        <is>
+          <t>BERNARD</t>
+        </is>
+      </c>
+      <c r="LF2"/>
+      <c r="LG2" s="3" t="inlineStr">
+        <is>
+          <t>2715 SOUTHWIND AVENUE</t>
+        </is>
+      </c>
+      <c r="LH2"/>
+      <c r="LI2" s="3" t="inlineStr">
+        <is>
+          <t>ANYTOWN</t>
+        </is>
+      </c>
+      <c r="LJ2" s="3" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="LK2" s="3" t="inlineStr">
+        <is>
+          <t>271110000</t>
+        </is>
+      </c>
+      <c r="LL2"/>
+      <c r="LM2"/>
+      <c r="LN2"/>
+      <c r="LO2"/>
+      <c r="LP2" s="3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="LQ2" s="4" t="n">
         <v>45047.0</v>
       </c>
-      <c r="KQ2" s="3" t="inlineStr">
+      <c r="LR2" s="3" t="inlineStr">
         <is>
           <t>AI</t>
         </is>
       </c>
-      <c r="KR2"/>
-      <c r="KS2"/>
-      <c r="KT2"/>
-      <c r="KU2"/>
-      <c r="KV2"/>
-      <c r="KW2"/>
-      <c r="KX2"/>
-      <c r="KY2"/>
-      <c r="KZ2"/>
-      <c r="LA2"/>
-      <c r="LB2"/>
-      <c r="LC2"/>
-      <c r="LD2"/>
-      <c r="LE2"/>
-      <c r="LF2"/>
-      <c r="LG2"/>
-      <c r="LH2"/>
-      <c r="LI2"/>
+      <c r="LS2"/>
+      <c r="LT2"/>
+      <c r="LU2"/>
+      <c r="LV2"/>
+      <c r="LW2"/>
+      <c r="LX2"/>
+      <c r="LY2"/>
+      <c r="LZ2"/>
+      <c r="MA2"/>
+      <c r="MB2"/>
+      <c r="MC2"/>
+      <c r="MD2"/>
+      <c r="ME2"/>
+      <c r="MF2"/>
+      <c r="MG2"/>
+      <c r="MH2"/>
+      <c r="MI2"/>
+      <c r="MJ2"/>
+      <c r="MK2" s="3" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="ML2" s="3" t="inlineStr">
+        <is>
+          <t>PRIMARY</t>
+        </is>
+      </c>
+      <c r="MM2" s="3" t="inlineStr">
+        <is>
+          <t>XYZ123</t>
+        </is>
+      </c>
+      <c r="MN2" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="MO2" s="3" t="inlineStr">
+        <is>
+          <t>6P</t>
+        </is>
+      </c>
+      <c r="MP2" s="3" t="inlineStr">
+        <is>
+          <t>COB-GroupNumber</t>
+        </is>
+      </c>
+      <c r="MQ2" s="3" t="inlineStr">
+        <is>
+          <t>SY</t>
+        </is>
+      </c>
+      <c r="MR2" s="3" t="inlineStr">
+        <is>
+          <t>COB-SSN</t>
+        </is>
+      </c>
+      <c r="MS2" s="4" t="n">
+        <v>45689.0</v>
+      </c>
+      <c r="MT2" s="4" t="n">
+        <v>45716.0</v>
+      </c>
+      <c r="MU2" s="3" t="inlineStr">
+        <is>
+          <t>EMPLOYER</t>
+        </is>
+      </c>
+      <c r="MV2" s="3" t="inlineStr">
+        <is>
+          <t>COB-EmployerId</t>
+        </is>
+      </c>
+      <c r="MW2" s="3" t="inlineStr">
+        <is>
+          <t>COB-Employer</t>
+        </is>
+      </c>
+      <c r="MX2" s="3" t="inlineStr">
+        <is>
+          <t>9715 RESPONSIBLE AVENUE</t>
+        </is>
+      </c>
+      <c r="MY2"/>
+      <c r="MZ2" s="3" t="inlineStr">
+        <is>
+          <t>ANYTOWN</t>
+        </is>
+      </c>
+      <c r="NA2" s="3" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="NB2" s="3" t="inlineStr">
+        <is>
+          <t>971110000</t>
+        </is>
+      </c>
+      <c r="NC2" s="3" t="inlineStr">
+        <is>
+          <t>HOME_PHONE</t>
+        </is>
+      </c>
+      <c r="ND2" s="3" t="inlineStr">
+        <is>
+          <t>9172343334</t>
+        </is>
+      </c>
+      <c r="NE2" s="3" t="inlineStr">
+        <is>
+          <t>WORK_PHONE</t>
+        </is>
+      </c>
+      <c r="NF2" s="3" t="inlineStr">
+        <is>
+          <t>9172341240</t>
+        </is>
+      </c>
+      <c r="NG2"/>
+      <c r="NH2"/>
+      <c r="NI2"/>
+      <c r="NJ2"/>
+      <c r="NK2"/>
+      <c r="NL2"/>
+      <c r="NM2"/>
+      <c r="NN2"/>
+      <c r="NO2"/>
+      <c r="NP2"/>
+      <c r="NQ2"/>
+      <c r="NR2"/>
+      <c r="NS2"/>
+      <c r="NT2"/>
+      <c r="NU2"/>
+      <c r="NV2"/>
+      <c r="NW2"/>
+      <c r="NX2"/>
+      <c r="NY2"/>
+      <c r="NZ2"/>
+      <c r="OA2"/>
+      <c r="OB2"/>
+      <c r="OC2"/>
+      <c r="OD2"/>
+      <c r="OE2"/>
+      <c r="OF2"/>
+      <c r="OG2"/>
+      <c r="OH2"/>
+      <c r="OI2"/>
+      <c r="OJ2"/>
+      <c r="OK2"/>
+      <c r="OL2"/>
+      <c r="OM2"/>
+      <c r="ON2"/>
+      <c r="OO2"/>
+      <c r="OP2"/>
+      <c r="OQ2"/>
+      <c r="OR2"/>
+      <c r="OS2"/>
+      <c r="OT2"/>
+      <c r="OU2"/>
+      <c r="OV2"/>
+      <c r="OW2"/>
+      <c r="OX2"/>
+      <c r="OY2"/>
+      <c r="OZ2"/>
     </row>
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>6846458a58f41c12bccd7bf6</t>
+          <t>684723f4cd41c01c2437b822</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
@@ -2685,611 +3411,653 @@
       </c>
       <c r="H3" s="3" t="inlineStr">
         <is>
+          <t>007</t>
+        </is>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>45659.0</v>
+      </c>
+      <c r="J3" s="3" t="inlineStr">
+        <is>
+          <t>382</t>
+        </is>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>45659.0</v>
+      </c>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3" s="3" t="inlineStr">
+        <is>
           <t>MasterPolicyNumber</t>
         </is>
       </c>
-      <c r="I3" s="3" t="inlineStr">
+      <c r="O3" s="3" t="inlineStr">
         <is>
           <t>999888777</t>
         </is>
       </c>
-      <c r="J3" s="3" t="inlineStr">
+      <c r="P3" s="3" t="inlineStr">
         <is>
           <t>Sponsor</t>
         </is>
       </c>
-      <c r="K3" s="3" t="inlineStr">
+      <c r="Q3" s="3" t="inlineStr">
         <is>
           <t>654456654</t>
         </is>
       </c>
-      <c r="L3" s="3" t="inlineStr">
+      <c r="R3" s="3" t="inlineStr">
         <is>
           <t>Insurer</t>
         </is>
       </c>
-      <c r="M3" s="3" t="inlineStr">
+      <c r="S3" s="3" t="inlineStr">
         <is>
           <t>tpaID</t>
         </is>
       </c>
-      <c r="N3" s="3" t="inlineStr">
+      <c r="T3" s="3" t="inlineStr">
         <is>
           <t>TPA</t>
         </is>
       </c>
-      <c r="O3" s="3" t="inlineStr">
+      <c r="U3" s="3" t="inlineStr">
         <is>
           <t>account1</t>
         </is>
       </c>
-      <c r="P3" s="3" t="inlineStr">
+      <c r="V3" s="3" t="inlineStr">
         <is>
           <t>account2</t>
         </is>
       </c>
-      <c r="Q3" s="3" t="inlineStr">
+      <c r="W3" s="3" t="inlineStr">
         <is>
           <t>tpa2ID</t>
         </is>
       </c>
-      <c r="R3" s="3" t="inlineStr">
+      <c r="X3" s="3" t="inlineStr">
         <is>
           <t>TPA2</t>
         </is>
       </c>
-      <c r="S3"/>
-      <c r="T3"/>
-      <c r="U3" s="3" t="inlineStr">
+      <c r="Y3"/>
+      <c r="Z3"/>
+      <c r="AA3" s="3" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="V3" s="3" t="inlineStr">
+      <c r="AB3" s="3" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="W3" s="3" t="inlineStr">
+      <c r="AC3" s="3" t="inlineStr">
         <is>
           <t>021</t>
         </is>
       </c>
-      <c r="X3" s="3" t="inlineStr">
+      <c r="AD3" s="3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="Y3" s="3" t="inlineStr">
+      <c r="AE3" s="3" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="Z3" s="3" t="inlineStr">
+      <c r="AF3" s="3" t="inlineStr">
         <is>
           <t>CE</t>
         </is>
       </c>
-      <c r="AA3" s="3" t="inlineStr">
+      <c r="AG3" s="3" t="inlineStr">
         <is>
           <t>FT</t>
         </is>
       </c>
-      <c r="AB3" s="3" t="inlineStr">
+      <c r="AH3" s="3" t="inlineStr">
         <is>
           <t>ST</t>
         </is>
       </c>
-      <c r="AC3" s="3" t="inlineStr">
+      <c r="AI3" s="3" t="inlineStr">
         <is>
           <t>Y</t>
-        </is>
-      </c>
-      <c r="AD3"/>
-      <c r="AE3"/>
-      <c r="AF3" s="3" t="inlineStr">
-        <is>
-          <t>member1</t>
-        </is>
-      </c>
-      <c r="AG3" s="3" t="inlineStr">
-        <is>
-          <t>group1</t>
-        </is>
-      </c>
-      <c r="AH3" s="3" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="AI3" s="3" t="inlineStr">
-        <is>
-          <t>ClientNumber</t>
         </is>
       </c>
       <c r="AJ3"/>
       <c r="AK3"/>
-      <c r="AL3"/>
-      <c r="AM3"/>
-      <c r="AN3"/>
-      <c r="AO3"/>
+      <c r="AL3" s="3" t="inlineStr">
+        <is>
+          <t>member1</t>
+        </is>
+      </c>
+      <c r="AM3" s="3" t="inlineStr">
+        <is>
+          <t>group1</t>
+        </is>
+      </c>
+      <c r="AN3" s="3" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="AO3" s="3" t="inlineStr">
+        <is>
+          <t>ClientNumber</t>
+        </is>
+      </c>
       <c r="AP3"/>
       <c r="AQ3"/>
-      <c r="AR3" s="3" t="inlineStr">
-        <is>
-          <t>356</t>
-        </is>
-      </c>
-      <c r="AS3" s="4" t="n">
-        <v>35076.0</v>
-      </c>
+      <c r="AR3"/>
+      <c r="AS3"/>
       <c r="AT3"/>
       <c r="AU3"/>
       <c r="AV3"/>
       <c r="AW3"/>
-      <c r="AX3"/>
-      <c r="AY3"/>
+      <c r="AX3" s="3" t="inlineStr">
+        <is>
+          <t>356</t>
+        </is>
+      </c>
+      <c r="AY3" s="4" t="n">
+        <v>35076.0</v>
+      </c>
       <c r="AZ3"/>
       <c r="BA3"/>
-      <c r="BB3" s="3" t="inlineStr">
+      <c r="BB3"/>
+      <c r="BC3"/>
+      <c r="BD3"/>
+      <c r="BE3"/>
+      <c r="BF3"/>
+      <c r="BG3"/>
+      <c r="BH3" s="3" t="inlineStr">
         <is>
           <t>INSURED_SUBSCRIBER</t>
         </is>
       </c>
-      <c r="BC3" s="3" t="inlineStr">
+      <c r="BI3" s="3" t="inlineStr">
         <is>
           <t>SSN</t>
         </is>
       </c>
-      <c r="BD3" s="3" t="inlineStr">
+      <c r="BJ3" s="3" t="inlineStr">
         <is>
           <t>202443307</t>
         </is>
       </c>
-      <c r="BE3"/>
-      <c r="BF3" s="3" t="inlineStr">
+      <c r="BK3"/>
+      <c r="BL3" s="3" t="inlineStr">
         <is>
           <t>SMITH</t>
         </is>
       </c>
-      <c r="BG3" s="3" t="inlineStr">
+      <c r="BM3" s="3" t="inlineStr">
         <is>
           <t>WILLIAM</t>
         </is>
       </c>
-      <c r="BH3"/>
-      <c r="BI3" s="4" t="n">
+      <c r="BN3"/>
+      <c r="BO3" s="4" t="n">
         <v>25733.0</v>
       </c>
-      <c r="BJ3" s="3" t="inlineStr">
+      <c r="BP3" s="3" t="inlineStr">
         <is>
           <t>MALE</t>
         </is>
       </c>
-      <c r="BK3" s="3" t="inlineStr">
+      <c r="BQ3" s="3" t="inlineStr">
         <is>
           <t>1715 SOUTHWIND AVENUE</t>
         </is>
       </c>
-      <c r="BL3"/>
-      <c r="BM3" s="3" t="inlineStr">
+      <c r="BR3"/>
+      <c r="BS3" s="3" t="inlineStr">
         <is>
           <t>ANYTOWN</t>
         </is>
       </c>
-      <c r="BN3" s="3" t="inlineStr">
+      <c r="BT3" s="3" t="inlineStr">
         <is>
           <t>PA</t>
         </is>
       </c>
-      <c r="BO3" s="3" t="inlineStr">
+      <c r="BU3" s="3" t="inlineStr">
         <is>
           <t>171110000</t>
         </is>
       </c>
-      <c r="BP3" s="3" t="inlineStr">
+      <c r="BV3" s="3" t="inlineStr">
         <is>
           <t>HOME_PHONE</t>
         </is>
       </c>
-      <c r="BQ3" s="3" t="inlineStr">
+      <c r="BW3" s="3" t="inlineStr">
         <is>
           <t>7172343334</t>
         </is>
       </c>
-      <c r="BR3" s="3" t="inlineStr">
+      <c r="BX3" s="3" t="inlineStr">
         <is>
           <t>WORK_PHONE</t>
         </is>
       </c>
-      <c r="BS3" s="3" t="inlineStr">
+      <c r="BY3" s="3" t="inlineStr">
         <is>
           <t>7172341240</t>
         </is>
       </c>
-      <c r="BT3" s="3" t="inlineStr">
+      <c r="BZ3" s="3" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="BU3" s="3" t="inlineStr">
+      <c r="CA3" s="3" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="BV3" s="3" t="inlineStr">
+      <c r="CB3" s="3" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="BW3" s="3" t="inlineStr">
+      <c r="CC3" s="3" t="inlineStr">
         <is>
           <t>04</t>
         </is>
       </c>
-      <c r="BX3" s="3" t="inlineStr">
+      <c r="CD3" s="3" t="inlineStr">
         <is>
           <t>06</t>
         </is>
       </c>
-      <c r="BY3" s="3" t="inlineStr">
+      <c r="CE3" s="3" t="inlineStr">
         <is>
           <t>07</t>
         </is>
       </c>
-      <c r="BZ3" s="3" t="inlineStr">
+      <c r="CF3" s="3" t="inlineStr">
         <is>
           <t>09</t>
         </is>
       </c>
-      <c r="CA3" s="3" t="inlineStr">
+      <c r="CG3" s="3" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="CB3" s="3" t="inlineStr">
+      <c r="CH3" s="3" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="CC3" s="1" t="n">
+      <c r="CI3" s="1" t="n">
         <v>425.25</v>
       </c>
-      <c r="CD3" t="n">
+      <c r="CJ3" t="n">
         <v>40.0</v>
       </c>
-      <c r="CE3" s="3" t="inlineStr">
+      <c r="CK3" s="3" t="inlineStr">
         <is>
           <t>LocCode</t>
         </is>
       </c>
-      <c r="CF3" s="3" t="inlineStr">
+      <c r="CL3" s="3" t="inlineStr">
         <is>
           <t>SalaryGrade</t>
         </is>
       </c>
-      <c r="CG3" s="3" t="inlineStr">
+      <c r="CM3" s="3" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="CH3" t="n">
+      <c r="CN3" t="n">
         <v>74.0</v>
       </c>
-      <c r="CI3" t="n">
+      <c r="CO3" t="n">
         <v>210.0</v>
       </c>
-      <c r="CJ3" s="3" t="inlineStr">
+      <c r="CP3" s="3" t="inlineStr">
+        <is>
+          <t>202443309</t>
+        </is>
+      </c>
+      <c r="CQ3" s="3" t="inlineStr">
+        <is>
+          <t>DOE</t>
+        </is>
+      </c>
+      <c r="CR3" s="3" t="inlineStr">
+        <is>
+          <t>JOE</t>
+        </is>
+      </c>
+      <c r="CS3"/>
+      <c r="CT3" s="4" t="n">
+        <v>25733.0</v>
+      </c>
+      <c r="CU3" s="3" t="inlineStr">
+        <is>
+          <t>MALE</t>
+        </is>
+      </c>
+      <c r="CV3" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="CW3" s="3" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="CX3" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CY3" s="3" t="inlineStr">
         <is>
           <t>D2</t>
         </is>
       </c>
-      <c r="CK3" s="1" t="n">
+      <c r="CZ3" s="1" t="n">
         <v>100.0</v>
       </c>
-      <c r="CL3"/>
-      <c r="CM3"/>
-      <c r="CN3"/>
-      <c r="CO3"/>
-      <c r="CP3"/>
-      <c r="CQ3"/>
-      <c r="CR3"/>
-      <c r="CS3"/>
-      <c r="CT3" s="3" t="inlineStr">
+      <c r="DA3"/>
+      <c r="DB3"/>
+      <c r="DC3"/>
+      <c r="DD3"/>
+      <c r="DE3"/>
+      <c r="DF3"/>
+      <c r="DG3"/>
+      <c r="DH3"/>
+      <c r="DI3" s="3" t="inlineStr">
         <is>
           <t>9715 SOUTHWIND AVENUE</t>
         </is>
       </c>
-      <c r="CU3"/>
-      <c r="CV3" s="3" t="inlineStr">
+      <c r="DJ3"/>
+      <c r="DK3" s="3" t="inlineStr">
         <is>
           <t>ANYTOWN</t>
         </is>
       </c>
-      <c r="CW3" s="3" t="inlineStr">
+      <c r="DL3" s="3" t="inlineStr">
         <is>
           <t>PA</t>
         </is>
       </c>
-      <c r="CX3" s="3" t="inlineStr">
+      <c r="DM3" s="3" t="inlineStr">
         <is>
           <t>971110000</t>
         </is>
       </c>
-      <c r="CY3" s="3" t="inlineStr">
+      <c r="DN3" s="3" t="inlineStr">
         <is>
           <t>emp1ID</t>
         </is>
       </c>
-      <c r="CZ3" s="3" t="inlineStr">
+      <c r="DO3" s="3" t="inlineStr">
         <is>
           <t>EMPLOYER1</t>
         </is>
       </c>
-      <c r="DA3" s="3" t="inlineStr">
+      <c r="DP3" s="3" t="inlineStr">
         <is>
           <t>First</t>
         </is>
       </c>
-      <c r="DB3" s="3" t="inlineStr">
+      <c r="DQ3" s="3" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="DC3" s="3" t="inlineStr">
+      <c r="DR3" s="3" t="inlineStr">
         <is>
           <t>9715 EMPLOYER1 AVENUE</t>
         </is>
       </c>
-      <c r="DD3"/>
-      <c r="DE3" s="3" t="inlineStr">
+      <c r="DS3"/>
+      <c r="DT3" s="3" t="inlineStr">
         <is>
           <t>ANYTOWN</t>
         </is>
       </c>
-      <c r="DF3" s="3" t="inlineStr">
+      <c r="DU3" s="3" t="inlineStr">
         <is>
           <t>PA</t>
         </is>
       </c>
-      <c r="DG3" s="3" t="inlineStr">
+      <c r="DV3" s="3" t="inlineStr">
         <is>
           <t>971110000</t>
         </is>
       </c>
-      <c r="DH3" s="3" t="inlineStr">
+      <c r="DW3" s="3" t="inlineStr">
         <is>
           <t>HOME_PHONE</t>
         </is>
       </c>
-      <c r="DI3" s="3" t="inlineStr">
+      <c r="DX3" s="3" t="inlineStr">
         <is>
           <t>9172343334</t>
         </is>
       </c>
-      <c r="DJ3" s="3" t="inlineStr">
+      <c r="DY3" s="3" t="inlineStr">
         <is>
           <t>WORK_PHONE</t>
         </is>
       </c>
-      <c r="DK3" s="3" t="inlineStr">
+      <c r="DZ3" s="3" t="inlineStr">
         <is>
           <t>9172341240</t>
         </is>
       </c>
-      <c r="DL3"/>
-      <c r="DM3"/>
-      <c r="DN3"/>
-      <c r="DO3"/>
-      <c r="DP3"/>
-      <c r="DQ3"/>
-      <c r="DR3"/>
-      <c r="DS3"/>
-      <c r="DT3"/>
-      <c r="DU3"/>
-      <c r="DV3"/>
-      <c r="DW3"/>
-      <c r="DX3"/>
-      <c r="DY3"/>
-      <c r="DZ3" s="3" t="inlineStr">
-        <is>
-          <t>School1</t>
-        </is>
-      </c>
-      <c r="EA3" s="3" t="inlineStr">
-        <is>
-          <t>9715 SCHOOL AVENUE</t>
-        </is>
-      </c>
+      <c r="EA3"/>
       <c r="EB3"/>
-      <c r="EC3" s="3" t="inlineStr">
-        <is>
-          <t>ANYTOWN</t>
-        </is>
-      </c>
-      <c r="ED3" s="3" t="inlineStr">
-        <is>
-          <t>PA</t>
-        </is>
-      </c>
-      <c r="EE3" s="3" t="inlineStr">
-        <is>
-          <t>971110000</t>
-        </is>
-      </c>
-      <c r="EF3" s="3" t="inlineStr">
-        <is>
-          <t>HOME_PHONE</t>
-        </is>
-      </c>
-      <c r="EG3" s="3" t="inlineStr">
-        <is>
-          <t>9172343334</t>
-        </is>
-      </c>
-      <c r="EH3" s="3" t="inlineStr">
-        <is>
-          <t>WORK_PHONE</t>
-        </is>
-      </c>
-      <c r="EI3" s="3" t="inlineStr">
-        <is>
-          <t>9172341240</t>
-        </is>
-      </c>
+      <c r="EC3"/>
+      <c r="ED3"/>
+      <c r="EE3"/>
+      <c r="EF3"/>
+      <c r="EG3"/>
+      <c r="EH3"/>
+      <c r="EI3"/>
       <c r="EJ3"/>
       <c r="EK3"/>
       <c r="EL3"/>
       <c r="EM3"/>
       <c r="EN3"/>
-      <c r="EO3"/>
-      <c r="EP3"/>
+      <c r="EO3" s="3" t="inlineStr">
+        <is>
+          <t>School1</t>
+        </is>
+      </c>
+      <c r="EP3" s="3" t="inlineStr">
+        <is>
+          <t>9715 SCHOOL AVENUE</t>
+        </is>
+      </c>
       <c r="EQ3"/>
-      <c r="ER3"/>
-      <c r="ES3"/>
-      <c r="ET3"/>
+      <c r="ER3" s="3" t="inlineStr">
+        <is>
+          <t>ANYTOWN</t>
+        </is>
+      </c>
+      <c r="ES3" s="3" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="ET3" s="3" t="inlineStr">
+        <is>
+          <t>971110000</t>
+        </is>
+      </c>
       <c r="EU3" s="3" t="inlineStr">
         <is>
+          <t>HOME_PHONE</t>
+        </is>
+      </c>
+      <c r="EV3" s="3" t="inlineStr">
+        <is>
+          <t>9172343334</t>
+        </is>
+      </c>
+      <c r="EW3" s="3" t="inlineStr">
+        <is>
+          <t>WORK_PHONE</t>
+        </is>
+      </c>
+      <c r="EX3" s="3" t="inlineStr">
+        <is>
+          <t>9172341240</t>
+        </is>
+      </c>
+      <c r="EY3"/>
+      <c r="EZ3"/>
+      <c r="FA3"/>
+      <c r="FB3"/>
+      <c r="FC3"/>
+      <c r="FD3"/>
+      <c r="FE3"/>
+      <c r="FF3"/>
+      <c r="FG3"/>
+      <c r="FH3"/>
+      <c r="FI3"/>
+      <c r="FJ3" s="3" t="inlineStr">
+        <is>
           <t>custodialParentID</t>
         </is>
       </c>
-      <c r="EV3" s="3" t="inlineStr">
+      <c r="FK3" s="3" t="inlineStr">
         <is>
           <t>Custodial</t>
         </is>
       </c>
-      <c r="EW3" s="3" t="inlineStr">
+      <c r="FL3" s="3" t="inlineStr">
         <is>
           <t>Parent</t>
         </is>
       </c>
-      <c r="EX3" s="3" t="inlineStr">
+      <c r="FM3" s="3" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="EY3" s="3" t="inlineStr">
+      <c r="FN3" s="3" t="inlineStr">
         <is>
           <t>9715 CUSTODIAL AVENUE</t>
         </is>
       </c>
-      <c r="EZ3"/>
-      <c r="FA3" s="3" t="inlineStr">
+      <c r="FO3"/>
+      <c r="FP3" s="3" t="inlineStr">
         <is>
           <t>ANYTOWN</t>
         </is>
       </c>
-      <c r="FB3" s="3" t="inlineStr">
+      <c r="FQ3" s="3" t="inlineStr">
         <is>
           <t>PA</t>
         </is>
       </c>
-      <c r="FC3" s="3" t="inlineStr">
+      <c r="FR3" s="3" t="inlineStr">
         <is>
           <t>971110000</t>
         </is>
       </c>
-      <c r="FD3" s="3" t="inlineStr">
+      <c r="FS3" s="3" t="inlineStr">
         <is>
           <t>HOME_PHONE</t>
         </is>
       </c>
-      <c r="FE3" s="3" t="inlineStr">
+      <c r="FT3" s="3" t="inlineStr">
         <is>
           <t>9172343334</t>
         </is>
       </c>
-      <c r="FF3" s="3" t="inlineStr">
+      <c r="FU3" s="3" t="inlineStr">
         <is>
           <t>WORK_PHONE</t>
         </is>
       </c>
-      <c r="FG3" s="3" t="inlineStr">
+      <c r="FV3" s="3" t="inlineStr">
         <is>
           <t>9172341240</t>
         </is>
       </c>
-      <c r="FH3" s="3" t="inlineStr">
+      <c r="FW3" s="3" t="inlineStr">
         <is>
           <t>RESPONSIBLE_PARTY</t>
         </is>
       </c>
-      <c r="FI3" s="3" t="inlineStr">
+      <c r="FX3" s="3" t="inlineStr">
         <is>
           <t>responsiblePersonID</t>
         </is>
       </c>
-      <c r="FJ3" s="3" t="inlineStr">
+      <c r="FY3" s="3" t="inlineStr">
         <is>
           <t>Responsible</t>
         </is>
       </c>
-      <c r="FK3" s="3" t="inlineStr">
+      <c r="FZ3" s="3" t="inlineStr">
         <is>
           <t>Person</t>
         </is>
       </c>
-      <c r="FL3" s="3" t="inlineStr">
+      <c r="GA3" s="3" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="FM3" s="3" t="inlineStr">
+      <c r="GB3" s="3" t="inlineStr">
         <is>
           <t>9715 RESPONSIBLE AVENUE</t>
         </is>
       </c>
-      <c r="FN3"/>
-      <c r="FO3" s="3" t="inlineStr">
+      <c r="GC3"/>
+      <c r="GD3" s="3" t="inlineStr">
         <is>
           <t>ANYTOWN</t>
         </is>
       </c>
-      <c r="FP3" s="3" t="inlineStr">
+      <c r="GE3" s="3" t="inlineStr">
         <is>
           <t>PA</t>
         </is>
       </c>
-      <c r="FQ3" s="3" t="inlineStr">
+      <c r="GF3" s="3" t="inlineStr">
         <is>
           <t>971110000</t>
         </is>
       </c>
-      <c r="FR3" s="3" t="inlineStr">
+      <c r="GG3" s="3" t="inlineStr">
         <is>
           <t>HOME_PHONE</t>
         </is>
       </c>
-      <c r="FS3" s="3" t="inlineStr">
+      <c r="GH3" s="3" t="inlineStr">
         <is>
           <t>9172343334</t>
         </is>
       </c>
-      <c r="FT3" s="3" t="inlineStr">
+      <c r="GI3" s="3" t="inlineStr">
         <is>
           <t>WORK_PHONE</t>
         </is>
       </c>
-      <c r="FU3" s="3" t="inlineStr">
+      <c r="GJ3" s="3" t="inlineStr">
         <is>
           <t>9172341240</t>
         </is>
       </c>
-      <c r="FV3"/>
-      <c r="FW3"/>
-      <c r="FX3"/>
-      <c r="FY3"/>
-      <c r="FZ3"/>
-      <c r="GA3"/>
-      <c r="GB3"/>
-      <c r="GC3"/>
-      <c r="GD3"/>
-      <c r="GE3"/>
-      <c r="GF3"/>
-      <c r="GG3"/>
-      <c r="GH3"/>
-      <c r="GI3"/>
-      <c r="GJ3"/>
       <c r="GK3"/>
       <c r="GL3"/>
       <c r="GM3"/>
@@ -3303,22 +4071,10 @@
       <c r="GU3"/>
       <c r="GV3"/>
       <c r="GW3"/>
-      <c r="GX3" s="3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="GY3" s="3" t="inlineStr">
-        <is>
-          <t>585</t>
-        </is>
-      </c>
-      <c r="GZ3" s="4" t="n">
-        <v>45748.0</v>
-      </c>
-      <c r="HA3" s="4" t="n">
-        <v>45778.0</v>
-      </c>
+      <c r="GX3"/>
+      <c r="GY3"/>
+      <c r="GZ3"/>
+      <c r="HA3"/>
       <c r="HB3"/>
       <c r="HC3"/>
       <c r="HD3"/>
@@ -3327,152 +4083,180 @@
       <c r="HG3"/>
       <c r="HH3"/>
       <c r="HI3"/>
-      <c r="HJ3" s="3" t="inlineStr">
-        <is>
-          <t>SOUTHEASTERN UNION</t>
-        </is>
-      </c>
-      <c r="HK3" s="3" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="HL3" s="3" t="inlineStr">
-        <is>
-          <t>UNION_NUMBER</t>
-        </is>
-      </c>
+      <c r="HJ3"/>
+      <c r="HK3"/>
+      <c r="HL3"/>
       <c r="HM3" s="3" t="inlineStr">
         <is>
-          <t>442</t>
-        </is>
-      </c>
-      <c r="HN3" s="4" t="n">
-        <v>45717.0</v>
-      </c>
-      <c r="HO3" s="4" t="n">
-        <v>45808.0</v>
-      </c>
+          <t>DropOff</t>
+        </is>
+      </c>
+      <c r="HN3"/>
+      <c r="HO3"/>
       <c r="HP3" s="3" t="inlineStr">
         <is>
-          <t>PAYER2</t>
-        </is>
-      </c>
-      <c r="HQ3" s="3" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
+          <t>9715 DROPOFF AVENUE</t>
+        </is>
+      </c>
+      <c r="HQ3"/>
       <c r="HR3" s="3" t="inlineStr">
         <is>
-          <t>UNION_NUMBER</t>
+          <t>ANYTOWN</t>
         </is>
       </c>
       <c r="HS3" s="3" t="inlineStr">
         <is>
-          <t>442</t>
-        </is>
-      </c>
-      <c r="HT3" s="4" t="n">
-        <v>37987.0</v>
-      </c>
-      <c r="HU3"/>
-      <c r="HV3"/>
-      <c r="HW3"/>
-      <c r="HX3"/>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="HT3" s="3" t="inlineStr">
+        <is>
+          <t>971110000</t>
+        </is>
+      </c>
+      <c r="HU3" s="3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="HV3" s="3" t="inlineStr">
+        <is>
+          <t>585</t>
+        </is>
+      </c>
+      <c r="HW3" s="4" t="n">
+        <v>45748.0</v>
+      </c>
+      <c r="HX3" s="4" t="n">
+        <v>45778.0</v>
+      </c>
       <c r="HY3"/>
       <c r="HZ3"/>
       <c r="IA3"/>
-      <c r="IB3" s="3" t="inlineStr">
-        <is>
-          <t>021</t>
-        </is>
-      </c>
-      <c r="IC3" s="3" t="inlineStr">
-        <is>
-          <t>EPO</t>
-        </is>
-      </c>
-      <c r="ID3" s="3" t="inlineStr">
-        <is>
-          <t>PlanDesc2</t>
-        </is>
-      </c>
-      <c r="IE3" s="3" t="inlineStr">
-        <is>
-          <t>FAM</t>
-        </is>
-      </c>
-      <c r="IF3" s="3" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
+      <c r="IB3"/>
+      <c r="IC3"/>
+      <c r="ID3"/>
+      <c r="IE3"/>
+      <c r="IF3"/>
       <c r="IG3" s="3" t="inlineStr">
         <is>
-          <t>348</t>
-        </is>
-      </c>
-      <c r="IH3" s="4" t="n">
-        <v>45778.0</v>
-      </c>
-      <c r="II3"/>
-      <c r="IJ3"/>
-      <c r="IK3"/>
-      <c r="IL3"/>
-      <c r="IM3"/>
-      <c r="IN3"/>
-      <c r="IO3"/>
-      <c r="IP3"/>
-      <c r="IQ3" s="3" t="inlineStr">
-        <is>
-          <t>C1</t>
-        </is>
-      </c>
-      <c r="IR3" s="1" t="n">
-        <v>20.0</v>
-      </c>
+          <t>SOUTHEASTERN UNION</t>
+        </is>
+      </c>
+      <c r="IH3" s="3" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="II3" s="3" t="inlineStr">
+        <is>
+          <t>UNION_NUMBER</t>
+        </is>
+      </c>
+      <c r="IJ3" s="3" t="inlineStr">
+        <is>
+          <t>442</t>
+        </is>
+      </c>
+      <c r="IK3" s="4" t="n">
+        <v>45717.0</v>
+      </c>
+      <c r="IL3" s="4" t="n">
+        <v>45808.0</v>
+      </c>
+      <c r="IM3" s="3" t="inlineStr">
+        <is>
+          <t>PAYER2</t>
+        </is>
+      </c>
+      <c r="IN3" s="3" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="IO3" s="3" t="inlineStr">
+        <is>
+          <t>UNION_NUMBER</t>
+        </is>
+      </c>
+      <c r="IP3" s="3" t="inlineStr">
+        <is>
+          <t>442</t>
+        </is>
+      </c>
+      <c r="IQ3" s="4" t="n">
+        <v>37987.0</v>
+      </c>
+      <c r="IR3"/>
       <c r="IS3"/>
       <c r="IT3"/>
       <c r="IU3"/>
       <c r="IV3"/>
-      <c r="IW3" s="3" t="inlineStr">
-        <is>
-          <t>1L</t>
-        </is>
-      </c>
-      <c r="IX3" s="3" t="inlineStr">
-        <is>
-          <t>PolicyNumber2</t>
-        </is>
-      </c>
-      <c r="IY3"/>
-      <c r="IZ3"/>
-      <c r="JA3"/>
-      <c r="JB3"/>
-      <c r="JC3"/>
-      <c r="JD3"/>
-      <c r="JE3"/>
+      <c r="IW3"/>
+      <c r="IX3"/>
+      <c r="IY3" s="3" t="inlineStr">
+        <is>
+          <t>021</t>
+        </is>
+      </c>
+      <c r="IZ3" s="3" t="inlineStr">
+        <is>
+          <t>EPO</t>
+        </is>
+      </c>
+      <c r="JA3" s="3" t="inlineStr">
+        <is>
+          <t>PlanDesc2</t>
+        </is>
+      </c>
+      <c r="JB3" s="3" t="inlineStr">
+        <is>
+          <t>FAM</t>
+        </is>
+      </c>
+      <c r="JC3" s="3" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="JD3" s="3" t="inlineStr">
+        <is>
+          <t>348</t>
+        </is>
+      </c>
+      <c r="JE3" s="4" t="n">
+        <v>45778.0</v>
+      </c>
       <c r="JF3"/>
-      <c r="JG3" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="JG3"/>
       <c r="JH3"/>
       <c r="JI3"/>
       <c r="JJ3"/>
       <c r="JK3"/>
       <c r="JL3"/>
       <c r="JM3"/>
-      <c r="JN3"/>
-      <c r="JO3"/>
+      <c r="JN3" s="3" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="JO3" s="1" t="n">
+        <v>20.0</v>
+      </c>
       <c r="JP3"/>
       <c r="JQ3"/>
       <c r="JR3"/>
       <c r="JS3"/>
-      <c r="JT3"/>
-      <c r="JU3"/>
+      <c r="JT3" s="3" t="inlineStr">
+        <is>
+          <t>1L</t>
+        </is>
+      </c>
+      <c r="JU3" s="3" t="inlineStr">
+        <is>
+          <t>PolicyNumber2</t>
+        </is>
+      </c>
       <c r="JV3"/>
       <c r="JW3"/>
       <c r="JX3"/>
@@ -3481,7 +4265,11 @@
       <c r="KA3"/>
       <c r="KB3"/>
       <c r="KC3"/>
-      <c r="KD3"/>
+      <c r="KD3" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="KE3"/>
       <c r="KF3"/>
       <c r="KG3"/>
@@ -3513,11 +4301,106 @@
       <c r="LG3"/>
       <c r="LH3"/>
       <c r="LI3"/>
+      <c r="LJ3"/>
+      <c r="LK3"/>
+      <c r="LL3"/>
+      <c r="LM3"/>
+      <c r="LN3"/>
+      <c r="LO3"/>
+      <c r="LP3"/>
+      <c r="LQ3"/>
+      <c r="LR3"/>
+      <c r="LS3"/>
+      <c r="LT3"/>
+      <c r="LU3"/>
+      <c r="LV3"/>
+      <c r="LW3"/>
+      <c r="LX3"/>
+      <c r="LY3"/>
+      <c r="LZ3"/>
+      <c r="MA3"/>
+      <c r="MB3"/>
+      <c r="MC3"/>
+      <c r="MD3"/>
+      <c r="ME3"/>
+      <c r="MF3"/>
+      <c r="MG3"/>
+      <c r="MH3"/>
+      <c r="MI3"/>
+      <c r="MJ3"/>
+      <c r="MK3"/>
+      <c r="ML3"/>
+      <c r="MM3"/>
+      <c r="MN3"/>
+      <c r="MO3"/>
+      <c r="MP3"/>
+      <c r="MQ3"/>
+      <c r="MR3"/>
+      <c r="MS3"/>
+      <c r="MT3"/>
+      <c r="MU3"/>
+      <c r="MV3"/>
+      <c r="MW3"/>
+      <c r="MX3"/>
+      <c r="MY3"/>
+      <c r="MZ3"/>
+      <c r="NA3"/>
+      <c r="NB3"/>
+      <c r="NC3"/>
+      <c r="ND3"/>
+      <c r="NE3"/>
+      <c r="NF3"/>
+      <c r="NG3"/>
+      <c r="NH3"/>
+      <c r="NI3"/>
+      <c r="NJ3"/>
+      <c r="NK3"/>
+      <c r="NL3"/>
+      <c r="NM3"/>
+      <c r="NN3"/>
+      <c r="NO3"/>
+      <c r="NP3"/>
+      <c r="NQ3"/>
+      <c r="NR3"/>
+      <c r="NS3"/>
+      <c r="NT3"/>
+      <c r="NU3"/>
+      <c r="NV3"/>
+      <c r="NW3"/>
+      <c r="NX3"/>
+      <c r="NY3"/>
+      <c r="NZ3"/>
+      <c r="OA3"/>
+      <c r="OB3"/>
+      <c r="OC3"/>
+      <c r="OD3"/>
+      <c r="OE3"/>
+      <c r="OF3"/>
+      <c r="OG3"/>
+      <c r="OH3"/>
+      <c r="OI3"/>
+      <c r="OJ3"/>
+      <c r="OK3"/>
+      <c r="OL3"/>
+      <c r="OM3"/>
+      <c r="ON3"/>
+      <c r="OO3"/>
+      <c r="OP3"/>
+      <c r="OQ3"/>
+      <c r="OR3"/>
+      <c r="OS3"/>
+      <c r="OT3"/>
+      <c r="OU3"/>
+      <c r="OV3"/>
+      <c r="OW3"/>
+      <c r="OX3"/>
+      <c r="OY3"/>
+      <c r="OZ3"/>
     </row>
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>6846458a58f41c12bccd7bf7</t>
+          <t>684723f4cd41c01c2437b823</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -3552,214 +4435,226 @@
       </c>
       <c r="H4" s="3" t="inlineStr">
         <is>
+          <t>007</t>
+        </is>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>45659.0</v>
+      </c>
+      <c r="J4" s="3" t="inlineStr">
+        <is>
+          <t>382</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>45659.0</v>
+      </c>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4" s="3" t="inlineStr">
+        <is>
           <t>MasterPolicyNumber</t>
         </is>
       </c>
-      <c r="I4" s="3" t="inlineStr">
+      <c r="O4" s="3" t="inlineStr">
         <is>
           <t>999888777</t>
         </is>
       </c>
-      <c r="J4" s="3" t="inlineStr">
+      <c r="P4" s="3" t="inlineStr">
         <is>
           <t>Sponsor</t>
         </is>
       </c>
-      <c r="K4" s="3" t="inlineStr">
+      <c r="Q4" s="3" t="inlineStr">
         <is>
           <t>654456654</t>
         </is>
       </c>
-      <c r="L4" s="3" t="inlineStr">
+      <c r="R4" s="3" t="inlineStr">
         <is>
           <t>Insurer</t>
         </is>
       </c>
-      <c r="M4" s="3" t="inlineStr">
+      <c r="S4" s="3" t="inlineStr">
         <is>
           <t>tpaID</t>
         </is>
       </c>
-      <c r="N4" s="3" t="inlineStr">
+      <c r="T4" s="3" t="inlineStr">
         <is>
           <t>TPA</t>
         </is>
       </c>
-      <c r="O4" s="3" t="inlineStr">
+      <c r="U4" s="3" t="inlineStr">
         <is>
           <t>account1</t>
         </is>
       </c>
-      <c r="P4" s="3" t="inlineStr">
+      <c r="V4" s="3" t="inlineStr">
         <is>
           <t>account2</t>
         </is>
       </c>
-      <c r="Q4" s="3" t="inlineStr">
+      <c r="W4" s="3" t="inlineStr">
         <is>
           <t>tpa2ID</t>
         </is>
       </c>
-      <c r="R4" s="3" t="inlineStr">
+      <c r="X4" s="3" t="inlineStr">
         <is>
           <t>TPA2</t>
         </is>
       </c>
-      <c r="S4"/>
-      <c r="T4"/>
-      <c r="U4" s="3" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="V4" s="3" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="W4" s="3" t="inlineStr">
-        <is>
-          <t>021</t>
-        </is>
-      </c>
-      <c r="X4" s="3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="Y4" s="3" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
+      <c r="Y4"/>
       <c r="Z4"/>
       <c r="AA4" s="3" t="inlineStr">
         <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AB4" s="3" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="AC4" s="3" t="inlineStr">
+        <is>
+          <t>021</t>
+        </is>
+      </c>
+      <c r="AD4" s="3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AE4" s="3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AF4"/>
+      <c r="AG4" s="3" t="inlineStr">
+        <is>
           <t>FT</t>
-        </is>
-      </c>
-      <c r="AB4"/>
-      <c r="AC4"/>
-      <c r="AD4"/>
-      <c r="AE4"/>
-      <c r="AF4" s="3" t="inlineStr">
-        <is>
-          <t>member2</t>
-        </is>
-      </c>
-      <c r="AG4" s="3" t="inlineStr">
-        <is>
-          <t>group2</t>
         </is>
       </c>
       <c r="AH4"/>
       <c r="AI4"/>
       <c r="AJ4"/>
       <c r="AK4"/>
-      <c r="AL4"/>
-      <c r="AM4"/>
+      <c r="AL4" s="3" t="inlineStr">
+        <is>
+          <t>member2</t>
+        </is>
+      </c>
+      <c r="AM4" s="3" t="inlineStr">
+        <is>
+          <t>group2</t>
+        </is>
+      </c>
       <c r="AN4"/>
       <c r="AO4"/>
       <c r="AP4"/>
       <c r="AQ4"/>
-      <c r="AR4" s="3" t="inlineStr">
-        <is>
-          <t>356</t>
-        </is>
-      </c>
-      <c r="AS4" s="4" t="n">
-        <v>35076.0</v>
-      </c>
+      <c r="AR4"/>
+      <c r="AS4"/>
       <c r="AT4"/>
       <c r="AU4"/>
       <c r="AV4"/>
       <c r="AW4"/>
-      <c r="AX4"/>
-      <c r="AY4"/>
+      <c r="AX4" s="3" t="inlineStr">
+        <is>
+          <t>356</t>
+        </is>
+      </c>
+      <c r="AY4" s="4" t="n">
+        <v>35076.0</v>
+      </c>
       <c r="AZ4"/>
       <c r="BA4"/>
-      <c r="BB4" s="3" t="inlineStr">
+      <c r="BB4"/>
+      <c r="BC4"/>
+      <c r="BD4"/>
+      <c r="BE4"/>
+      <c r="BF4"/>
+      <c r="BG4"/>
+      <c r="BH4" s="3" t="inlineStr">
         <is>
           <t>INSURED_SUBSCRIBER</t>
         </is>
       </c>
-      <c r="BC4" s="3" t="inlineStr">
+      <c r="BI4" s="3" t="inlineStr">
         <is>
           <t>SSN</t>
         </is>
       </c>
-      <c r="BD4" s="3" t="inlineStr">
+      <c r="BJ4" s="3" t="inlineStr">
         <is>
           <t>202443309</t>
         </is>
       </c>
-      <c r="BE4"/>
-      <c r="BF4" s="3" t="inlineStr">
+      <c r="BK4"/>
+      <c r="BL4" s="3" t="inlineStr">
         <is>
           <t>SMITH</t>
         </is>
       </c>
-      <c r="BG4" s="3" t="inlineStr">
+      <c r="BM4" s="3" t="inlineStr">
         <is>
           <t>Jane</t>
         </is>
       </c>
-      <c r="BH4"/>
-      <c r="BI4" s="4" t="n">
+      <c r="BN4"/>
+      <c r="BO4" s="4" t="n">
         <v>25733.0</v>
       </c>
-      <c r="BJ4" s="3" t="inlineStr">
+      <c r="BP4" s="3" t="inlineStr">
         <is>
           <t>MALE</t>
         </is>
       </c>
-      <c r="BK4" s="3" t="inlineStr">
+      <c r="BQ4" s="3" t="inlineStr">
         <is>
           <t>1715 SOUTHWIND AVENUE</t>
         </is>
       </c>
-      <c r="BL4"/>
-      <c r="BM4" s="3" t="inlineStr">
+      <c r="BR4"/>
+      <c r="BS4" s="3" t="inlineStr">
         <is>
           <t>ANYTOWN</t>
         </is>
       </c>
-      <c r="BN4" s="3" t="inlineStr">
+      <c r="BT4" s="3" t="inlineStr">
         <is>
           <t>PA</t>
         </is>
       </c>
-      <c r="BO4" s="3" t="inlineStr">
+      <c r="BU4" s="3" t="inlineStr">
         <is>
           <t>171110000</t>
         </is>
       </c>
-      <c r="BP4" s="3" t="inlineStr">
+      <c r="BV4" s="3" t="inlineStr">
         <is>
           <t>HOME_PHONE</t>
         </is>
       </c>
-      <c r="BQ4" s="3" t="inlineStr">
+      <c r="BW4" s="3" t="inlineStr">
         <is>
           <t>7172343334</t>
         </is>
       </c>
-      <c r="BR4" s="3" t="inlineStr">
+      <c r="BX4" s="3" t="inlineStr">
         <is>
           <t>WORK_PHONE</t>
         </is>
       </c>
-      <c r="BS4" s="3" t="inlineStr">
+      <c r="BY4" s="3" t="inlineStr">
         <is>
           <t>7172341240</t>
         </is>
       </c>
-      <c r="BT4"/>
-      <c r="BU4"/>
-      <c r="BV4"/>
-      <c r="BW4"/>
-      <c r="BX4"/>
-      <c r="BY4"/>
       <c r="BZ4"/>
       <c r="CA4"/>
       <c r="CB4"/>
@@ -3918,27 +4813,13 @@
       <c r="HY4"/>
       <c r="HZ4"/>
       <c r="IA4"/>
-      <c r="IB4" s="3" t="inlineStr">
-        <is>
-          <t>021</t>
-        </is>
-      </c>
-      <c r="IC4" s="3" t="inlineStr">
-        <is>
-          <t>HMO</t>
-        </is>
-      </c>
+      <c r="IB4"/>
+      <c r="IC4"/>
       <c r="ID4"/>
       <c r="IE4"/>
       <c r="IF4"/>
-      <c r="IG4" s="3" t="inlineStr">
-        <is>
-          <t>348</t>
-        </is>
-      </c>
-      <c r="IH4" s="4" t="n">
-        <v>35217.0</v>
-      </c>
+      <c r="IG4"/>
+      <c r="IH4"/>
       <c r="II4"/>
       <c r="IJ4"/>
       <c r="IK4"/>
@@ -3955,40 +4836,34 @@
       <c r="IV4"/>
       <c r="IW4"/>
       <c r="IX4"/>
-      <c r="IY4"/>
-      <c r="IZ4"/>
+      <c r="IY4" s="3" t="inlineStr">
+        <is>
+          <t>021</t>
+        </is>
+      </c>
+      <c r="IZ4" s="3" t="inlineStr">
+        <is>
+          <t>HMO</t>
+        </is>
+      </c>
       <c r="JA4"/>
       <c r="JB4"/>
       <c r="JC4"/>
-      <c r="JD4"/>
-      <c r="JE4"/>
+      <c r="JD4" s="3" t="inlineStr">
+        <is>
+          <t>348</t>
+        </is>
+      </c>
+      <c r="JE4" s="4" t="n">
+        <v>35217.0</v>
+      </c>
       <c r="JF4"/>
       <c r="JG4"/>
-      <c r="JH4" s="3" t="inlineStr">
-        <is>
-          <t>PRIMARY_CARE</t>
-        </is>
-      </c>
-      <c r="JI4" s="3" t="inlineStr">
-        <is>
-          <t>INDIVIDUAL</t>
-        </is>
-      </c>
-      <c r="JJ4" s="3" t="inlineStr">
-        <is>
-          <t>143766</t>
-        </is>
-      </c>
-      <c r="JK4" s="3" t="inlineStr">
-        <is>
-          <t>BROWN</t>
-        </is>
-      </c>
-      <c r="JL4" s="3" t="inlineStr">
-        <is>
-          <t>BERNARD</t>
-        </is>
-      </c>
+      <c r="JH4"/>
+      <c r="JI4"/>
+      <c r="JJ4"/>
+      <c r="JK4"/>
+      <c r="JL4"/>
       <c r="JM4"/>
       <c r="JN4"/>
       <c r="JO4"/>
@@ -3999,19 +4874,9 @@
       <c r="JT4"/>
       <c r="JU4"/>
       <c r="JV4"/>
-      <c r="JW4" s="3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="JX4" s="4" t="n">
-        <v>45413.0</v>
-      </c>
-      <c r="JY4" s="3" t="inlineStr">
-        <is>
-          <t>AI</t>
-        </is>
-      </c>
+      <c r="JW4"/>
+      <c r="JX4"/>
+      <c r="JY4"/>
       <c r="JZ4"/>
       <c r="KA4"/>
       <c r="KB4"/>
@@ -4021,11 +4886,31 @@
       <c r="KF4"/>
       <c r="KG4"/>
       <c r="KH4"/>
-      <c r="KI4"/>
-      <c r="KJ4"/>
-      <c r="KK4"/>
-      <c r="KL4"/>
-      <c r="KM4"/>
+      <c r="KI4" s="3" t="inlineStr">
+        <is>
+          <t>PRIMARY_CARE</t>
+        </is>
+      </c>
+      <c r="KJ4" s="3" t="inlineStr">
+        <is>
+          <t>INDIVIDUAL</t>
+        </is>
+      </c>
+      <c r="KK4" s="3" t="inlineStr">
+        <is>
+          <t>143766</t>
+        </is>
+      </c>
+      <c r="KL4" s="3" t="inlineStr">
+        <is>
+          <t>BROWN</t>
+        </is>
+      </c>
+      <c r="KM4" s="3" t="inlineStr">
+        <is>
+          <t>BERNARD</t>
+        </is>
+      </c>
       <c r="KN4"/>
       <c r="KO4"/>
       <c r="KP4"/>
@@ -4036,9 +4921,19 @@
       <c r="KU4"/>
       <c r="KV4"/>
       <c r="KW4"/>
-      <c r="KX4"/>
-      <c r="KY4"/>
-      <c r="KZ4"/>
+      <c r="KX4" s="3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="KY4" s="4" t="n">
+        <v>45413.0</v>
+      </c>
+      <c r="KZ4" s="3" t="inlineStr">
+        <is>
+          <t>AI</t>
+        </is>
+      </c>
       <c r="LA4"/>
       <c r="LB4"/>
       <c r="LC4"/>
@@ -4048,11 +4943,106 @@
       <c r="LG4"/>
       <c r="LH4"/>
       <c r="LI4"/>
+      <c r="LJ4"/>
+      <c r="LK4"/>
+      <c r="LL4"/>
+      <c r="LM4"/>
+      <c r="LN4"/>
+      <c r="LO4"/>
+      <c r="LP4"/>
+      <c r="LQ4"/>
+      <c r="LR4"/>
+      <c r="LS4"/>
+      <c r="LT4"/>
+      <c r="LU4"/>
+      <c r="LV4"/>
+      <c r="LW4"/>
+      <c r="LX4"/>
+      <c r="LY4"/>
+      <c r="LZ4"/>
+      <c r="MA4"/>
+      <c r="MB4"/>
+      <c r="MC4"/>
+      <c r="MD4"/>
+      <c r="ME4"/>
+      <c r="MF4"/>
+      <c r="MG4"/>
+      <c r="MH4"/>
+      <c r="MI4"/>
+      <c r="MJ4"/>
+      <c r="MK4"/>
+      <c r="ML4"/>
+      <c r="MM4"/>
+      <c r="MN4"/>
+      <c r="MO4"/>
+      <c r="MP4"/>
+      <c r="MQ4"/>
+      <c r="MR4"/>
+      <c r="MS4"/>
+      <c r="MT4"/>
+      <c r="MU4"/>
+      <c r="MV4"/>
+      <c r="MW4"/>
+      <c r="MX4"/>
+      <c r="MY4"/>
+      <c r="MZ4"/>
+      <c r="NA4"/>
+      <c r="NB4"/>
+      <c r="NC4"/>
+      <c r="ND4"/>
+      <c r="NE4"/>
+      <c r="NF4"/>
+      <c r="NG4"/>
+      <c r="NH4"/>
+      <c r="NI4"/>
+      <c r="NJ4"/>
+      <c r="NK4"/>
+      <c r="NL4"/>
+      <c r="NM4"/>
+      <c r="NN4"/>
+      <c r="NO4"/>
+      <c r="NP4"/>
+      <c r="NQ4"/>
+      <c r="NR4"/>
+      <c r="NS4"/>
+      <c r="NT4"/>
+      <c r="NU4"/>
+      <c r="NV4"/>
+      <c r="NW4"/>
+      <c r="NX4"/>
+      <c r="NY4"/>
+      <c r="NZ4"/>
+      <c r="OA4"/>
+      <c r="OB4"/>
+      <c r="OC4"/>
+      <c r="OD4"/>
+      <c r="OE4"/>
+      <c r="OF4"/>
+      <c r="OG4"/>
+      <c r="OH4"/>
+      <c r="OI4"/>
+      <c r="OJ4"/>
+      <c r="OK4"/>
+      <c r="OL4"/>
+      <c r="OM4"/>
+      <c r="ON4"/>
+      <c r="OO4"/>
+      <c r="OP4"/>
+      <c r="OQ4"/>
+      <c r="OR4"/>
+      <c r="OS4"/>
+      <c r="OT4"/>
+      <c r="OU4"/>
+      <c r="OV4"/>
+      <c r="OW4"/>
+      <c r="OX4"/>
+      <c r="OY4"/>
+      <c r="OZ4"/>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>6846458a58f41c12bccd7bf8</t>
+          <t>684723f4cd41c01c2437b824</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
@@ -4085,212 +5075,212 @@
           <t>2</t>
         </is>
       </c>
-      <c r="H5" s="3" t="inlineStr">
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5" s="3" t="inlineStr">
         <is>
           <t>MasterPolicyNumbe2</t>
         </is>
       </c>
-      <c r="I5" s="3" t="inlineStr">
+      <c r="O5" s="3" t="inlineStr">
         <is>
           <t>999888777</t>
         </is>
       </c>
-      <c r="J5" s="3" t="inlineStr">
+      <c r="P5" s="3" t="inlineStr">
         <is>
           <t>Sponsor2</t>
         </is>
       </c>
-      <c r="K5" s="3" t="inlineStr">
+      <c r="Q5" s="3" t="inlineStr">
         <is>
           <t>654456654</t>
         </is>
       </c>
-      <c r="L5" s="3" t="inlineStr">
+      <c r="R5" s="3" t="inlineStr">
         <is>
           <t>Insurer2</t>
         </is>
       </c>
-      <c r="M5"/>
-      <c r="N5"/>
-      <c r="O5"/>
-      <c r="P5"/>
-      <c r="Q5"/>
-      <c r="R5"/>
       <c r="S5"/>
       <c r="T5"/>
-      <c r="U5" s="3" t="inlineStr">
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
+      <c r="X5"/>
+      <c r="Y5"/>
+      <c r="Z5"/>
+      <c r="AA5" s="3" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="V5" s="3" t="inlineStr">
+      <c r="AB5" s="3" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="W5" s="3" t="inlineStr">
+      <c r="AC5" s="3" t="inlineStr">
         <is>
           <t>021</t>
         </is>
       </c>
-      <c r="X5" s="3" t="inlineStr">
+      <c r="AD5" s="3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="Y5" s="3" t="inlineStr">
+      <c r="AE5" s="3" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="Z5" s="3" t="inlineStr">
+      <c r="AF5" s="3" t="inlineStr">
         <is>
           <t>CE</t>
         </is>
       </c>
-      <c r="AA5" s="3" t="inlineStr">
+      <c r="AG5" s="3" t="inlineStr">
         <is>
           <t>FT</t>
         </is>
       </c>
-      <c r="AB5" s="3" t="inlineStr">
+      <c r="AH5" s="3" t="inlineStr">
         <is>
           <t>ST</t>
         </is>
       </c>
-      <c r="AC5" s="3" t="inlineStr">
+      <c r="AI5" s="3" t="inlineStr">
         <is>
           <t>Y</t>
-        </is>
-      </c>
-      <c r="AD5"/>
-      <c r="AE5"/>
-      <c r="AF5" s="3" t="inlineStr">
-        <is>
-          <t>member3</t>
-        </is>
-      </c>
-      <c r="AG5" s="3" t="inlineStr">
-        <is>
-          <t>group3</t>
-        </is>
-      </c>
-      <c r="AH5" s="3" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="AI5" s="3" t="inlineStr">
-        <is>
-          <t>ClientNumber3</t>
         </is>
       </c>
       <c r="AJ5"/>
       <c r="AK5"/>
-      <c r="AL5"/>
-      <c r="AM5"/>
-      <c r="AN5"/>
-      <c r="AO5"/>
+      <c r="AL5" s="3" t="inlineStr">
+        <is>
+          <t>member3</t>
+        </is>
+      </c>
+      <c r="AM5" s="3" t="inlineStr">
+        <is>
+          <t>group3</t>
+        </is>
+      </c>
+      <c r="AN5" s="3" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="AO5" s="3" t="inlineStr">
+        <is>
+          <t>ClientNumber3</t>
+        </is>
+      </c>
       <c r="AP5"/>
       <c r="AQ5"/>
-      <c r="AR5" s="3" t="inlineStr">
-        <is>
-          <t>356</t>
-        </is>
-      </c>
-      <c r="AS5" s="4" t="n">
-        <v>35076.0</v>
-      </c>
+      <c r="AR5"/>
+      <c r="AS5"/>
       <c r="AT5"/>
       <c r="AU5"/>
       <c r="AV5"/>
       <c r="AW5"/>
-      <c r="AX5"/>
-      <c r="AY5"/>
+      <c r="AX5" s="3" t="inlineStr">
+        <is>
+          <t>356</t>
+        </is>
+      </c>
+      <c r="AY5" s="4" t="n">
+        <v>35076.0</v>
+      </c>
       <c r="AZ5"/>
       <c r="BA5"/>
-      <c r="BB5" s="3" t="inlineStr">
+      <c r="BB5"/>
+      <c r="BC5"/>
+      <c r="BD5"/>
+      <c r="BE5"/>
+      <c r="BF5"/>
+      <c r="BG5"/>
+      <c r="BH5" s="3" t="inlineStr">
         <is>
           <t>INSURED_SUBSCRIBER</t>
         </is>
       </c>
-      <c r="BC5" s="3" t="inlineStr">
+      <c r="BI5" s="3" t="inlineStr">
         <is>
           <t>SSN</t>
         </is>
       </c>
-      <c r="BD5" s="3" t="inlineStr">
+      <c r="BJ5" s="3" t="inlineStr">
         <is>
           <t>202443307</t>
         </is>
       </c>
-      <c r="BE5"/>
-      <c r="BF5" s="3" t="inlineStr">
+      <c r="BK5"/>
+      <c r="BL5" s="3" t="inlineStr">
         <is>
           <t>SMITH</t>
         </is>
       </c>
-      <c r="BG5" s="3" t="inlineStr">
+      <c r="BM5" s="3" t="inlineStr">
         <is>
           <t>WILLIAM</t>
         </is>
       </c>
-      <c r="BH5"/>
-      <c r="BI5" s="4" t="n">
+      <c r="BN5"/>
+      <c r="BO5" s="4" t="n">
         <v>25733.0</v>
       </c>
-      <c r="BJ5" s="3" t="inlineStr">
+      <c r="BP5" s="3" t="inlineStr">
         <is>
           <t>MALE</t>
         </is>
       </c>
-      <c r="BK5" s="3" t="inlineStr">
+      <c r="BQ5" s="3" t="inlineStr">
         <is>
           <t>1715 SOUTHWIND AVENUE</t>
         </is>
       </c>
-      <c r="BL5"/>
-      <c r="BM5" s="3" t="inlineStr">
+      <c r="BR5"/>
+      <c r="BS5" s="3" t="inlineStr">
         <is>
           <t>ANYTOWN</t>
         </is>
       </c>
-      <c r="BN5" s="3" t="inlineStr">
+      <c r="BT5" s="3" t="inlineStr">
         <is>
           <t>PA</t>
         </is>
       </c>
-      <c r="BO5" s="3" t="inlineStr">
+      <c r="BU5" s="3" t="inlineStr">
         <is>
           <t>171110000</t>
         </is>
       </c>
-      <c r="BP5" s="3" t="inlineStr">
+      <c r="BV5" s="3" t="inlineStr">
         <is>
           <t>HOME_PHONE</t>
         </is>
       </c>
-      <c r="BQ5" s="3" t="inlineStr">
+      <c r="BW5" s="3" t="inlineStr">
         <is>
           <t>7172343334</t>
         </is>
       </c>
-      <c r="BR5" s="3" t="inlineStr">
+      <c r="BX5" s="3" t="inlineStr">
         <is>
           <t>WORK_PHONE</t>
         </is>
       </c>
-      <c r="BS5" s="3" t="inlineStr">
+      <c r="BY5" s="3" t="inlineStr">
         <is>
           <t>7172341240</t>
         </is>
       </c>
-      <c r="BT5"/>
-      <c r="BU5"/>
-      <c r="BV5"/>
-      <c r="BW5"/>
-      <c r="BX5"/>
-      <c r="BY5"/>
       <c r="BZ5"/>
       <c r="CA5"/>
       <c r="CB5"/>
@@ -4301,14 +5291,8 @@
       <c r="CG5"/>
       <c r="CH5"/>
       <c r="CI5"/>
-      <c r="CJ5" s="3" t="inlineStr">
-        <is>
-          <t>D2</t>
-        </is>
-      </c>
-      <c r="CK5" s="1" t="n">
-        <v>100.0</v>
-      </c>
+      <c r="CJ5"/>
+      <c r="CK5"/>
       <c r="CL5"/>
       <c r="CM5"/>
       <c r="CN5"/>
@@ -4322,8 +5306,14 @@
       <c r="CV5"/>
       <c r="CW5"/>
       <c r="CX5"/>
-      <c r="CY5"/>
-      <c r="CZ5"/>
+      <c r="CY5" s="3" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
+      <c r="CZ5" s="1" t="n">
+        <v>100.0</v>
+      </c>
       <c r="DA5"/>
       <c r="DB5"/>
       <c r="DC5"/>
@@ -4541,6 +5531,101 @@
       <c r="LG5"/>
       <c r="LH5"/>
       <c r="LI5"/>
+      <c r="LJ5"/>
+      <c r="LK5"/>
+      <c r="LL5"/>
+      <c r="LM5"/>
+      <c r="LN5"/>
+      <c r="LO5"/>
+      <c r="LP5"/>
+      <c r="LQ5"/>
+      <c r="LR5"/>
+      <c r="LS5"/>
+      <c r="LT5"/>
+      <c r="LU5"/>
+      <c r="LV5"/>
+      <c r="LW5"/>
+      <c r="LX5"/>
+      <c r="LY5"/>
+      <c r="LZ5"/>
+      <c r="MA5"/>
+      <c r="MB5"/>
+      <c r="MC5"/>
+      <c r="MD5"/>
+      <c r="ME5"/>
+      <c r="MF5"/>
+      <c r="MG5"/>
+      <c r="MH5"/>
+      <c r="MI5"/>
+      <c r="MJ5"/>
+      <c r="MK5"/>
+      <c r="ML5"/>
+      <c r="MM5"/>
+      <c r="MN5"/>
+      <c r="MO5"/>
+      <c r="MP5"/>
+      <c r="MQ5"/>
+      <c r="MR5"/>
+      <c r="MS5"/>
+      <c r="MT5"/>
+      <c r="MU5"/>
+      <c r="MV5"/>
+      <c r="MW5"/>
+      <c r="MX5"/>
+      <c r="MY5"/>
+      <c r="MZ5"/>
+      <c r="NA5"/>
+      <c r="NB5"/>
+      <c r="NC5"/>
+      <c r="ND5"/>
+      <c r="NE5"/>
+      <c r="NF5"/>
+      <c r="NG5"/>
+      <c r="NH5"/>
+      <c r="NI5"/>
+      <c r="NJ5"/>
+      <c r="NK5"/>
+      <c r="NL5"/>
+      <c r="NM5"/>
+      <c r="NN5"/>
+      <c r="NO5"/>
+      <c r="NP5"/>
+      <c r="NQ5"/>
+      <c r="NR5"/>
+      <c r="NS5"/>
+      <c r="NT5"/>
+      <c r="NU5"/>
+      <c r="NV5"/>
+      <c r="NW5"/>
+      <c r="NX5"/>
+      <c r="NY5"/>
+      <c r="NZ5"/>
+      <c r="OA5"/>
+      <c r="OB5"/>
+      <c r="OC5"/>
+      <c r="OD5"/>
+      <c r="OE5"/>
+      <c r="OF5"/>
+      <c r="OG5"/>
+      <c r="OH5"/>
+      <c r="OI5"/>
+      <c r="OJ5"/>
+      <c r="OK5"/>
+      <c r="OL5"/>
+      <c r="OM5"/>
+      <c r="ON5"/>
+      <c r="OO5"/>
+      <c r="OP5"/>
+      <c r="OQ5"/>
+      <c r="OR5"/>
+      <c r="OS5"/>
+      <c r="OT5"/>
+      <c r="OU5"/>
+      <c r="OV5"/>
+      <c r="OW5"/>
+      <c r="OX5"/>
+      <c r="OY5"/>
+      <c r="OZ5"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/converted_files/834/834-all-fields.xlsx
+++ b/converted_files/834/834-all-fields.xlsx
@@ -59,7 +59,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:OZ5"/>
+  <dimension ref="A1:PD5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -533,1615 +533,1635 @@
       </c>
       <c r="CP1" s="3" t="inlineStr">
         <is>
+          <t>MemberLanguageInfoCodeQualifier</t>
+        </is>
+      </c>
+      <c r="CQ1" s="3" t="inlineStr">
+        <is>
+          <t>MemberLanguageInfoCode</t>
+        </is>
+      </c>
+      <c r="CR1" s="3" t="inlineStr">
+        <is>
+          <t>MemberLanguageInfoLanguageDescription</t>
+        </is>
+      </c>
+      <c r="CS1" s="3" t="inlineStr">
+        <is>
+          <t>MemberLanguageInfoLanguageUseIndicator</t>
+        </is>
+      </c>
+      <c r="CT1" s="3" t="inlineStr">
+        <is>
           <t>IncorrectMemberIdentifier</t>
         </is>
       </c>
-      <c r="CQ1" s="3" t="inlineStr">
+      <c r="CU1" s="3" t="inlineStr">
         <is>
           <t>IncorrectMemberLastName</t>
         </is>
       </c>
-      <c r="CR1" s="3" t="inlineStr">
+      <c r="CV1" s="3" t="inlineStr">
         <is>
           <t>IncorrectMemberFirstName</t>
         </is>
       </c>
-      <c r="CS1" s="3" t="inlineStr">
+      <c r="CW1" s="3" t="inlineStr">
         <is>
           <t>IncorrectMemberMiddleName</t>
         </is>
       </c>
-      <c r="CT1" s="3" t="inlineStr">
+      <c r="CX1" s="3" t="inlineStr">
         <is>
           <t>IncorrectMemberBirthDate</t>
         </is>
       </c>
-      <c r="CU1" s="3" t="inlineStr">
+      <c r="CY1" s="3" t="inlineStr">
         <is>
           <t>IncorrectMemberGender</t>
         </is>
       </c>
-      <c r="CV1" s="3" t="inlineStr">
+      <c r="CZ1" s="3" t="inlineStr">
         <is>
           <t>IncorrectMemberMaritalStatusCode</t>
         </is>
       </c>
-      <c r="CW1" s="3" t="inlineStr">
+      <c r="DA1" s="3" t="inlineStr">
         <is>
           <t>IncorrectMemberEthnicityCode</t>
         </is>
       </c>
-      <c r="CX1" s="3" t="inlineStr">
+      <c r="DB1" s="3" t="inlineStr">
         <is>
           <t>IncorrectMemberCitizenshipCode</t>
         </is>
       </c>
-      <c r="CY1" s="3" t="inlineStr">
+      <c r="DC1" s="3" t="inlineStr">
         <is>
           <t>ContractAmount1QualifierCode</t>
         </is>
       </c>
-      <c r="CZ1" s="3" t="inlineStr">
+      <c r="DD1" s="3" t="inlineStr">
         <is>
           <t>ContractAmount1Amount</t>
         </is>
       </c>
-      <c r="DA1" s="3" t="inlineStr">
+      <c r="DE1" s="3" t="inlineStr">
         <is>
           <t>ContractAmount2QualifierCode</t>
         </is>
       </c>
-      <c r="DB1" s="3" t="inlineStr">
+      <c r="DF1" s="3" t="inlineStr">
         <is>
           <t>ContractAmount2Amount</t>
         </is>
       </c>
-      <c r="DC1" s="3" t="inlineStr">
+      <c r="DG1" s="3" t="inlineStr">
         <is>
           <t>ContractAmount3QualifierCode</t>
         </is>
       </c>
-      <c r="DD1" s="3" t="inlineStr">
+      <c r="DH1" s="3" t="inlineStr">
         <is>
           <t>ContractAmount3Amount</t>
         </is>
       </c>
-      <c r="DE1" s="3" t="inlineStr">
+      <c r="DI1" s="3" t="inlineStr">
         <is>
           <t>ContractAmount4QualifierCode</t>
         </is>
       </c>
-      <c r="DF1" s="3" t="inlineStr">
+      <c r="DJ1" s="3" t="inlineStr">
         <is>
           <t>ContractAmount4Amount</t>
         </is>
       </c>
-      <c r="DG1" s="3" t="inlineStr">
+      <c r="DK1" s="3" t="inlineStr">
         <is>
           <t>ContractAmount5QualifierCode</t>
         </is>
       </c>
-      <c r="DH1" s="3" t="inlineStr">
+      <c r="DL1" s="3" t="inlineStr">
         <is>
           <t>ContractAmount5Amount</t>
         </is>
       </c>
-      <c r="DI1" s="3" t="inlineStr">
+      <c r="DM1" s="3" t="inlineStr">
         <is>
           <t>MailingAddressLine</t>
         </is>
       </c>
-      <c r="DJ1" s="3" t="inlineStr">
+      <c r="DN1" s="3" t="inlineStr">
         <is>
           <t>MailingAddressLine2</t>
         </is>
       </c>
-      <c r="DK1" s="3" t="inlineStr">
+      <c r="DO1" s="3" t="inlineStr">
         <is>
           <t>MailingAddressCity</t>
         </is>
       </c>
-      <c r="DL1" s="3" t="inlineStr">
+      <c r="DP1" s="3" t="inlineStr">
         <is>
           <t>MailingAddressStateCode</t>
         </is>
       </c>
-      <c r="DM1" s="3" t="inlineStr">
+      <c r="DQ1" s="3" t="inlineStr">
         <is>
           <t>MailingAddressZipCode</t>
         </is>
       </c>
-      <c r="DN1" s="3" t="inlineStr">
+      <c r="DR1" s="3" t="inlineStr">
         <is>
           <t>Employer1Identifier</t>
         </is>
       </c>
-      <c r="DO1" s="3" t="inlineStr">
+      <c r="DS1" s="3" t="inlineStr">
         <is>
           <t>Employer1LastNameOrOrgName</t>
         </is>
       </c>
-      <c r="DP1" s="3" t="inlineStr">
+      <c r="DT1" s="3" t="inlineStr">
         <is>
           <t>Employer1FirstName</t>
         </is>
       </c>
-      <c r="DQ1" s="3" t="inlineStr">
+      <c r="DU1" s="3" t="inlineStr">
         <is>
           <t>Employer1MiddleName</t>
         </is>
       </c>
-      <c r="DR1" s="3" t="inlineStr">
+      <c r="DV1" s="3" t="inlineStr">
         <is>
           <t>Employer1AddressLine</t>
         </is>
       </c>
-      <c r="DS1" s="3" t="inlineStr">
+      <c r="DW1" s="3" t="inlineStr">
         <is>
           <t>Employer1AddressLine2</t>
         </is>
       </c>
-      <c r="DT1" s="3" t="inlineStr">
+      <c r="DX1" s="3" t="inlineStr">
         <is>
           <t>Employer1AddressCity</t>
         </is>
       </c>
-      <c r="DU1" s="3" t="inlineStr">
+      <c r="DY1" s="3" t="inlineStr">
         <is>
           <t>Employer1AddressStateCode</t>
         </is>
       </c>
-      <c r="DV1" s="3" t="inlineStr">
+      <c r="DZ1" s="3" t="inlineStr">
         <is>
           <t>Employer1AddressZipCode</t>
         </is>
       </c>
-      <c r="DW1" s="3" t="inlineStr">
+      <c r="EA1" s="3" t="inlineStr">
         <is>
           <t>Employer1ContactContactNumber1Type</t>
         </is>
       </c>
-      <c r="DX1" s="3" t="inlineStr">
+      <c r="EB1" s="3" t="inlineStr">
         <is>
           <t>Employer1ContactContactNumber1Number</t>
         </is>
       </c>
-      <c r="DY1" s="3" t="inlineStr">
+      <c r="EC1" s="3" t="inlineStr">
         <is>
           <t>Employer1ContactContactNumber2Type</t>
         </is>
       </c>
-      <c r="DZ1" s="3" t="inlineStr">
+      <c r="ED1" s="3" t="inlineStr">
         <is>
           <t>Employer1ContactContactNumber2Number</t>
         </is>
       </c>
-      <c r="EA1" s="3" t="inlineStr">
+      <c r="EE1" s="3" t="inlineStr">
         <is>
           <t>Employer2Identifier</t>
         </is>
       </c>
-      <c r="EB1" s="3" t="inlineStr">
+      <c r="EF1" s="3" t="inlineStr">
         <is>
           <t>Employer2LastNameOrOrgName</t>
         </is>
       </c>
-      <c r="EC1" s="3" t="inlineStr">
+      <c r="EG1" s="3" t="inlineStr">
         <is>
           <t>Employer2FirstName</t>
         </is>
       </c>
-      <c r="ED1" s="3" t="inlineStr">
+      <c r="EH1" s="3" t="inlineStr">
         <is>
           <t>Employer2MiddleName</t>
         </is>
       </c>
-      <c r="EE1" s="3" t="inlineStr">
+      <c r="EI1" s="3" t="inlineStr">
         <is>
           <t>Employer2AddressLine</t>
         </is>
       </c>
-      <c r="EF1" s="3" t="inlineStr">
+      <c r="EJ1" s="3" t="inlineStr">
         <is>
           <t>Employer2AddressLine2</t>
         </is>
       </c>
-      <c r="EG1" s="3" t="inlineStr">
+      <c r="EK1" s="3" t="inlineStr">
         <is>
           <t>Employer2AddressCity</t>
         </is>
       </c>
-      <c r="EH1" s="3" t="inlineStr">
+      <c r="EL1" s="3" t="inlineStr">
         <is>
           <t>Employer2AddressStateCode</t>
         </is>
       </c>
-      <c r="EI1" s="3" t="inlineStr">
+      <c r="EM1" s="3" t="inlineStr">
         <is>
           <t>Employer2AddressZipCode</t>
         </is>
       </c>
-      <c r="EJ1" s="3" t="inlineStr">
+      <c r="EN1" s="3" t="inlineStr">
         <is>
           <t>Employer2ContactContactNumber1Type</t>
         </is>
       </c>
-      <c r="EK1" s="3" t="inlineStr">
+      <c r="EO1" s="3" t="inlineStr">
         <is>
           <t>Employer2ContactContactNumber1Number</t>
         </is>
       </c>
-      <c r="EL1" s="3" t="inlineStr">
+      <c r="EP1" s="3" t="inlineStr">
         <is>
           <t>Employer2ContactContactNumber2Type</t>
         </is>
       </c>
-      <c r="EM1" s="3" t="inlineStr">
+      <c r="EQ1" s="3" t="inlineStr">
         <is>
           <t>Employer2ContactContactNumber2Number</t>
         </is>
       </c>
-      <c r="EN1" s="3" t="inlineStr">
+      <c r="ER1" s="3" t="inlineStr">
         <is>
           <t>School1Identifier</t>
         </is>
       </c>
-      <c r="EO1" s="3" t="inlineStr">
+      <c r="ES1" s="3" t="inlineStr">
         <is>
           <t>School1Name</t>
         </is>
       </c>
-      <c r="EP1" s="3" t="inlineStr">
+      <c r="ET1" s="3" t="inlineStr">
         <is>
           <t>School1AddressLine</t>
         </is>
       </c>
-      <c r="EQ1" s="3" t="inlineStr">
+      <c r="EU1" s="3" t="inlineStr">
         <is>
           <t>School1AddressLine2</t>
         </is>
       </c>
-      <c r="ER1" s="3" t="inlineStr">
+      <c r="EV1" s="3" t="inlineStr">
         <is>
           <t>School1AddressCity</t>
         </is>
       </c>
-      <c r="ES1" s="3" t="inlineStr">
+      <c r="EW1" s="3" t="inlineStr">
         <is>
           <t>School1AddressStateCode</t>
         </is>
       </c>
-      <c r="ET1" s="3" t="inlineStr">
+      <c r="EX1" s="3" t="inlineStr">
         <is>
           <t>School1AddressZipCode</t>
         </is>
       </c>
-      <c r="EU1" s="3" t="inlineStr">
+      <c r="EY1" s="3" t="inlineStr">
         <is>
           <t>School1ContactContactNumber1Type</t>
         </is>
       </c>
-      <c r="EV1" s="3" t="inlineStr">
+      <c r="EZ1" s="3" t="inlineStr">
         <is>
           <t>School1ContactContactNumber1Number</t>
         </is>
       </c>
-      <c r="EW1" s="3" t="inlineStr">
+      <c r="FA1" s="3" t="inlineStr">
         <is>
           <t>School1ContactContactNumber2Type</t>
         </is>
       </c>
-      <c r="EX1" s="3" t="inlineStr">
+      <c r="FB1" s="3" t="inlineStr">
         <is>
           <t>School1ContactContactNumber2Number</t>
         </is>
       </c>
-      <c r="EY1" s="3" t="inlineStr">
+      <c r="FC1" s="3" t="inlineStr">
         <is>
           <t>School2Identifier</t>
         </is>
       </c>
-      <c r="EZ1" s="3" t="inlineStr">
+      <c r="FD1" s="3" t="inlineStr">
         <is>
           <t>School2Name</t>
         </is>
       </c>
-      <c r="FA1" s="3" t="inlineStr">
+      <c r="FE1" s="3" t="inlineStr">
         <is>
           <t>School2AddressLine</t>
         </is>
       </c>
-      <c r="FB1" s="3" t="inlineStr">
+      <c r="FF1" s="3" t="inlineStr">
         <is>
           <t>School2AddressLine2</t>
         </is>
       </c>
-      <c r="FC1" s="3" t="inlineStr">
+      <c r="FG1" s="3" t="inlineStr">
         <is>
           <t>School2AddressCity</t>
         </is>
       </c>
-      <c r="FD1" s="3" t="inlineStr">
+      <c r="FH1" s="3" t="inlineStr">
         <is>
           <t>School2AddressStateCode</t>
         </is>
       </c>
-      <c r="FE1" s="3" t="inlineStr">
+      <c r="FI1" s="3" t="inlineStr">
         <is>
           <t>School2AddressZipCode</t>
         </is>
       </c>
-      <c r="FF1" s="3" t="inlineStr">
+      <c r="FJ1" s="3" t="inlineStr">
         <is>
           <t>School2ContactContactNumber1Type</t>
         </is>
       </c>
-      <c r="FG1" s="3" t="inlineStr">
+      <c r="FK1" s="3" t="inlineStr">
         <is>
           <t>School2ContactContactNumber1Number</t>
         </is>
       </c>
-      <c r="FH1" s="3" t="inlineStr">
+      <c r="FL1" s="3" t="inlineStr">
         <is>
           <t>School2ContactContactNumber2Type</t>
         </is>
       </c>
-      <c r="FI1" s="3" t="inlineStr">
+      <c r="FM1" s="3" t="inlineStr">
         <is>
           <t>School2ContactContactNumber2Number</t>
         </is>
       </c>
-      <c r="FJ1" s="3" t="inlineStr">
+      <c r="FN1" s="3" t="inlineStr">
         <is>
           <t>CustodialParentIdentifier</t>
         </is>
       </c>
-      <c r="FK1" s="3" t="inlineStr">
+      <c r="FO1" s="3" t="inlineStr">
         <is>
           <t>CustodialParentLastName</t>
         </is>
       </c>
-      <c r="FL1" s="3" t="inlineStr">
+      <c r="FP1" s="3" t="inlineStr">
         <is>
           <t>CustodialParentFirstName</t>
         </is>
       </c>
-      <c r="FM1" s="3" t="inlineStr">
+      <c r="FQ1" s="3" t="inlineStr">
         <is>
           <t>CustodialParentMiddleName</t>
         </is>
       </c>
-      <c r="FN1" s="3" t="inlineStr">
+      <c r="FR1" s="3" t="inlineStr">
         <is>
           <t>CustodialParentAddressLine</t>
         </is>
       </c>
-      <c r="FO1" s="3" t="inlineStr">
+      <c r="FS1" s="3" t="inlineStr">
         <is>
           <t>CustodialParentAddressLine2</t>
         </is>
       </c>
-      <c r="FP1" s="3" t="inlineStr">
+      <c r="FT1" s="3" t="inlineStr">
         <is>
           <t>CustodialParentAddressCity</t>
         </is>
       </c>
-      <c r="FQ1" s="3" t="inlineStr">
+      <c r="FU1" s="3" t="inlineStr">
         <is>
           <t>CustodialParentAddressStateCode</t>
         </is>
       </c>
-      <c r="FR1" s="3" t="inlineStr">
+      <c r="FV1" s="3" t="inlineStr">
         <is>
           <t>CustodialParentAddressZipCode</t>
         </is>
       </c>
-      <c r="FS1" s="3" t="inlineStr">
+      <c r="FW1" s="3" t="inlineStr">
         <is>
           <t>CustodialParentContactContactNumber1Type</t>
         </is>
       </c>
-      <c r="FT1" s="3" t="inlineStr">
+      <c r="FX1" s="3" t="inlineStr">
         <is>
           <t>CustodialParentContactContactNumber1Number</t>
         </is>
       </c>
-      <c r="FU1" s="3" t="inlineStr">
+      <c r="FY1" s="3" t="inlineStr">
         <is>
           <t>CustodialParentContactContactNumber2Type</t>
         </is>
       </c>
-      <c r="FV1" s="3" t="inlineStr">
+      <c r="FZ1" s="3" t="inlineStr">
         <is>
           <t>CustodialParentContactContactNumber2Number</t>
         </is>
       </c>
-      <c r="FW1" s="3" t="inlineStr">
+      <c r="GA1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson1EntityRole</t>
         </is>
       </c>
-      <c r="FX1" s="3" t="inlineStr">
+      <c r="GB1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson1Identifier</t>
         </is>
       </c>
-      <c r="FY1" s="3" t="inlineStr">
+      <c r="GC1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson1LastName</t>
         </is>
       </c>
-      <c r="FZ1" s="3" t="inlineStr">
+      <c r="GD1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson1FirstName</t>
         </is>
       </c>
-      <c r="GA1" s="3" t="inlineStr">
+      <c r="GE1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson1MiddleName</t>
         </is>
       </c>
-      <c r="GB1" s="3" t="inlineStr">
+      <c r="GF1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson1AddressLine</t>
         </is>
       </c>
-      <c r="GC1" s="3" t="inlineStr">
+      <c r="GG1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson1AddressLine2</t>
         </is>
       </c>
-      <c r="GD1" s="3" t="inlineStr">
+      <c r="GH1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson1AddressCity</t>
         </is>
       </c>
-      <c r="GE1" s="3" t="inlineStr">
+      <c r="GI1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson1AddressStateCode</t>
         </is>
       </c>
-      <c r="GF1" s="3" t="inlineStr">
+      <c r="GJ1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson1AddressZipCode</t>
         </is>
       </c>
-      <c r="GG1" s="3" t="inlineStr">
+      <c r="GK1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson1ContactContactNumber1Type</t>
         </is>
       </c>
-      <c r="GH1" s="3" t="inlineStr">
+      <c r="GL1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson1ContactContactNumber1Number</t>
         </is>
       </c>
-      <c r="GI1" s="3" t="inlineStr">
+      <c r="GM1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson1ContactContactNumber2Type</t>
         </is>
       </c>
-      <c r="GJ1" s="3" t="inlineStr">
+      <c r="GN1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson1ContactContactNumber2Number</t>
         </is>
       </c>
-      <c r="GK1" s="3" t="inlineStr">
+      <c r="GO1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson2EntityRole</t>
         </is>
       </c>
-      <c r="GL1" s="3" t="inlineStr">
+      <c r="GP1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson2Identifier</t>
         </is>
       </c>
-      <c r="GM1" s="3" t="inlineStr">
+      <c r="GQ1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson2LastName</t>
         </is>
       </c>
-      <c r="GN1" s="3" t="inlineStr">
+      <c r="GR1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson2FirstName</t>
         </is>
       </c>
-      <c r="GO1" s="3" t="inlineStr">
+      <c r="GS1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson2MiddleName</t>
         </is>
       </c>
-      <c r="GP1" s="3" t="inlineStr">
+      <c r="GT1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson2AddressLine</t>
         </is>
       </c>
-      <c r="GQ1" s="3" t="inlineStr">
+      <c r="GU1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson2AddressLine2</t>
         </is>
       </c>
-      <c r="GR1" s="3" t="inlineStr">
+      <c r="GV1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson2AddressCity</t>
         </is>
       </c>
-      <c r="GS1" s="3" t="inlineStr">
+      <c r="GW1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson2AddressStateCode</t>
         </is>
       </c>
-      <c r="GT1" s="3" t="inlineStr">
+      <c r="GX1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson2AddressZipCode</t>
         </is>
       </c>
-      <c r="GU1" s="3" t="inlineStr">
+      <c r="GY1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson2ContactContactNumber1Type</t>
         </is>
       </c>
-      <c r="GV1" s="3" t="inlineStr">
+      <c r="GZ1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson2ContactContactNumber1Number</t>
         </is>
       </c>
-      <c r="GW1" s="3" t="inlineStr">
+      <c r="HA1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson2ContactContactNumber2Type</t>
         </is>
       </c>
-      <c r="GX1" s="3" t="inlineStr">
+      <c r="HB1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson2ContactContactNumber2Number</t>
         </is>
       </c>
-      <c r="GY1" s="3" t="inlineStr">
+      <c r="HC1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson3EntityRole</t>
         </is>
       </c>
-      <c r="GZ1" s="3" t="inlineStr">
+      <c r="HD1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson3Identifier</t>
         </is>
       </c>
-      <c r="HA1" s="3" t="inlineStr">
+      <c r="HE1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson3LastName</t>
         </is>
       </c>
-      <c r="HB1" s="3" t="inlineStr">
+      <c r="HF1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson3FirstName</t>
         </is>
       </c>
-      <c r="HC1" s="3" t="inlineStr">
+      <c r="HG1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson3MiddleName</t>
         </is>
       </c>
-      <c r="HD1" s="3" t="inlineStr">
+      <c r="HH1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson3AddressLine</t>
         </is>
       </c>
-      <c r="HE1" s="3" t="inlineStr">
+      <c r="HI1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson3AddressLine2</t>
         </is>
       </c>
-      <c r="HF1" s="3" t="inlineStr">
+      <c r="HJ1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson3AddressCity</t>
         </is>
       </c>
-      <c r="HG1" s="3" t="inlineStr">
+      <c r="HK1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson3AddressStateCode</t>
         </is>
       </c>
-      <c r="HH1" s="3" t="inlineStr">
+      <c r="HL1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson3AddressZipCode</t>
         </is>
       </c>
-      <c r="HI1" s="3" t="inlineStr">
+      <c r="HM1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson3ContactContactNumber1Type</t>
         </is>
       </c>
-      <c r="HJ1" s="3" t="inlineStr">
+      <c r="HN1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson3ContactContactNumber1Number</t>
         </is>
       </c>
-      <c r="HK1" s="3" t="inlineStr">
+      <c r="HO1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson3ContactContactNumber2Type</t>
         </is>
       </c>
-      <c r="HL1" s="3" t="inlineStr">
+      <c r="HP1" s="3" t="inlineStr">
         <is>
           <t>ResponsiblePerson3ContactContactNumber2Number</t>
         </is>
       </c>
-      <c r="HM1" s="3" t="inlineStr">
+      <c r="HQ1" s="3" t="inlineStr">
         <is>
           <t>DropOffLocationLastNameOrOrgName</t>
         </is>
       </c>
-      <c r="HN1" s="3" t="inlineStr">
+      <c r="HR1" s="3" t="inlineStr">
         <is>
           <t>DropOffLocationFirstName</t>
         </is>
       </c>
-      <c r="HO1" s="3" t="inlineStr">
+      <c r="HS1" s="3" t="inlineStr">
         <is>
           <t>DropOffLocationMiddleName</t>
         </is>
       </c>
-      <c r="HP1" s="3" t="inlineStr">
+      <c r="HT1" s="3" t="inlineStr">
         <is>
           <t>DropOffLocationAddressLine</t>
         </is>
       </c>
-      <c r="HQ1" s="3" t="inlineStr">
+      <c r="HU1" s="3" t="inlineStr">
         <is>
           <t>DropOffLocationAddressLine2</t>
         </is>
       </c>
-      <c r="HR1" s="3" t="inlineStr">
+      <c r="HV1" s="3" t="inlineStr">
         <is>
           <t>DropOffLocationAddressCity</t>
         </is>
       </c>
-      <c r="HS1" s="3" t="inlineStr">
+      <c r="HW1" s="3" t="inlineStr">
         <is>
           <t>DropOffLocationAddressStateCode</t>
         </is>
       </c>
-      <c r="HT1" s="3" t="inlineStr">
+      <c r="HX1" s="3" t="inlineStr">
         <is>
           <t>DropOffLocationAddressZipCode</t>
         </is>
       </c>
-      <c r="HU1" s="3" t="inlineStr">
+      <c r="HY1" s="3" t="inlineStr">
         <is>
           <t>Disability1TypeCode</t>
         </is>
       </c>
-      <c r="HV1" s="3" t="inlineStr">
+      <c r="HZ1" s="3" t="inlineStr">
         <is>
           <t>Disability1DiagnosisCode</t>
         </is>
       </c>
-      <c r="HW1" s="3" t="inlineStr">
+      <c r="IA1" s="3" t="inlineStr">
         <is>
           <t>Disability1DateFrom</t>
         </is>
       </c>
-      <c r="HX1" s="3" t="inlineStr">
+      <c r="IB1" s="3" t="inlineStr">
         <is>
           <t>Disability1DateTo</t>
         </is>
       </c>
-      <c r="HY1" s="3" t="inlineStr">
+      <c r="IC1" s="3" t="inlineStr">
         <is>
           <t>Disability2TypeCode</t>
         </is>
       </c>
-      <c r="HZ1" s="3" t="inlineStr">
+      <c r="ID1" s="3" t="inlineStr">
         <is>
           <t>Disability2DiagnosisCode</t>
         </is>
       </c>
-      <c r="IA1" s="3" t="inlineStr">
+      <c r="IE1" s="3" t="inlineStr">
         <is>
           <t>Disability2DateFrom</t>
         </is>
       </c>
-      <c r="IB1" s="3" t="inlineStr">
+      <c r="IF1" s="3" t="inlineStr">
         <is>
           <t>Disability2DateTo</t>
         </is>
       </c>
-      <c r="IC1" s="3" t="inlineStr">
+      <c r="IG1" s="3" t="inlineStr">
         <is>
           <t>Disability3TypeCode</t>
         </is>
       </c>
-      <c r="ID1" s="3" t="inlineStr">
+      <c r="IH1" s="3" t="inlineStr">
         <is>
           <t>Disability3DiagnosisCode</t>
         </is>
       </c>
-      <c r="IE1" s="3" t="inlineStr">
+      <c r="II1" s="3" t="inlineStr">
         <is>
           <t>Disability3DateFrom</t>
         </is>
       </c>
-      <c r="IF1" s="3" t="inlineStr">
+      <c r="IJ1" s="3" t="inlineStr">
         <is>
           <t>Disability3DateTo</t>
         </is>
       </c>
-      <c r="IG1" s="3" t="inlineStr">
+      <c r="IK1" s="3" t="inlineStr">
         <is>
           <t>ReportingCategory1Name</t>
         </is>
       </c>
-      <c r="IH1" s="3" t="inlineStr">
+      <c r="IL1" s="3" t="inlineStr">
         <is>
           <t>ReportingCategory1IdentifierQualifierCode</t>
         </is>
       </c>
-      <c r="II1" s="3" t="inlineStr">
+      <c r="IM1" s="3" t="inlineStr">
         <is>
           <t>ReportingCategory1IdentifierType</t>
         </is>
       </c>
-      <c r="IJ1" s="3" t="inlineStr">
+      <c r="IN1" s="3" t="inlineStr">
         <is>
           <t>ReportingCategory1Identifier</t>
         </is>
       </c>
-      <c r="IK1" s="3" t="inlineStr">
+      <c r="IO1" s="3" t="inlineStr">
         <is>
           <t>ReportingCategory1Date</t>
         </is>
       </c>
-      <c r="IL1" s="3" t="inlineStr">
+      <c r="IP1" s="3" t="inlineStr">
         <is>
           <t>ReportingCategory1DateTo</t>
         </is>
       </c>
-      <c r="IM1" s="3" t="inlineStr">
+      <c r="IQ1" s="3" t="inlineStr">
         <is>
           <t>ReportingCategory2Name</t>
         </is>
       </c>
-      <c r="IN1" s="3" t="inlineStr">
+      <c r="IR1" s="3" t="inlineStr">
         <is>
           <t>ReportingCategory2IdentifierQualifierCode</t>
         </is>
       </c>
-      <c r="IO1" s="3" t="inlineStr">
+      <c r="IS1" s="3" t="inlineStr">
         <is>
           <t>ReportingCategory2IdentifierType</t>
         </is>
       </c>
-      <c r="IP1" s="3" t="inlineStr">
+      <c r="IT1" s="3" t="inlineStr">
         <is>
           <t>ReportingCategory2Identifier</t>
         </is>
       </c>
-      <c r="IQ1" s="3" t="inlineStr">
+      <c r="IU1" s="3" t="inlineStr">
         <is>
           <t>ReportingCategory2Date</t>
         </is>
       </c>
-      <c r="IR1" s="3" t="inlineStr">
+      <c r="IV1" s="3" t="inlineStr">
         <is>
           <t>ReportingCategory2DateTo</t>
         </is>
       </c>
-      <c r="IS1" s="3" t="inlineStr">
+      <c r="IW1" s="3" t="inlineStr">
         <is>
           <t>ReportingCategory3Name</t>
         </is>
       </c>
-      <c r="IT1" s="3" t="inlineStr">
+      <c r="IX1" s="3" t="inlineStr">
         <is>
           <t>ReportingCategory3IdentifierQualifierCode</t>
         </is>
       </c>
-      <c r="IU1" s="3" t="inlineStr">
+      <c r="IY1" s="3" t="inlineStr">
         <is>
           <t>ReportingCategory3IdentifierType</t>
         </is>
       </c>
-      <c r="IV1" s="3" t="inlineStr">
+      <c r="IZ1" s="3" t="inlineStr">
         <is>
           <t>ReportingCategory3Identifier</t>
         </is>
       </c>
-      <c r="IW1" s="3" t="inlineStr">
+      <c r="JA1" s="3" t="inlineStr">
         <is>
           <t>ReportingCategory3Date</t>
         </is>
       </c>
-      <c r="IX1" s="3" t="inlineStr">
+      <c r="JB1" s="3" t="inlineStr">
         <is>
           <t>ReportingCategory3DateTo</t>
         </is>
       </c>
-      <c r="IY1" s="3" t="inlineStr">
+      <c r="JC1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageMaintenanceTypeCode</t>
         </is>
       </c>
-      <c r="IZ1" s="3" t="inlineStr">
+      <c r="JD1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageInsuranceLineCode</t>
         </is>
       </c>
-      <c r="JA1" s="3" t="inlineStr">
+      <c r="JE1" s="3" t="inlineStr">
         <is>
           <t>HealthCoveragePlanDescription</t>
         </is>
       </c>
-      <c r="JB1" s="3" t="inlineStr">
+      <c r="JF1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageCoverageLevelCode</t>
         </is>
       </c>
-      <c r="JC1" s="3" t="inlineStr">
+      <c r="JG1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageLateEnrollmentIndicator</t>
         </is>
       </c>
-      <c r="JD1" s="3" t="inlineStr">
+      <c r="JH1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageCoverageDate1QualifierCode</t>
         </is>
       </c>
-      <c r="JE1" s="3" t="inlineStr">
+      <c r="JI1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageCoverageDate1Date</t>
         </is>
       </c>
-      <c r="JF1" s="3" t="inlineStr">
+      <c r="JJ1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageCoverageDate2QualifierCode</t>
         </is>
       </c>
-      <c r="JG1" s="3" t="inlineStr">
+      <c r="JK1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageCoverageDate2Date</t>
         </is>
       </c>
-      <c r="JH1" s="3" t="inlineStr">
+      <c r="JL1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageCoverageDate3QualifierCode</t>
         </is>
       </c>
-      <c r="JI1" s="3" t="inlineStr">
+      <c r="JM1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageCoverageDate3Date</t>
         </is>
       </c>
-      <c r="JJ1" s="3" t="inlineStr">
+      <c r="JN1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageCoverageDate4QualifierCode</t>
         </is>
       </c>
-      <c r="JK1" s="3" t="inlineStr">
+      <c r="JO1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageCoverageDate4Date</t>
         </is>
       </c>
-      <c r="JL1" s="3" t="inlineStr">
+      <c r="JP1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageCoverageDate5QualifierCode</t>
         </is>
       </c>
-      <c r="JM1" s="3" t="inlineStr">
+      <c r="JQ1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageCoverageDate5Date</t>
         </is>
       </c>
-      <c r="JN1" s="3" t="inlineStr">
+      <c r="JR1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageContractAmount1QualifierCode</t>
         </is>
       </c>
-      <c r="JO1" s="3" t="inlineStr">
+      <c r="JS1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageContractAmount1Amount</t>
         </is>
       </c>
-      <c r="JP1" s="3" t="inlineStr">
+      <c r="JT1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageContractAmount2QualifierCode</t>
         </is>
       </c>
-      <c r="JQ1" s="3" t="inlineStr">
+      <c r="JU1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageContractAmount2Amount</t>
         </is>
       </c>
-      <c r="JR1" s="3" t="inlineStr">
+      <c r="JV1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageContractAmount3QualifierCode</t>
         </is>
       </c>
-      <c r="JS1" s="3" t="inlineStr">
+      <c r="JW1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageContractAmount3Amount</t>
         </is>
       </c>
-      <c r="JT1" s="3" t="inlineStr">
+      <c r="JX1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageGroupOrPolicyNumber1QualifierCode</t>
         </is>
       </c>
-      <c r="JU1" s="3" t="inlineStr">
+      <c r="JY1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageGroupOrPolicyNumber1Identification</t>
         </is>
       </c>
-      <c r="JV1" s="3" t="inlineStr">
+      <c r="JZ1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageGroupOrPolicyNumber2QualifierCode</t>
         </is>
       </c>
-      <c r="JW1" s="3" t="inlineStr">
+      <c r="KA1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageGroupOrPolicyNumber2Identification</t>
         </is>
       </c>
-      <c r="JX1" s="3" t="inlineStr">
+      <c r="KB1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageGroupOrPolicyNumber3QualifierCode</t>
         </is>
       </c>
-      <c r="JY1" s="3" t="inlineStr">
+      <c r="KC1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageGroupOrPolicyNumber3Identification</t>
         </is>
       </c>
-      <c r="JZ1" s="3" t="inlineStr">
+      <c r="KD1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageGroupOrPolicyNumber4QualifierCode</t>
         </is>
       </c>
-      <c r="KA1" s="3" t="inlineStr">
+      <c r="KE1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageGroupOrPolicyNumber4Identification</t>
         </is>
       </c>
-      <c r="KB1" s="3" t="inlineStr">
+      <c r="KF1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageGroupOrPolicyNumber5QualifierCode</t>
         </is>
       </c>
-      <c r="KC1" s="3" t="inlineStr">
+      <c r="KG1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageGroupOrPolicyNumber5Identification</t>
         </is>
       </c>
-      <c r="KD1" s="3" t="inlineStr">
+      <c r="KH1" s="3" t="inlineStr">
         <is>
           <t>HealthCoveragePriorCoverageMonthCount</t>
         </is>
       </c>
-      <c r="KE1" s="3" t="inlineStr">
+      <c r="KI1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageIdCardPlanDesc</t>
         </is>
       </c>
-      <c r="KF1" s="3" t="inlineStr">
+      <c r="KJ1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageIdCardTypeCode</t>
         </is>
       </c>
-      <c r="KG1" s="3" t="inlineStr">
+      <c r="KK1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageIdCardCount</t>
         </is>
       </c>
-      <c r="KH1" s="3" t="inlineStr">
+      <c r="KL1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageIdCardActionCode</t>
         </is>
       </c>
-      <c r="KI1" s="3" t="inlineStr">
+      <c r="KM1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider1EntityRole</t>
         </is>
       </c>
-      <c r="KJ1" s="3" t="inlineStr">
+      <c r="KN1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider1EntityType</t>
         </is>
       </c>
-      <c r="KK1" s="3" t="inlineStr">
+      <c r="KO1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider1Identifier</t>
         </is>
       </c>
-      <c r="KL1" s="3" t="inlineStr">
+      <c r="KP1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider1LastNameOrOrgName</t>
         </is>
       </c>
-      <c r="KM1" s="3" t="inlineStr">
+      <c r="KQ1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider1FirstName</t>
         </is>
       </c>
-      <c r="KN1" s="3" t="inlineStr">
+      <c r="KR1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider1MiddleName</t>
         </is>
       </c>
-      <c r="KO1" s="3" t="inlineStr">
+      <c r="KS1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider1AddressLine</t>
         </is>
       </c>
-      <c r="KP1" s="3" t="inlineStr">
+      <c r="KT1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider1AddressLine2</t>
         </is>
       </c>
-      <c r="KQ1" s="3" t="inlineStr">
+      <c r="KU1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider1AddressCity</t>
         </is>
       </c>
-      <c r="KR1" s="3" t="inlineStr">
+      <c r="KV1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider1AddressStateCode</t>
         </is>
       </c>
-      <c r="KS1" s="3" t="inlineStr">
+      <c r="KW1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider1AddressZipCode</t>
         </is>
       </c>
-      <c r="KT1" s="3" t="inlineStr">
+      <c r="KX1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider1ContactContactNumber1Type</t>
         </is>
       </c>
-      <c r="KU1" s="3" t="inlineStr">
+      <c r="KY1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider1ContactContactNumber1Number</t>
         </is>
       </c>
-      <c r="KV1" s="3" t="inlineStr">
+      <c r="KZ1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider1ContactContactNumber2Type</t>
         </is>
       </c>
-      <c r="KW1" s="3" t="inlineStr">
+      <c r="LA1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider1ContactContactNumber2Number</t>
         </is>
       </c>
-      <c r="KX1" s="3" t="inlineStr">
+      <c r="LB1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider1ChangeReasonActionCode</t>
         </is>
       </c>
-      <c r="KY1" s="3" t="inlineStr">
+      <c r="LC1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider1ChangeReasonEffectiveDate</t>
         </is>
       </c>
-      <c r="KZ1" s="3" t="inlineStr">
+      <c r="LD1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider1ChangeReasonReasonCode</t>
         </is>
       </c>
-      <c r="LA1" s="3" t="inlineStr">
+      <c r="LE1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider2EntityRole</t>
         </is>
       </c>
-      <c r="LB1" s="3" t="inlineStr">
+      <c r="LF1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider2EntityType</t>
         </is>
       </c>
-      <c r="LC1" s="3" t="inlineStr">
+      <c r="LG1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider2Identifier</t>
         </is>
       </c>
-      <c r="LD1" s="3" t="inlineStr">
+      <c r="LH1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider2LastNameOrOrgName</t>
         </is>
       </c>
-      <c r="LE1" s="3" t="inlineStr">
+      <c r="LI1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider2FirstName</t>
         </is>
       </c>
-      <c r="LF1" s="3" t="inlineStr">
+      <c r="LJ1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider2MiddleName</t>
         </is>
       </c>
-      <c r="LG1" s="3" t="inlineStr">
+      <c r="LK1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider2AddressLine</t>
         </is>
       </c>
-      <c r="LH1" s="3" t="inlineStr">
+      <c r="LL1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider2AddressLine2</t>
         </is>
       </c>
-      <c r="LI1" s="3" t="inlineStr">
+      <c r="LM1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider2AddressCity</t>
         </is>
       </c>
-      <c r="LJ1" s="3" t="inlineStr">
+      <c r="LN1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider2AddressStateCode</t>
         </is>
       </c>
-      <c r="LK1" s="3" t="inlineStr">
+      <c r="LO1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider2AddressZipCode</t>
         </is>
       </c>
-      <c r="LL1" s="3" t="inlineStr">
+      <c r="LP1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider2ContactContactNumber1Type</t>
         </is>
       </c>
-      <c r="LM1" s="3" t="inlineStr">
+      <c r="LQ1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider2ContactContactNumber1Number</t>
         </is>
       </c>
-      <c r="LN1" s="3" t="inlineStr">
+      <c r="LR1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider2ContactContactNumber2Type</t>
         </is>
       </c>
-      <c r="LO1" s="3" t="inlineStr">
+      <c r="LS1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider2ContactContactNumber2Number</t>
         </is>
       </c>
-      <c r="LP1" s="3" t="inlineStr">
+      <c r="LT1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider2ChangeReasonActionCode</t>
         </is>
       </c>
-      <c r="LQ1" s="3" t="inlineStr">
+      <c r="LU1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider2ChangeReasonEffectiveDate</t>
         </is>
       </c>
-      <c r="LR1" s="3" t="inlineStr">
+      <c r="LV1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider2ChangeReasonReasonCode</t>
         </is>
       </c>
-      <c r="LS1" s="3" t="inlineStr">
+      <c r="LW1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider3EntityRole</t>
         </is>
       </c>
-      <c r="LT1" s="3" t="inlineStr">
+      <c r="LX1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider3EntityType</t>
         </is>
       </c>
-      <c r="LU1" s="3" t="inlineStr">
+      <c r="LY1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider3Identifier</t>
         </is>
       </c>
-      <c r="LV1" s="3" t="inlineStr">
+      <c r="LZ1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider3LastNameOrOrgName</t>
         </is>
       </c>
-      <c r="LW1" s="3" t="inlineStr">
+      <c r="MA1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider3FirstName</t>
         </is>
       </c>
-      <c r="LX1" s="3" t="inlineStr">
+      <c r="MB1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider3MiddleName</t>
         </is>
       </c>
-      <c r="LY1" s="3" t="inlineStr">
+      <c r="MC1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider3AddressLine</t>
         </is>
       </c>
-      <c r="LZ1" s="3" t="inlineStr">
+      <c r="MD1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider3AddressLine2</t>
         </is>
       </c>
-      <c r="MA1" s="3" t="inlineStr">
+      <c r="ME1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider3AddressCity</t>
         </is>
       </c>
-      <c r="MB1" s="3" t="inlineStr">
+      <c r="MF1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider3AddressStateCode</t>
         </is>
       </c>
-      <c r="MC1" s="3" t="inlineStr">
+      <c r="MG1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider3AddressZipCode</t>
         </is>
       </c>
-      <c r="MD1" s="3" t="inlineStr">
+      <c r="MH1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider3ContactContactNumber1Type</t>
         </is>
       </c>
-      <c r="ME1" s="3" t="inlineStr">
+      <c r="MI1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider3ContactContactNumber1Number</t>
         </is>
       </c>
-      <c r="MF1" s="3" t="inlineStr">
+      <c r="MJ1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider3ContactContactNumber2Type</t>
         </is>
       </c>
-      <c r="MG1" s="3" t="inlineStr">
+      <c r="MK1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider3ContactContactNumber2Number</t>
         </is>
       </c>
-      <c r="MH1" s="3" t="inlineStr">
+      <c r="ML1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider3ChangeReasonActionCode</t>
         </is>
       </c>
-      <c r="MI1" s="3" t="inlineStr">
+      <c r="MM1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider3ChangeReasonEffectiveDate</t>
         </is>
       </c>
-      <c r="MJ1" s="3" t="inlineStr">
+      <c r="MN1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageProvider3ChangeReasonReasonCode</t>
         </is>
       </c>
-      <c r="MK1" s="3" t="inlineStr">
+      <c r="MO1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageCob1PayerResponsibilitySequenceCode</t>
         </is>
       </c>
-      <c r="ML1" s="3" t="inlineStr">
+      <c r="MP1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageCob1PayerResponsibilitySequence</t>
         </is>
       </c>
-      <c r="MM1" s="3" t="inlineStr">
+      <c r="MQ1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageCob1GroupOrPolicyNumber</t>
         </is>
       </c>
-      <c r="MN1" s="3" t="inlineStr">
+      <c r="MR1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageCob1CoordinationOfBenefitsCode</t>
         </is>
       </c>
-      <c r="MO1" s="3" t="inlineStr">
+      <c r="MS1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageCob1AdditionalIdentifier1QualifierCode</t>
         </is>
       </c>
-      <c r="MP1" s="3" t="inlineStr">
+      <c r="MT1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageCob1AdditionalIdentifier1Identification</t>
         </is>
       </c>
-      <c r="MQ1" s="3" t="inlineStr">
+      <c r="MU1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageCob1AdditionalIdentifier2QualifierCode</t>
         </is>
       </c>
-      <c r="MR1" s="3" t="inlineStr">
+      <c r="MV1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageCob1AdditionalIdentifier2Identification</t>
         </is>
       </c>
-      <c r="MS1" s="3" t="inlineStr">
+      <c r="MW1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageCob1DateFrom</t>
         </is>
       </c>
-      <c r="MT1" s="3" t="inlineStr">
+      <c r="MX1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageCob1DateTo</t>
         </is>
       </c>
-      <c r="MU1" s="3" t="inlineStr">
+      <c r="MY1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageCob1Insurer1EntityRole</t>
         </is>
       </c>
-      <c r="MV1" s="3" t="inlineStr">
+      <c r="MZ1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageCob1Insurer1Identifier</t>
         </is>
       </c>
-      <c r="MW1" s="3" t="inlineStr">
+      <c r="NA1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageCob1Insurer1Name</t>
         </is>
       </c>
-      <c r="MX1" s="3" t="inlineStr">
+      <c r="NB1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageCob1Insurer1AddressLine</t>
         </is>
       </c>
-      <c r="MY1" s="3" t="inlineStr">
+      <c r="NC1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageCob1Insurer1AddressLine2</t>
         </is>
       </c>
-      <c r="MZ1" s="3" t="inlineStr">
+      <c r="ND1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageCob1Insurer1AddressCity</t>
         </is>
       </c>
-      <c r="NA1" s="3" t="inlineStr">
+      <c r="NE1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageCob1Insurer1AddressStateCode</t>
         </is>
       </c>
-      <c r="NB1" s="3" t="inlineStr">
+      <c r="NF1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageCob1Insurer1AddressZipCode</t>
         </is>
       </c>
-      <c r="NC1" s="3" t="inlineStr">
+      <c r="NG1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageCob1Insurer1ContactContactNumber1Type</t>
         </is>
       </c>
-      <c r="ND1" s="3" t="inlineStr">
+      <c r="NH1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageCob1Insurer1ContactContactNumber1Number</t>
         </is>
       </c>
-      <c r="NE1" s="3" t="inlineStr">
+      <c r="NI1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageCob1Insurer1ContactContactNumber2Type</t>
         </is>
       </c>
-      <c r="NF1" s="3" t="inlineStr">
+      <c r="NJ1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageCob1Insurer1ContactContactNumber2Number</t>
         </is>
       </c>
-      <c r="NG1" s="3" t="inlineStr">
+      <c r="NK1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageCob1Insurer2EntityRole</t>
         </is>
       </c>
-      <c r="NH1" s="3" t="inlineStr">
+      <c r="NL1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageCob1Insurer2Identifier</t>
         </is>
       </c>
-      <c r="NI1" s="3" t="inlineStr">
+      <c r="NM1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageCob1Insurer2Name</t>
         </is>
       </c>
-      <c r="NJ1" s="3" t="inlineStr">
+      <c r="NN1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageCob1Insurer2AddressLine</t>
         </is>
       </c>
-      <c r="NK1" s="3" t="inlineStr">
+      <c r="NO1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageCob1Insurer2AddressLine2</t>
         </is>
       </c>
-      <c r="NL1" s="3" t="inlineStr">
+      <c r="NP1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageCob1Insurer2AddressCity</t>
         </is>
       </c>
-      <c r="NM1" s="3" t="inlineStr">
+      <c r="NQ1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageCob1Insurer2AddressStateCode</t>
         </is>
       </c>
-      <c r="NN1" s="3" t="inlineStr">
+      <c r="NR1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageCob1Insurer2AddressZipCode</t>
         </is>
       </c>
-      <c r="NO1" s="3" t="inlineStr">
+      <c r="NS1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageCob1Insurer2ContactContactNumber1Type</t>
         </is>
       </c>
-      <c r="NP1" s="3" t="inlineStr">
+      <c r="NT1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageCob1Insurer2ContactContactNumber1Number</t>
         </is>
       </c>
-      <c r="NQ1" s="3" t="inlineStr">
+      <c r="NU1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageCob1Insurer2ContactContactNumber2Type</t>
         </is>
       </c>
-      <c r="NR1" s="3" t="inlineStr">
+      <c r="NV1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageCob1Insurer2ContactContactNumber2Number</t>
         </is>
       </c>
-      <c r="NS1" s="3" t="inlineStr">
+      <c r="NW1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageCob2PayerResponsibilitySequenceCode</t>
         </is>
       </c>
-      <c r="NT1" s="3" t="inlineStr">
+      <c r="NX1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageCob2PayerResponsibilitySequence</t>
         </is>
       </c>
-      <c r="NU1" s="3" t="inlineStr">
+      <c r="NY1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageCob2GroupOrPolicyNumber</t>
         </is>
       </c>
-      <c r="NV1" s="3" t="inlineStr">
+      <c r="NZ1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageCob2CoordinationOfBenefitsCode</t>
         </is>
       </c>
-      <c r="NW1" s="3" t="inlineStr">
+      <c r="OA1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageCob2AdditionalIdentifier1QualifierCode</t>
         </is>
       </c>
-      <c r="NX1" s="3" t="inlineStr">
+      <c r="OB1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageCob2AdditionalIdentifier1Identification</t>
         </is>
       </c>
-      <c r="NY1" s="3" t="inlineStr">
+      <c r="OC1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageCob2AdditionalIdentifier2QualifierCode</t>
         </is>
       </c>
-      <c r="NZ1" s="3" t="inlineStr">
+      <c r="OD1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageCob2AdditionalIdentifier2Identification</t>
         </is>
       </c>
-      <c r="OA1" s="3" t="inlineStr">
+      <c r="OE1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageCob2DateFrom</t>
         </is>
       </c>
-      <c r="OB1" s="3" t="inlineStr">
+      <c r="OF1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageCob2DateTo</t>
         </is>
       </c>
-      <c r="OC1" s="3" t="inlineStr">
+      <c r="OG1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageCob2Insurer1EntityRole</t>
         </is>
       </c>
-      <c r="OD1" s="3" t="inlineStr">
+      <c r="OH1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageCob2Insurer1Identifier</t>
         </is>
       </c>
-      <c r="OE1" s="3" t="inlineStr">
+      <c r="OI1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageCob2Insurer1Name</t>
         </is>
       </c>
-      <c r="OF1" s="3" t="inlineStr">
+      <c r="OJ1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageCob2Insurer1AddressLine</t>
         </is>
       </c>
-      <c r="OG1" s="3" t="inlineStr">
+      <c r="OK1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageCob2Insurer1AddressLine2</t>
         </is>
       </c>
-      <c r="OH1" s="3" t="inlineStr">
+      <c r="OL1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageCob2Insurer1AddressCity</t>
         </is>
       </c>
-      <c r="OI1" s="3" t="inlineStr">
+      <c r="OM1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageCob2Insurer1AddressStateCode</t>
         </is>
       </c>
-      <c r="OJ1" s="3" t="inlineStr">
+      <c r="ON1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageCob2Insurer1AddressZipCode</t>
         </is>
       </c>
-      <c r="OK1" s="3" t="inlineStr">
+      <c r="OO1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageCob2Insurer1ContactContactNumber1Type</t>
         </is>
       </c>
-      <c r="OL1" s="3" t="inlineStr">
+      <c r="OP1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageCob2Insurer1ContactContactNumber1Number</t>
         </is>
       </c>
-      <c r="OM1" s="3" t="inlineStr">
+      <c r="OQ1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageCob2Insurer1ContactContactNumber2Type</t>
         </is>
       </c>
-      <c r="ON1" s="3" t="inlineStr">
+      <c r="OR1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageCob2Insurer1ContactContactNumber2Number</t>
         </is>
       </c>
-      <c r="OO1" s="3" t="inlineStr">
+      <c r="OS1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageCob2Insurer2EntityRole</t>
         </is>
       </c>
-      <c r="OP1" s="3" t="inlineStr">
+      <c r="OT1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageCob2Insurer2Identifier</t>
         </is>
       </c>
-      <c r="OQ1" s="3" t="inlineStr">
+      <c r="OU1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageCob2Insurer2Name</t>
         </is>
       </c>
-      <c r="OR1" s="3" t="inlineStr">
+      <c r="OV1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageCob2Insurer2AddressLine</t>
         </is>
       </c>
-      <c r="OS1" s="3" t="inlineStr">
+      <c r="OW1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageCob2Insurer2AddressLine2</t>
         </is>
       </c>
-      <c r="OT1" s="3" t="inlineStr">
+      <c r="OX1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageCob2Insurer2AddressCity</t>
         </is>
       </c>
-      <c r="OU1" s="3" t="inlineStr">
+      <c r="OY1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageCob2Insurer2AddressStateCode</t>
         </is>
       </c>
-      <c r="OV1" s="3" t="inlineStr">
+      <c r="OZ1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageCob2Insurer2AddressZipCode</t>
         </is>
       </c>
-      <c r="OW1" s="3" t="inlineStr">
+      <c r="PA1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageCob2Insurer2ContactContactNumber1Type</t>
         </is>
       </c>
-      <c r="OX1" s="3" t="inlineStr">
+      <c r="PB1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageCob2Insurer2ContactContactNumber1Number</t>
         </is>
       </c>
-      <c r="OY1" s="3" t="inlineStr">
+      <c r="PC1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageCob2Insurer2ContactContactNumber2Type</t>
         </is>
       </c>
-      <c r="OZ1" s="3" t="inlineStr">
+      <c r="PD1" s="3" t="inlineStr">
         <is>
           <t>HealthCoverageCob2Insurer2ContactContactNumber2Number</t>
         </is>
@@ -2150,7 +2170,7 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>684723f4cd41c01c2437b822</t>
+          <t>685d5721e29351212dc46be9</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
@@ -2497,147 +2517,147 @@
       <c r="CO2" t="n">
         <v>210.0</v>
       </c>
-      <c r="CP2" s="3" t="inlineStr">
+      <c r="CP2"/>
+      <c r="CQ2"/>
+      <c r="CR2"/>
+      <c r="CS2"/>
+      <c r="CT2" s="3" t="inlineStr">
         <is>
           <t>202443309</t>
         </is>
       </c>
-      <c r="CQ2" s="3" t="inlineStr">
+      <c r="CU2" s="3" t="inlineStr">
         <is>
           <t>DOE</t>
         </is>
       </c>
-      <c r="CR2" s="3" t="inlineStr">
+      <c r="CV2" s="3" t="inlineStr">
         <is>
           <t>JOE</t>
         </is>
       </c>
-      <c r="CS2"/>
-      <c r="CT2" s="4" t="n">
+      <c r="CW2"/>
+      <c r="CX2" s="4" t="n">
         <v>25733.0</v>
       </c>
-      <c r="CU2" s="3" t="inlineStr">
+      <c r="CY2" s="3" t="inlineStr">
         <is>
           <t>MALE</t>
         </is>
       </c>
-      <c r="CV2" s="3" t="inlineStr">
+      <c r="CZ2" s="3" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="CW2" s="3" t="inlineStr">
+      <c r="DA2" s="3" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="CX2" s="3" t="inlineStr">
+      <c r="DB2" s="3" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="CY2" s="3" t="inlineStr">
+      <c r="DC2" s="3" t="inlineStr">
         <is>
           <t>D2</t>
         </is>
       </c>
-      <c r="CZ2" s="1" t="n">
+      <c r="DD2" s="1" t="n">
         <v>100.0</v>
       </c>
-      <c r="DA2"/>
-      <c r="DB2"/>
-      <c r="DC2"/>
-      <c r="DD2"/>
       <c r="DE2"/>
       <c r="DF2"/>
       <c r="DG2"/>
       <c r="DH2"/>
-      <c r="DI2" s="3" t="inlineStr">
+      <c r="DI2"/>
+      <c r="DJ2"/>
+      <c r="DK2"/>
+      <c r="DL2"/>
+      <c r="DM2" s="3" t="inlineStr">
         <is>
           <t>9715 SOUTHWIND AVENUE</t>
         </is>
       </c>
-      <c r="DJ2"/>
-      <c r="DK2" s="3" t="inlineStr">
+      <c r="DN2"/>
+      <c r="DO2" s="3" t="inlineStr">
         <is>
           <t>ANYTOWN</t>
         </is>
       </c>
-      <c r="DL2" s="3" t="inlineStr">
+      <c r="DP2" s="3" t="inlineStr">
         <is>
           <t>PA</t>
         </is>
       </c>
-      <c r="DM2" s="3" t="inlineStr">
+      <c r="DQ2" s="3" t="inlineStr">
         <is>
           <t>971110000</t>
         </is>
       </c>
-      <c r="DN2" s="3" t="inlineStr">
+      <c r="DR2" s="3" t="inlineStr">
         <is>
           <t>emp1ID</t>
         </is>
       </c>
-      <c r="DO2" s="3" t="inlineStr">
+      <c r="DS2" s="3" t="inlineStr">
         <is>
           <t>EMPLOYER1</t>
         </is>
       </c>
-      <c r="DP2" s="3" t="inlineStr">
+      <c r="DT2" s="3" t="inlineStr">
         <is>
           <t>First</t>
         </is>
       </c>
-      <c r="DQ2" s="3" t="inlineStr">
+      <c r="DU2" s="3" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="DR2" s="3" t="inlineStr">
+      <c r="DV2" s="3" t="inlineStr">
         <is>
           <t>9715 EMPLOYER1 AVENUE</t>
         </is>
       </c>
-      <c r="DS2"/>
-      <c r="DT2" s="3" t="inlineStr">
+      <c r="DW2"/>
+      <c r="DX2" s="3" t="inlineStr">
         <is>
           <t>ANYTOWN</t>
         </is>
       </c>
-      <c r="DU2" s="3" t="inlineStr">
+      <c r="DY2" s="3" t="inlineStr">
         <is>
           <t>PA</t>
         </is>
       </c>
-      <c r="DV2" s="3" t="inlineStr">
+      <c r="DZ2" s="3" t="inlineStr">
         <is>
           <t>971110000</t>
         </is>
       </c>
-      <c r="DW2" s="3" t="inlineStr">
+      <c r="EA2" s="3" t="inlineStr">
         <is>
           <t>HOME_PHONE</t>
         </is>
       </c>
-      <c r="DX2" s="3" t="inlineStr">
+      <c r="EB2" s="3" t="inlineStr">
         <is>
           <t>9172343334</t>
         </is>
       </c>
-      <c r="DY2" s="3" t="inlineStr">
+      <c r="EC2" s="3" t="inlineStr">
         <is>
           <t>WORK_PHONE</t>
         </is>
       </c>
-      <c r="DZ2" s="3" t="inlineStr">
+      <c r="ED2" s="3" t="inlineStr">
         <is>
           <t>9172341240</t>
         </is>
       </c>
-      <c r="EA2"/>
-      <c r="EB2"/>
-      <c r="EC2"/>
-      <c r="ED2"/>
       <c r="EE2"/>
       <c r="EF2"/>
       <c r="EG2"/>
@@ -2648,56 +2668,56 @@
       <c r="EL2"/>
       <c r="EM2"/>
       <c r="EN2"/>
-      <c r="EO2" s="3" t="inlineStr">
+      <c r="EO2"/>
+      <c r="EP2"/>
+      <c r="EQ2"/>
+      <c r="ER2"/>
+      <c r="ES2" s="3" t="inlineStr">
         <is>
           <t>School1</t>
         </is>
       </c>
-      <c r="EP2" s="3" t="inlineStr">
+      <c r="ET2" s="3" t="inlineStr">
         <is>
           <t>9715 SCHOOL AVENUE</t>
         </is>
       </c>
-      <c r="EQ2"/>
-      <c r="ER2" s="3" t="inlineStr">
+      <c r="EU2"/>
+      <c r="EV2" s="3" t="inlineStr">
         <is>
           <t>ANYTOWN</t>
         </is>
       </c>
-      <c r="ES2" s="3" t="inlineStr">
+      <c r="EW2" s="3" t="inlineStr">
         <is>
           <t>PA</t>
         </is>
       </c>
-      <c r="ET2" s="3" t="inlineStr">
+      <c r="EX2" s="3" t="inlineStr">
         <is>
           <t>971110000</t>
         </is>
       </c>
-      <c r="EU2" s="3" t="inlineStr">
+      <c r="EY2" s="3" t="inlineStr">
         <is>
           <t>HOME_PHONE</t>
         </is>
       </c>
-      <c r="EV2" s="3" t="inlineStr">
+      <c r="EZ2" s="3" t="inlineStr">
         <is>
           <t>9172343334</t>
         </is>
       </c>
-      <c r="EW2" s="3" t="inlineStr">
+      <c r="FA2" s="3" t="inlineStr">
         <is>
           <t>WORK_PHONE</t>
         </is>
       </c>
-      <c r="EX2" s="3" t="inlineStr">
+      <c r="FB2" s="3" t="inlineStr">
         <is>
           <t>9172341240</t>
         </is>
       </c>
-      <c r="EY2"/>
-      <c r="EZ2"/>
-      <c r="FA2"/>
-      <c r="FB2"/>
       <c r="FC2"/>
       <c r="FD2"/>
       <c r="FE2"/>
@@ -2705,137 +2725,137 @@
       <c r="FG2"/>
       <c r="FH2"/>
       <c r="FI2"/>
-      <c r="FJ2" s="3" t="inlineStr">
+      <c r="FJ2"/>
+      <c r="FK2"/>
+      <c r="FL2"/>
+      <c r="FM2"/>
+      <c r="FN2" s="3" t="inlineStr">
         <is>
           <t>custodialParentID</t>
         </is>
       </c>
-      <c r="FK2" s="3" t="inlineStr">
+      <c r="FO2" s="3" t="inlineStr">
         <is>
           <t>Custodial</t>
         </is>
       </c>
-      <c r="FL2" s="3" t="inlineStr">
+      <c r="FP2" s="3" t="inlineStr">
         <is>
           <t>Parent</t>
         </is>
       </c>
-      <c r="FM2" s="3" t="inlineStr">
+      <c r="FQ2" s="3" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="FN2" s="3" t="inlineStr">
+      <c r="FR2" s="3" t="inlineStr">
         <is>
           <t>9715 CUSTODIAL AVENUE</t>
         </is>
       </c>
-      <c r="FO2"/>
-      <c r="FP2" s="3" t="inlineStr">
+      <c r="FS2"/>
+      <c r="FT2" s="3" t="inlineStr">
         <is>
           <t>ANYTOWN</t>
         </is>
       </c>
-      <c r="FQ2" s="3" t="inlineStr">
+      <c r="FU2" s="3" t="inlineStr">
         <is>
           <t>PA</t>
         </is>
       </c>
-      <c r="FR2" s="3" t="inlineStr">
+      <c r="FV2" s="3" t="inlineStr">
         <is>
           <t>971110000</t>
         </is>
       </c>
-      <c r="FS2" s="3" t="inlineStr">
+      <c r="FW2" s="3" t="inlineStr">
         <is>
           <t>HOME_PHONE</t>
         </is>
       </c>
-      <c r="FT2" s="3" t="inlineStr">
+      <c r="FX2" s="3" t="inlineStr">
         <is>
           <t>9172343334</t>
         </is>
       </c>
-      <c r="FU2" s="3" t="inlineStr">
+      <c r="FY2" s="3" t="inlineStr">
         <is>
           <t>WORK_PHONE</t>
         </is>
       </c>
-      <c r="FV2" s="3" t="inlineStr">
+      <c r="FZ2" s="3" t="inlineStr">
         <is>
           <t>9172341240</t>
         </is>
       </c>
-      <c r="FW2" s="3" t="inlineStr">
+      <c r="GA2" s="3" t="inlineStr">
         <is>
           <t>RESPONSIBLE_PARTY</t>
         </is>
       </c>
-      <c r="FX2" s="3" t="inlineStr">
+      <c r="GB2" s="3" t="inlineStr">
         <is>
           <t>responsiblePersonID</t>
         </is>
       </c>
-      <c r="FY2" s="3" t="inlineStr">
+      <c r="GC2" s="3" t="inlineStr">
         <is>
           <t>Responsible</t>
         </is>
       </c>
-      <c r="FZ2" s="3" t="inlineStr">
+      <c r="GD2" s="3" t="inlineStr">
         <is>
           <t>Person</t>
         </is>
       </c>
-      <c r="GA2" s="3" t="inlineStr">
+      <c r="GE2" s="3" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="GB2" s="3" t="inlineStr">
+      <c r="GF2" s="3" t="inlineStr">
         <is>
           <t>9715 RESPONSIBLE AVENUE</t>
         </is>
       </c>
-      <c r="GC2"/>
-      <c r="GD2" s="3" t="inlineStr">
+      <c r="GG2"/>
+      <c r="GH2" s="3" t="inlineStr">
         <is>
           <t>ANYTOWN</t>
         </is>
       </c>
-      <c r="GE2" s="3" t="inlineStr">
+      <c r="GI2" s="3" t="inlineStr">
         <is>
           <t>PA</t>
         </is>
       </c>
-      <c r="GF2" s="3" t="inlineStr">
+      <c r="GJ2" s="3" t="inlineStr">
         <is>
           <t>971110000</t>
         </is>
       </c>
-      <c r="GG2" s="3" t="inlineStr">
+      <c r="GK2" s="3" t="inlineStr">
         <is>
           <t>HOME_PHONE</t>
         </is>
       </c>
-      <c r="GH2" s="3" t="inlineStr">
+      <c r="GL2" s="3" t="inlineStr">
         <is>
           <t>9172343334</t>
         </is>
       </c>
-      <c r="GI2" s="3" t="inlineStr">
+      <c r="GM2" s="3" t="inlineStr">
         <is>
           <t>WORK_PHONE</t>
         </is>
       </c>
-      <c r="GJ2" s="3" t="inlineStr">
+      <c r="GN2" s="3" t="inlineStr">
         <is>
           <t>9172341240</t>
         </is>
       </c>
-      <c r="GK2"/>
-      <c r="GL2"/>
-      <c r="GM2"/>
-      <c r="GN2"/>
       <c r="GO2"/>
       <c r="GP2"/>
       <c r="GQ2"/>
@@ -2860,356 +2880,356 @@
       <c r="HJ2"/>
       <c r="HK2"/>
       <c r="HL2"/>
-      <c r="HM2" s="3" t="inlineStr">
-        <is>
-          <t>DropOff</t>
-        </is>
-      </c>
+      <c r="HM2"/>
       <c r="HN2"/>
       <c r="HO2"/>
-      <c r="HP2" s="3" t="inlineStr">
+      <c r="HP2"/>
+      <c r="HQ2" s="3" t="inlineStr">
+        <is>
+          <t>DropOff</t>
+        </is>
+      </c>
+      <c r="HR2"/>
+      <c r="HS2"/>
+      <c r="HT2" s="3" t="inlineStr">
         <is>
           <t>9715 DROPOFF AVENUE</t>
         </is>
       </c>
-      <c r="HQ2"/>
-      <c r="HR2" s="3" t="inlineStr">
+      <c r="HU2"/>
+      <c r="HV2" s="3" t="inlineStr">
         <is>
           <t>ANYTOWN</t>
         </is>
       </c>
-      <c r="HS2" s="3" t="inlineStr">
+      <c r="HW2" s="3" t="inlineStr">
         <is>
           <t>PA</t>
         </is>
       </c>
-      <c r="HT2" s="3" t="inlineStr">
+      <c r="HX2" s="3" t="inlineStr">
         <is>
           <t>971110000</t>
         </is>
       </c>
-      <c r="HU2" s="3" t="inlineStr">
+      <c r="HY2" s="3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="HV2" s="3" t="inlineStr">
+      <c r="HZ2" s="3" t="inlineStr">
         <is>
           <t>585</t>
         </is>
       </c>
-      <c r="HW2" s="4" t="n">
+      <c r="IA2" s="4" t="n">
         <v>45748.0</v>
       </c>
-      <c r="HX2" s="4" t="n">
+      <c r="IB2" s="4" t="n">
         <v>45778.0</v>
       </c>
-      <c r="HY2"/>
-      <c r="HZ2"/>
-      <c r="IA2"/>
-      <c r="IB2"/>
       <c r="IC2"/>
       <c r="ID2"/>
       <c r="IE2"/>
       <c r="IF2"/>
-      <c r="IG2" s="3" t="inlineStr">
+      <c r="IG2"/>
+      <c r="IH2"/>
+      <c r="II2"/>
+      <c r="IJ2"/>
+      <c r="IK2" s="3" t="inlineStr">
         <is>
           <t>SOUTHEASTERN UNION</t>
         </is>
       </c>
-      <c r="IH2" s="3" t="inlineStr">
+      <c r="IL2" s="3" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="II2" s="3" t="inlineStr">
+      <c r="IM2" s="3" t="inlineStr">
         <is>
           <t>UNION_NUMBER</t>
         </is>
       </c>
-      <c r="IJ2" s="3" t="inlineStr">
+      <c r="IN2" s="3" t="inlineStr">
         <is>
           <t>442</t>
         </is>
       </c>
-      <c r="IK2" s="4" t="n">
+      <c r="IO2" s="4" t="n">
         <v>45717.0</v>
       </c>
-      <c r="IL2" s="4" t="n">
+      <c r="IP2" s="4" t="n">
         <v>45808.0</v>
       </c>
-      <c r="IM2" s="3" t="inlineStr">
+      <c r="IQ2" s="3" t="inlineStr">
         <is>
           <t>PAYER2</t>
         </is>
       </c>
-      <c r="IN2" s="3" t="inlineStr">
+      <c r="IR2" s="3" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="IO2" s="3" t="inlineStr">
+      <c r="IS2" s="3" t="inlineStr">
         <is>
           <t>UNION_NUMBER</t>
         </is>
       </c>
-      <c r="IP2" s="3" t="inlineStr">
+      <c r="IT2" s="3" t="inlineStr">
         <is>
           <t>442</t>
         </is>
       </c>
-      <c r="IQ2" s="4" t="n">
+      <c r="IU2" s="4" t="n">
         <v>37987.0</v>
       </c>
-      <c r="IR2"/>
-      <c r="IS2"/>
-      <c r="IT2"/>
-      <c r="IU2"/>
       <c r="IV2"/>
       <c r="IW2"/>
       <c r="IX2"/>
-      <c r="IY2" s="3" t="inlineStr">
+      <c r="IY2"/>
+      <c r="IZ2"/>
+      <c r="JA2"/>
+      <c r="JB2"/>
+      <c r="JC2" s="3" t="inlineStr">
         <is>
           <t>021</t>
         </is>
       </c>
-      <c r="IZ2" s="3" t="inlineStr">
+      <c r="JD2" s="3" t="inlineStr">
         <is>
           <t>HMO</t>
         </is>
       </c>
-      <c r="JA2" s="3" t="inlineStr">
+      <c r="JE2" s="3" t="inlineStr">
         <is>
           <t>PlanDesc</t>
         </is>
       </c>
-      <c r="JB2" s="3" t="inlineStr">
+      <c r="JF2" s="3" t="inlineStr">
         <is>
           <t>FAM</t>
         </is>
       </c>
-      <c r="JC2" s="3" t="inlineStr">
+      <c r="JG2" s="3" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="JD2" s="3" t="inlineStr">
+      <c r="JH2" s="3" t="inlineStr">
         <is>
           <t>348</t>
         </is>
       </c>
-      <c r="JE2" s="4" t="n">
+      <c r="JI2" s="4" t="n">
         <v>35217.0</v>
       </c>
-      <c r="JF2"/>
-      <c r="JG2"/>
-      <c r="JH2"/>
-      <c r="JI2"/>
       <c r="JJ2"/>
       <c r="JK2"/>
       <c r="JL2"/>
       <c r="JM2"/>
-      <c r="JN2" s="3" t="inlineStr">
-        <is>
-          <t>C1</t>
-        </is>
-      </c>
-      <c r="JO2" s="1" t="n">
-        <v>20.0</v>
-      </c>
+      <c r="JN2"/>
+      <c r="JO2"/>
       <c r="JP2"/>
       <c r="JQ2"/>
-      <c r="JR2"/>
-      <c r="JS2"/>
-      <c r="JT2" s="3" t="inlineStr">
-        <is>
-          <t>1L</t>
-        </is>
-      </c>
-      <c r="JU2" s="3" t="inlineStr">
-        <is>
-          <t>PolicyNumber</t>
-        </is>
-      </c>
+      <c r="JR2" s="3" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="JS2" s="1" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="JT2"/>
+      <c r="JU2"/>
       <c r="JV2"/>
       <c r="JW2"/>
-      <c r="JX2"/>
-      <c r="JY2"/>
+      <c r="JX2" s="3" t="inlineStr">
+        <is>
+          <t>1L</t>
+        </is>
+      </c>
+      <c r="JY2" s="3" t="inlineStr">
+        <is>
+          <t>PolicyNumber</t>
+        </is>
+      </c>
       <c r="JZ2"/>
       <c r="KA2"/>
       <c r="KB2"/>
       <c r="KC2"/>
-      <c r="KD2" s="3" t="inlineStr">
+      <c r="KD2"/>
+      <c r="KE2"/>
+      <c r="KF2"/>
+      <c r="KG2"/>
+      <c r="KH2" s="3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="KE2" s="3" t="inlineStr">
+      <c r="KI2" s="3" t="inlineStr">
         <is>
           <t>PlanDesc</t>
         </is>
       </c>
-      <c r="KF2" s="3" t="inlineStr">
+      <c r="KJ2" s="3" t="inlineStr">
         <is>
           <t>H</t>
         </is>
       </c>
-      <c r="KG2" s="2" t="n">
+      <c r="KK2" s="2" t="n">
         <v>5.0</v>
       </c>
-      <c r="KH2" s="3" t="inlineStr">
+      <c r="KL2" s="3" t="inlineStr">
         <is>
           <t>RX</t>
         </is>
       </c>
-      <c r="KI2" s="3" t="inlineStr">
+      <c r="KM2" s="3" t="inlineStr">
         <is>
           <t>PRIMARY_CARE</t>
         </is>
       </c>
-      <c r="KJ2" s="3" t="inlineStr">
+      <c r="KN2" s="3" t="inlineStr">
         <is>
           <t>INDIVIDUAL</t>
         </is>
       </c>
-      <c r="KK2" s="3" t="inlineStr">
+      <c r="KO2" s="3" t="inlineStr">
         <is>
           <t>prov1ID</t>
         </is>
       </c>
-      <c r="KL2" s="3" t="inlineStr">
+      <c r="KP2" s="3" t="inlineStr">
         <is>
           <t>BROWN</t>
         </is>
       </c>
-      <c r="KM2" s="3" t="inlineStr">
+      <c r="KQ2" s="3" t="inlineStr">
         <is>
           <t>BERNARD</t>
         </is>
       </c>
-      <c r="KN2"/>
-      <c r="KO2" s="3" t="inlineStr">
+      <c r="KR2"/>
+      <c r="KS2" s="3" t="inlineStr">
         <is>
           <t>2715 SOUTHWIND AVENUE</t>
         </is>
       </c>
-      <c r="KP2"/>
-      <c r="KQ2" s="3" t="inlineStr">
+      <c r="KT2"/>
+      <c r="KU2" s="3" t="inlineStr">
         <is>
           <t>ANYTOWN</t>
         </is>
       </c>
-      <c r="KR2" s="3" t="inlineStr">
+      <c r="KV2" s="3" t="inlineStr">
         <is>
           <t>PA</t>
         </is>
       </c>
-      <c r="KS2" s="3" t="inlineStr">
+      <c r="KW2" s="3" t="inlineStr">
         <is>
           <t>271110000</t>
         </is>
       </c>
-      <c r="KT2" s="3" t="inlineStr">
+      <c r="KX2" s="3" t="inlineStr">
         <is>
           <t>HOME_PHONE</t>
         </is>
       </c>
-      <c r="KU2" s="3" t="inlineStr">
+      <c r="KY2" s="3" t="inlineStr">
         <is>
           <t>2172343334</t>
         </is>
       </c>
-      <c r="KV2" s="3" t="inlineStr">
+      <c r="KZ2" s="3" t="inlineStr">
         <is>
           <t>WORK_PHONE</t>
         </is>
       </c>
-      <c r="KW2" s="3" t="inlineStr">
+      <c r="LA2" s="3" t="inlineStr">
         <is>
           <t>2172341240</t>
         </is>
       </c>
-      <c r="KX2" s="3" t="inlineStr">
+      <c r="LB2" s="3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="KY2" s="4" t="n">
+      <c r="LC2" s="4" t="n">
         <v>45413.0</v>
       </c>
-      <c r="KZ2" s="3" t="inlineStr">
+      <c r="LD2" s="3" t="inlineStr">
         <is>
           <t>AI</t>
         </is>
       </c>
-      <c r="LA2" s="3" t="inlineStr">
+      <c r="LE2" s="3" t="inlineStr">
         <is>
           <t>MANAGED_CARE</t>
         </is>
       </c>
-      <c r="LB2" s="3" t="inlineStr">
+      <c r="LF2" s="3" t="inlineStr">
         <is>
           <t>INDIVIDUAL</t>
         </is>
       </c>
-      <c r="LC2" s="3" t="inlineStr">
+      <c r="LG2" s="3" t="inlineStr">
         <is>
           <t>943766</t>
         </is>
       </c>
-      <c r="LD2" s="3" t="inlineStr">
+      <c r="LH2" s="3" t="inlineStr">
         <is>
           <t>BROWN</t>
         </is>
       </c>
-      <c r="LE2" s="3" t="inlineStr">
+      <c r="LI2" s="3" t="inlineStr">
         <is>
           <t>BERNARD</t>
         </is>
       </c>
-      <c r="LF2"/>
-      <c r="LG2" s="3" t="inlineStr">
+      <c r="LJ2"/>
+      <c r="LK2" s="3" t="inlineStr">
         <is>
           <t>2715 SOUTHWIND AVENUE</t>
         </is>
       </c>
-      <c r="LH2"/>
-      <c r="LI2" s="3" t="inlineStr">
+      <c r="LL2"/>
+      <c r="LM2" s="3" t="inlineStr">
         <is>
           <t>ANYTOWN</t>
         </is>
       </c>
-      <c r="LJ2" s="3" t="inlineStr">
+      <c r="LN2" s="3" t="inlineStr">
         <is>
           <t>PA</t>
         </is>
       </c>
-      <c r="LK2" s="3" t="inlineStr">
+      <c r="LO2" s="3" t="inlineStr">
         <is>
           <t>271110000</t>
         </is>
       </c>
-      <c r="LL2"/>
-      <c r="LM2"/>
-      <c r="LN2"/>
-      <c r="LO2"/>
-      <c r="LP2" s="3" t="inlineStr">
+      <c r="LP2"/>
+      <c r="LQ2"/>
+      <c r="LR2"/>
+      <c r="LS2"/>
+      <c r="LT2" s="3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="LQ2" s="4" t="n">
+      <c r="LU2" s="4" t="n">
         <v>45047.0</v>
       </c>
-      <c r="LR2" s="3" t="inlineStr">
+      <c r="LV2" s="3" t="inlineStr">
         <is>
           <t>AI</t>
         </is>
       </c>
-      <c r="LS2"/>
-      <c r="LT2"/>
-      <c r="LU2"/>
-      <c r="LV2"/>
       <c r="LW2"/>
       <c r="LX2"/>
       <c r="LY2"/>
@@ -3224,112 +3244,112 @@
       <c r="MH2"/>
       <c r="MI2"/>
       <c r="MJ2"/>
-      <c r="MK2" s="3" t="inlineStr">
+      <c r="MK2"/>
+      <c r="ML2"/>
+      <c r="MM2"/>
+      <c r="MN2"/>
+      <c r="MO2" s="3" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="ML2" s="3" t="inlineStr">
+      <c r="MP2" s="3" t="inlineStr">
         <is>
           <t>PRIMARY</t>
         </is>
       </c>
-      <c r="MM2" s="3" t="inlineStr">
+      <c r="MQ2" s="3" t="inlineStr">
         <is>
           <t>XYZ123</t>
         </is>
       </c>
-      <c r="MN2" s="3" t="inlineStr">
+      <c r="MR2" s="3" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="MO2" s="3" t="inlineStr">
+      <c r="MS2" s="3" t="inlineStr">
         <is>
           <t>6P</t>
         </is>
       </c>
-      <c r="MP2" s="3" t="inlineStr">
+      <c r="MT2" s="3" t="inlineStr">
         <is>
           <t>COB-GroupNumber</t>
         </is>
       </c>
-      <c r="MQ2" s="3" t="inlineStr">
+      <c r="MU2" s="3" t="inlineStr">
         <is>
           <t>SY</t>
         </is>
       </c>
-      <c r="MR2" s="3" t="inlineStr">
+      <c r="MV2" s="3" t="inlineStr">
         <is>
           <t>COB-SSN</t>
         </is>
       </c>
-      <c r="MS2" s="4" t="n">
+      <c r="MW2" s="4" t="n">
         <v>45689.0</v>
       </c>
-      <c r="MT2" s="4" t="n">
+      <c r="MX2" s="4" t="n">
         <v>45716.0</v>
       </c>
-      <c r="MU2" s="3" t="inlineStr">
+      <c r="MY2" s="3" t="inlineStr">
         <is>
           <t>EMPLOYER</t>
         </is>
       </c>
-      <c r="MV2" s="3" t="inlineStr">
+      <c r="MZ2" s="3" t="inlineStr">
         <is>
           <t>COB-EmployerId</t>
         </is>
       </c>
-      <c r="MW2" s="3" t="inlineStr">
+      <c r="NA2" s="3" t="inlineStr">
         <is>
           <t>COB-Employer</t>
         </is>
       </c>
-      <c r="MX2" s="3" t="inlineStr">
+      <c r="NB2" s="3" t="inlineStr">
         <is>
           <t>9715 RESPONSIBLE AVENUE</t>
         </is>
       </c>
-      <c r="MY2"/>
-      <c r="MZ2" s="3" t="inlineStr">
+      <c r="NC2"/>
+      <c r="ND2" s="3" t="inlineStr">
         <is>
           <t>ANYTOWN</t>
         </is>
       </c>
-      <c r="NA2" s="3" t="inlineStr">
+      <c r="NE2" s="3" t="inlineStr">
         <is>
           <t>PA</t>
         </is>
       </c>
-      <c r="NB2" s="3" t="inlineStr">
+      <c r="NF2" s="3" t="inlineStr">
         <is>
           <t>971110000</t>
         </is>
       </c>
-      <c r="NC2" s="3" t="inlineStr">
+      <c r="NG2" s="3" t="inlineStr">
         <is>
           <t>HOME_PHONE</t>
         </is>
       </c>
-      <c r="ND2" s="3" t="inlineStr">
+      <c r="NH2" s="3" t="inlineStr">
         <is>
           <t>9172343334</t>
         </is>
       </c>
-      <c r="NE2" s="3" t="inlineStr">
+      <c r="NI2" s="3" t="inlineStr">
         <is>
           <t>WORK_PHONE</t>
         </is>
       </c>
-      <c r="NF2" s="3" t="inlineStr">
+      <c r="NJ2" s="3" t="inlineStr">
         <is>
           <t>9172341240</t>
         </is>
       </c>
-      <c r="NG2"/>
-      <c r="NH2"/>
-      <c r="NI2"/>
-      <c r="NJ2"/>
       <c r="NK2"/>
       <c r="NL2"/>
       <c r="NM2"/>
@@ -3372,11 +3392,15 @@
       <c r="OX2"/>
       <c r="OY2"/>
       <c r="OZ2"/>
+      <c r="PA2"/>
+      <c r="PB2"/>
+      <c r="PC2"/>
+      <c r="PD2"/>
     </row>
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>684723f4cd41c01c2437b822</t>
+          <t>685d5721e29351212dc46be9</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
@@ -3723,147 +3747,147 @@
       <c r="CO3" t="n">
         <v>210.0</v>
       </c>
-      <c r="CP3" s="3" t="inlineStr">
+      <c r="CP3"/>
+      <c r="CQ3"/>
+      <c r="CR3"/>
+      <c r="CS3"/>
+      <c r="CT3" s="3" t="inlineStr">
         <is>
           <t>202443309</t>
         </is>
       </c>
-      <c r="CQ3" s="3" t="inlineStr">
+      <c r="CU3" s="3" t="inlineStr">
         <is>
           <t>DOE</t>
         </is>
       </c>
-      <c r="CR3" s="3" t="inlineStr">
+      <c r="CV3" s="3" t="inlineStr">
         <is>
           <t>JOE</t>
         </is>
       </c>
-      <c r="CS3"/>
-      <c r="CT3" s="4" t="n">
+      <c r="CW3"/>
+      <c r="CX3" s="4" t="n">
         <v>25733.0</v>
       </c>
-      <c r="CU3" s="3" t="inlineStr">
+      <c r="CY3" s="3" t="inlineStr">
         <is>
           <t>MALE</t>
         </is>
       </c>
-      <c r="CV3" s="3" t="inlineStr">
+      <c r="CZ3" s="3" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="CW3" s="3" t="inlineStr">
+      <c r="DA3" s="3" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="CX3" s="3" t="inlineStr">
+      <c r="DB3" s="3" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="CY3" s="3" t="inlineStr">
+      <c r="DC3" s="3" t="inlineStr">
         <is>
           <t>D2</t>
         </is>
       </c>
-      <c r="CZ3" s="1" t="n">
+      <c r="DD3" s="1" t="n">
         <v>100.0</v>
       </c>
-      <c r="DA3"/>
-      <c r="DB3"/>
-      <c r="DC3"/>
-      <c r="DD3"/>
       <c r="DE3"/>
       <c r="DF3"/>
       <c r="DG3"/>
       <c r="DH3"/>
-      <c r="DI3" s="3" t="inlineStr">
+      <c r="DI3"/>
+      <c r="DJ3"/>
+      <c r="DK3"/>
+      <c r="DL3"/>
+      <c r="DM3" s="3" t="inlineStr">
         <is>
           <t>9715 SOUTHWIND AVENUE</t>
         </is>
       </c>
-      <c r="DJ3"/>
-      <c r="DK3" s="3" t="inlineStr">
+      <c r="DN3"/>
+      <c r="DO3" s="3" t="inlineStr">
         <is>
           <t>ANYTOWN</t>
         </is>
       </c>
-      <c r="DL3" s="3" t="inlineStr">
+      <c r="DP3" s="3" t="inlineStr">
         <is>
           <t>PA</t>
         </is>
       </c>
-      <c r="DM3" s="3" t="inlineStr">
+      <c r="DQ3" s="3" t="inlineStr">
         <is>
           <t>971110000</t>
         </is>
       </c>
-      <c r="DN3" s="3" t="inlineStr">
+      <c r="DR3" s="3" t="inlineStr">
         <is>
           <t>emp1ID</t>
         </is>
       </c>
-      <c r="DO3" s="3" t="inlineStr">
+      <c r="DS3" s="3" t="inlineStr">
         <is>
           <t>EMPLOYER1</t>
         </is>
       </c>
-      <c r="DP3" s="3" t="inlineStr">
+      <c r="DT3" s="3" t="inlineStr">
         <is>
           <t>First</t>
         </is>
       </c>
-      <c r="DQ3" s="3" t="inlineStr">
+      <c r="DU3" s="3" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="DR3" s="3" t="inlineStr">
+      <c r="DV3" s="3" t="inlineStr">
         <is>
           <t>9715 EMPLOYER1 AVENUE</t>
         </is>
       </c>
-      <c r="DS3"/>
-      <c r="DT3" s="3" t="inlineStr">
+      <c r="DW3"/>
+      <c r="DX3" s="3" t="inlineStr">
         <is>
           <t>ANYTOWN</t>
         </is>
       </c>
-      <c r="DU3" s="3" t="inlineStr">
+      <c r="DY3" s="3" t="inlineStr">
         <is>
           <t>PA</t>
         </is>
       </c>
-      <c r="DV3" s="3" t="inlineStr">
+      <c r="DZ3" s="3" t="inlineStr">
         <is>
           <t>971110000</t>
         </is>
       </c>
-      <c r="DW3" s="3" t="inlineStr">
+      <c r="EA3" s="3" t="inlineStr">
         <is>
           <t>HOME_PHONE</t>
         </is>
       </c>
-      <c r="DX3" s="3" t="inlineStr">
+      <c r="EB3" s="3" t="inlineStr">
         <is>
           <t>9172343334</t>
         </is>
       </c>
-      <c r="DY3" s="3" t="inlineStr">
+      <c r="EC3" s="3" t="inlineStr">
         <is>
           <t>WORK_PHONE</t>
         </is>
       </c>
-      <c r="DZ3" s="3" t="inlineStr">
+      <c r="ED3" s="3" t="inlineStr">
         <is>
           <t>9172341240</t>
         </is>
       </c>
-      <c r="EA3"/>
-      <c r="EB3"/>
-      <c r="EC3"/>
-      <c r="ED3"/>
       <c r="EE3"/>
       <c r="EF3"/>
       <c r="EG3"/>
@@ -3874,56 +3898,56 @@
       <c r="EL3"/>
       <c r="EM3"/>
       <c r="EN3"/>
-      <c r="EO3" s="3" t="inlineStr">
+      <c r="EO3"/>
+      <c r="EP3"/>
+      <c r="EQ3"/>
+      <c r="ER3"/>
+      <c r="ES3" s="3" t="inlineStr">
         <is>
           <t>School1</t>
         </is>
       </c>
-      <c r="EP3" s="3" t="inlineStr">
+      <c r="ET3" s="3" t="inlineStr">
         <is>
           <t>9715 SCHOOL AVENUE</t>
         </is>
       </c>
-      <c r="EQ3"/>
-      <c r="ER3" s="3" t="inlineStr">
+      <c r="EU3"/>
+      <c r="EV3" s="3" t="inlineStr">
         <is>
           <t>ANYTOWN</t>
         </is>
       </c>
-      <c r="ES3" s="3" t="inlineStr">
+      <c r="EW3" s="3" t="inlineStr">
         <is>
           <t>PA</t>
         </is>
       </c>
-      <c r="ET3" s="3" t="inlineStr">
+      <c r="EX3" s="3" t="inlineStr">
         <is>
           <t>971110000</t>
         </is>
       </c>
-      <c r="EU3" s="3" t="inlineStr">
+      <c r="EY3" s="3" t="inlineStr">
         <is>
           <t>HOME_PHONE</t>
         </is>
       </c>
-      <c r="EV3" s="3" t="inlineStr">
+      <c r="EZ3" s="3" t="inlineStr">
         <is>
           <t>9172343334</t>
         </is>
       </c>
-      <c r="EW3" s="3" t="inlineStr">
+      <c r="FA3" s="3" t="inlineStr">
         <is>
           <t>WORK_PHONE</t>
         </is>
       </c>
-      <c r="EX3" s="3" t="inlineStr">
+      <c r="FB3" s="3" t="inlineStr">
         <is>
           <t>9172341240</t>
         </is>
       </c>
-      <c r="EY3"/>
-      <c r="EZ3"/>
-      <c r="FA3"/>
-      <c r="FB3"/>
       <c r="FC3"/>
       <c r="FD3"/>
       <c r="FE3"/>
@@ -3931,137 +3955,137 @@
       <c r="FG3"/>
       <c r="FH3"/>
       <c r="FI3"/>
-      <c r="FJ3" s="3" t="inlineStr">
+      <c r="FJ3"/>
+      <c r="FK3"/>
+      <c r="FL3"/>
+      <c r="FM3"/>
+      <c r="FN3" s="3" t="inlineStr">
         <is>
           <t>custodialParentID</t>
         </is>
       </c>
-      <c r="FK3" s="3" t="inlineStr">
+      <c r="FO3" s="3" t="inlineStr">
         <is>
           <t>Custodial</t>
         </is>
       </c>
-      <c r="FL3" s="3" t="inlineStr">
+      <c r="FP3" s="3" t="inlineStr">
         <is>
           <t>Parent</t>
         </is>
       </c>
-      <c r="FM3" s="3" t="inlineStr">
+      <c r="FQ3" s="3" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="FN3" s="3" t="inlineStr">
+      <c r="FR3" s="3" t="inlineStr">
         <is>
           <t>9715 CUSTODIAL AVENUE</t>
         </is>
       </c>
-      <c r="FO3"/>
-      <c r="FP3" s="3" t="inlineStr">
+      <c r="FS3"/>
+      <c r="FT3" s="3" t="inlineStr">
         <is>
           <t>ANYTOWN</t>
         </is>
       </c>
-      <c r="FQ3" s="3" t="inlineStr">
+      <c r="FU3" s="3" t="inlineStr">
         <is>
           <t>PA</t>
         </is>
       </c>
-      <c r="FR3" s="3" t="inlineStr">
+      <c r="FV3" s="3" t="inlineStr">
         <is>
           <t>971110000</t>
         </is>
       </c>
-      <c r="FS3" s="3" t="inlineStr">
+      <c r="FW3" s="3" t="inlineStr">
         <is>
           <t>HOME_PHONE</t>
         </is>
       </c>
-      <c r="FT3" s="3" t="inlineStr">
+      <c r="FX3" s="3" t="inlineStr">
         <is>
           <t>9172343334</t>
         </is>
       </c>
-      <c r="FU3" s="3" t="inlineStr">
+      <c r="FY3" s="3" t="inlineStr">
         <is>
           <t>WORK_PHONE</t>
         </is>
       </c>
-      <c r="FV3" s="3" t="inlineStr">
+      <c r="FZ3" s="3" t="inlineStr">
         <is>
           <t>9172341240</t>
         </is>
       </c>
-      <c r="FW3" s="3" t="inlineStr">
+      <c r="GA3" s="3" t="inlineStr">
         <is>
           <t>RESPONSIBLE_PARTY</t>
         </is>
       </c>
-      <c r="FX3" s="3" t="inlineStr">
+      <c r="GB3" s="3" t="inlineStr">
         <is>
           <t>responsiblePersonID</t>
         </is>
       </c>
-      <c r="FY3" s="3" t="inlineStr">
+      <c r="GC3" s="3" t="inlineStr">
         <is>
           <t>Responsible</t>
         </is>
       </c>
-      <c r="FZ3" s="3" t="inlineStr">
+      <c r="GD3" s="3" t="inlineStr">
         <is>
           <t>Person</t>
         </is>
       </c>
-      <c r="GA3" s="3" t="inlineStr">
+      <c r="GE3" s="3" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="GB3" s="3" t="inlineStr">
+      <c r="GF3" s="3" t="inlineStr">
         <is>
           <t>9715 RESPONSIBLE AVENUE</t>
         </is>
       </c>
-      <c r="GC3"/>
-      <c r="GD3" s="3" t="inlineStr">
+      <c r="GG3"/>
+      <c r="GH3" s="3" t="inlineStr">
         <is>
           <t>ANYTOWN</t>
         </is>
       </c>
-      <c r="GE3" s="3" t="inlineStr">
+      <c r="GI3" s="3" t="inlineStr">
         <is>
           <t>PA</t>
         </is>
       </c>
-      <c r="GF3" s="3" t="inlineStr">
+      <c r="GJ3" s="3" t="inlineStr">
         <is>
           <t>971110000</t>
         </is>
       </c>
-      <c r="GG3" s="3" t="inlineStr">
+      <c r="GK3" s="3" t="inlineStr">
         <is>
           <t>HOME_PHONE</t>
         </is>
       </c>
-      <c r="GH3" s="3" t="inlineStr">
+      <c r="GL3" s="3" t="inlineStr">
         <is>
           <t>9172343334</t>
         </is>
       </c>
-      <c r="GI3" s="3" t="inlineStr">
+      <c r="GM3" s="3" t="inlineStr">
         <is>
           <t>WORK_PHONE</t>
         </is>
       </c>
-      <c r="GJ3" s="3" t="inlineStr">
+      <c r="GN3" s="3" t="inlineStr">
         <is>
           <t>9172341240</t>
         </is>
       </c>
-      <c r="GK3"/>
-      <c r="GL3"/>
-      <c r="GM3"/>
-      <c r="GN3"/>
       <c r="GO3"/>
       <c r="GP3"/>
       <c r="GQ3"/>
@@ -4086,194 +4110,194 @@
       <c r="HJ3"/>
       <c r="HK3"/>
       <c r="HL3"/>
-      <c r="HM3" s="3" t="inlineStr">
-        <is>
-          <t>DropOff</t>
-        </is>
-      </c>
+      <c r="HM3"/>
       <c r="HN3"/>
       <c r="HO3"/>
-      <c r="HP3" s="3" t="inlineStr">
+      <c r="HP3"/>
+      <c r="HQ3" s="3" t="inlineStr">
+        <is>
+          <t>DropOff</t>
+        </is>
+      </c>
+      <c r="HR3"/>
+      <c r="HS3"/>
+      <c r="HT3" s="3" t="inlineStr">
         <is>
           <t>9715 DROPOFF AVENUE</t>
         </is>
       </c>
-      <c r="HQ3"/>
-      <c r="HR3" s="3" t="inlineStr">
+      <c r="HU3"/>
+      <c r="HV3" s="3" t="inlineStr">
         <is>
           <t>ANYTOWN</t>
         </is>
       </c>
-      <c r="HS3" s="3" t="inlineStr">
+      <c r="HW3" s="3" t="inlineStr">
         <is>
           <t>PA</t>
         </is>
       </c>
-      <c r="HT3" s="3" t="inlineStr">
+      <c r="HX3" s="3" t="inlineStr">
         <is>
           <t>971110000</t>
         </is>
       </c>
-      <c r="HU3" s="3" t="inlineStr">
+      <c r="HY3" s="3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="HV3" s="3" t="inlineStr">
+      <c r="HZ3" s="3" t="inlineStr">
         <is>
           <t>585</t>
         </is>
       </c>
-      <c r="HW3" s="4" t="n">
+      <c r="IA3" s="4" t="n">
         <v>45748.0</v>
       </c>
-      <c r="HX3" s="4" t="n">
+      <c r="IB3" s="4" t="n">
         <v>45778.0</v>
       </c>
-      <c r="HY3"/>
-      <c r="HZ3"/>
-      <c r="IA3"/>
-      <c r="IB3"/>
       <c r="IC3"/>
       <c r="ID3"/>
       <c r="IE3"/>
       <c r="IF3"/>
-      <c r="IG3" s="3" t="inlineStr">
+      <c r="IG3"/>
+      <c r="IH3"/>
+      <c r="II3"/>
+      <c r="IJ3"/>
+      <c r="IK3" s="3" t="inlineStr">
         <is>
           <t>SOUTHEASTERN UNION</t>
         </is>
       </c>
-      <c r="IH3" s="3" t="inlineStr">
+      <c r="IL3" s="3" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="II3" s="3" t="inlineStr">
+      <c r="IM3" s="3" t="inlineStr">
         <is>
           <t>UNION_NUMBER</t>
         </is>
       </c>
-      <c r="IJ3" s="3" t="inlineStr">
+      <c r="IN3" s="3" t="inlineStr">
         <is>
           <t>442</t>
         </is>
       </c>
-      <c r="IK3" s="4" t="n">
+      <c r="IO3" s="4" t="n">
         <v>45717.0</v>
       </c>
-      <c r="IL3" s="4" t="n">
+      <c r="IP3" s="4" t="n">
         <v>45808.0</v>
       </c>
-      <c r="IM3" s="3" t="inlineStr">
+      <c r="IQ3" s="3" t="inlineStr">
         <is>
           <t>PAYER2</t>
         </is>
       </c>
-      <c r="IN3" s="3" t="inlineStr">
+      <c r="IR3" s="3" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="IO3" s="3" t="inlineStr">
+      <c r="IS3" s="3" t="inlineStr">
         <is>
           <t>UNION_NUMBER</t>
         </is>
       </c>
-      <c r="IP3" s="3" t="inlineStr">
+      <c r="IT3" s="3" t="inlineStr">
         <is>
           <t>442</t>
         </is>
       </c>
-      <c r="IQ3" s="4" t="n">
+      <c r="IU3" s="4" t="n">
         <v>37987.0</v>
       </c>
-      <c r="IR3"/>
-      <c r="IS3"/>
-      <c r="IT3"/>
-      <c r="IU3"/>
       <c r="IV3"/>
       <c r="IW3"/>
       <c r="IX3"/>
-      <c r="IY3" s="3" t="inlineStr">
+      <c r="IY3"/>
+      <c r="IZ3"/>
+      <c r="JA3"/>
+      <c r="JB3"/>
+      <c r="JC3" s="3" t="inlineStr">
         <is>
           <t>021</t>
         </is>
       </c>
-      <c r="IZ3" s="3" t="inlineStr">
+      <c r="JD3" s="3" t="inlineStr">
         <is>
           <t>EPO</t>
         </is>
       </c>
-      <c r="JA3" s="3" t="inlineStr">
+      <c r="JE3" s="3" t="inlineStr">
         <is>
           <t>PlanDesc2</t>
         </is>
       </c>
-      <c r="JB3" s="3" t="inlineStr">
+      <c r="JF3" s="3" t="inlineStr">
         <is>
           <t>FAM</t>
         </is>
       </c>
-      <c r="JC3" s="3" t="inlineStr">
+      <c r="JG3" s="3" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="JD3" s="3" t="inlineStr">
+      <c r="JH3" s="3" t="inlineStr">
         <is>
           <t>348</t>
         </is>
       </c>
-      <c r="JE3" s="4" t="n">
+      <c r="JI3" s="4" t="n">
         <v>45778.0</v>
       </c>
-      <c r="JF3"/>
-      <c r="JG3"/>
-      <c r="JH3"/>
-      <c r="JI3"/>
       <c r="JJ3"/>
       <c r="JK3"/>
       <c r="JL3"/>
       <c r="JM3"/>
-      <c r="JN3" s="3" t="inlineStr">
-        <is>
-          <t>C1</t>
-        </is>
-      </c>
-      <c r="JO3" s="1" t="n">
-        <v>20.0</v>
-      </c>
+      <c r="JN3"/>
+      <c r="JO3"/>
       <c r="JP3"/>
       <c r="JQ3"/>
-      <c r="JR3"/>
-      <c r="JS3"/>
-      <c r="JT3" s="3" t="inlineStr">
-        <is>
-          <t>1L</t>
-        </is>
-      </c>
-      <c r="JU3" s="3" t="inlineStr">
-        <is>
-          <t>PolicyNumber2</t>
-        </is>
-      </c>
+      <c r="JR3" s="3" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="JS3" s="1" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="JT3"/>
+      <c r="JU3"/>
       <c r="JV3"/>
       <c r="JW3"/>
-      <c r="JX3"/>
-      <c r="JY3"/>
+      <c r="JX3" s="3" t="inlineStr">
+        <is>
+          <t>1L</t>
+        </is>
+      </c>
+      <c r="JY3" s="3" t="inlineStr">
+        <is>
+          <t>PolicyNumber2</t>
+        </is>
+      </c>
       <c r="JZ3"/>
       <c r="KA3"/>
       <c r="KB3"/>
       <c r="KC3"/>
-      <c r="KD3" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="KD3"/>
       <c r="KE3"/>
       <c r="KF3"/>
       <c r="KG3"/>
-      <c r="KH3"/>
+      <c r="KH3" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="KI3"/>
       <c r="KJ3"/>
       <c r="KK3"/>
@@ -4396,11 +4420,15 @@
       <c r="OX3"/>
       <c r="OY3"/>
       <c r="OZ3"/>
+      <c r="PA3"/>
+      <c r="PB3"/>
+      <c r="PC3"/>
+      <c r="PD3"/>
     </row>
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>684723f4cd41c01c2437b823</t>
+          <t>685d5721e29351212dc46bea</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -4836,31 +4864,31 @@
       <c r="IV4"/>
       <c r="IW4"/>
       <c r="IX4"/>
-      <c r="IY4" s="3" t="inlineStr">
-        <is>
-          <t>021</t>
-        </is>
-      </c>
-      <c r="IZ4" s="3" t="inlineStr">
-        <is>
-          <t>HMO</t>
-        </is>
-      </c>
+      <c r="IY4"/>
+      <c r="IZ4"/>
       <c r="JA4"/>
       <c r="JB4"/>
-      <c r="JC4"/>
+      <c r="JC4" s="3" t="inlineStr">
+        <is>
+          <t>021</t>
+        </is>
+      </c>
       <c r="JD4" s="3" t="inlineStr">
         <is>
-          <t>348</t>
-        </is>
-      </c>
-      <c r="JE4" s="4" t="n">
-        <v>35217.0</v>
-      </c>
+          <t>HMO</t>
+        </is>
+      </c>
+      <c r="JE4"/>
       <c r="JF4"/>
       <c r="JG4"/>
-      <c r="JH4"/>
-      <c r="JI4"/>
+      <c r="JH4" s="3" t="inlineStr">
+        <is>
+          <t>348</t>
+        </is>
+      </c>
+      <c r="JI4" s="4" t="n">
+        <v>35217.0</v>
+      </c>
       <c r="JJ4"/>
       <c r="JK4"/>
       <c r="JL4"/>
@@ -4886,58 +4914,58 @@
       <c r="KF4"/>
       <c r="KG4"/>
       <c r="KH4"/>
-      <c r="KI4" s="3" t="inlineStr">
+      <c r="KI4"/>
+      <c r="KJ4"/>
+      <c r="KK4"/>
+      <c r="KL4"/>
+      <c r="KM4" s="3" t="inlineStr">
         <is>
           <t>PRIMARY_CARE</t>
         </is>
       </c>
-      <c r="KJ4" s="3" t="inlineStr">
+      <c r="KN4" s="3" t="inlineStr">
         <is>
           <t>INDIVIDUAL</t>
         </is>
       </c>
-      <c r="KK4" s="3" t="inlineStr">
+      <c r="KO4" s="3" t="inlineStr">
         <is>
           <t>143766</t>
         </is>
       </c>
-      <c r="KL4" s="3" t="inlineStr">
+      <c r="KP4" s="3" t="inlineStr">
         <is>
           <t>BROWN</t>
         </is>
       </c>
-      <c r="KM4" s="3" t="inlineStr">
+      <c r="KQ4" s="3" t="inlineStr">
         <is>
           <t>BERNARD</t>
         </is>
       </c>
-      <c r="KN4"/>
-      <c r="KO4"/>
-      <c r="KP4"/>
-      <c r="KQ4"/>
       <c r="KR4"/>
       <c r="KS4"/>
       <c r="KT4"/>
       <c r="KU4"/>
       <c r="KV4"/>
       <c r="KW4"/>
-      <c r="KX4" s="3" t="inlineStr">
+      <c r="KX4"/>
+      <c r="KY4"/>
+      <c r="KZ4"/>
+      <c r="LA4"/>
+      <c r="LB4" s="3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="KY4" s="4" t="n">
+      <c r="LC4" s="4" t="n">
         <v>45413.0</v>
       </c>
-      <c r="KZ4" s="3" t="inlineStr">
+      <c r="LD4" s="3" t="inlineStr">
         <is>
           <t>AI</t>
         </is>
       </c>
-      <c r="LA4"/>
-      <c r="LB4"/>
-      <c r="LC4"/>
-      <c r="LD4"/>
       <c r="LE4"/>
       <c r="LF4"/>
       <c r="LG4"/>
@@ -5038,11 +5066,15 @@
       <c r="OX4"/>
       <c r="OY4"/>
       <c r="OZ4"/>
+      <c r="PA4"/>
+      <c r="PB4"/>
+      <c r="PC4"/>
+      <c r="PD4"/>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>684723f4cd41c01c2437b824</t>
+          <t>685d5721e29351212dc46beb</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
@@ -5306,18 +5338,18 @@
       <c r="CV5"/>
       <c r="CW5"/>
       <c r="CX5"/>
-      <c r="CY5" s="3" t="inlineStr">
-        <is>
-          <t>D2</t>
-        </is>
-      </c>
-      <c r="CZ5" s="1" t="n">
-        <v>100.0</v>
-      </c>
+      <c r="CY5"/>
+      <c r="CZ5"/>
       <c r="DA5"/>
       <c r="DB5"/>
-      <c r="DC5"/>
-      <c r="DD5"/>
+      <c r="DC5" s="3" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
+      <c r="DD5" s="1" t="n">
+        <v>100.0</v>
+      </c>
       <c r="DE5"/>
       <c r="DF5"/>
       <c r="DG5"/>
@@ -5626,6 +5658,10 @@
       <c r="OX5"/>
       <c r="OY5"/>
       <c r="OZ5"/>
+      <c r="PA5"/>
+      <c r="PB5"/>
+      <c r="PC5"/>
+      <c r="PD5"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/converted_files/834/834-all-fields.xlsx
+++ b/converted_files/834/834-all-fields.xlsx
@@ -2170,7 +2170,7 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>685d5721e29351212dc46be9</t>
+          <t>690141eb7c0fb18b049a02d7</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
@@ -3400,7 +3400,7 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>685d5721e29351212dc46be9</t>
+          <t>690141eb7c0fb18b049a02d7</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
@@ -4428,7 +4428,7 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>685d5721e29351212dc46bea</t>
+          <t>690141eb7c0fb18b049a02d8</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -5074,7 +5074,7 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>685d5721e29351212dc46beb</t>
+          <t>690141eb7c0fb18b049a02d9</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
